--- a/docs/issues/jarvis2-issue-schedule.xlsx
+++ b/docs/issues/jarvis2-issue-schedule.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="203">
   <si>
     <t>issueId</t>
   </si>
@@ -83,16 +83,25 @@
     <t xml:space="preserve">IssueList问题解答 </t>
   </si>
   <si>
+    <t>低</t>
+  </si>
+  <si>
     <t>无崖</t>
   </si>
   <si>
     <t>任务超过App的最大并行度时，如何处理未完成。</t>
   </si>
   <si>
+    <t>普通</t>
+  </si>
+  <si>
     <t xml:space="preserve">app追加时候，TaskManager的maxParallelismMap未更新 </t>
   </si>
   <si>
     <t>worker启动时，若注册server注册失败则启动不了。需要解耦。</t>
+  </si>
+  <si>
+    <t>高</t>
   </si>
   <si>
     <t>worker</t>
@@ -633,12 +642,12 @@
       <name val="Helvetica"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="15"/>
       <color indexed="8"/>
-      <name val="DengXian"/>
+      <name val="Verdana"/>
     </font>
     <font>
-      <sz val="15"/>
+      <sz val="12"/>
       <color indexed="8"/>
       <name val="DengXian"/>
     </font>
@@ -662,7 +671,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -671,11 +680,15 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
       <right style="thin">
         <color indexed="8"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -711,6 +724,17 @@
     </border>
     <border>
       <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="8"/>
       </left>
       <right style="thin">
@@ -723,7 +747,9 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
@@ -751,65 +777,75 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -847,10 +883,10 @@
         <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="404040"/>
+        <a:srgbClr val="A7A7A7"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="BFBFBF"/>
+        <a:srgbClr val="535353"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="499BC9"/>
@@ -889,53 +925,8 @@
         <a:cs typeface="Helvetica"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Blank">
       <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="100000"/>
-                <a:shade val="100000"/>
-                <a:satMod val="129999"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:shade val="100000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -1004,27 +995,6 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="104999"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
@@ -1050,33 +1020,6 @@
             <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="40000" dist="20000" dir="5400000">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="40000" dist="23000" dir="5400000">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="40000" dist="23000" dir="5400000">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -1131,68 +1074,21 @@
             <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
         </a:gradFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-        </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults>
     <a:spDef>
       <a:spPr>
-        <a:blipFill rotWithShape="1">
-          <a:blip r:embed="rId1"/>
-          <a:srcRect l="0" t="0" r="0" b="0"/>
-          <a:tile tx="0" ty="0" sx="100000" sy="100000" flip="none" algn="tl"/>
-        </a:blipFill>
-        <a:ln w="12700" cap="flat">
-          <a:noFill/>
-          <a:miter lim="400000"/>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
         </a:ln>
         <a:effectLst>
           <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
@@ -1201,12 +1097,13 @@
             </a:srgbClr>
           </a:outerShdw>
         </a:effectLst>
+        <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
           <a:lnSpc>
             <a:spcPct val="100000"/>
           </a:lnSpc>
@@ -1221,20 +1118,14 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
             <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
+              <a:srgbClr val="000000"/>
             </a:solidFill>
-            <a:effectLst>
-              <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="25400" dist="23998" dir="2700000">
-                <a:srgbClr val="000000">
-                  <a:alpha val="31034"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
+            <a:effectLst/>
             <a:uFillTx/>
             <a:latin typeface="+mn-lt"/>
             <a:ea typeface="+mn-ea"/>
@@ -1487,14 +1378,21 @@
     <a:lnDef>
       <a:spPr>
         <a:noFill/>
-        <a:ln w="6350" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
-            <a:srgbClr val="000000"/>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="400000"/>
+          <a:round/>
         </a:ln>
-        <a:effectLst/>
+        <a:effectLst>
+          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:srgbClr val="000000">
+              <a:alpha val="50000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:noAutofit/>
@@ -1776,12 +1674,13 @@
           <a:miter lim="400000"/>
         </a:ln>
         <a:effectLst/>
+        <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
           <a:lnSpc>
             <a:spcPct val="100000"/>
           </a:lnSpc>
@@ -2061,23 +1960,21 @@
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:L182"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="A2" xSplit="0" ySplit="1" activePane="bottomLeft" state="frozenSplit"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="16" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="2" style="1" customWidth="1"/>
     <col min="2" max="2" width="6.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="32.0391" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.3438" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.7734" style="1" customWidth="1"/>
+    <col min="3" max="3" width="45.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.75" style="1" customWidth="1"/>
     <col min="6" max="6" width="6.75" style="1" customWidth="1"/>
     <col min="7" max="7" width="9.5" style="1" customWidth="1"/>
     <col min="8" max="8" width="9.5" style="1" customWidth="1"/>
-    <col min="9" max="9" width="7.8125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="11.3438" style="1" customWidth="1"/>
-    <col min="11" max="11" width="12.1484" style="1" customWidth="1"/>
+    <col min="9" max="9" width="7.875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="11.375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.125" style="1" customWidth="1"/>
     <col min="12" max="12" width="75" style="1" customWidth="1"/>
     <col min="13" max="256" width="9.375" style="1" customWidth="1"/>
   </cols>
@@ -2126,21 +2023,21 @@
       </c>
       <c r="D2" s="9"/>
       <c r="E2" s="9"/>
-      <c r="F2" t="s" s="7">
+      <c r="F2" t="s" s="10">
         <v>11</v>
       </c>
-      <c r="G2" t="s" s="7">
+      <c r="G2" t="s" s="10">
         <v>12</v>
       </c>
-      <c r="H2" t="s" s="7">
-        <v>13</v>
-      </c>
-      <c r="I2" t="s" s="7">
+      <c r="H2" t="s" s="10">
+        <v>13</v>
+      </c>
+      <c r="I2" t="s" s="10">
         <v>14</v>
       </c>
       <c r="J2" s="9"/>
       <c r="K2" s="9"/>
-      <c r="L2" s="10"/>
+      <c r="L2" s="5"/>
     </row>
     <row r="3" ht="19" customHeight="1">
       <c r="A3" s="6"/>
@@ -2152,71 +2049,71 @@
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
-      <c r="F3" t="s" s="7">
+      <c r="F3" t="s" s="10">
         <v>11</v>
       </c>
-      <c r="G3" t="s" s="7">
+      <c r="G3" t="s" s="10">
         <v>16</v>
       </c>
-      <c r="H3" t="s" s="7">
+      <c r="H3" t="s" s="10">
         <v>17</v>
       </c>
-      <c r="I3" t="s" s="7">
+      <c r="I3" t="s" s="10">
         <v>14</v>
       </c>
       <c r="J3" s="9"/>
       <c r="K3" s="9"/>
-      <c r="L3" s="10"/>
+      <c r="L3" s="5"/>
     </row>
     <row r="4" ht="19" customHeight="1">
       <c r="A4" s="6"/>
       <c r="B4" s="7">
         <v>3</v>
       </c>
-      <c r="C4" t="s" s="7">
+      <c r="C4" t="s" s="10">
         <v>18</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
-      <c r="F4" t="s" s="7">
+      <c r="F4" t="s" s="10">
         <v>11</v>
       </c>
-      <c r="G4" t="s" s="7">
+      <c r="G4" t="s" s="10">
         <v>16</v>
       </c>
-      <c r="H4" t="s" s="7">
-        <v>13</v>
-      </c>
-      <c r="I4" t="s" s="7">
+      <c r="H4" t="s" s="10">
+        <v>13</v>
+      </c>
+      <c r="I4" t="s" s="10">
         <v>14</v>
       </c>
       <c r="J4" s="9"/>
       <c r="K4" s="9"/>
-      <c r="L4" s="10"/>
+      <c r="L4" s="5"/>
     </row>
     <row r="5" ht="19" customHeight="1">
       <c r="A5" s="6"/>
       <c r="B5" s="7">
         <v>4</v>
       </c>
-      <c r="C5" t="s" s="7">
+      <c r="C5" t="s" s="10">
         <v>19</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
-      <c r="G5" t="s" s="7">
+      <c r="G5" t="s" s="10">
         <v>16</v>
       </c>
-      <c r="H5" t="s" s="7">
+      <c r="H5" t="s" s="10">
         <v>20</v>
       </c>
-      <c r="I5" t="s" s="7">
+      <c r="I5" t="s" s="10">
         <v>21</v>
       </c>
       <c r="J5" s="9"/>
       <c r="K5" s="9"/>
-      <c r="L5" s="10"/>
+      <c r="L5" s="5"/>
     </row>
     <row r="6" ht="19" customHeight="1">
       <c r="A6" s="6"/>
@@ -2226,49 +2123,53 @@
       <c r="C6" t="s" s="8">
         <v>22</v>
       </c>
-      <c r="D6" s="9"/>
+      <c r="D6" t="s" s="10">
+        <v>23</v>
+      </c>
       <c r="E6" s="9"/>
-      <c r="F6" t="s" s="7">
+      <c r="F6" t="s" s="10">
         <v>11</v>
       </c>
-      <c r="G6" t="s" s="7">
-        <v>23</v>
-      </c>
-      <c r="H6" t="s" s="7">
-        <v>13</v>
-      </c>
-      <c r="I6" t="s" s="7">
+      <c r="G6" t="s" s="10">
+        <v>24</v>
+      </c>
+      <c r="H6" t="s" s="10">
+        <v>13</v>
+      </c>
+      <c r="I6" t="s" s="10">
         <v>14</v>
       </c>
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
-      <c r="L6" s="10"/>
+      <c r="L6" s="5"/>
     </row>
     <row r="7" ht="19" customHeight="1">
       <c r="A7" s="6"/>
       <c r="B7" s="7">
         <v>6</v>
       </c>
-      <c r="C7" t="s" s="7">
+      <c r="C7" t="s" s="10">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="E7" s="9"/>
+      <c r="F7" t="s" s="10">
+        <v>11</v>
+      </c>
+      <c r="G7" t="s" s="10">
         <v>24</v>
       </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" t="s" s="7">
-        <v>11</v>
-      </c>
-      <c r="G7" t="s" s="7">
-        <v>23</v>
-      </c>
-      <c r="H7" t="s" s="7">
-        <v>13</v>
-      </c>
-      <c r="I7" t="s" s="7">
+      <c r="H7" t="s" s="10">
+        <v>13</v>
+      </c>
+      <c r="I7" t="s" s="10">
         <v>14</v>
       </c>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
-      <c r="L7" s="10"/>
+      <c r="L7" s="5"/>
     </row>
     <row r="8" ht="33.35" customHeight="1">
       <c r="A8" s="6"/>
@@ -2276,77 +2177,81 @@
         <v>7</v>
       </c>
       <c r="C8" t="s" s="8">
-        <v>25</v>
-      </c>
-      <c r="D8" s="9"/>
+        <v>27</v>
+      </c>
+      <c r="D8" t="s" s="10">
+        <v>23</v>
+      </c>
       <c r="E8" s="9"/>
-      <c r="F8" t="s" s="7">
+      <c r="F8" t="s" s="10">
         <v>11</v>
       </c>
-      <c r="G8" t="s" s="7">
-        <v>23</v>
-      </c>
-      <c r="H8" t="s" s="7">
-        <v>13</v>
-      </c>
-      <c r="I8" t="s" s="7">
+      <c r="G8" t="s" s="10">
+        <v>24</v>
+      </c>
+      <c r="H8" t="s" s="10">
+        <v>13</v>
+      </c>
+      <c r="I8" t="s" s="10">
         <v>14</v>
       </c>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
-      <c r="L8" s="10"/>
+      <c r="L8" s="5"/>
     </row>
     <row r="9" ht="19" customHeight="1">
       <c r="A9" s="6"/>
       <c r="B9" s="7">
         <v>8</v>
       </c>
-      <c r="C9" t="s" s="7">
-        <v>26</v>
-      </c>
-      <c r="D9" s="9"/>
+      <c r="C9" t="s" s="10">
+        <v>28</v>
+      </c>
+      <c r="D9" t="s" s="10">
+        <v>29</v>
+      </c>
       <c r="E9" s="9"/>
-      <c r="F9" t="s" s="7">
+      <c r="F9" t="s" s="10">
         <v>11</v>
       </c>
-      <c r="G9" t="s" s="7">
-        <v>23</v>
-      </c>
-      <c r="H9" t="s" s="7">
-        <v>27</v>
-      </c>
-      <c r="I9" t="s" s="7">
+      <c r="G9" t="s" s="10">
+        <v>24</v>
+      </c>
+      <c r="H9" t="s" s="10">
+        <v>30</v>
+      </c>
+      <c r="I9" t="s" s="10">
         <v>14</v>
       </c>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
-      <c r="L9" s="10"/>
+      <c r="L9" s="5"/>
     </row>
     <row r="10" ht="19" customHeight="1">
       <c r="A10" s="6"/>
       <c r="B10" s="7">
         <v>9</v>
       </c>
-      <c r="C10" t="s" s="7">
-        <v>28</v>
+      <c r="C10" t="s" s="10">
+        <v>31</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
-      <c r="F10" t="s" s="7">
+      <c r="F10" t="s" s="10">
         <v>11</v>
       </c>
-      <c r="G10" t="s" s="7">
+      <c r="G10" t="s" s="10">
         <v>12</v>
       </c>
-      <c r="H10" t="s" s="7">
-        <v>13</v>
-      </c>
-      <c r="I10" t="s" s="7">
+      <c r="H10" t="s" s="10">
+        <v>13</v>
+      </c>
+      <c r="I10" t="s" s="10">
         <v>14</v>
       </c>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
-      <c r="L10" s="10"/>
+      <c r="L10" s="5"/>
     </row>
     <row r="11" ht="19" customHeight="1">
       <c r="A11" s="6"/>
@@ -2354,25 +2259,25 @@
         <v>10</v>
       </c>
       <c r="C11" t="s" s="8">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
-      <c r="F11" t="s" s="7">
+      <c r="F11" t="s" s="10">
         <v>11</v>
       </c>
-      <c r="G11" t="s" s="7">
+      <c r="G11" t="s" s="10">
         <v>12</v>
       </c>
-      <c r="H11" t="s" s="7">
-        <v>13</v>
-      </c>
-      <c r="I11" t="s" s="7">
+      <c r="H11" t="s" s="10">
+        <v>13</v>
+      </c>
+      <c r="I11" t="s" s="10">
         <v>14</v>
       </c>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
-      <c r="L11" s="10"/>
+      <c r="L11" s="5"/>
     </row>
     <row r="12" ht="33.35" customHeight="1">
       <c r="A12" s="6"/>
@@ -2380,211 +2285,211 @@
         <v>11</v>
       </c>
       <c r="C12" t="s" s="8">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
-      <c r="F12" t="s" s="7">
+      <c r="F12" t="s" s="10">
         <v>11</v>
       </c>
-      <c r="G12" t="s" s="7">
+      <c r="G12" t="s" s="10">
         <v>12</v>
       </c>
-      <c r="H12" t="s" s="7">
-        <v>13</v>
-      </c>
-      <c r="I12" t="s" s="7">
+      <c r="H12" t="s" s="10">
+        <v>13</v>
+      </c>
+      <c r="I12" t="s" s="10">
         <v>14</v>
       </c>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
-      <c r="L12" s="10"/>
+      <c r="L12" s="5"/>
     </row>
     <row r="13" ht="19" customHeight="1">
       <c r="A13" s="6"/>
       <c r="B13" s="7">
         <v>12</v>
       </c>
-      <c r="C13" t="s" s="7">
-        <v>31</v>
+      <c r="C13" t="s" s="10">
+        <v>34</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
-      <c r="F13" t="s" s="7">
+      <c r="F13" t="s" s="10">
         <v>11</v>
       </c>
-      <c r="G13" t="s" s="7">
+      <c r="G13" t="s" s="10">
         <v>12</v>
       </c>
-      <c r="H13" t="s" s="7">
-        <v>13</v>
-      </c>
-      <c r="I13" t="s" s="7">
+      <c r="H13" t="s" s="10">
+        <v>13</v>
+      </c>
+      <c r="I13" t="s" s="10">
         <v>14</v>
       </c>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
-      <c r="L13" s="10"/>
+      <c r="L13" s="5"/>
     </row>
     <row r="14" ht="19" customHeight="1">
       <c r="A14" s="6"/>
       <c r="B14" s="7">
         <v>13</v>
       </c>
-      <c r="C14" t="s" s="7">
-        <v>32</v>
+      <c r="C14" t="s" s="10">
+        <v>35</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
-      <c r="F14" t="s" s="7">
+      <c r="F14" t="s" s="10">
         <v>11</v>
       </c>
-      <c r="G14" t="s" s="7">
+      <c r="G14" t="s" s="10">
         <v>12</v>
       </c>
-      <c r="H14" t="s" s="7">
-        <v>13</v>
-      </c>
-      <c r="I14" t="s" s="7">
+      <c r="H14" t="s" s="10">
+        <v>13</v>
+      </c>
+      <c r="I14" t="s" s="10">
         <v>14</v>
       </c>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
-      <c r="L14" s="10"/>
+      <c r="L14" s="5"/>
     </row>
     <row r="15" ht="19" customHeight="1">
       <c r="A15" s="6"/>
       <c r="B15" s="7">
         <v>14</v>
       </c>
-      <c r="C15" t="s" s="7">
-        <v>33</v>
-      </c>
-      <c r="D15" s="11"/>
+      <c r="C15" t="s" s="10">
+        <v>36</v>
+      </c>
+      <c r="D15" s="7"/>
       <c r="E15" s="9"/>
-      <c r="F15" t="s" s="7">
+      <c r="F15" t="s" s="10">
         <v>11</v>
       </c>
-      <c r="G15" t="s" s="7">
+      <c r="G15" t="s" s="10">
         <v>12</v>
       </c>
-      <c r="H15" t="s" s="7">
-        <v>13</v>
-      </c>
-      <c r="I15" t="s" s="7">
+      <c r="H15" t="s" s="10">
+        <v>13</v>
+      </c>
+      <c r="I15" t="s" s="10">
         <v>14</v>
       </c>
       <c r="J15" s="7">
         <v>8</v>
       </c>
       <c r="K15" s="9"/>
-      <c r="L15" s="10"/>
+      <c r="L15" s="5"/>
     </row>
     <row r="16" ht="19" customHeight="1">
       <c r="A16" s="6"/>
       <c r="B16" s="7">
         <v>15</v>
       </c>
-      <c r="C16" t="s" s="7">
-        <v>34</v>
-      </c>
-      <c r="D16" s="11"/>
+      <c r="C16" t="s" s="10">
+        <v>37</v>
+      </c>
+      <c r="D16" s="7"/>
       <c r="E16" s="9"/>
-      <c r="F16" t="s" s="7">
+      <c r="F16" t="s" s="10">
         <v>11</v>
       </c>
-      <c r="G16" t="s" s="7">
+      <c r="G16" t="s" s="10">
         <v>12</v>
       </c>
-      <c r="H16" t="s" s="7">
-        <v>13</v>
-      </c>
-      <c r="I16" t="s" s="7">
+      <c r="H16" t="s" s="10">
+        <v>13</v>
+      </c>
+      <c r="I16" t="s" s="10">
         <v>14</v>
       </c>
       <c r="J16" s="9">
         <v>8</v>
       </c>
       <c r="K16" s="9"/>
-      <c r="L16" s="10"/>
+      <c r="L16" s="5"/>
     </row>
     <row r="17" ht="19" customHeight="1">
       <c r="A17" s="6"/>
       <c r="B17" s="7">
         <v>16</v>
       </c>
-      <c r="C17" t="s" s="7">
-        <v>35</v>
+      <c r="C17" t="s" s="10">
+        <v>38</v>
       </c>
       <c r="D17" s="9"/>
       <c r="E17" s="9"/>
-      <c r="F17" t="s" s="7">
+      <c r="F17" t="s" s="10">
         <v>11</v>
       </c>
-      <c r="G17" t="s" s="7">
+      <c r="G17" t="s" s="10">
         <v>12</v>
       </c>
-      <c r="H17" t="s" s="7">
-        <v>13</v>
-      </c>
-      <c r="I17" t="s" s="7">
+      <c r="H17" t="s" s="10">
+        <v>13</v>
+      </c>
+      <c r="I17" t="s" s="10">
         <v>14</v>
       </c>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
-      <c r="L17" s="10"/>
+      <c r="L17" s="5"/>
     </row>
     <row r="18" ht="19" customHeight="1">
       <c r="A18" s="6"/>
       <c r="B18" s="7">
         <v>17</v>
       </c>
-      <c r="C18" t="s" s="7">
-        <v>36</v>
+      <c r="C18" t="s" s="10">
+        <v>39</v>
       </c>
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
-      <c r="F18" t="s" s="7">
+      <c r="F18" t="s" s="10">
         <v>11</v>
       </c>
-      <c r="G18" t="s" s="7">
+      <c r="G18" t="s" s="10">
         <v>12</v>
       </c>
-      <c r="H18" t="s" s="7">
-        <v>13</v>
-      </c>
-      <c r="I18" t="s" s="7">
+      <c r="H18" t="s" s="10">
+        <v>13</v>
+      </c>
+      <c r="I18" t="s" s="10">
         <v>14</v>
       </c>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
-      <c r="L18" s="10"/>
+      <c r="L18" s="5"/>
     </row>
     <row r="19" ht="19" customHeight="1">
       <c r="A19" s="6"/>
       <c r="B19" s="7">
         <v>18</v>
       </c>
-      <c r="C19" t="s" s="7">
-        <v>37</v>
+      <c r="C19" t="s" s="10">
+        <v>40</v>
       </c>
       <c r="D19" s="9"/>
       <c r="E19" s="9"/>
-      <c r="F19" t="s" s="7">
+      <c r="F19" t="s" s="10">
         <v>11</v>
       </c>
-      <c r="G19" t="s" s="7">
+      <c r="G19" t="s" s="10">
         <v>12</v>
       </c>
-      <c r="H19" t="s" s="7">
-        <v>13</v>
-      </c>
-      <c r="I19" t="s" s="7">
+      <c r="H19" t="s" s="10">
+        <v>13</v>
+      </c>
+      <c r="I19" t="s" s="10">
         <v>14</v>
       </c>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
-      <c r="L19" s="10"/>
+      <c r="L19" s="5"/>
     </row>
     <row r="20" ht="31" customHeight="1">
       <c r="A20" s="6"/>
@@ -2592,235 +2497,235 @@
         <v>19</v>
       </c>
       <c r="C20" t="s" s="8">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D20" s="9"/>
       <c r="E20" s="9"/>
-      <c r="F20" t="s" s="7">
+      <c r="F20" t="s" s="10">
         <v>11</v>
       </c>
-      <c r="G20" t="s" s="7">
+      <c r="G20" t="s" s="10">
         <v>12</v>
       </c>
-      <c r="H20" t="s" s="7">
-        <v>13</v>
-      </c>
-      <c r="I20" t="s" s="7">
+      <c r="H20" t="s" s="10">
+        <v>13</v>
+      </c>
+      <c r="I20" t="s" s="10">
         <v>14</v>
       </c>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
-      <c r="L20" s="10"/>
+      <c r="L20" s="5"/>
     </row>
     <row r="21" ht="19" customHeight="1">
       <c r="A21" s="6"/>
       <c r="B21" s="7">
         <v>20</v>
       </c>
-      <c r="C21" t="s" s="7">
-        <v>39</v>
+      <c r="C21" t="s" s="10">
+        <v>42</v>
       </c>
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
-      <c r="F21" t="s" s="7">
+      <c r="F21" t="s" s="10">
         <v>11</v>
       </c>
-      <c r="G21" t="s" s="7">
+      <c r="G21" t="s" s="10">
         <v>12</v>
       </c>
-      <c r="H21" t="s" s="7">
-        <v>13</v>
-      </c>
-      <c r="I21" t="s" s="7">
+      <c r="H21" t="s" s="10">
+        <v>13</v>
+      </c>
+      <c r="I21" t="s" s="10">
         <v>14</v>
       </c>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
-      <c r="L21" s="10"/>
+      <c r="L21" s="5"/>
     </row>
     <row r="22" ht="19" customHeight="1">
       <c r="A22" s="6"/>
       <c r="B22" s="7">
         <v>21</v>
       </c>
-      <c r="C22" t="s" s="7">
-        <v>40</v>
-      </c>
-      <c r="D22" s="11"/>
+      <c r="C22" t="s" s="10">
+        <v>43</v>
+      </c>
+      <c r="D22" s="7"/>
       <c r="E22" s="9"/>
-      <c r="F22" t="s" s="7">
+      <c r="F22" t="s" s="10">
         <v>11</v>
       </c>
-      <c r="G22" t="s" s="7">
+      <c r="G22" t="s" s="10">
         <v>12</v>
       </c>
-      <c r="H22" t="s" s="7">
-        <v>13</v>
-      </c>
-      <c r="I22" t="s" s="7">
+      <c r="H22" t="s" s="10">
+        <v>13</v>
+      </c>
+      <c r="I22" t="s" s="10">
         <v>21</v>
       </c>
       <c r="J22" s="9">
         <v>24</v>
       </c>
       <c r="K22" s="9"/>
-      <c r="L22" s="10"/>
+      <c r="L22" s="5"/>
     </row>
     <row r="23" ht="19" customHeight="1">
       <c r="A23" s="6"/>
       <c r="B23" s="7">
         <v>22</v>
       </c>
-      <c r="C23" t="s" s="7">
-        <v>41</v>
-      </c>
-      <c r="D23" s="11"/>
+      <c r="C23" t="s" s="10">
+        <v>44</v>
+      </c>
+      <c r="D23" s="7"/>
       <c r="E23" s="9"/>
-      <c r="F23" t="s" s="7">
+      <c r="F23" t="s" s="10">
         <v>11</v>
       </c>
-      <c r="G23" t="s" s="7">
+      <c r="G23" t="s" s="10">
         <v>12</v>
       </c>
-      <c r="H23" t="s" s="7">
-        <v>13</v>
-      </c>
-      <c r="I23" t="s" s="7">
+      <c r="H23" t="s" s="10">
+        <v>13</v>
+      </c>
+      <c r="I23" t="s" s="10">
         <v>14</v>
       </c>
       <c r="J23" s="9">
         <v>24</v>
       </c>
       <c r="K23" s="9"/>
-      <c r="L23" s="10"/>
+      <c r="L23" s="5"/>
     </row>
     <row r="24" ht="19" customHeight="1">
       <c r="A24" s="6"/>
       <c r="B24" s="7">
         <v>23</v>
       </c>
-      <c r="C24" t="s" s="7">
-        <v>42</v>
-      </c>
-      <c r="D24" s="11"/>
+      <c r="C24" t="s" s="10">
+        <v>45</v>
+      </c>
+      <c r="D24" s="7"/>
       <c r="E24" s="9"/>
       <c r="F24" s="9"/>
-      <c r="G24" t="s" s="7">
+      <c r="G24" t="s" s="10">
         <v>12</v>
       </c>
-      <c r="H24" t="s" s="7">
-        <v>13</v>
-      </c>
-      <c r="I24" t="s" s="7">
+      <c r="H24" t="s" s="10">
+        <v>13</v>
+      </c>
+      <c r="I24" t="s" s="10">
         <v>14</v>
       </c>
       <c r="J24" s="7">
         <v>2</v>
       </c>
       <c r="K24" s="9"/>
-      <c r="L24" s="10"/>
+      <c r="L24" s="5"/>
     </row>
     <row r="25" ht="19" customHeight="1">
       <c r="A25" s="6"/>
       <c r="B25" s="7">
         <v>24</v>
       </c>
-      <c r="C25" t="s" s="7">
-        <v>43</v>
-      </c>
-      <c r="D25" s="11"/>
+      <c r="C25" t="s" s="10">
+        <v>46</v>
+      </c>
+      <c r="D25" s="7"/>
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
-      <c r="G25" t="s" s="7">
+      <c r="G25" t="s" s="10">
         <v>12</v>
       </c>
-      <c r="H25" t="s" s="7">
-        <v>13</v>
-      </c>
-      <c r="I25" t="s" s="7">
+      <c r="H25" t="s" s="10">
+        <v>13</v>
+      </c>
+      <c r="I25" t="s" s="10">
         <v>14</v>
       </c>
       <c r="J25" s="9">
         <v>8</v>
       </c>
       <c r="K25" s="9"/>
-      <c r="L25" s="10"/>
+      <c r="L25" s="5"/>
     </row>
     <row r="26" ht="19" customHeight="1">
       <c r="A26" s="6"/>
       <c r="B26" s="7">
         <v>25</v>
       </c>
-      <c r="C26" t="s" s="7">
-        <v>44</v>
-      </c>
-      <c r="D26" s="11"/>
+      <c r="C26" t="s" s="10">
+        <v>47</v>
+      </c>
+      <c r="D26" s="7"/>
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
-      <c r="G26" t="s" s="7">
+      <c r="G26" t="s" s="10">
         <v>12</v>
       </c>
-      <c r="H26" t="s" s="7">
-        <v>13</v>
-      </c>
-      <c r="I26" t="s" s="7">
+      <c r="H26" t="s" s="10">
+        <v>13</v>
+      </c>
+      <c r="I26" t="s" s="10">
         <v>14</v>
       </c>
       <c r="J26" s="9">
         <v>24</v>
       </c>
       <c r="K26" s="9"/>
-      <c r="L26" s="10"/>
+      <c r="L26" s="5"/>
     </row>
     <row r="27" ht="19" customHeight="1">
       <c r="A27" s="6"/>
       <c r="B27" s="7">
         <v>26</v>
       </c>
-      <c r="C27" t="s" s="7">
-        <v>45</v>
+      <c r="C27" t="s" s="10">
+        <v>48</v>
       </c>
       <c r="D27" s="9"/>
       <c r="E27" s="9"/>
       <c r="F27" s="9"/>
-      <c r="G27" t="s" s="7">
+      <c r="G27" t="s" s="10">
         <v>12</v>
       </c>
-      <c r="H27" t="s" s="7">
-        <v>13</v>
-      </c>
-      <c r="I27" t="s" s="7">
+      <c r="H27" t="s" s="10">
+        <v>13</v>
+      </c>
+      <c r="I27" t="s" s="10">
         <v>21</v>
       </c>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
-      <c r="L27" s="10"/>
+      <c r="L27" s="5"/>
     </row>
     <row r="28" ht="19" customHeight="1">
       <c r="A28" s="6"/>
       <c r="B28" s="7">
         <v>27</v>
       </c>
-      <c r="C28" t="s" s="7">
-        <v>46</v>
+      <c r="C28" t="s" s="10">
+        <v>49</v>
       </c>
       <c r="D28" s="9"/>
       <c r="E28" s="9"/>
-      <c r="F28" t="s" s="7">
+      <c r="F28" t="s" s="10">
         <v>11</v>
       </c>
-      <c r="G28" t="s" s="7">
+      <c r="G28" t="s" s="10">
         <v>12</v>
       </c>
-      <c r="H28" t="s" s="7">
-        <v>27</v>
-      </c>
-      <c r="I28" t="s" s="7">
+      <c r="H28" t="s" s="10">
+        <v>30</v>
+      </c>
+      <c r="I28" t="s" s="10">
         <v>14</v>
       </c>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
-      <c r="L28" s="10"/>
+      <c r="L28" s="5"/>
     </row>
     <row r="29" ht="33.35" customHeight="1">
       <c r="A29" s="6"/>
@@ -2828,25 +2733,25 @@
         <v>28</v>
       </c>
       <c r="C29" t="s" s="8">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="9"/>
-      <c r="F29" t="s" s="7">
+      <c r="F29" t="s" s="10">
         <v>11</v>
       </c>
-      <c r="G29" t="s" s="7">
+      <c r="G29" t="s" s="10">
         <v>12</v>
       </c>
-      <c r="H29" t="s" s="7">
-        <v>48</v>
-      </c>
-      <c r="I29" t="s" s="7">
+      <c r="H29" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="I29" t="s" s="10">
         <v>21</v>
       </c>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
-      <c r="L29" s="10"/>
+      <c r="L29" s="5"/>
     </row>
     <row r="30" ht="19" customHeight="1">
       <c r="A30" s="6"/>
@@ -2854,309 +2759,333 @@
         <v>29</v>
       </c>
       <c r="C30" t="s" s="8">
-        <v>49</v>
-      </c>
-      <c r="D30" s="9"/>
+        <v>52</v>
+      </c>
+      <c r="D30" t="s" s="10">
+        <v>23</v>
+      </c>
       <c r="E30" s="9"/>
-      <c r="F30" t="s" s="7">
+      <c r="F30" t="s" s="10">
         <v>11</v>
       </c>
-      <c r="G30" t="s" s="7">
-        <v>23</v>
-      </c>
-      <c r="H30" t="s" s="7">
-        <v>48</v>
-      </c>
-      <c r="I30" t="s" s="7">
+      <c r="G30" t="s" s="10">
+        <v>24</v>
+      </c>
+      <c r="H30" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="I30" t="s" s="10">
         <v>14</v>
       </c>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
-      <c r="L30" s="10"/>
+      <c r="L30" s="5"/>
     </row>
     <row r="31" ht="19" customHeight="1">
       <c r="A31" s="6"/>
       <c r="B31" s="7">
         <v>30</v>
       </c>
-      <c r="C31" t="s" s="7">
-        <v>50</v>
-      </c>
-      <c r="D31" s="9"/>
+      <c r="C31" t="s" s="10">
+        <v>53</v>
+      </c>
+      <c r="D31" t="s" s="10">
+        <v>23</v>
+      </c>
       <c r="E31" s="9"/>
-      <c r="F31" t="s" s="7">
+      <c r="F31" t="s" s="10">
         <v>11</v>
       </c>
-      <c r="G31" t="s" s="7">
-        <v>23</v>
-      </c>
-      <c r="H31" t="s" s="7">
-        <v>48</v>
-      </c>
-      <c r="I31" t="s" s="7">
+      <c r="G31" t="s" s="10">
+        <v>24</v>
+      </c>
+      <c r="H31" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="I31" t="s" s="10">
         <v>14</v>
       </c>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
-      <c r="L31" s="10"/>
+      <c r="L31" s="5"/>
     </row>
     <row r="32" ht="19" customHeight="1">
       <c r="A32" s="6"/>
       <c r="B32" s="7">
         <v>31</v>
       </c>
-      <c r="C32" t="s" s="7">
-        <v>51</v>
-      </c>
-      <c r="D32" s="9"/>
+      <c r="C32" t="s" s="10">
+        <v>54</v>
+      </c>
+      <c r="D32" t="s" s="10">
+        <v>29</v>
+      </c>
       <c r="E32" s="9"/>
       <c r="F32" s="9"/>
-      <c r="G32" t="s" s="7">
-        <v>23</v>
-      </c>
-      <c r="H32" t="s" s="7">
+      <c r="G32" t="s" s="10">
+        <v>24</v>
+      </c>
+      <c r="H32" t="s" s="10">
         <v>17</v>
       </c>
-      <c r="I32" t="s" s="7">
+      <c r="I32" t="s" s="10">
         <v>14</v>
       </c>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
-      <c r="L32" s="10"/>
+      <c r="L32" s="5"/>
     </row>
     <row r="33" ht="19" customHeight="1">
       <c r="A33" s="6"/>
       <c r="B33" s="7">
         <v>32</v>
       </c>
-      <c r="C33" t="s" s="7">
-        <v>52</v>
-      </c>
-      <c r="D33" s="11"/>
+      <c r="C33" t="s" s="10">
+        <v>55</v>
+      </c>
+      <c r="D33" t="s" s="10">
+        <v>26</v>
+      </c>
       <c r="E33" s="9"/>
       <c r="F33" s="9"/>
-      <c r="G33" t="s" s="7">
-        <v>23</v>
-      </c>
-      <c r="H33" t="s" s="7">
+      <c r="G33" t="s" s="10">
+        <v>24</v>
+      </c>
+      <c r="H33" t="s" s="10">
         <v>17</v>
       </c>
-      <c r="I33" t="s" s="7">
+      <c r="I33" t="s" s="10">
         <v>14</v>
       </c>
       <c r="J33" s="9">
         <v>24</v>
       </c>
       <c r="K33" s="9"/>
-      <c r="L33" s="10"/>
+      <c r="L33" s="5"/>
     </row>
     <row r="34" ht="19" customHeight="1">
       <c r="A34" s="6"/>
       <c r="B34" s="7">
         <v>33</v>
       </c>
-      <c r="C34" t="s" s="7">
-        <v>53</v>
-      </c>
-      <c r="D34" s="11"/>
+      <c r="C34" t="s" s="10">
+        <v>56</v>
+      </c>
+      <c r="D34" t="s" s="10">
+        <v>29</v>
+      </c>
       <c r="E34" s="9"/>
       <c r="F34" s="9"/>
-      <c r="G34" t="s" s="7">
-        <v>23</v>
-      </c>
-      <c r="H34" t="s" s="7">
-        <v>13</v>
-      </c>
-      <c r="I34" t="s" s="7">
+      <c r="G34" t="s" s="10">
+        <v>24</v>
+      </c>
+      <c r="H34" t="s" s="10">
+        <v>13</v>
+      </c>
+      <c r="I34" t="s" s="10">
         <v>14</v>
       </c>
       <c r="J34" s="7">
         <v>2</v>
       </c>
       <c r="K34" s="9"/>
-      <c r="L34" s="10"/>
+      <c r="L34" s="5"/>
     </row>
     <row r="35" ht="19" customHeight="1">
       <c r="A35" s="6"/>
       <c r="B35" s="7">
         <v>34</v>
       </c>
-      <c r="C35" t="s" s="7">
-        <v>54</v>
-      </c>
-      <c r="D35" s="11"/>
+      <c r="C35" t="s" s="10">
+        <v>57</v>
+      </c>
+      <c r="D35" t="s" s="10">
+        <v>26</v>
+      </c>
       <c r="E35" s="9"/>
       <c r="F35" s="9"/>
-      <c r="G35" t="s" s="7">
-        <v>23</v>
-      </c>
-      <c r="H35" t="s" s="7">
+      <c r="G35" t="s" s="10">
+        <v>24</v>
+      </c>
+      <c r="H35" t="s" s="10">
         <v>17</v>
       </c>
-      <c r="I35" t="s" s="7">
+      <c r="I35" t="s" s="10">
         <v>14</v>
       </c>
       <c r="J35" s="7">
         <v>1</v>
       </c>
       <c r="K35" s="9"/>
-      <c r="L35" s="10"/>
+      <c r="L35" s="5"/>
     </row>
     <row r="36" ht="19" customHeight="1">
       <c r="A36" s="6"/>
       <c r="B36" s="7">
         <v>35</v>
       </c>
-      <c r="C36" t="s" s="7">
-        <v>55</v>
-      </c>
-      <c r="D36" s="11"/>
+      <c r="C36" t="s" s="10">
+        <v>58</v>
+      </c>
+      <c r="D36" t="s" s="10">
+        <v>23</v>
+      </c>
       <c r="E36" s="9"/>
-      <c r="F36" t="s" s="7">
+      <c r="F36" t="s" s="10">
         <v>11</v>
       </c>
-      <c r="G36" t="s" s="7">
-        <v>23</v>
-      </c>
-      <c r="H36" t="s" s="7">
+      <c r="G36" t="s" s="10">
+        <v>24</v>
+      </c>
+      <c r="H36" t="s" s="10">
         <v>17</v>
       </c>
-      <c r="I36" t="s" s="7">
+      <c r="I36" t="s" s="10">
         <v>14</v>
       </c>
       <c r="J36" s="7">
         <v>1</v>
       </c>
       <c r="K36" s="9"/>
-      <c r="L36" s="10"/>
+      <c r="L36" s="5"/>
     </row>
     <row r="37" ht="19" customHeight="1">
       <c r="A37" s="6"/>
       <c r="B37" s="7">
         <v>36</v>
       </c>
-      <c r="C37" t="s" s="7">
-        <v>56</v>
-      </c>
-      <c r="D37" s="9"/>
+      <c r="C37" t="s" s="10">
+        <v>59</v>
+      </c>
+      <c r="D37" t="s" s="10">
+        <v>23</v>
+      </c>
       <c r="E37" s="9"/>
-      <c r="F37" t="s" s="7">
+      <c r="F37" t="s" s="10">
         <v>11</v>
       </c>
-      <c r="G37" t="s" s="7">
-        <v>23</v>
-      </c>
-      <c r="H37" t="s" s="7">
+      <c r="G37" t="s" s="10">
+        <v>24</v>
+      </c>
+      <c r="H37" t="s" s="10">
         <v>17</v>
       </c>
-      <c r="I37" t="s" s="7">
+      <c r="I37" t="s" s="10">
         <v>14</v>
       </c>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
-      <c r="L37" s="10"/>
+      <c r="L37" s="5"/>
     </row>
     <row r="38" ht="19" customHeight="1">
       <c r="A38" s="6"/>
       <c r="B38" s="7">
         <v>37</v>
       </c>
-      <c r="C38" t="s" s="7">
-        <v>57</v>
-      </c>
-      <c r="D38" s="9"/>
+      <c r="C38" t="s" s="10">
+        <v>60</v>
+      </c>
+      <c r="D38" t="s" s="10">
+        <v>26</v>
+      </c>
       <c r="E38" s="9"/>
       <c r="F38" s="9"/>
-      <c r="G38" t="s" s="7">
-        <v>23</v>
-      </c>
-      <c r="H38" t="s" s="7">
-        <v>48</v>
-      </c>
-      <c r="I38" t="s" s="7">
+      <c r="G38" t="s" s="10">
+        <v>24</v>
+      </c>
+      <c r="H38" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="I38" t="s" s="10">
         <v>21</v>
       </c>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
-      <c r="L38" s="10"/>
+      <c r="L38" s="5"/>
     </row>
     <row r="39" ht="19" customHeight="1">
       <c r="A39" s="6"/>
       <c r="B39" s="7">
         <v>38</v>
       </c>
-      <c r="C39" t="s" s="7">
-        <v>58</v>
-      </c>
-      <c r="D39" s="11"/>
+      <c r="C39" t="s" s="10">
+        <v>61</v>
+      </c>
+      <c r="D39" t="s" s="10">
+        <v>29</v>
+      </c>
       <c r="E39" s="9"/>
       <c r="F39" s="9"/>
-      <c r="G39" t="s" s="7">
-        <v>23</v>
-      </c>
-      <c r="H39" t="s" s="7">
+      <c r="G39" t="s" s="10">
+        <v>24</v>
+      </c>
+      <c r="H39" t="s" s="10">
         <v>17</v>
       </c>
-      <c r="I39" t="s" s="7">
+      <c r="I39" t="s" s="10">
         <v>14</v>
       </c>
       <c r="J39" s="7">
         <v>6</v>
       </c>
       <c r="K39" s="9"/>
-      <c r="L39" s="10"/>
+      <c r="L39" s="5"/>
     </row>
     <row r="40" ht="19" customHeight="1">
       <c r="A40" s="6"/>
       <c r="B40" s="7">
         <v>39</v>
       </c>
-      <c r="C40" t="s" s="7">
-        <v>59</v>
-      </c>
-      <c r="D40" s="11"/>
+      <c r="C40" t="s" s="10">
+        <v>62</v>
+      </c>
+      <c r="D40" t="s" s="10">
+        <v>26</v>
+      </c>
       <c r="E40" s="9"/>
       <c r="F40" s="9"/>
-      <c r="G40" t="s" s="7">
-        <v>23</v>
-      </c>
-      <c r="H40" t="s" s="7">
-        <v>13</v>
-      </c>
-      <c r="I40" t="s" s="7">
+      <c r="G40" t="s" s="10">
+        <v>24</v>
+      </c>
+      <c r="H40" t="s" s="10">
+        <v>13</v>
+      </c>
+      <c r="I40" t="s" s="10">
         <v>14</v>
       </c>
       <c r="J40" s="7">
         <v>6</v>
       </c>
       <c r="K40" s="9"/>
-      <c r="L40" s="10"/>
+      <c r="L40" s="5"/>
     </row>
     <row r="41" ht="19" customHeight="1">
       <c r="A41" s="6"/>
       <c r="B41" s="7">
         <v>40</v>
       </c>
-      <c r="C41" t="s" s="7">
-        <v>60</v>
-      </c>
-      <c r="D41" s="9"/>
+      <c r="C41" t="s" s="10">
+        <v>63</v>
+      </c>
+      <c r="D41" t="s" s="10">
+        <v>23</v>
+      </c>
       <c r="E41" s="9"/>
-      <c r="F41" t="s" s="7">
+      <c r="F41" t="s" s="10">
         <v>11</v>
       </c>
-      <c r="G41" t="s" s="7">
-        <v>23</v>
-      </c>
-      <c r="H41" t="s" s="7">
+      <c r="G41" t="s" s="10">
+        <v>24</v>
+      </c>
+      <c r="H41" t="s" s="10">
         <v>17</v>
       </c>
-      <c r="I41" t="s" s="7">
+      <c r="I41" t="s" s="10">
         <v>14</v>
       </c>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
-      <c r="L41" s="10"/>
+      <c r="L41" s="5"/>
     </row>
     <row r="42" ht="19" customHeight="1">
       <c r="A42" s="6"/>
@@ -3164,77 +3093,83 @@
         <v>41</v>
       </c>
       <c r="C42" t="s" s="8">
-        <v>61</v>
-      </c>
-      <c r="D42" s="9"/>
+        <v>64</v>
+      </c>
+      <c r="D42" t="s" s="10">
+        <v>23</v>
+      </c>
       <c r="E42" s="9"/>
-      <c r="F42" t="s" s="7">
+      <c r="F42" t="s" s="10">
         <v>11</v>
       </c>
-      <c r="G42" t="s" s="7">
-        <v>23</v>
-      </c>
-      <c r="H42" t="s" s="7">
+      <c r="G42" t="s" s="10">
+        <v>24</v>
+      </c>
+      <c r="H42" t="s" s="10">
         <v>17</v>
       </c>
-      <c r="I42" t="s" s="7">
+      <c r="I42" t="s" s="10">
         <v>14</v>
       </c>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
-      <c r="L42" s="10"/>
+      <c r="L42" s="5"/>
     </row>
     <row r="43" ht="19" customHeight="1">
       <c r="A43" s="6"/>
       <c r="B43" s="7">
         <v>42</v>
       </c>
-      <c r="C43" t="s" s="7">
-        <v>62</v>
-      </c>
-      <c r="D43" s="9"/>
+      <c r="C43" t="s" s="10">
+        <v>65</v>
+      </c>
+      <c r="D43" t="s" s="10">
+        <v>23</v>
+      </c>
       <c r="E43" s="9"/>
-      <c r="F43" t="s" s="7">
+      <c r="F43" t="s" s="10">
         <v>11</v>
       </c>
-      <c r="G43" t="s" s="7">
-        <v>23</v>
-      </c>
-      <c r="H43" t="s" s="7">
+      <c r="G43" t="s" s="10">
+        <v>24</v>
+      </c>
+      <c r="H43" t="s" s="10">
         <v>17</v>
       </c>
-      <c r="I43" t="s" s="7">
+      <c r="I43" t="s" s="10">
         <v>14</v>
       </c>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
-      <c r="L43" s="10"/>
+      <c r="L43" s="5"/>
     </row>
     <row r="44" ht="19" customHeight="1">
       <c r="A44" s="6"/>
       <c r="B44" s="7">
         <v>43</v>
       </c>
-      <c r="C44" t="s" s="7">
-        <v>63</v>
-      </c>
-      <c r="D44" s="9"/>
+      <c r="C44" t="s" s="10">
+        <v>66</v>
+      </c>
+      <c r="D44" t="s" s="10">
+        <v>23</v>
+      </c>
       <c r="E44" s="9"/>
-      <c r="F44" t="s" s="7">
+      <c r="F44" t="s" s="10">
         <v>11</v>
       </c>
-      <c r="G44" t="s" s="7">
-        <v>23</v>
-      </c>
-      <c r="H44" t="s" s="7">
+      <c r="G44" t="s" s="10">
+        <v>24</v>
+      </c>
+      <c r="H44" t="s" s="10">
         <v>17</v>
       </c>
-      <c r="I44" t="s" s="7">
+      <c r="I44" t="s" s="10">
         <v>14</v>
       </c>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
-      <c r="L44" s="10"/>
+      <c r="L44" s="5"/>
     </row>
     <row r="45" ht="33.35" customHeight="1">
       <c r="A45" s="6"/>
@@ -3242,2135 +3177,2181 @@
         <v>44</v>
       </c>
       <c r="C45" t="s" s="8">
-        <v>64</v>
-      </c>
-      <c r="D45" s="9"/>
+        <v>67</v>
+      </c>
+      <c r="D45" t="s" s="10">
+        <v>23</v>
+      </c>
       <c r="E45" s="9"/>
-      <c r="F45" t="s" s="7">
+      <c r="F45" t="s" s="10">
         <v>11</v>
       </c>
-      <c r="G45" t="s" s="7">
-        <v>23</v>
-      </c>
-      <c r="H45" t="s" s="7">
-        <v>13</v>
-      </c>
-      <c r="I45" t="s" s="7">
+      <c r="G45" t="s" s="10">
+        <v>24</v>
+      </c>
+      <c r="H45" t="s" s="10">
+        <v>13</v>
+      </c>
+      <c r="I45" t="s" s="10">
         <v>14</v>
       </c>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
-      <c r="L45" s="10"/>
+      <c r="L45" s="5"/>
     </row>
     <row r="46" ht="19" customHeight="1">
       <c r="A46" s="6"/>
       <c r="B46" s="7">
         <v>45</v>
       </c>
-      <c r="C46" t="s" s="7">
-        <v>65</v>
-      </c>
-      <c r="D46" s="9"/>
+      <c r="C46" t="s" s="10">
+        <v>68</v>
+      </c>
+      <c r="D46" t="s" s="10">
+        <v>23</v>
+      </c>
       <c r="E46" s="9"/>
-      <c r="F46" t="s" s="7">
+      <c r="F46" t="s" s="10">
         <v>11</v>
       </c>
-      <c r="G46" t="s" s="7">
-        <v>23</v>
-      </c>
-      <c r="H46" t="s" s="7">
+      <c r="G46" t="s" s="10">
+        <v>24</v>
+      </c>
+      <c r="H46" t="s" s="10">
         <v>17</v>
       </c>
-      <c r="I46" t="s" s="7">
+      <c r="I46" t="s" s="10">
         <v>14</v>
       </c>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
-      <c r="L46" s="10"/>
+      <c r="L46" s="5"/>
     </row>
     <row r="47" ht="19" customHeight="1">
       <c r="A47" s="6"/>
       <c r="B47" s="7">
         <v>46</v>
       </c>
-      <c r="C47" t="s" s="7">
-        <v>66</v>
-      </c>
-      <c r="D47" s="9"/>
+      <c r="C47" t="s" s="10">
+        <v>69</v>
+      </c>
+      <c r="D47" t="s" s="10">
+        <v>23</v>
+      </c>
       <c r="E47" s="9"/>
-      <c r="F47" t="s" s="7">
+      <c r="F47" t="s" s="10">
         <v>11</v>
       </c>
-      <c r="G47" t="s" s="7">
-        <v>23</v>
-      </c>
-      <c r="H47" t="s" s="7">
-        <v>13</v>
-      </c>
-      <c r="I47" t="s" s="7">
+      <c r="G47" t="s" s="10">
+        <v>24</v>
+      </c>
+      <c r="H47" t="s" s="10">
+        <v>13</v>
+      </c>
+      <c r="I47" t="s" s="10">
         <v>14</v>
       </c>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
-      <c r="L47" s="10"/>
+      <c r="L47" s="5"/>
     </row>
     <row r="48" ht="19" customHeight="1">
       <c r="A48" s="6"/>
       <c r="B48" s="7">
         <v>47</v>
       </c>
-      <c r="C48" t="s" s="7">
-        <v>67</v>
-      </c>
-      <c r="D48" s="9"/>
+      <c r="C48" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="D48" t="s" s="10">
+        <v>23</v>
+      </c>
       <c r="E48" s="9"/>
-      <c r="F48" t="s" s="7">
+      <c r="F48" t="s" s="10">
         <v>11</v>
       </c>
-      <c r="G48" t="s" s="7">
-        <v>23</v>
-      </c>
-      <c r="H48" t="s" s="7">
-        <v>48</v>
-      </c>
-      <c r="I48" t="s" s="7">
+      <c r="G48" t="s" s="10">
+        <v>24</v>
+      </c>
+      <c r="H48" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="I48" t="s" s="10">
         <v>21</v>
       </c>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
-      <c r="L48" s="10"/>
+      <c r="L48" s="5"/>
     </row>
     <row r="49" ht="19" customHeight="1">
       <c r="A49" s="6"/>
       <c r="B49" s="7">
         <v>48</v>
       </c>
-      <c r="C49" t="s" s="7">
-        <v>68</v>
-      </c>
-      <c r="D49" s="9"/>
+      <c r="C49" t="s" s="10">
+        <v>71</v>
+      </c>
+      <c r="D49" t="s" s="10">
+        <v>23</v>
+      </c>
       <c r="E49" s="9"/>
-      <c r="F49" t="s" s="7">
+      <c r="F49" t="s" s="10">
         <v>11</v>
       </c>
-      <c r="G49" t="s" s="7">
-        <v>23</v>
-      </c>
-      <c r="H49" t="s" s="7">
+      <c r="G49" t="s" s="10">
+        <v>24</v>
+      </c>
+      <c r="H49" t="s" s="10">
         <v>17</v>
       </c>
-      <c r="I49" t="s" s="7">
+      <c r="I49" t="s" s="10">
         <v>14</v>
       </c>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
-      <c r="L49" s="10"/>
+      <c r="L49" s="5"/>
     </row>
     <row r="50" ht="19" customHeight="1">
       <c r="A50" s="6"/>
       <c r="B50" s="7">
         <v>49</v>
       </c>
-      <c r="C50" t="s" s="7">
-        <v>69</v>
-      </c>
-      <c r="D50" s="9"/>
+      <c r="C50" t="s" s="10">
+        <v>72</v>
+      </c>
+      <c r="D50" t="s" s="10">
+        <v>23</v>
+      </c>
       <c r="E50" s="9"/>
-      <c r="F50" t="s" s="7">
+      <c r="F50" t="s" s="10">
         <v>11</v>
       </c>
-      <c r="G50" t="s" s="7">
-        <v>23</v>
-      </c>
-      <c r="H50" t="s" s="7">
+      <c r="G50" t="s" s="10">
+        <v>24</v>
+      </c>
+      <c r="H50" t="s" s="10">
         <v>17</v>
       </c>
-      <c r="I50" t="s" s="7">
+      <c r="I50" t="s" s="10">
         <v>14</v>
       </c>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
-      <c r="L50" s="10"/>
+      <c r="L50" s="5"/>
     </row>
     <row r="51" ht="19" customHeight="1">
       <c r="A51" s="6"/>
       <c r="B51" s="7">
         <v>50</v>
       </c>
-      <c r="C51" t="s" s="7">
-        <v>70</v>
-      </c>
-      <c r="D51" s="11"/>
+      <c r="C51" t="s" s="10">
+        <v>73</v>
+      </c>
+      <c r="D51" s="7"/>
       <c r="E51" s="9"/>
       <c r="F51" s="9"/>
-      <c r="G51" t="s" s="7">
+      <c r="G51" t="s" s="10">
         <v>12</v>
       </c>
-      <c r="H51" t="s" s="7">
-        <v>13</v>
-      </c>
-      <c r="I51" t="s" s="7">
+      <c r="H51" t="s" s="10">
+        <v>13</v>
+      </c>
+      <c r="I51" t="s" s="10">
         <v>14</v>
       </c>
       <c r="J51" s="7">
         <v>2</v>
       </c>
       <c r="K51" s="9"/>
-      <c r="L51" s="10"/>
+      <c r="L51" s="5"/>
     </row>
     <row r="52" ht="19" customHeight="1">
       <c r="A52" s="6"/>
       <c r="B52" s="7">
         <v>51</v>
       </c>
-      <c r="C52" t="s" s="7">
-        <v>71</v>
-      </c>
-      <c r="D52" s="11"/>
+      <c r="C52" t="s" s="10">
+        <v>74</v>
+      </c>
+      <c r="D52" t="s" s="10">
+        <v>26</v>
+      </c>
       <c r="E52" s="9"/>
       <c r="F52" s="9"/>
-      <c r="G52" t="s" s="7">
-        <v>23</v>
-      </c>
-      <c r="H52" t="s" s="7">
+      <c r="G52" t="s" s="10">
+        <v>24</v>
+      </c>
+      <c r="H52" t="s" s="10">
         <v>17</v>
       </c>
-      <c r="I52" t="s" s="7">
+      <c r="I52" t="s" s="10">
         <v>14</v>
       </c>
       <c r="J52" s="7">
         <v>16</v>
       </c>
       <c r="K52" s="9"/>
-      <c r="L52" s="10"/>
+      <c r="L52" s="5"/>
     </row>
     <row r="53" ht="19" customHeight="1">
       <c r="A53" s="6"/>
       <c r="B53" s="7">
         <v>52</v>
       </c>
-      <c r="C53" t="s" s="7">
-        <v>72</v>
-      </c>
-      <c r="D53" s="11"/>
+      <c r="C53" t="s" s="10">
+        <v>75</v>
+      </c>
+      <c r="D53" t="s" s="10">
+        <v>26</v>
+      </c>
       <c r="E53" s="9"/>
       <c r="F53" s="9"/>
-      <c r="G53" t="s" s="7">
-        <v>23</v>
-      </c>
-      <c r="H53" t="s" s="7">
+      <c r="G53" t="s" s="10">
+        <v>24</v>
+      </c>
+      <c r="H53" t="s" s="10">
         <v>17</v>
       </c>
-      <c r="I53" t="s" s="7">
+      <c r="I53" t="s" s="10">
         <v>14</v>
       </c>
       <c r="J53" s="7">
         <v>2</v>
       </c>
       <c r="K53" s="9"/>
-      <c r="L53" s="10"/>
+      <c r="L53" s="5"/>
     </row>
     <row r="54" ht="19" customHeight="1">
       <c r="A54" s="6"/>
       <c r="B54" s="7">
         <v>53</v>
       </c>
-      <c r="C54" t="s" s="7">
-        <v>73</v>
-      </c>
-      <c r="D54" s="9"/>
+      <c r="C54" t="s" s="10">
+        <v>76</v>
+      </c>
+      <c r="D54" t="s" s="10">
+        <v>23</v>
+      </c>
       <c r="E54" s="9"/>
-      <c r="F54" t="s" s="7">
+      <c r="F54" t="s" s="10">
         <v>11</v>
       </c>
-      <c r="G54" t="s" s="7">
-        <v>23</v>
-      </c>
-      <c r="H54" t="s" s="7">
-        <v>48</v>
-      </c>
-      <c r="I54" t="s" s="7">
+      <c r="G54" t="s" s="10">
+        <v>24</v>
+      </c>
+      <c r="H54" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="I54" t="s" s="10">
         <v>21</v>
       </c>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
-      <c r="L54" s="10"/>
+      <c r="L54" s="5"/>
     </row>
     <row r="55" ht="19" customHeight="1">
       <c r="A55" s="6"/>
       <c r="B55" s="7">
         <v>54</v>
       </c>
-      <c r="C55" t="s" s="7">
-        <v>74</v>
-      </c>
-      <c r="D55" s="9"/>
+      <c r="C55" t="s" s="10">
+        <v>77</v>
+      </c>
+      <c r="D55" t="s" s="10">
+        <v>23</v>
+      </c>
       <c r="E55" s="9"/>
       <c r="F55" s="9"/>
-      <c r="G55" t="s" s="7">
-        <v>23</v>
-      </c>
-      <c r="H55" t="s" s="7">
-        <v>48</v>
-      </c>
-      <c r="I55" t="s" s="7">
+      <c r="G55" t="s" s="10">
+        <v>24</v>
+      </c>
+      <c r="H55" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="I55" t="s" s="10">
         <v>21</v>
       </c>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
-      <c r="L55" s="10"/>
+      <c r="L55" s="5"/>
     </row>
     <row r="56" ht="19" customHeight="1">
       <c r="A56" s="6"/>
       <c r="B56" s="7">
         <v>55</v>
       </c>
-      <c r="C56" t="s" s="7">
-        <v>75</v>
-      </c>
-      <c r="D56" s="11"/>
+      <c r="C56" t="s" s="10">
+        <v>78</v>
+      </c>
+      <c r="D56" t="s" s="10">
+        <v>26</v>
+      </c>
       <c r="E56" s="9"/>
       <c r="F56" s="9"/>
-      <c r="G56" t="s" s="7">
-        <v>23</v>
-      </c>
-      <c r="H56" t="s" s="7">
-        <v>27</v>
-      </c>
-      <c r="I56" t="s" s="7">
+      <c r="G56" t="s" s="10">
+        <v>24</v>
+      </c>
+      <c r="H56" t="s" s="10">
+        <v>30</v>
+      </c>
+      <c r="I56" t="s" s="10">
         <v>14</v>
       </c>
       <c r="J56" s="7">
         <v>2</v>
       </c>
       <c r="K56" s="9"/>
-      <c r="L56" s="10"/>
+      <c r="L56" s="5"/>
     </row>
     <row r="57" ht="19" customHeight="1">
       <c r="A57" s="6"/>
       <c r="B57" s="7">
         <v>56</v>
       </c>
-      <c r="C57" t="s" s="7">
-        <v>76</v>
-      </c>
-      <c r="D57" s="11"/>
+      <c r="C57" t="s" s="10">
+        <v>79</v>
+      </c>
+      <c r="D57" s="7"/>
       <c r="E57" s="9"/>
       <c r="F57" s="9"/>
-      <c r="G57" t="s" s="7">
+      <c r="G57" t="s" s="10">
         <v>12</v>
       </c>
-      <c r="H57" t="s" s="7">
-        <v>13</v>
-      </c>
-      <c r="I57" t="s" s="7">
+      <c r="H57" t="s" s="10">
+        <v>13</v>
+      </c>
+      <c r="I57" t="s" s="10">
         <v>14</v>
       </c>
       <c r="J57" s="9">
         <v>8</v>
       </c>
       <c r="K57" s="9"/>
-      <c r="L57" s="10"/>
+      <c r="L57" s="5"/>
     </row>
     <row r="58" ht="19" customHeight="1">
       <c r="A58" s="6"/>
       <c r="B58" s="7">
         <v>57</v>
       </c>
-      <c r="C58" t="s" s="7">
-        <v>77</v>
+      <c r="C58" t="s" s="10">
+        <v>80</v>
       </c>
       <c r="D58" s="9"/>
       <c r="E58" s="9"/>
       <c r="F58" s="9"/>
-      <c r="G58" t="s" s="7">
-        <v>78</v>
-      </c>
-      <c r="H58" t="s" s="7">
-        <v>79</v>
-      </c>
-      <c r="I58" t="s" s="7">
+      <c r="G58" t="s" s="10">
+        <v>81</v>
+      </c>
+      <c r="H58" t="s" s="10">
+        <v>82</v>
+      </c>
+      <c r="I58" t="s" s="10">
         <v>14</v>
       </c>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
-      <c r="L58" s="10"/>
+      <c r="L58" s="5"/>
     </row>
     <row r="59" ht="19" customHeight="1">
       <c r="A59" s="6"/>
       <c r="B59" s="7">
         <v>58</v>
       </c>
-      <c r="C59" t="s" s="7">
-        <v>80</v>
+      <c r="C59" t="s" s="10">
+        <v>83</v>
       </c>
       <c r="D59" s="9"/>
       <c r="E59" s="9"/>
-      <c r="F59" t="s" s="7">
+      <c r="F59" t="s" s="10">
         <v>11</v>
       </c>
-      <c r="G59" t="s" s="7">
-        <v>78</v>
-      </c>
-      <c r="H59" t="s" s="7">
-        <v>79</v>
-      </c>
-      <c r="I59" t="s" s="7">
+      <c r="G59" t="s" s="10">
+        <v>81</v>
+      </c>
+      <c r="H59" t="s" s="10">
+        <v>82</v>
+      </c>
+      <c r="I59" t="s" s="10">
         <v>14</v>
       </c>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
-      <c r="L59" s="10"/>
+      <c r="L59" s="5"/>
     </row>
     <row r="60" ht="19" customHeight="1">
       <c r="A60" s="6"/>
       <c r="B60" s="7">
         <v>59</v>
       </c>
-      <c r="C60" t="s" s="7">
-        <v>81</v>
-      </c>
-      <c r="D60" s="11"/>
+      <c r="C60" t="s" s="10">
+        <v>84</v>
+      </c>
+      <c r="D60" s="7"/>
       <c r="E60" s="9"/>
       <c r="F60" s="9"/>
-      <c r="G60" t="s" s="7">
-        <v>78</v>
-      </c>
-      <c r="H60" t="s" s="7">
-        <v>79</v>
-      </c>
-      <c r="I60" t="s" s="7">
+      <c r="G60" t="s" s="10">
+        <v>81</v>
+      </c>
+      <c r="H60" t="s" s="10">
+        <v>82</v>
+      </c>
+      <c r="I60" t="s" s="10">
         <v>14</v>
       </c>
       <c r="J60" s="7">
         <v>6</v>
       </c>
       <c r="K60" s="9"/>
-      <c r="L60" s="10"/>
+      <c r="L60" s="5"/>
     </row>
     <row r="61" ht="19" customHeight="1">
       <c r="A61" s="6"/>
       <c r="B61" s="7">
         <v>60</v>
       </c>
-      <c r="C61" t="s" s="7">
-        <v>82</v>
-      </c>
-      <c r="D61" s="11"/>
+      <c r="C61" t="s" s="10">
+        <v>85</v>
+      </c>
+      <c r="D61" s="7"/>
       <c r="E61" s="9"/>
-      <c r="F61" t="s" s="7">
+      <c r="F61" t="s" s="10">
         <v>11</v>
       </c>
-      <c r="G61" t="s" s="7">
+      <c r="G61" t="s" s="10">
         <v>16</v>
       </c>
-      <c r="H61" t="s" s="7">
+      <c r="H61" t="s" s="10">
         <v>17</v>
       </c>
-      <c r="I61" t="s" s="7">
+      <c r="I61" t="s" s="10">
         <v>14</v>
       </c>
       <c r="J61" s="7">
         <v>1</v>
       </c>
       <c r="K61" s="9"/>
-      <c r="L61" s="10"/>
+      <c r="L61" s="5"/>
     </row>
     <row r="62" ht="19" customHeight="1">
       <c r="A62" s="6"/>
       <c r="B62" s="7">
         <v>61</v>
       </c>
-      <c r="C62" t="s" s="7">
-        <v>83</v>
-      </c>
-      <c r="D62" s="11"/>
+      <c r="C62" t="s" s="10">
+        <v>86</v>
+      </c>
+      <c r="D62" s="7"/>
       <c r="E62" s="9"/>
       <c r="F62" s="9"/>
-      <c r="G62" t="s" s="7">
-        <v>78</v>
-      </c>
-      <c r="H62" t="s" s="7">
-        <v>79</v>
-      </c>
-      <c r="I62" t="s" s="7">
+      <c r="G62" t="s" s="10">
+        <v>81</v>
+      </c>
+      <c r="H62" t="s" s="10">
+        <v>82</v>
+      </c>
+      <c r="I62" t="s" s="10">
         <v>14</v>
       </c>
       <c r="J62" s="7">
         <v>2</v>
       </c>
       <c r="K62" s="9"/>
-      <c r="L62" s="10"/>
+      <c r="L62" s="5"/>
     </row>
     <row r="63" ht="19" customHeight="1">
       <c r="A63" s="6"/>
       <c r="B63" s="7">
         <v>62</v>
       </c>
-      <c r="C63" t="s" s="7">
-        <v>84</v>
-      </c>
-      <c r="D63" s="11"/>
+      <c r="C63" t="s" s="10">
+        <v>87</v>
+      </c>
+      <c r="D63" s="7"/>
       <c r="E63" s="9"/>
       <c r="F63" s="9"/>
-      <c r="G63" t="s" s="7">
-        <v>78</v>
-      </c>
-      <c r="H63" t="s" s="7">
-        <v>79</v>
-      </c>
-      <c r="I63" t="s" s="7">
+      <c r="G63" t="s" s="10">
+        <v>81</v>
+      </c>
+      <c r="H63" t="s" s="10">
+        <v>82</v>
+      </c>
+      <c r="I63" t="s" s="10">
         <v>14</v>
       </c>
       <c r="J63" s="7">
         <v>2</v>
       </c>
       <c r="K63" s="9"/>
-      <c r="L63" s="10"/>
+      <c r="L63" s="5"/>
     </row>
     <row r="64" ht="19" customHeight="1">
       <c r="A64" s="6"/>
       <c r="B64" s="7">
         <v>63</v>
       </c>
-      <c r="C64" t="s" s="7">
-        <v>85</v>
-      </c>
-      <c r="D64" s="11"/>
+      <c r="C64" t="s" s="10">
+        <v>88</v>
+      </c>
+      <c r="D64" s="7"/>
       <c r="E64" s="9"/>
       <c r="F64" s="9"/>
-      <c r="G64" t="s" s="7">
-        <v>78</v>
-      </c>
-      <c r="H64" t="s" s="7">
-        <v>79</v>
-      </c>
-      <c r="I64" t="s" s="7">
+      <c r="G64" t="s" s="10">
+        <v>81</v>
+      </c>
+      <c r="H64" t="s" s="10">
+        <v>82</v>
+      </c>
+      <c r="I64" t="s" s="10">
         <v>14</v>
       </c>
       <c r="J64" s="7">
         <v>4</v>
       </c>
       <c r="K64" s="9"/>
-      <c r="L64" s="10"/>
+      <c r="L64" s="5"/>
     </row>
     <row r="65" ht="19" customHeight="1">
       <c r="A65" s="6"/>
       <c r="B65" s="7">
         <v>64</v>
       </c>
-      <c r="C65" t="s" s="7">
-        <v>86</v>
-      </c>
-      <c r="D65" s="11"/>
+      <c r="C65" t="s" s="10">
+        <v>89</v>
+      </c>
+      <c r="D65" t="s" s="10">
+        <v>29</v>
+      </c>
       <c r="E65" s="9"/>
       <c r="F65" s="9"/>
-      <c r="G65" t="s" s="7">
-        <v>23</v>
-      </c>
-      <c r="H65" t="s" s="7">
-        <v>27</v>
-      </c>
-      <c r="I65" t="s" s="7">
+      <c r="G65" t="s" s="10">
+        <v>24</v>
+      </c>
+      <c r="H65" t="s" s="10">
+        <v>30</v>
+      </c>
+      <c r="I65" t="s" s="10">
         <v>14</v>
       </c>
       <c r="J65" s="7">
         <v>4</v>
       </c>
       <c r="K65" s="9"/>
-      <c r="L65" s="10"/>
+      <c r="L65" s="5"/>
     </row>
     <row r="66" ht="19" customHeight="1">
       <c r="A66" s="6"/>
       <c r="B66" s="7">
         <v>65</v>
       </c>
-      <c r="C66" t="s" s="7">
-        <v>87</v>
+      <c r="C66" t="s" s="10">
+        <v>90</v>
       </c>
       <c r="D66" s="9"/>
       <c r="E66" s="9"/>
       <c r="F66" s="9"/>
-      <c r="G66" t="s" s="7">
-        <v>78</v>
-      </c>
-      <c r="H66" t="s" s="7">
-        <v>79</v>
-      </c>
-      <c r="I66" t="s" s="7">
+      <c r="G66" t="s" s="10">
+        <v>81</v>
+      </c>
+      <c r="H66" t="s" s="10">
+        <v>82</v>
+      </c>
+      <c r="I66" t="s" s="10">
         <v>14</v>
       </c>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
-      <c r="L66" s="10"/>
+      <c r="L66" s="5"/>
     </row>
     <row r="67" ht="19" customHeight="1">
       <c r="A67" s="6"/>
       <c r="B67" s="7">
         <v>66</v>
       </c>
-      <c r="C67" t="s" s="7">
-        <v>88</v>
+      <c r="C67" t="s" s="10">
+        <v>91</v>
       </c>
       <c r="D67" s="9"/>
       <c r="E67" s="9"/>
-      <c r="F67" t="s" s="7">
+      <c r="F67" t="s" s="10">
         <v>11</v>
       </c>
-      <c r="G67" t="s" s="7">
-        <v>78</v>
-      </c>
-      <c r="H67" t="s" s="7">
-        <v>79</v>
-      </c>
-      <c r="I67" t="s" s="7">
+      <c r="G67" t="s" s="10">
+        <v>81</v>
+      </c>
+      <c r="H67" t="s" s="10">
+        <v>82</v>
+      </c>
+      <c r="I67" t="s" s="10">
         <v>14</v>
       </c>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
-      <c r="L67" s="10"/>
+      <c r="L67" s="5"/>
     </row>
     <row r="68" ht="19" customHeight="1">
       <c r="A68" s="6"/>
       <c r="B68" s="7">
         <v>67</v>
       </c>
-      <c r="C68" t="s" s="7">
-        <v>89</v>
+      <c r="C68" t="s" s="10">
+        <v>92</v>
       </c>
       <c r="D68" s="9"/>
       <c r="E68" s="9"/>
       <c r="F68" s="9"/>
-      <c r="G68" t="s" s="7">
+      <c r="G68" t="s" s="10">
         <v>16</v>
       </c>
-      <c r="H68" t="s" s="7">
-        <v>90</v>
-      </c>
-      <c r="I68" t="s" s="7">
+      <c r="H68" t="s" s="10">
+        <v>93</v>
+      </c>
+      <c r="I68" t="s" s="10">
         <v>21</v>
       </c>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
-      <c r="L68" s="10"/>
+      <c r="L68" s="5"/>
     </row>
     <row r="69" ht="19" customHeight="1">
       <c r="A69" s="6"/>
       <c r="B69" s="7">
         <v>68</v>
       </c>
-      <c r="C69" t="s" s="7">
-        <v>91</v>
+      <c r="C69" t="s" s="10">
+        <v>94</v>
       </c>
       <c r="D69" s="9"/>
       <c r="E69" s="9"/>
-      <c r="F69" t="s" s="7">
+      <c r="F69" t="s" s="10">
         <v>11</v>
       </c>
-      <c r="G69" t="s" s="7">
+      <c r="G69" t="s" s="10">
         <v>12</v>
       </c>
-      <c r="H69" t="s" s="7">
-        <v>48</v>
-      </c>
-      <c r="I69" t="s" s="7">
+      <c r="H69" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="I69" t="s" s="10">
         <v>14</v>
       </c>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
-      <c r="L69" s="10"/>
+      <c r="L69" s="5"/>
     </row>
     <row r="70" ht="19" customHeight="1">
       <c r="A70" s="6"/>
       <c r="B70" s="7">
         <v>69</v>
       </c>
-      <c r="C70" t="s" s="7">
-        <v>92</v>
-      </c>
-      <c r="D70" s="11"/>
+      <c r="C70" t="s" s="10">
+        <v>95</v>
+      </c>
+      <c r="D70" s="7"/>
       <c r="E70" s="9"/>
       <c r="F70" s="9"/>
-      <c r="G70" t="s" s="7">
+      <c r="G70" t="s" s="10">
         <v>16</v>
       </c>
-      <c r="H70" t="s" s="7">
-        <v>90</v>
-      </c>
-      <c r="I70" t="s" s="7">
+      <c r="H70" t="s" s="10">
+        <v>93</v>
+      </c>
+      <c r="I70" t="s" s="10">
         <v>14</v>
       </c>
       <c r="J70" s="7">
         <v>6</v>
       </c>
       <c r="K70" s="9"/>
-      <c r="L70" s="10"/>
+      <c r="L70" s="5"/>
     </row>
     <row r="71" ht="19" customHeight="1">
       <c r="A71" s="6"/>
       <c r="B71" s="7">
         <v>70</v>
       </c>
-      <c r="C71" t="s" s="7">
-        <v>93</v>
-      </c>
-      <c r="D71" s="9"/>
+      <c r="C71" t="s" s="10">
+        <v>96</v>
+      </c>
+      <c r="D71" t="s" s="10">
+        <v>23</v>
+      </c>
       <c r="E71" s="9"/>
       <c r="F71" s="9"/>
-      <c r="G71" t="s" s="7">
-        <v>23</v>
-      </c>
-      <c r="H71" t="s" s="7">
+      <c r="G71" t="s" s="10">
+        <v>24</v>
+      </c>
+      <c r="H71" t="s" s="10">
         <v>17</v>
       </c>
-      <c r="I71" t="s" s="7">
+      <c r="I71" t="s" s="10">
         <v>21</v>
       </c>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
-      <c r="L71" s="10"/>
+      <c r="L71" s="5"/>
     </row>
     <row r="72" ht="19" customHeight="1">
       <c r="A72" s="6"/>
       <c r="B72" s="7">
         <v>71</v>
       </c>
-      <c r="C72" t="s" s="7">
-        <v>94</v>
-      </c>
-      <c r="D72" s="11"/>
+      <c r="C72" t="s" s="10">
+        <v>97</v>
+      </c>
+      <c r="D72" s="7"/>
       <c r="E72" s="9"/>
       <c r="F72" s="9"/>
-      <c r="G72" t="s" s="7">
+      <c r="G72" t="s" s="10">
         <v>16</v>
       </c>
-      <c r="H72" t="s" s="7">
+      <c r="H72" t="s" s="10">
         <v>20</v>
       </c>
-      <c r="I72" t="s" s="7">
+      <c r="I72" t="s" s="10">
         <v>14</v>
       </c>
       <c r="J72" s="9">
         <v>8</v>
       </c>
       <c r="K72" s="9"/>
-      <c r="L72" s="10"/>
+      <c r="L72" s="5"/>
     </row>
     <row r="73" ht="19" customHeight="1">
       <c r="A73" s="6"/>
       <c r="B73" s="7">
         <v>72</v>
       </c>
-      <c r="C73" t="s" s="7">
-        <v>95</v>
+      <c r="C73" t="s" s="10">
+        <v>98</v>
       </c>
       <c r="D73" s="9"/>
       <c r="E73" s="9"/>
-      <c r="F73" t="s" s="7">
+      <c r="F73" t="s" s="10">
         <v>11</v>
       </c>
-      <c r="G73" t="s" s="7">
+      <c r="G73" t="s" s="10">
         <v>12</v>
       </c>
-      <c r="H73" t="s" s="7">
-        <v>48</v>
-      </c>
-      <c r="I73" t="s" s="7">
+      <c r="H73" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="I73" t="s" s="10">
         <v>14</v>
       </c>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
-      <c r="L73" s="10"/>
+      <c r="L73" s="5"/>
     </row>
     <row r="74" ht="19" customHeight="1">
       <c r="A74" s="6"/>
       <c r="B74" s="7">
         <v>73</v>
       </c>
-      <c r="C74" t="s" s="7">
-        <v>96</v>
-      </c>
-      <c r="D74" s="11"/>
+      <c r="C74" t="s" s="10">
+        <v>99</v>
+      </c>
+      <c r="D74" s="7"/>
       <c r="E74" s="9"/>
       <c r="F74" s="9"/>
-      <c r="G74" t="s" s="7">
+      <c r="G74" t="s" s="10">
         <v>16</v>
       </c>
-      <c r="H74" t="s" s="7">
+      <c r="H74" t="s" s="10">
         <v>20</v>
       </c>
-      <c r="I74" t="s" s="7">
+      <c r="I74" t="s" s="10">
         <v>14</v>
       </c>
       <c r="J74" s="7">
         <v>2</v>
       </c>
       <c r="K74" s="9"/>
-      <c r="L74" s="10"/>
+      <c r="L74" s="5"/>
     </row>
     <row r="75" ht="19" customHeight="1">
       <c r="A75" s="6"/>
       <c r="B75" s="7">
         <v>74</v>
       </c>
-      <c r="C75" t="s" s="7">
-        <v>97</v>
+      <c r="C75" t="s" s="10">
+        <v>100</v>
       </c>
       <c r="D75" s="9"/>
       <c r="E75" s="9"/>
-      <c r="F75" t="s" s="7">
+      <c r="F75" t="s" s="10">
         <v>11</v>
       </c>
-      <c r="G75" t="s" s="7">
-        <v>78</v>
-      </c>
-      <c r="H75" t="s" s="7">
-        <v>79</v>
-      </c>
-      <c r="I75" t="s" s="7">
+      <c r="G75" t="s" s="10">
+        <v>81</v>
+      </c>
+      <c r="H75" t="s" s="10">
+        <v>82</v>
+      </c>
+      <c r="I75" t="s" s="10">
         <v>14</v>
       </c>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
-      <c r="L75" s="10"/>
+      <c r="L75" s="5"/>
     </row>
     <row r="76" ht="19" customHeight="1">
       <c r="A76" s="6"/>
       <c r="B76" s="7">
         <v>75</v>
       </c>
-      <c r="C76" t="s" s="7">
-        <v>98</v>
-      </c>
-      <c r="D76" s="11"/>
+      <c r="C76" t="s" s="10">
+        <v>101</v>
+      </c>
+      <c r="D76" s="7"/>
       <c r="E76" s="9"/>
-      <c r="F76" t="s" s="7">
+      <c r="F76" t="s" s="10">
         <v>11</v>
       </c>
-      <c r="G76" t="s" s="7">
+      <c r="G76" t="s" s="10">
         <v>12</v>
       </c>
-      <c r="H76" t="s" s="7">
-        <v>13</v>
-      </c>
-      <c r="I76" t="s" s="7">
+      <c r="H76" t="s" s="10">
+        <v>13</v>
+      </c>
+      <c r="I76" t="s" s="10">
         <v>14</v>
       </c>
       <c r="J76" s="9">
         <v>8</v>
       </c>
       <c r="K76" s="9"/>
-      <c r="L76" s="10"/>
+      <c r="L76" s="5"/>
     </row>
     <row r="77" ht="19" customHeight="1">
       <c r="A77" s="6"/>
       <c r="B77" s="7">
         <v>76</v>
       </c>
-      <c r="C77" t="s" s="7">
-        <v>99</v>
+      <c r="C77" t="s" s="10">
+        <v>102</v>
       </c>
       <c r="D77" s="9"/>
       <c r="E77" s="9"/>
-      <c r="F77" t="s" s="7">
+      <c r="F77" t="s" s="10">
         <v>11</v>
       </c>
-      <c r="G77" t="s" s="7">
+      <c r="G77" t="s" s="10">
         <v>12</v>
       </c>
-      <c r="H77" t="s" s="7">
-        <v>13</v>
-      </c>
-      <c r="I77" t="s" s="7">
+      <c r="H77" t="s" s="10">
+        <v>13</v>
+      </c>
+      <c r="I77" t="s" s="10">
         <v>14</v>
       </c>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
-      <c r="L77" s="10"/>
+      <c r="L77" s="5"/>
     </row>
     <row r="78" ht="19" customHeight="1">
       <c r="A78" s="6"/>
       <c r="B78" s="7">
         <v>77</v>
       </c>
-      <c r="C78" t="s" s="7">
-        <v>100</v>
-      </c>
-      <c r="D78" s="11"/>
+      <c r="C78" t="s" s="10">
+        <v>103</v>
+      </c>
+      <c r="D78" s="7"/>
       <c r="E78" s="9"/>
-      <c r="F78" t="s" s="7">
+      <c r="F78" t="s" s="10">
         <v>11</v>
       </c>
-      <c r="G78" t="s" s="7">
+      <c r="G78" t="s" s="10">
         <v>12</v>
       </c>
-      <c r="H78" t="s" s="7">
-        <v>13</v>
-      </c>
-      <c r="I78" t="s" s="7">
+      <c r="H78" t="s" s="10">
+        <v>13</v>
+      </c>
+      <c r="I78" t="s" s="10">
         <v>14</v>
       </c>
       <c r="J78" s="7">
         <v>4</v>
       </c>
       <c r="K78" s="9"/>
-      <c r="L78" s="10"/>
+      <c r="L78" s="5"/>
     </row>
     <row r="79" ht="19" customHeight="1">
       <c r="A79" s="6"/>
       <c r="B79" s="7">
         <v>78</v>
       </c>
-      <c r="C79" t="s" s="7">
-        <v>101</v>
+      <c r="C79" t="s" s="10">
+        <v>104</v>
       </c>
       <c r="D79" s="9"/>
       <c r="E79" s="9"/>
-      <c r="F79" t="s" s="7">
+      <c r="F79" t="s" s="10">
         <v>11</v>
       </c>
-      <c r="G79" t="s" s="7">
+      <c r="G79" t="s" s="10">
         <v>12</v>
       </c>
-      <c r="H79" t="s" s="7">
-        <v>13</v>
-      </c>
-      <c r="I79" t="s" s="7">
+      <c r="H79" t="s" s="10">
+        <v>13</v>
+      </c>
+      <c r="I79" t="s" s="10">
         <v>14</v>
       </c>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
-      <c r="L79" s="10"/>
+      <c r="L79" s="5"/>
     </row>
     <row r="80" ht="19" customHeight="1">
       <c r="A80" s="6"/>
       <c r="B80" s="7">
         <v>79</v>
       </c>
-      <c r="C80" t="s" s="7">
-        <v>102</v>
-      </c>
-      <c r="D80" s="11"/>
+      <c r="C80" t="s" s="10">
+        <v>105</v>
+      </c>
+      <c r="D80" s="7"/>
       <c r="E80" s="9"/>
       <c r="F80" s="9"/>
-      <c r="G80" t="s" s="7">
+      <c r="G80" t="s" s="10">
         <v>12</v>
       </c>
-      <c r="H80" t="s" s="7">
-        <v>13</v>
-      </c>
-      <c r="I80" t="s" s="7">
+      <c r="H80" t="s" s="10">
+        <v>13</v>
+      </c>
+      <c r="I80" t="s" s="10">
         <v>14</v>
       </c>
       <c r="J80" s="7">
         <v>1</v>
       </c>
       <c r="K80" s="9"/>
-      <c r="L80" s="10"/>
+      <c r="L80" s="5"/>
     </row>
     <row r="81" ht="19" customHeight="1">
       <c r="A81" s="6"/>
       <c r="B81" s="7">
         <v>80</v>
       </c>
-      <c r="C81" t="s" s="7">
-        <v>103</v>
-      </c>
-      <c r="D81" s="11"/>
+      <c r="C81" t="s" s="10">
+        <v>106</v>
+      </c>
+      <c r="D81" s="7"/>
       <c r="E81" s="9"/>
       <c r="F81" s="9"/>
-      <c r="G81" t="s" s="7">
+      <c r="G81" t="s" s="10">
         <v>16</v>
       </c>
-      <c r="H81" t="s" s="7">
+      <c r="H81" t="s" s="10">
         <v>17</v>
       </c>
-      <c r="I81" t="s" s="7">
+      <c r="I81" t="s" s="10">
         <v>14</v>
       </c>
       <c r="J81" s="7">
         <v>4</v>
       </c>
       <c r="K81" s="9"/>
-      <c r="L81" s="10"/>
+      <c r="L81" s="5"/>
     </row>
     <row r="82" ht="19" customHeight="1">
       <c r="A82" s="6"/>
       <c r="B82" s="7">
         <v>81</v>
       </c>
-      <c r="C82" t="s" s="7">
-        <v>104</v>
-      </c>
-      <c r="D82" s="11"/>
+      <c r="C82" t="s" s="10">
+        <v>107</v>
+      </c>
+      <c r="D82" s="7"/>
       <c r="E82" s="9"/>
       <c r="F82" s="9"/>
-      <c r="G82" t="s" s="7">
+      <c r="G82" t="s" s="10">
         <v>12</v>
       </c>
-      <c r="H82" t="s" s="7">
-        <v>13</v>
-      </c>
-      <c r="I82" t="s" s="7">
+      <c r="H82" t="s" s="10">
+        <v>13</v>
+      </c>
+      <c r="I82" t="s" s="10">
         <v>14</v>
       </c>
       <c r="J82" s="7">
         <v>2</v>
       </c>
       <c r="K82" s="9"/>
-      <c r="L82" s="10"/>
+      <c r="L82" s="5"/>
     </row>
     <row r="83" ht="19" customHeight="1">
       <c r="A83" s="6"/>
       <c r="B83" s="7">
         <v>82</v>
       </c>
-      <c r="C83" t="s" s="7">
-        <v>105</v>
-      </c>
-      <c r="D83" s="11"/>
+      <c r="C83" t="s" s="10">
+        <v>108</v>
+      </c>
+      <c r="D83" s="7"/>
       <c r="E83" s="9"/>
       <c r="F83" s="9"/>
-      <c r="G83" t="s" s="7">
+      <c r="G83" t="s" s="10">
         <v>16</v>
       </c>
-      <c r="H83" t="s" s="7">
+      <c r="H83" t="s" s="10">
         <v>20</v>
       </c>
-      <c r="I83" t="s" s="7">
+      <c r="I83" t="s" s="10">
         <v>14</v>
       </c>
       <c r="J83" s="7">
         <v>4</v>
       </c>
       <c r="K83" s="9"/>
-      <c r="L83" s="10"/>
+      <c r="L83" s="5"/>
     </row>
     <row r="84" ht="19" customHeight="1">
       <c r="A84" s="6"/>
       <c r="B84" s="7">
         <v>83</v>
       </c>
-      <c r="C84" t="s" s="7">
-        <v>106</v>
-      </c>
-      <c r="D84" s="11"/>
+      <c r="C84" t="s" s="10">
+        <v>109</v>
+      </c>
+      <c r="D84" s="7"/>
       <c r="E84" s="9"/>
       <c r="F84" s="9"/>
-      <c r="G84" t="s" s="7">
+      <c r="G84" t="s" s="10">
         <v>16</v>
       </c>
-      <c r="H84" t="s" s="7">
+      <c r="H84" t="s" s="10">
         <v>20</v>
       </c>
-      <c r="I84" t="s" s="7">
+      <c r="I84" t="s" s="10">
         <v>14</v>
       </c>
       <c r="J84" s="7">
         <v>4</v>
       </c>
       <c r="K84" s="9"/>
-      <c r="L84" s="10"/>
+      <c r="L84" s="5"/>
     </row>
     <row r="85" ht="19" customHeight="1">
       <c r="A85" s="6"/>
       <c r="B85" s="7">
         <v>84</v>
       </c>
-      <c r="C85" t="s" s="7">
-        <v>107</v>
+      <c r="C85" t="s" s="10">
+        <v>110</v>
       </c>
       <c r="D85" s="9"/>
       <c r="E85" s="9"/>
-      <c r="F85" t="s" s="7">
+      <c r="F85" t="s" s="10">
         <v>11</v>
       </c>
-      <c r="G85" t="s" s="7">
+      <c r="G85" t="s" s="10">
         <v>16</v>
       </c>
-      <c r="H85" t="s" s="7">
-        <v>13</v>
-      </c>
-      <c r="I85" t="s" s="7">
+      <c r="H85" t="s" s="10">
+        <v>13</v>
+      </c>
+      <c r="I85" t="s" s="10">
         <v>14</v>
       </c>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
-      <c r="L85" s="10"/>
+      <c r="L85" s="5"/>
     </row>
     <row r="86" ht="19" customHeight="1">
       <c r="A86" s="6"/>
       <c r="B86" s="7">
         <v>85</v>
       </c>
-      <c r="C86" t="s" s="7">
-        <v>108</v>
-      </c>
-      <c r="D86" s="11"/>
+      <c r="C86" t="s" s="10">
+        <v>111</v>
+      </c>
+      <c r="D86" s="7"/>
       <c r="E86" s="9"/>
       <c r="F86" s="9"/>
-      <c r="G86" t="s" s="7">
+      <c r="G86" t="s" s="10">
         <v>16</v>
       </c>
-      <c r="H86" t="s" s="7">
+      <c r="H86" t="s" s="10">
         <v>20</v>
       </c>
-      <c r="I86" t="s" s="7">
+      <c r="I86" t="s" s="10">
         <v>21</v>
       </c>
       <c r="J86" s="7">
         <v>6</v>
       </c>
       <c r="K86" s="9"/>
-      <c r="L86" s="10"/>
+      <c r="L86" s="5"/>
     </row>
     <row r="87" ht="19" customHeight="1">
       <c r="A87" s="6"/>
       <c r="B87" s="7">
         <v>86</v>
       </c>
-      <c r="C87" t="s" s="7">
-        <v>109</v>
-      </c>
-      <c r="D87" s="11"/>
+      <c r="C87" t="s" s="10">
+        <v>112</v>
+      </c>
+      <c r="D87" s="7"/>
       <c r="E87" s="9"/>
       <c r="F87" s="9"/>
-      <c r="G87" t="s" s="7">
+      <c r="G87" t="s" s="10">
         <v>16</v>
       </c>
-      <c r="H87" t="s" s="7">
+      <c r="H87" t="s" s="10">
         <v>20</v>
       </c>
-      <c r="I87" t="s" s="7">
+      <c r="I87" t="s" s="10">
         <v>14</v>
       </c>
       <c r="J87" s="9">
         <v>8</v>
       </c>
       <c r="K87" s="9"/>
-      <c r="L87" s="10"/>
+      <c r="L87" s="5"/>
     </row>
     <row r="88" ht="19" customHeight="1">
       <c r="A88" s="6"/>
       <c r="B88" s="7">
         <v>87</v>
       </c>
-      <c r="C88" t="s" s="7">
-        <v>110</v>
-      </c>
-      <c r="D88" s="11"/>
+      <c r="C88" t="s" s="10">
+        <v>113</v>
+      </c>
+      <c r="D88" s="7"/>
       <c r="E88" s="9"/>
       <c r="F88" s="9"/>
-      <c r="G88" t="s" s="7">
+      <c r="G88" t="s" s="10">
         <v>16</v>
       </c>
-      <c r="H88" t="s" s="7">
+      <c r="H88" t="s" s="10">
         <v>17</v>
       </c>
-      <c r="I88" t="s" s="7">
+      <c r="I88" t="s" s="10">
         <v>14</v>
       </c>
       <c r="J88" s="9">
         <v>16</v>
       </c>
       <c r="K88" s="9"/>
-      <c r="L88" s="10"/>
+      <c r="L88" s="5"/>
     </row>
     <row r="89" ht="19" customHeight="1">
       <c r="A89" s="6"/>
       <c r="B89" s="7">
         <v>88</v>
       </c>
-      <c r="C89" t="s" s="7">
-        <v>111</v>
-      </c>
-      <c r="D89" s="11"/>
+      <c r="C89" t="s" s="10">
+        <v>114</v>
+      </c>
+      <c r="D89" s="7"/>
       <c r="E89" s="9"/>
       <c r="F89" s="9"/>
-      <c r="G89" t="s" s="7">
+      <c r="G89" t="s" s="10">
         <v>12</v>
       </c>
-      <c r="H89" t="s" s="7">
-        <v>13</v>
-      </c>
-      <c r="I89" t="s" s="7">
+      <c r="H89" t="s" s="10">
+        <v>13</v>
+      </c>
+      <c r="I89" t="s" s="10">
         <v>14</v>
       </c>
       <c r="J89" s="9">
         <v>16</v>
       </c>
       <c r="K89" s="9"/>
-      <c r="L89" s="10"/>
+      <c r="L89" s="5"/>
     </row>
     <row r="90" ht="19" customHeight="1">
       <c r="A90" s="6"/>
       <c r="B90" s="7">
         <v>89</v>
       </c>
-      <c r="C90" t="s" s="7">
-        <v>112</v>
-      </c>
-      <c r="D90" s="11"/>
+      <c r="C90" t="s" s="10">
+        <v>115</v>
+      </c>
+      <c r="D90" s="7"/>
       <c r="E90" s="9"/>
-      <c r="F90" t="s" s="7">
+      <c r="F90" t="s" s="10">
         <v>11</v>
       </c>
-      <c r="G90" t="s" s="7">
+      <c r="G90" t="s" s="10">
         <v>12</v>
       </c>
-      <c r="H90" t="s" s="7">
-        <v>13</v>
-      </c>
-      <c r="I90" t="s" s="7">
+      <c r="H90" t="s" s="10">
+        <v>13</v>
+      </c>
+      <c r="I90" t="s" s="10">
         <v>14</v>
       </c>
       <c r="J90" s="9">
         <v>16</v>
       </c>
       <c r="K90" s="9"/>
-      <c r="L90" s="10"/>
+      <c r="L90" s="5"/>
     </row>
     <row r="91" ht="19" customHeight="1">
       <c r="A91" s="6"/>
       <c r="B91" s="7">
         <v>90</v>
       </c>
-      <c r="C91" t="s" s="7">
-        <v>113</v>
+      <c r="C91" t="s" s="10">
+        <v>116</v>
       </c>
       <c r="D91" s="9"/>
       <c r="E91" s="9"/>
       <c r="F91" s="9"/>
-      <c r="G91" t="s" s="7">
-        <v>78</v>
-      </c>
-      <c r="H91" t="s" s="7">
-        <v>79</v>
-      </c>
-      <c r="I91" t="s" s="7">
+      <c r="G91" t="s" s="10">
+        <v>81</v>
+      </c>
+      <c r="H91" t="s" s="10">
+        <v>82</v>
+      </c>
+      <c r="I91" t="s" s="10">
         <v>21</v>
       </c>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
-      <c r="L91" s="10"/>
+      <c r="L91" s="5"/>
     </row>
     <row r="92" ht="19" customHeight="1">
       <c r="A92" s="6"/>
       <c r="B92" s="7">
         <v>91</v>
       </c>
-      <c r="C92" t="s" s="7">
-        <v>114</v>
-      </c>
-      <c r="D92" s="11"/>
+      <c r="C92" t="s" s="10">
+        <v>117</v>
+      </c>
+      <c r="D92" t="s" s="10">
+        <v>23</v>
+      </c>
       <c r="E92" s="9"/>
       <c r="F92" s="9"/>
-      <c r="G92" t="s" s="7">
-        <v>23</v>
-      </c>
-      <c r="H92" t="s" s="7">
+      <c r="G92" t="s" s="10">
+        <v>24</v>
+      </c>
+      <c r="H92" t="s" s="10">
         <v>17</v>
       </c>
-      <c r="I92" t="s" s="7">
+      <c r="I92" t="s" s="10">
         <v>14</v>
       </c>
       <c r="J92" s="7">
         <v>14</v>
       </c>
       <c r="K92" s="9"/>
-      <c r="L92" s="10"/>
+      <c r="L92" s="5"/>
     </row>
     <row r="93" ht="19" customHeight="1">
       <c r="A93" s="6"/>
       <c r="B93" s="7">
         <v>92</v>
       </c>
-      <c r="C93" t="s" s="7">
-        <v>115</v>
+      <c r="C93" t="s" s="10">
+        <v>118</v>
       </c>
       <c r="D93" s="9"/>
       <c r="E93" s="9"/>
       <c r="F93" s="9"/>
       <c r="G93" s="9"/>
-      <c r="H93" t="s" s="7">
+      <c r="H93" t="s" s="10">
         <v>17</v>
       </c>
-      <c r="I93" t="s" s="7">
+      <c r="I93" t="s" s="10">
         <v>14</v>
       </c>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
-      <c r="L93" s="10"/>
+      <c r="L93" s="5"/>
     </row>
     <row r="94" ht="19" customHeight="1">
       <c r="A94" s="6"/>
       <c r="B94" s="7">
         <v>93</v>
       </c>
-      <c r="C94" t="s" s="7">
-        <v>116</v>
-      </c>
-      <c r="D94" s="11"/>
+      <c r="C94" t="s" s="10">
+        <v>119</v>
+      </c>
+      <c r="D94" s="7"/>
       <c r="E94" s="9"/>
-      <c r="F94" t="s" s="7">
+      <c r="F94" t="s" s="10">
         <v>11</v>
       </c>
-      <c r="G94" t="s" s="7">
+      <c r="G94" t="s" s="10">
         <v>12</v>
       </c>
-      <c r="H94" t="s" s="7">
-        <v>13</v>
-      </c>
-      <c r="I94" t="s" s="7">
+      <c r="H94" t="s" s="10">
+        <v>13</v>
+      </c>
+      <c r="I94" t="s" s="10">
         <v>14</v>
       </c>
       <c r="J94" s="7">
         <v>12</v>
       </c>
       <c r="K94" s="9"/>
-      <c r="L94" s="10"/>
+      <c r="L94" s="5"/>
     </row>
     <row r="95" ht="19" customHeight="1">
       <c r="A95" s="6"/>
       <c r="B95" s="7">
         <v>94</v>
       </c>
-      <c r="C95" t="s" s="7">
-        <v>117</v>
+      <c r="C95" t="s" s="10">
+        <v>120</v>
       </c>
       <c r="D95" s="9"/>
       <c r="E95" s="9"/>
       <c r="F95" s="9"/>
       <c r="G95" s="9"/>
-      <c r="H95" t="s" s="7">
-        <v>27</v>
-      </c>
-      <c r="I95" t="s" s="7">
+      <c r="H95" t="s" s="10">
+        <v>30</v>
+      </c>
+      <c r="I95" t="s" s="10">
         <v>21</v>
       </c>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
-      <c r="L95" s="10"/>
+      <c r="L95" s="5"/>
     </row>
     <row r="96" ht="19" customHeight="1">
       <c r="A96" s="6"/>
       <c r="B96" s="7">
         <v>95</v>
       </c>
-      <c r="C96" t="s" s="7">
-        <v>118</v>
-      </c>
-      <c r="D96" s="11"/>
+      <c r="C96" t="s" s="10">
+        <v>121</v>
+      </c>
+      <c r="D96" t="s" s="10">
+        <v>26</v>
+      </c>
       <c r="E96" s="9"/>
       <c r="F96" s="9"/>
-      <c r="G96" t="s" s="7">
-        <v>23</v>
-      </c>
-      <c r="H96" t="s" s="7">
-        <v>27</v>
-      </c>
-      <c r="I96" t="s" s="7">
+      <c r="G96" t="s" s="10">
+        <v>24</v>
+      </c>
+      <c r="H96" t="s" s="10">
+        <v>30</v>
+      </c>
+      <c r="I96" t="s" s="10">
         <v>14</v>
       </c>
       <c r="J96" s="9">
         <v>1</v>
       </c>
       <c r="K96" s="9"/>
-      <c r="L96" s="10"/>
+      <c r="L96" s="5"/>
     </row>
     <row r="97" ht="19" customHeight="1">
       <c r="A97" s="6"/>
       <c r="B97" s="7">
         <v>96</v>
       </c>
-      <c r="C97" t="s" s="7">
-        <v>119</v>
-      </c>
-      <c r="D97" s="11"/>
+      <c r="C97" t="s" s="10">
+        <v>122</v>
+      </c>
+      <c r="D97" s="7"/>
       <c r="E97" s="9"/>
-      <c r="F97" t="s" s="7">
+      <c r="F97" t="s" s="10">
         <v>11</v>
       </c>
-      <c r="G97" t="s" s="7">
+      <c r="G97" t="s" s="10">
         <v>12</v>
       </c>
-      <c r="H97" t="s" s="7">
-        <v>48</v>
-      </c>
-      <c r="I97" t="s" s="7">
+      <c r="H97" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="I97" t="s" s="10">
         <v>14</v>
       </c>
       <c r="J97" s="9">
         <v>2</v>
       </c>
       <c r="K97" s="9"/>
-      <c r="L97" s="10"/>
+      <c r="L97" s="5"/>
     </row>
     <row r="98" ht="19" customHeight="1">
       <c r="A98" s="6"/>
       <c r="B98" s="7">
         <v>97</v>
       </c>
-      <c r="C98" t="s" s="7">
-        <v>120</v>
-      </c>
-      <c r="D98" s="11"/>
+      <c r="C98" t="s" s="10">
+        <v>123</v>
+      </c>
+      <c r="D98" t="s" s="10">
+        <v>26</v>
+      </c>
       <c r="E98" s="9"/>
       <c r="F98" s="9"/>
-      <c r="G98" t="s" s="7">
-        <v>23</v>
-      </c>
-      <c r="H98" t="s" s="7">
-        <v>27</v>
-      </c>
-      <c r="I98" t="s" s="7">
+      <c r="G98" t="s" s="10">
+        <v>24</v>
+      </c>
+      <c r="H98" t="s" s="10">
+        <v>30</v>
+      </c>
+      <c r="I98" t="s" s="10">
         <v>14</v>
       </c>
       <c r="J98" s="9">
         <v>4</v>
       </c>
       <c r="K98" s="9"/>
-      <c r="L98" s="10"/>
+      <c r="L98" s="5"/>
     </row>
     <row r="99" ht="19" customHeight="1">
       <c r="A99" s="6"/>
       <c r="B99" s="7">
         <v>98</v>
       </c>
-      <c r="C99" t="s" s="7">
-        <v>121</v>
-      </c>
-      <c r="D99" s="11"/>
+      <c r="C99" t="s" s="10">
+        <v>124</v>
+      </c>
+      <c r="D99" s="7"/>
       <c r="E99" s="9"/>
       <c r="F99" s="9"/>
-      <c r="G99" t="s" s="7">
+      <c r="G99" t="s" s="10">
         <v>12</v>
       </c>
-      <c r="H99" t="s" s="7">
-        <v>122</v>
-      </c>
-      <c r="I99" t="s" s="7">
+      <c r="H99" t="s" s="10">
+        <v>125</v>
+      </c>
+      <c r="I99" t="s" s="10">
         <v>14</v>
       </c>
       <c r="J99" s="9">
         <v>4</v>
       </c>
       <c r="K99" s="9"/>
-      <c r="L99" s="10"/>
+      <c r="L99" s="5"/>
     </row>
     <row r="100" ht="19" customHeight="1">
       <c r="A100" s="6"/>
       <c r="B100" s="7">
         <v>99</v>
       </c>
-      <c r="C100" t="s" s="7">
-        <v>123</v>
-      </c>
-      <c r="D100" s="11"/>
+      <c r="C100" t="s" s="10">
+        <v>126</v>
+      </c>
+      <c r="D100" t="s" s="10">
+        <v>26</v>
+      </c>
       <c r="E100" s="9"/>
       <c r="F100" s="9"/>
-      <c r="G100" t="s" s="7">
-        <v>23</v>
-      </c>
-      <c r="H100" t="s" s="7">
-        <v>27</v>
-      </c>
-      <c r="I100" t="s" s="7">
+      <c r="G100" t="s" s="10">
+        <v>24</v>
+      </c>
+      <c r="H100" t="s" s="10">
+        <v>30</v>
+      </c>
+      <c r="I100" t="s" s="10">
         <v>14</v>
       </c>
       <c r="J100" s="9">
         <v>1</v>
       </c>
       <c r="K100" s="9"/>
-      <c r="L100" s="10"/>
+      <c r="L100" s="5"/>
     </row>
     <row r="101" ht="19" customHeight="1">
       <c r="A101" s="6"/>
       <c r="B101" s="7">
         <v>100</v>
       </c>
-      <c r="C101" t="s" s="7">
-        <v>124</v>
-      </c>
-      <c r="D101" s="9"/>
+      <c r="C101" t="s" s="10">
+        <v>127</v>
+      </c>
+      <c r="D101" t="s" s="10">
+        <v>26</v>
+      </c>
       <c r="E101" s="9"/>
-      <c r="F101" t="s" s="7">
+      <c r="F101" t="s" s="10">
         <v>11</v>
       </c>
-      <c r="G101" t="s" s="7">
-        <v>23</v>
-      </c>
-      <c r="H101" t="s" s="7">
-        <v>122</v>
-      </c>
-      <c r="I101" t="s" s="7">
+      <c r="G101" t="s" s="10">
+        <v>24</v>
+      </c>
+      <c r="H101" t="s" s="10">
+        <v>125</v>
+      </c>
+      <c r="I101" t="s" s="10">
         <v>14</v>
       </c>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
-      <c r="L101" s="10"/>
+      <c r="L101" s="5"/>
     </row>
     <row r="102" ht="19" customHeight="1">
       <c r="A102" s="6"/>
       <c r="B102" s="7">
         <v>101</v>
       </c>
-      <c r="C102" t="s" s="7">
-        <v>125</v>
-      </c>
-      <c r="D102" s="11"/>
+      <c r="C102" t="s" s="10">
+        <v>128</v>
+      </c>
+      <c r="D102" t="s" s="10">
+        <v>26</v>
+      </c>
       <c r="E102" s="9"/>
       <c r="F102" s="9"/>
-      <c r="G102" t="s" s="7">
-        <v>23</v>
-      </c>
-      <c r="H102" t="s" s="7">
-        <v>27</v>
-      </c>
-      <c r="I102" t="s" s="7">
+      <c r="G102" t="s" s="10">
+        <v>24</v>
+      </c>
+      <c r="H102" t="s" s="10">
+        <v>30</v>
+      </c>
+      <c r="I102" t="s" s="10">
         <v>14</v>
       </c>
       <c r="J102" s="9">
         <v>1</v>
       </c>
       <c r="K102" s="9"/>
-      <c r="L102" s="10"/>
+      <c r="L102" s="5"/>
     </row>
     <row r="103" ht="19" customHeight="1">
       <c r="A103" s="6"/>
       <c r="B103" s="7">
         <v>102</v>
       </c>
-      <c r="C103" t="s" s="7">
-        <v>126</v>
-      </c>
-      <c r="D103" s="11"/>
+      <c r="C103" t="s" s="10">
+        <v>129</v>
+      </c>
+      <c r="D103" t="s" s="10">
+        <v>23</v>
+      </c>
       <c r="E103" s="9"/>
       <c r="F103" s="9"/>
-      <c r="G103" t="s" s="7">
-        <v>23</v>
-      </c>
-      <c r="H103" t="s" s="7">
-        <v>27</v>
-      </c>
-      <c r="I103" t="s" s="7">
+      <c r="G103" t="s" s="10">
+        <v>24</v>
+      </c>
+      <c r="H103" t="s" s="10">
+        <v>30</v>
+      </c>
+      <c r="I103" t="s" s="10">
         <v>14</v>
       </c>
       <c r="J103" s="9">
         <v>2</v>
       </c>
       <c r="K103" s="9"/>
-      <c r="L103" s="10"/>
+      <c r="L103" s="5"/>
     </row>
     <row r="104" ht="19" customHeight="1">
       <c r="A104" s="6"/>
       <c r="B104" s="7">
         <v>103</v>
       </c>
-      <c r="C104" t="s" s="7">
-        <v>127</v>
-      </c>
-      <c r="D104" s="11"/>
+      <c r="C104" t="s" s="10">
+        <v>130</v>
+      </c>
+      <c r="D104" t="s" s="10">
+        <v>26</v>
+      </c>
       <c r="E104" s="9"/>
       <c r="F104" s="9"/>
-      <c r="G104" t="s" s="7">
-        <v>23</v>
-      </c>
-      <c r="H104" t="s" s="7">
-        <v>27</v>
-      </c>
-      <c r="I104" t="s" s="7">
+      <c r="G104" t="s" s="10">
+        <v>24</v>
+      </c>
+      <c r="H104" t="s" s="10">
+        <v>30</v>
+      </c>
+      <c r="I104" t="s" s="10">
         <v>14</v>
       </c>
       <c r="J104" s="9">
         <v>1</v>
       </c>
       <c r="K104" s="9"/>
-      <c r="L104" s="10"/>
+      <c r="L104" s="5"/>
     </row>
     <row r="105" ht="19" customHeight="1">
       <c r="A105" s="6"/>
       <c r="B105" s="7">
         <v>104</v>
       </c>
-      <c r="C105" t="s" s="7">
-        <v>128</v>
+      <c r="C105" t="s" s="10">
+        <v>131</v>
       </c>
       <c r="D105" s="9"/>
       <c r="E105" s="9"/>
       <c r="F105" s="9"/>
-      <c r="G105" t="s" s="7">
+      <c r="G105" t="s" s="10">
         <v>16</v>
       </c>
-      <c r="H105" t="s" s="7">
-        <v>27</v>
-      </c>
-      <c r="I105" t="s" s="7">
+      <c r="H105" t="s" s="10">
+        <v>30</v>
+      </c>
+      <c r="I105" t="s" s="10">
         <v>21</v>
       </c>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
-      <c r="L105" s="10"/>
+      <c r="L105" s="5"/>
     </row>
     <row r="106" ht="19" customHeight="1">
       <c r="A106" s="6"/>
       <c r="B106" s="7">
         <v>105</v>
       </c>
-      <c r="C106" t="s" s="7">
-        <v>129</v>
-      </c>
-      <c r="D106" s="11"/>
+      <c r="C106" t="s" s="10">
+        <v>132</v>
+      </c>
+      <c r="D106" s="7"/>
       <c r="E106" s="9"/>
       <c r="F106" s="9"/>
-      <c r="G106" t="s" s="7">
+      <c r="G106" t="s" s="10">
         <v>16</v>
       </c>
-      <c r="H106" t="s" s="7">
-        <v>27</v>
-      </c>
-      <c r="I106" t="s" s="7">
+      <c r="H106" t="s" s="10">
+        <v>30</v>
+      </c>
+      <c r="I106" t="s" s="10">
         <v>14</v>
       </c>
       <c r="J106" s="9">
         <v>2</v>
       </c>
       <c r="K106" s="9"/>
-      <c r="L106" s="10"/>
+      <c r="L106" s="5"/>
     </row>
     <row r="107" ht="19" customHeight="1">
       <c r="A107" s="6"/>
       <c r="B107" s="7">
         <v>106</v>
       </c>
-      <c r="C107" t="s" s="7">
-        <v>130</v>
-      </c>
-      <c r="D107" s="11"/>
+      <c r="C107" t="s" s="10">
+        <v>133</v>
+      </c>
+      <c r="D107" s="7"/>
       <c r="E107" s="9"/>
       <c r="F107" s="9"/>
-      <c r="G107" t="s" s="7">
+      <c r="G107" t="s" s="10">
         <v>16</v>
       </c>
-      <c r="H107" t="s" s="7">
-        <v>27</v>
-      </c>
-      <c r="I107" t="s" s="7">
+      <c r="H107" t="s" s="10">
+        <v>30</v>
+      </c>
+      <c r="I107" t="s" s="10">
         <v>14</v>
       </c>
       <c r="J107" s="9">
         <v>6</v>
       </c>
       <c r="K107" s="9"/>
-      <c r="L107" s="10"/>
+      <c r="L107" s="5"/>
     </row>
     <row r="108" ht="19" customHeight="1">
       <c r="A108" s="6"/>
       <c r="B108" s="7">
         <v>107</v>
       </c>
-      <c r="C108" t="s" s="7">
-        <v>131</v>
-      </c>
-      <c r="D108" s="11"/>
+      <c r="C108" t="s" s="10">
+        <v>134</v>
+      </c>
+      <c r="D108" s="7"/>
       <c r="E108" s="9"/>
       <c r="F108" s="9"/>
-      <c r="G108" t="s" s="7">
+      <c r="G108" t="s" s="10">
         <v>12</v>
       </c>
-      <c r="H108" t="s" s="7">
-        <v>13</v>
-      </c>
-      <c r="I108" t="s" s="7">
+      <c r="H108" t="s" s="10">
+        <v>13</v>
+      </c>
+      <c r="I108" t="s" s="10">
         <v>21</v>
       </c>
       <c r="J108" s="9">
         <v>8</v>
       </c>
       <c r="K108" s="9"/>
-      <c r="L108" s="10"/>
+      <c r="L108" s="5"/>
     </row>
     <row r="109" ht="19" customHeight="1">
       <c r="A109" s="6"/>
       <c r="B109" s="7">
         <v>108</v>
       </c>
-      <c r="C109" t="s" s="7">
-        <v>132</v>
-      </c>
-      <c r="D109" s="11"/>
+      <c r="C109" t="s" s="10">
+        <v>135</v>
+      </c>
+      <c r="D109" s="7"/>
       <c r="E109" s="9"/>
       <c r="F109" s="9"/>
-      <c r="G109" t="s" s="7">
+      <c r="G109" t="s" s="10">
         <v>12</v>
       </c>
-      <c r="H109" t="s" s="7">
-        <v>13</v>
-      </c>
-      <c r="I109" t="s" s="7">
+      <c r="H109" t="s" s="10">
+        <v>13</v>
+      </c>
+      <c r="I109" t="s" s="10">
         <v>21</v>
       </c>
       <c r="J109" s="7">
         <v>14</v>
       </c>
       <c r="K109" s="9"/>
-      <c r="L109" s="10"/>
+      <c r="L109" s="5"/>
     </row>
     <row r="110" ht="19" customHeight="1">
       <c r="A110" s="6"/>
       <c r="B110" s="7">
         <v>109</v>
       </c>
-      <c r="C110" t="s" s="7">
-        <v>133</v>
-      </c>
-      <c r="D110" s="11"/>
+      <c r="C110" t="s" s="10">
+        <v>136</v>
+      </c>
+      <c r="D110" s="7"/>
       <c r="E110" s="9"/>
       <c r="F110" s="9"/>
-      <c r="G110" t="s" s="7">
+      <c r="G110" t="s" s="10">
         <v>12</v>
       </c>
-      <c r="H110" t="s" s="7">
-        <v>13</v>
-      </c>
-      <c r="I110" t="s" s="7">
+      <c r="H110" t="s" s="10">
+        <v>13</v>
+      </c>
+      <c r="I110" t="s" s="10">
         <v>14</v>
       </c>
       <c r="J110" s="9">
         <v>4</v>
       </c>
       <c r="K110" s="9"/>
-      <c r="L110" s="10"/>
+      <c r="L110" s="5"/>
     </row>
     <row r="111" ht="19" customHeight="1">
       <c r="A111" s="6"/>
       <c r="B111" s="7">
         <v>110</v>
       </c>
-      <c r="C111" t="s" s="7">
-        <v>134</v>
-      </c>
-      <c r="D111" s="11"/>
+      <c r="C111" t="s" s="10">
+        <v>137</v>
+      </c>
+      <c r="D111" s="7"/>
       <c r="E111" s="9"/>
       <c r="F111" s="9"/>
-      <c r="G111" t="s" s="7">
+      <c r="G111" t="s" s="10">
         <v>12</v>
       </c>
-      <c r="H111" t="s" s="7">
-        <v>13</v>
-      </c>
-      <c r="I111" t="s" s="7">
+      <c r="H111" t="s" s="10">
+        <v>13</v>
+      </c>
+      <c r="I111" t="s" s="10">
         <v>14</v>
       </c>
       <c r="J111" s="9">
         <v>16</v>
       </c>
       <c r="K111" s="9"/>
-      <c r="L111" s="10"/>
+      <c r="L111" s="5"/>
     </row>
     <row r="112" ht="19" customHeight="1">
       <c r="A112" s="6"/>
       <c r="B112" s="7">
         <v>111</v>
       </c>
-      <c r="C112" t="s" s="7">
-        <v>135</v>
-      </c>
-      <c r="D112" s="9"/>
+      <c r="C112" t="s" s="10">
+        <v>138</v>
+      </c>
+      <c r="D112" t="s" s="10">
+        <v>26</v>
+      </c>
       <c r="E112" s="9"/>
       <c r="F112" s="9"/>
-      <c r="G112" t="s" s="7">
-        <v>23</v>
-      </c>
-      <c r="H112" t="s" s="7">
-        <v>13</v>
-      </c>
-      <c r="I112" t="s" s="7">
+      <c r="G112" t="s" s="10">
+        <v>24</v>
+      </c>
+      <c r="H112" t="s" s="10">
+        <v>13</v>
+      </c>
+      <c r="I112" t="s" s="10">
         <v>14</v>
       </c>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
-      <c r="L112" s="10"/>
+      <c r="L112" s="5"/>
     </row>
     <row r="113" ht="19" customHeight="1">
       <c r="A113" s="6"/>
       <c r="B113" s="7">
         <v>112</v>
       </c>
-      <c r="C113" t="s" s="7">
-        <v>136</v>
-      </c>
-      <c r="D113" s="11"/>
+      <c r="C113" t="s" s="10">
+        <v>139</v>
+      </c>
+      <c r="D113" s="7"/>
       <c r="E113" s="9"/>
       <c r="F113" s="9"/>
-      <c r="G113" t="s" s="7">
+      <c r="G113" t="s" s="10">
         <v>16</v>
       </c>
-      <c r="H113" t="s" s="7">
-        <v>90</v>
-      </c>
-      <c r="I113" t="s" s="7">
+      <c r="H113" t="s" s="10">
+        <v>93</v>
+      </c>
+      <c r="I113" t="s" s="10">
         <v>14</v>
       </c>
       <c r="J113" s="9">
         <v>6</v>
       </c>
       <c r="K113" s="9"/>
-      <c r="L113" s="10"/>
+      <c r="L113" s="5"/>
     </row>
     <row r="114" ht="19" customHeight="1">
       <c r="A114" s="6"/>
       <c r="B114" s="7">
         <v>113</v>
       </c>
-      <c r="C114" t="s" s="7">
-        <v>137</v>
-      </c>
-      <c r="D114" s="11"/>
+      <c r="C114" t="s" s="10">
+        <v>140</v>
+      </c>
+      <c r="D114" s="7"/>
       <c r="E114" s="9"/>
       <c r="F114" s="9"/>
-      <c r="G114" t="s" s="7">
+      <c r="G114" t="s" s="10">
         <v>16</v>
       </c>
-      <c r="H114" t="s" s="7">
-        <v>90</v>
-      </c>
-      <c r="I114" t="s" s="7">
+      <c r="H114" t="s" s="10">
+        <v>93</v>
+      </c>
+      <c r="I114" t="s" s="10">
         <v>14</v>
       </c>
       <c r="J114" s="9">
         <v>4</v>
       </c>
       <c r="K114" s="9"/>
-      <c r="L114" s="10"/>
+      <c r="L114" s="5"/>
     </row>
     <row r="115" ht="19" customHeight="1">
       <c r="A115" s="6"/>
       <c r="B115" s="7">
         <v>114</v>
       </c>
-      <c r="C115" t="s" s="7">
-        <v>138</v>
-      </c>
-      <c r="D115" s="11"/>
+      <c r="C115" t="s" s="10">
+        <v>141</v>
+      </c>
+      <c r="D115" s="7"/>
       <c r="E115" s="9"/>
       <c r="F115" s="9"/>
       <c r="G115" s="9"/>
-      <c r="H115" t="s" s="7">
-        <v>27</v>
-      </c>
-      <c r="I115" t="s" s="7">
+      <c r="H115" t="s" s="10">
+        <v>30</v>
+      </c>
+      <c r="I115" t="s" s="10">
         <v>14</v>
       </c>
       <c r="J115" s="9">
         <v>4</v>
       </c>
       <c r="K115" s="9"/>
-      <c r="L115" s="10"/>
+      <c r="L115" s="5"/>
     </row>
     <row r="116" ht="19" customHeight="1">
       <c r="A116" s="6"/>
       <c r="B116" s="7">
         <v>115</v>
       </c>
-      <c r="C116" t="s" s="7">
-        <v>139</v>
+      <c r="C116" t="s" s="10">
+        <v>142</v>
       </c>
       <c r="D116" s="9"/>
       <c r="E116" s="9"/>
       <c r="F116" s="9"/>
       <c r="G116" s="9"/>
-      <c r="H116" t="s" s="7">
+      <c r="H116" t="s" s="10">
         <v>17</v>
       </c>
-      <c r="I116" t="s" s="7">
+      <c r="I116" t="s" s="10">
         <v>14</v>
       </c>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
-      <c r="L116" s="10"/>
+      <c r="L116" s="5"/>
     </row>
     <row r="117" ht="19" customHeight="1">
       <c r="A117" s="6"/>
       <c r="B117" s="7">
         <v>116</v>
       </c>
-      <c r="C117" t="s" s="7">
-        <v>140</v>
-      </c>
-      <c r="D117" s="11"/>
+      <c r="C117" t="s" s="10">
+        <v>143</v>
+      </c>
+      <c r="D117" s="7"/>
       <c r="E117" s="9"/>
       <c r="F117" s="9"/>
-      <c r="G117" t="s" s="7">
+      <c r="G117" t="s" s="10">
         <v>16</v>
       </c>
-      <c r="H117" t="s" s="7">
+      <c r="H117" t="s" s="10">
         <v>17</v>
       </c>
-      <c r="I117" t="s" s="7">
+      <c r="I117" t="s" s="10">
         <v>14</v>
       </c>
       <c r="J117" s="9">
         <v>8</v>
       </c>
       <c r="K117" s="9"/>
-      <c r="L117" s="10"/>
+      <c r="L117" s="5"/>
     </row>
     <row r="118" ht="19" customHeight="1">
       <c r="A118" s="6"/>
       <c r="B118" s="7">
         <v>117</v>
       </c>
-      <c r="C118" t="s" s="7">
-        <v>141</v>
+      <c r="C118" t="s" s="10">
+        <v>144</v>
       </c>
       <c r="D118" s="9"/>
       <c r="E118" s="9"/>
       <c r="F118" s="9"/>
-      <c r="G118" t="s" s="7">
+      <c r="G118" t="s" s="10">
         <v>12</v>
       </c>
-      <c r="H118" t="s" s="7">
-        <v>13</v>
-      </c>
-      <c r="I118" t="s" s="7">
+      <c r="H118" t="s" s="10">
+        <v>13</v>
+      </c>
+      <c r="I118" t="s" s="10">
         <v>14</v>
       </c>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
-      <c r="L118" s="10"/>
+      <c r="L118" s="5"/>
     </row>
     <row r="119" ht="19" customHeight="1">
       <c r="A119" s="6"/>
       <c r="B119" s="7">
         <v>118</v>
       </c>
-      <c r="C119" t="s" s="7">
-        <v>142</v>
-      </c>
-      <c r="D119" s="9"/>
+      <c r="C119" t="s" s="10">
+        <v>145</v>
+      </c>
+      <c r="D119" t="s" s="10">
+        <v>23</v>
+      </c>
       <c r="E119" s="9"/>
-      <c r="F119" t="s" s="7">
+      <c r="F119" t="s" s="10">
         <v>11</v>
       </c>
-      <c r="G119" t="s" s="7">
-        <v>23</v>
-      </c>
-      <c r="H119" t="s" s="7">
+      <c r="G119" t="s" s="10">
+        <v>24</v>
+      </c>
+      <c r="H119" t="s" s="10">
         <v>20</v>
       </c>
-      <c r="I119" t="s" s="7">
+      <c r="I119" t="s" s="10">
         <v>14</v>
       </c>
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
-      <c r="L119" s="10"/>
+      <c r="L119" s="5"/>
     </row>
     <row r="120" ht="19" customHeight="1">
       <c r="A120" s="6"/>
       <c r="B120" s="7">
         <v>119</v>
       </c>
-      <c r="C120" t="s" s="7">
-        <v>143</v>
-      </c>
-      <c r="D120" s="11"/>
+      <c r="C120" t="s" s="10">
+        <v>146</v>
+      </c>
+      <c r="D120" s="7"/>
       <c r="E120" s="9"/>
       <c r="F120" s="9"/>
-      <c r="G120" t="s" s="7">
+      <c r="G120" t="s" s="10">
         <v>16</v>
       </c>
-      <c r="H120" t="s" s="7">
+      <c r="H120" t="s" s="10">
         <v>17</v>
       </c>
-      <c r="I120" t="s" s="7">
+      <c r="I120" t="s" s="10">
         <v>14</v>
       </c>
       <c r="J120" s="9">
         <v>8</v>
       </c>
       <c r="K120" s="9"/>
-      <c r="L120" s="10"/>
+      <c r="L120" s="5"/>
     </row>
     <row r="121" ht="19" customHeight="1">
       <c r="A121" s="6"/>
       <c r="B121" s="7">
         <v>120</v>
       </c>
-      <c r="C121" t="s" s="7">
-        <v>144</v>
+      <c r="C121" t="s" s="10">
+        <v>147</v>
       </c>
       <c r="D121" s="9"/>
       <c r="E121" s="9"/>
       <c r="F121" s="9"/>
-      <c r="G121" t="s" s="7">
-        <v>78</v>
-      </c>
-      <c r="H121" t="s" s="7">
-        <v>79</v>
-      </c>
-      <c r="I121" t="s" s="7">
+      <c r="G121" t="s" s="10">
+        <v>81</v>
+      </c>
+      <c r="H121" t="s" s="10">
+        <v>82</v>
+      </c>
+      <c r="I121" t="s" s="10">
         <v>14</v>
       </c>
       <c r="J121" s="9"/>
       <c r="K121" s="9"/>
-      <c r="L121" s="10"/>
+      <c r="L121" s="5"/>
     </row>
     <row r="122" ht="19" customHeight="1">
       <c r="A122" s="6"/>
       <c r="B122" s="7">
         <v>121</v>
       </c>
-      <c r="C122" t="s" s="7">
-        <v>145</v>
-      </c>
-      <c r="D122" s="11"/>
+      <c r="C122" t="s" s="10">
+        <v>148</v>
+      </c>
+      <c r="D122" s="7"/>
       <c r="E122" s="9"/>
       <c r="F122" s="9"/>
-      <c r="G122" t="s" s="7">
-        <v>78</v>
-      </c>
-      <c r="H122" t="s" s="7">
-        <v>79</v>
-      </c>
-      <c r="I122" t="s" s="7">
+      <c r="G122" t="s" s="10">
+        <v>81</v>
+      </c>
+      <c r="H122" t="s" s="10">
+        <v>82</v>
+      </c>
+      <c r="I122" t="s" s="10">
         <v>14</v>
       </c>
       <c r="J122" s="9">
         <v>4</v>
       </c>
       <c r="K122" s="9"/>
-      <c r="L122" s="10"/>
+      <c r="L122" s="5"/>
     </row>
     <row r="123" ht="19" customHeight="1">
       <c r="A123" s="6"/>
       <c r="B123" s="7">
         <v>122</v>
       </c>
-      <c r="C123" t="s" s="7">
-        <v>146</v>
+      <c r="C123" t="s" s="10">
+        <v>149</v>
       </c>
       <c r="D123" s="9"/>
       <c r="E123" s="9"/>
-      <c r="F123" t="s" s="7">
+      <c r="F123" t="s" s="10">
         <v>11</v>
       </c>
-      <c r="G123" t="s" s="7">
-        <v>78</v>
-      </c>
-      <c r="H123" t="s" s="7">
-        <v>79</v>
-      </c>
-      <c r="I123" t="s" s="7">
+      <c r="G123" t="s" s="10">
+        <v>81</v>
+      </c>
+      <c r="H123" t="s" s="10">
+        <v>82</v>
+      </c>
+      <c r="I123" t="s" s="10">
         <v>14</v>
       </c>
       <c r="J123" s="9"/>
       <c r="K123" s="9"/>
-      <c r="L123" s="10"/>
+      <c r="L123" s="5"/>
     </row>
     <row r="124" ht="19" customHeight="1">
       <c r="A124" s="6"/>
       <c r="B124" s="7">
         <v>123</v>
       </c>
-      <c r="C124" t="s" s="7">
-        <v>147</v>
+      <c r="C124" t="s" s="10">
+        <v>150</v>
       </c>
       <c r="D124" s="9"/>
       <c r="E124" s="9"/>
-      <c r="F124" t="s" s="7">
+      <c r="F124" t="s" s="10">
         <v>11</v>
       </c>
-      <c r="G124" t="s" s="7">
-        <v>78</v>
-      </c>
-      <c r="H124" t="s" s="7">
-        <v>79</v>
-      </c>
-      <c r="I124" t="s" s="7">
+      <c r="G124" t="s" s="10">
+        <v>81</v>
+      </c>
+      <c r="H124" t="s" s="10">
+        <v>82</v>
+      </c>
+      <c r="I124" t="s" s="10">
         <v>14</v>
       </c>
       <c r="J124" s="9"/>
       <c r="K124" s="9"/>
-      <c r="L124" s="10"/>
+      <c r="L124" s="5"/>
     </row>
     <row r="125" ht="19" customHeight="1">
       <c r="A125" s="6"/>
       <c r="B125" s="7">
         <v>124</v>
       </c>
-      <c r="C125" t="s" s="7">
-        <v>148</v>
-      </c>
-      <c r="D125" s="11"/>
+      <c r="C125" t="s" s="10">
+        <v>151</v>
+      </c>
+      <c r="D125" s="7"/>
       <c r="E125" s="9"/>
       <c r="F125" s="9"/>
-      <c r="G125" t="s" s="7">
+      <c r="G125" t="s" s="10">
         <v>16</v>
       </c>
-      <c r="H125" t="s" s="7">
+      <c r="H125" t="s" s="10">
         <v>20</v>
       </c>
-      <c r="I125" t="s" s="7">
+      <c r="I125" t="s" s="10">
         <v>14</v>
       </c>
       <c r="J125" s="9">
         <v>8</v>
       </c>
       <c r="K125" s="9"/>
-      <c r="L125" s="10"/>
+      <c r="L125" s="5"/>
     </row>
     <row r="126" ht="19" customHeight="1">
       <c r="A126" s="6"/>
       <c r="B126" s="7">
         <v>125</v>
       </c>
-      <c r="C126" t="s" s="7">
-        <v>149</v>
-      </c>
-      <c r="D126" s="11"/>
+      <c r="C126" t="s" s="10">
+        <v>152</v>
+      </c>
+      <c r="D126" s="7"/>
       <c r="E126" s="9"/>
       <c r="F126" s="9"/>
-      <c r="G126" t="s" s="7">
-        <v>78</v>
-      </c>
-      <c r="H126" t="s" s="7">
-        <v>79</v>
-      </c>
-      <c r="I126" t="s" s="7">
+      <c r="G126" t="s" s="10">
+        <v>81</v>
+      </c>
+      <c r="H126" t="s" s="10">
+        <v>82</v>
+      </c>
+      <c r="I126" t="s" s="10">
         <v>14</v>
       </c>
       <c r="J126" s="9">
         <v>4</v>
       </c>
       <c r="K126" s="9"/>
-      <c r="L126" s="10"/>
+      <c r="L126" s="5"/>
     </row>
     <row r="127" ht="19" customHeight="1">
       <c r="A127" s="6"/>
       <c r="B127" s="7">
         <v>126</v>
       </c>
-      <c r="C127" t="s" s="7">
-        <v>150</v>
-      </c>
-      <c r="D127" s="11"/>
+      <c r="C127" t="s" s="10">
+        <v>153</v>
+      </c>
+      <c r="D127" s="7"/>
       <c r="E127" s="9"/>
       <c r="F127" s="9"/>
-      <c r="G127" t="s" s="7">
-        <v>78</v>
-      </c>
-      <c r="H127" t="s" s="7">
-        <v>79</v>
-      </c>
-      <c r="I127" t="s" s="7">
+      <c r="G127" t="s" s="10">
+        <v>81</v>
+      </c>
+      <c r="H127" t="s" s="10">
+        <v>82</v>
+      </c>
+      <c r="I127" t="s" s="10">
         <v>14</v>
       </c>
       <c r="J127" s="9">
         <v>8</v>
       </c>
       <c r="K127" s="9"/>
-      <c r="L127" s="10"/>
+      <c r="L127" s="5"/>
     </row>
     <row r="128" ht="31" customHeight="1">
       <c r="A128" s="6"/>
@@ -5378,401 +5359,413 @@
         <v>127</v>
       </c>
       <c r="C128" t="s" s="8">
-        <v>151</v>
-      </c>
-      <c r="D128" s="11"/>
+        <v>154</v>
+      </c>
+      <c r="D128" s="7"/>
       <c r="E128" s="9"/>
       <c r="F128" s="9"/>
-      <c r="G128" t="s" s="7">
+      <c r="G128" t="s" s="10">
         <v>12</v>
       </c>
-      <c r="H128" t="s" s="7">
-        <v>13</v>
-      </c>
-      <c r="I128" t="s" s="7">
+      <c r="H128" t="s" s="10">
+        <v>13</v>
+      </c>
+      <c r="I128" t="s" s="10">
         <v>14</v>
       </c>
       <c r="J128" s="9">
         <v>1</v>
       </c>
       <c r="K128" s="9"/>
-      <c r="L128" s="10"/>
+      <c r="L128" s="5"/>
     </row>
     <row r="129" ht="19" customHeight="1">
       <c r="A129" s="6"/>
       <c r="B129" s="7">
         <v>128</v>
       </c>
-      <c r="C129" t="s" s="7">
-        <v>152</v>
-      </c>
-      <c r="D129" s="9"/>
+      <c r="C129" t="s" s="10">
+        <v>155</v>
+      </c>
+      <c r="D129" t="s" s="10">
+        <v>26</v>
+      </c>
       <c r="E129" s="9"/>
       <c r="F129" s="9"/>
-      <c r="G129" t="s" s="7">
-        <v>23</v>
-      </c>
-      <c r="H129" t="s" s="7">
+      <c r="G129" t="s" s="10">
+        <v>24</v>
+      </c>
+      <c r="H129" t="s" s="10">
         <v>17</v>
       </c>
-      <c r="I129" t="s" s="7">
+      <c r="I129" t="s" s="10">
         <v>14</v>
       </c>
       <c r="J129" s="9"/>
       <c r="K129" s="9"/>
-      <c r="L129" s="10"/>
+      <c r="L129" s="5"/>
     </row>
     <row r="130" ht="19" customHeight="1">
       <c r="A130" s="6"/>
       <c r="B130" s="7">
         <v>129</v>
       </c>
-      <c r="C130" t="s" s="7">
-        <v>153</v>
-      </c>
-      <c r="D130" s="11"/>
+      <c r="C130" t="s" s="10">
+        <v>156</v>
+      </c>
+      <c r="D130" s="7"/>
       <c r="E130" s="9"/>
       <c r="F130" s="9"/>
-      <c r="G130" t="s" s="7">
-        <v>78</v>
-      </c>
-      <c r="H130" t="s" s="7">
-        <v>79</v>
-      </c>
-      <c r="I130" t="s" s="7">
+      <c r="G130" t="s" s="10">
+        <v>81</v>
+      </c>
+      <c r="H130" t="s" s="10">
+        <v>82</v>
+      </c>
+      <c r="I130" t="s" s="10">
         <v>14</v>
       </c>
       <c r="J130" s="9">
         <v>6</v>
       </c>
       <c r="K130" s="9"/>
-      <c r="L130" s="10"/>
+      <c r="L130" s="5"/>
     </row>
     <row r="131" ht="19" customHeight="1">
       <c r="A131" s="6"/>
       <c r="B131" s="7">
         <v>130</v>
       </c>
-      <c r="C131" t="s" s="7">
-        <v>154</v>
-      </c>
-      <c r="D131" s="11"/>
+      <c r="C131" t="s" s="10">
+        <v>157</v>
+      </c>
+      <c r="D131" s="7"/>
       <c r="E131" s="9"/>
       <c r="F131" s="9"/>
-      <c r="G131" t="s" s="7">
-        <v>78</v>
-      </c>
-      <c r="H131" t="s" s="7">
-        <v>13</v>
-      </c>
-      <c r="I131" t="s" s="7">
+      <c r="G131" t="s" s="10">
+        <v>81</v>
+      </c>
+      <c r="H131" t="s" s="10">
+        <v>13</v>
+      </c>
+      <c r="I131" t="s" s="10">
         <v>14</v>
       </c>
       <c r="J131" s="9">
         <v>4</v>
       </c>
       <c r="K131" s="9"/>
-      <c r="L131" s="10"/>
+      <c r="L131" s="5"/>
     </row>
     <row r="132" ht="19" customHeight="1">
       <c r="A132" s="6"/>
       <c r="B132" s="7">
         <v>131</v>
       </c>
-      <c r="C132" t="s" s="7">
-        <v>155</v>
+      <c r="C132" t="s" s="10">
+        <v>158</v>
       </c>
       <c r="D132" s="9"/>
       <c r="E132" s="9"/>
       <c r="F132" s="9"/>
-      <c r="G132" t="s" s="7">
+      <c r="G132" t="s" s="10">
         <v>12</v>
       </c>
-      <c r="H132" t="s" s="7">
-        <v>48</v>
-      </c>
-      <c r="I132" t="s" s="7">
+      <c r="H132" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="I132" t="s" s="10">
         <v>21</v>
       </c>
       <c r="J132" s="9"/>
       <c r="K132" s="9"/>
-      <c r="L132" s="10"/>
+      <c r="L132" s="5"/>
     </row>
     <row r="133" ht="19" customHeight="1">
       <c r="A133" s="6"/>
       <c r="B133" s="7">
         <v>132</v>
       </c>
-      <c r="C133" t="s" s="7">
-        <v>156</v>
-      </c>
-      <c r="D133" s="11"/>
+      <c r="C133" t="s" s="10">
+        <v>159</v>
+      </c>
+      <c r="D133" s="7"/>
       <c r="E133" s="9"/>
       <c r="F133" s="9"/>
-      <c r="G133" t="s" s="7">
-        <v>78</v>
-      </c>
-      <c r="H133" t="s" s="7">
-        <v>79</v>
-      </c>
-      <c r="I133" t="s" s="7">
+      <c r="G133" t="s" s="10">
+        <v>81</v>
+      </c>
+      <c r="H133" t="s" s="10">
+        <v>82</v>
+      </c>
+      <c r="I133" t="s" s="10">
         <v>14</v>
       </c>
       <c r="J133" s="9">
         <v>2</v>
       </c>
       <c r="K133" s="9"/>
-      <c r="L133" s="10"/>
+      <c r="L133" s="5"/>
     </row>
     <row r="134" ht="19" customHeight="1">
       <c r="A134" s="6"/>
       <c r="B134" s="7">
         <v>133</v>
       </c>
-      <c r="C134" t="s" s="7">
-        <v>157</v>
-      </c>
-      <c r="D134" s="11"/>
+      <c r="C134" t="s" s="10">
+        <v>160</v>
+      </c>
+      <c r="D134" s="7"/>
       <c r="E134" s="9"/>
       <c r="F134" s="9"/>
-      <c r="G134" t="s" s="7">
-        <v>78</v>
-      </c>
-      <c r="H134" t="s" s="7">
-        <v>79</v>
-      </c>
-      <c r="I134" t="s" s="7">
+      <c r="G134" t="s" s="10">
+        <v>81</v>
+      </c>
+      <c r="H134" t="s" s="10">
+        <v>82</v>
+      </c>
+      <c r="I134" t="s" s="10">
         <v>14</v>
       </c>
       <c r="J134" s="9">
         <v>8</v>
       </c>
       <c r="K134" s="9"/>
-      <c r="L134" s="10"/>
+      <c r="L134" s="5"/>
     </row>
     <row r="135" ht="19" customHeight="1">
       <c r="A135" s="6"/>
       <c r="B135" s="7">
         <v>134</v>
       </c>
-      <c r="C135" t="s" s="7">
-        <v>158</v>
-      </c>
-      <c r="D135" s="11"/>
+      <c r="C135" t="s" s="10">
+        <v>161</v>
+      </c>
+      <c r="D135" t="s" s="10">
+        <v>26</v>
+      </c>
       <c r="E135" s="9"/>
       <c r="F135" s="9"/>
-      <c r="G135" t="s" s="7">
-        <v>23</v>
-      </c>
-      <c r="H135" t="s" s="7">
-        <v>27</v>
-      </c>
-      <c r="I135" t="s" s="7">
+      <c r="G135" t="s" s="10">
+        <v>24</v>
+      </c>
+      <c r="H135" t="s" s="10">
+        <v>30</v>
+      </c>
+      <c r="I135" t="s" s="10">
         <v>14</v>
       </c>
       <c r="J135" s="9">
         <v>6</v>
       </c>
       <c r="K135" s="9"/>
-      <c r="L135" s="10"/>
+      <c r="L135" s="5"/>
     </row>
     <row r="136" ht="19" customHeight="1">
       <c r="A136" s="6"/>
       <c r="B136" s="7">
         <v>135</v>
       </c>
-      <c r="C136" t="s" s="7">
-        <v>159</v>
-      </c>
-      <c r="D136" s="11"/>
+      <c r="C136" t="s" s="10">
+        <v>162</v>
+      </c>
+      <c r="D136" t="s" s="10">
+        <v>26</v>
+      </c>
       <c r="E136" s="9"/>
       <c r="F136" s="9"/>
-      <c r="G136" t="s" s="7">
-        <v>23</v>
-      </c>
-      <c r="H136" t="s" s="7">
-        <v>27</v>
-      </c>
-      <c r="I136" t="s" s="7">
+      <c r="G136" t="s" s="10">
+        <v>24</v>
+      </c>
+      <c r="H136" t="s" s="10">
+        <v>30</v>
+      </c>
+      <c r="I136" t="s" s="10">
         <v>14</v>
       </c>
       <c r="J136" s="9">
         <v>6</v>
       </c>
       <c r="K136" s="9"/>
-      <c r="L136" s="10"/>
+      <c r="L136" s="5"/>
     </row>
     <row r="137" ht="19" customHeight="1">
       <c r="A137" s="6"/>
       <c r="B137" s="7">
         <v>136</v>
       </c>
-      <c r="C137" t="s" s="7">
-        <v>160</v>
-      </c>
-      <c r="D137" s="11"/>
+      <c r="C137" t="s" s="10">
+        <v>163</v>
+      </c>
+      <c r="D137" s="7"/>
       <c r="E137" s="9"/>
       <c r="F137" s="9"/>
-      <c r="G137" t="s" s="7">
+      <c r="G137" t="s" s="10">
         <v>16</v>
       </c>
-      <c r="H137" t="s" s="7">
-        <v>27</v>
-      </c>
-      <c r="I137" t="s" s="7">
+      <c r="H137" t="s" s="10">
+        <v>30</v>
+      </c>
+      <c r="I137" t="s" s="10">
         <v>14</v>
       </c>
       <c r="J137" s="9">
         <v>6</v>
       </c>
       <c r="K137" s="9"/>
-      <c r="L137" s="10"/>
+      <c r="L137" s="5"/>
     </row>
     <row r="138" ht="19" customHeight="1">
       <c r="A138" s="6"/>
       <c r="B138" s="7">
         <v>137</v>
       </c>
-      <c r="C138" t="s" s="7">
-        <v>161</v>
-      </c>
-      <c r="D138" s="9"/>
+      <c r="C138" t="s" s="10">
+        <v>164</v>
+      </c>
+      <c r="D138" t="s" s="10">
+        <v>26</v>
+      </c>
       <c r="E138" s="9"/>
       <c r="F138" s="9"/>
-      <c r="G138" t="s" s="7">
-        <v>23</v>
-      </c>
-      <c r="H138" t="s" s="7">
-        <v>13</v>
-      </c>
-      <c r="I138" t="s" s="7">
+      <c r="G138" t="s" s="10">
+        <v>24</v>
+      </c>
+      <c r="H138" t="s" s="10">
+        <v>13</v>
+      </c>
+      <c r="I138" t="s" s="10">
         <v>21</v>
       </c>
       <c r="J138" s="9"/>
       <c r="K138" s="9"/>
-      <c r="L138" s="10"/>
+      <c r="L138" s="5"/>
     </row>
     <row r="139" ht="19" customHeight="1">
       <c r="A139" s="6"/>
       <c r="B139" s="7">
         <v>138</v>
       </c>
-      <c r="C139" t="s" s="7">
-        <v>162</v>
+      <c r="C139" t="s" s="10">
+        <v>165</v>
       </c>
       <c r="D139" s="9"/>
       <c r="E139" s="9"/>
       <c r="F139" s="9"/>
-      <c r="G139" t="s" s="7">
+      <c r="G139" t="s" s="10">
         <v>16</v>
       </c>
-      <c r="H139" t="s" s="7">
-        <v>90</v>
-      </c>
-      <c r="I139" t="s" s="7">
+      <c r="H139" t="s" s="10">
+        <v>93</v>
+      </c>
+      <c r="I139" t="s" s="10">
         <v>14</v>
       </c>
       <c r="J139" s="9"/>
       <c r="K139" s="9"/>
-      <c r="L139" s="10"/>
+      <c r="L139" s="5"/>
     </row>
     <row r="140" ht="19" customHeight="1">
       <c r="A140" s="6"/>
       <c r="B140" s="7">
         <v>139</v>
       </c>
-      <c r="C140" t="s" s="7">
-        <v>163</v>
+      <c r="C140" t="s" s="10">
+        <v>166</v>
       </c>
       <c r="D140" s="9"/>
       <c r="E140" s="9"/>
       <c r="F140" s="9"/>
-      <c r="G140" t="s" s="7">
+      <c r="G140" t="s" s="10">
         <v>16</v>
       </c>
-      <c r="H140" t="s" s="7">
-        <v>13</v>
-      </c>
-      <c r="I140" t="s" s="7">
+      <c r="H140" t="s" s="10">
+        <v>13</v>
+      </c>
+      <c r="I140" t="s" s="10">
         <v>14</v>
       </c>
       <c r="J140" s="9"/>
       <c r="K140" s="9"/>
-      <c r="L140" s="10"/>
+      <c r="L140" s="5"/>
     </row>
     <row r="141" ht="19" customHeight="1">
       <c r="A141" s="6"/>
       <c r="B141" s="7">
         <v>140</v>
       </c>
-      <c r="C141" t="s" s="7">
-        <v>164</v>
+      <c r="C141" t="s" s="10">
+        <v>167</v>
       </c>
       <c r="D141" s="9"/>
       <c r="E141" s="9"/>
       <c r="F141" s="9"/>
-      <c r="G141" t="s" s="7">
+      <c r="G141" t="s" s="10">
         <v>12</v>
       </c>
-      <c r="H141" t="s" s="7">
-        <v>13</v>
-      </c>
-      <c r="I141" t="s" s="7">
+      <c r="H141" t="s" s="10">
+        <v>13</v>
+      </c>
+      <c r="I141" t="s" s="10">
         <v>21</v>
       </c>
       <c r="J141" s="9"/>
       <c r="K141" s="9"/>
-      <c r="L141" s="10"/>
+      <c r="L141" s="5"/>
     </row>
     <row r="142" ht="19" customHeight="1">
       <c r="A142" s="6"/>
       <c r="B142" s="7">
         <v>141</v>
       </c>
-      <c r="C142" t="s" s="7">
-        <v>165</v>
-      </c>
-      <c r="D142" s="11"/>
+      <c r="C142" t="s" s="10">
+        <v>168</v>
+      </c>
+      <c r="D142" t="s" s="10">
+        <v>26</v>
+      </c>
       <c r="E142" s="9"/>
       <c r="F142" s="9"/>
-      <c r="G142" t="s" s="7">
-        <v>23</v>
-      </c>
-      <c r="H142" t="s" s="7">
-        <v>13</v>
-      </c>
-      <c r="I142" t="s" s="7">
+      <c r="G142" t="s" s="10">
+        <v>24</v>
+      </c>
+      <c r="H142" t="s" s="10">
+        <v>13</v>
+      </c>
+      <c r="I142" t="s" s="10">
         <v>21</v>
       </c>
       <c r="J142" s="9">
         <v>4</v>
       </c>
       <c r="K142" s="9"/>
-      <c r="L142" s="10"/>
+      <c r="L142" s="5"/>
     </row>
     <row r="143" ht="19" customHeight="1">
       <c r="A143" s="6"/>
       <c r="B143" s="7">
         <v>142</v>
       </c>
-      <c r="C143" t="s" s="7">
-        <v>166</v>
-      </c>
-      <c r="D143" s="9"/>
+      <c r="C143" t="s" s="10">
+        <v>169</v>
+      </c>
+      <c r="D143" t="s" s="10">
+        <v>26</v>
+      </c>
       <c r="E143" s="9"/>
       <c r="F143" s="9"/>
-      <c r="G143" t="s" s="7">
-        <v>23</v>
-      </c>
-      <c r="H143" t="s" s="7">
-        <v>13</v>
-      </c>
-      <c r="I143" t="s" s="7">
+      <c r="G143" t="s" s="10">
+        <v>24</v>
+      </c>
+      <c r="H143" t="s" s="10">
+        <v>13</v>
+      </c>
+      <c r="I143" t="s" s="10">
         <v>21</v>
       </c>
       <c r="J143" s="9"/>
       <c r="K143" s="9"/>
-      <c r="L143" s="10"/>
+      <c r="L143" s="5"/>
     </row>
     <row r="144" ht="19" customHeight="1">
       <c r="A144" s="6"/>
@@ -5780,173 +5773,175 @@
         <v>143</v>
       </c>
       <c r="C144" t="s" s="8">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D144" s="9"/>
       <c r="E144" s="9"/>
       <c r="F144" s="9"/>
-      <c r="G144" t="s" s="7">
-        <v>78</v>
-      </c>
-      <c r="H144" t="s" s="7">
-        <v>79</v>
-      </c>
-      <c r="I144" t="s" s="7">
+      <c r="G144" t="s" s="10">
+        <v>81</v>
+      </c>
+      <c r="H144" t="s" s="10">
+        <v>82</v>
+      </c>
+      <c r="I144" t="s" s="10">
         <v>21</v>
       </c>
       <c r="J144" s="9"/>
       <c r="K144" s="9"/>
-      <c r="L144" s="10"/>
+      <c r="L144" s="5"/>
     </row>
     <row r="145" ht="19" customHeight="1">
       <c r="A145" s="6"/>
       <c r="B145" s="7">
         <v>144</v>
       </c>
-      <c r="C145" t="s" s="7">
-        <v>168</v>
-      </c>
-      <c r="D145" s="11"/>
+      <c r="C145" t="s" s="10">
+        <v>171</v>
+      </c>
+      <c r="D145" s="7"/>
       <c r="E145" s="9"/>
       <c r="F145" s="9"/>
-      <c r="G145" t="s" s="7">
+      <c r="G145" t="s" s="10">
         <v>16</v>
       </c>
-      <c r="H145" t="s" s="7">
+      <c r="H145" t="s" s="10">
         <v>20</v>
       </c>
-      <c r="I145" t="s" s="7">
+      <c r="I145" t="s" s="10">
         <v>14</v>
       </c>
       <c r="J145" s="9">
         <v>8</v>
       </c>
       <c r="K145" s="9"/>
-      <c r="L145" s="10"/>
+      <c r="L145" s="5"/>
     </row>
     <row r="146" ht="19" customHeight="1">
       <c r="A146" s="6"/>
       <c r="B146" s="7">
         <v>145</v>
       </c>
-      <c r="C146" t="s" s="7">
-        <v>169</v>
-      </c>
-      <c r="D146" s="9"/>
+      <c r="C146" t="s" s="10">
+        <v>172</v>
+      </c>
+      <c r="D146" t="s" s="10">
+        <v>29</v>
+      </c>
       <c r="E146" s="9"/>
       <c r="F146" s="9"/>
-      <c r="G146" t="s" s="7">
-        <v>23</v>
-      </c>
-      <c r="H146" t="s" s="7">
-        <v>27</v>
-      </c>
-      <c r="I146" t="s" s="7">
+      <c r="G146" t="s" s="10">
+        <v>24</v>
+      </c>
+      <c r="H146" t="s" s="10">
+        <v>30</v>
+      </c>
+      <c r="I146" t="s" s="10">
         <v>14</v>
       </c>
       <c r="J146" s="9"/>
       <c r="K146" s="9"/>
-      <c r="L146" s="10"/>
+      <c r="L146" s="5"/>
     </row>
     <row r="147" ht="19" customHeight="1">
       <c r="A147" s="6"/>
       <c r="B147" s="7">
         <v>146</v>
       </c>
-      <c r="C147" t="s" s="7">
-        <v>170</v>
-      </c>
-      <c r="D147" s="11"/>
+      <c r="C147" t="s" s="10">
+        <v>173</v>
+      </c>
+      <c r="D147" s="7"/>
       <c r="E147" s="9"/>
       <c r="F147" s="9"/>
-      <c r="G147" t="s" s="7">
-        <v>78</v>
-      </c>
-      <c r="H147" t="s" s="7">
+      <c r="G147" t="s" s="10">
+        <v>81</v>
+      </c>
+      <c r="H147" t="s" s="10">
         <v>17</v>
       </c>
-      <c r="I147" t="s" s="7">
+      <c r="I147" t="s" s="10">
         <v>14</v>
       </c>
       <c r="J147" s="9">
         <v>16</v>
       </c>
       <c r="K147" s="9"/>
-      <c r="L147" s="10"/>
+      <c r="L147" s="5"/>
     </row>
     <row r="148" ht="19" customHeight="1">
       <c r="A148" s="6"/>
       <c r="B148" s="7">
         <v>147</v>
       </c>
-      <c r="C148" t="s" s="7">
-        <v>171</v>
+      <c r="C148" t="s" s="10">
+        <v>174</v>
       </c>
       <c r="D148" s="9"/>
       <c r="E148" s="9"/>
       <c r="F148" s="9"/>
-      <c r="G148" t="s" s="7">
+      <c r="G148" t="s" s="10">
         <v>12</v>
       </c>
-      <c r="H148" t="s" s="7">
-        <v>172</v>
-      </c>
-      <c r="I148" t="s" s="7">
+      <c r="H148" t="s" s="10">
+        <v>175</v>
+      </c>
+      <c r="I148" t="s" s="10">
         <v>14</v>
       </c>
       <c r="J148" s="9"/>
       <c r="K148" s="9"/>
-      <c r="L148" s="10"/>
+      <c r="L148" s="5"/>
     </row>
     <row r="149" ht="19" customHeight="1">
       <c r="A149" s="6"/>
       <c r="B149" s="7">
         <v>148</v>
       </c>
-      <c r="C149" t="s" s="7">
-        <v>173</v>
+      <c r="C149" t="s" s="10">
+        <v>176</v>
       </c>
       <c r="D149" s="9"/>
       <c r="E149" s="9"/>
       <c r="F149" s="9"/>
-      <c r="G149" t="s" s="7">
-        <v>78</v>
-      </c>
-      <c r="H149" t="s" s="7">
-        <v>172</v>
-      </c>
-      <c r="I149" t="s" s="7">
+      <c r="G149" t="s" s="10">
+        <v>81</v>
+      </c>
+      <c r="H149" t="s" s="10">
+        <v>175</v>
+      </c>
+      <c r="I149" t="s" s="10">
         <v>14</v>
       </c>
       <c r="J149" s="9"/>
       <c r="K149" s="9"/>
-      <c r="L149" s="10"/>
+      <c r="L149" s="5"/>
     </row>
     <row r="150" ht="19" customHeight="1">
       <c r="A150" s="6"/>
       <c r="B150" s="7">
         <v>149</v>
       </c>
-      <c r="C150" t="s" s="7">
-        <v>174</v>
-      </c>
-      <c r="D150" s="11"/>
+      <c r="C150" t="s" s="10">
+        <v>177</v>
+      </c>
+      <c r="D150" s="7"/>
       <c r="E150" s="9"/>
       <c r="F150" s="9"/>
-      <c r="G150" t="s" s="7">
+      <c r="G150" t="s" s="10">
         <v>16</v>
       </c>
-      <c r="H150" t="s" s="7">
+      <c r="H150" t="s" s="10">
         <v>17</v>
       </c>
-      <c r="I150" t="s" s="7">
+      <c r="I150" t="s" s="10">
         <v>14</v>
       </c>
       <c r="J150" s="9">
         <v>2</v>
       </c>
       <c r="K150" s="9"/>
-      <c r="L150" s="10"/>
+      <c r="L150" s="5"/>
     </row>
     <row r="151" ht="19" customHeight="1">
       <c r="A151" s="6"/>
@@ -5954,25 +5949,25 @@
         <v>150</v>
       </c>
       <c r="C151" t="s" s="8">
-        <v>175</v>
-      </c>
-      <c r="D151" s="11"/>
+        <v>178</v>
+      </c>
+      <c r="D151" s="7"/>
       <c r="E151" s="9"/>
       <c r="F151" s="9"/>
-      <c r="G151" t="s" s="7">
+      <c r="G151" t="s" s="10">
         <v>16</v>
       </c>
-      <c r="H151" t="s" s="7">
-        <v>13</v>
-      </c>
-      <c r="I151" t="s" s="7">
+      <c r="H151" t="s" s="10">
+        <v>13</v>
+      </c>
+      <c r="I151" t="s" s="10">
         <v>14</v>
       </c>
       <c r="J151" s="9">
         <v>6</v>
       </c>
       <c r="K151" s="9"/>
-      <c r="L151" s="10"/>
+      <c r="L151" s="5"/>
     </row>
     <row r="152" ht="19" customHeight="1">
       <c r="A152" s="6"/>
@@ -5980,25 +5975,25 @@
         <v>151</v>
       </c>
       <c r="C152" t="s" s="8">
-        <v>176</v>
-      </c>
-      <c r="D152" s="11"/>
+        <v>179</v>
+      </c>
+      <c r="D152" s="7"/>
       <c r="E152" s="9"/>
       <c r="F152" s="9"/>
-      <c r="G152" t="s" s="7">
+      <c r="G152" t="s" s="10">
         <v>12</v>
       </c>
-      <c r="H152" t="s" s="7">
-        <v>13</v>
-      </c>
-      <c r="I152" t="s" s="7">
+      <c r="H152" t="s" s="10">
+        <v>13</v>
+      </c>
+      <c r="I152" t="s" s="10">
         <v>14</v>
       </c>
       <c r="J152" s="9">
         <v>4</v>
       </c>
       <c r="K152" s="9"/>
-      <c r="L152" s="10"/>
+      <c r="L152" s="5"/>
     </row>
     <row r="153" ht="19" customHeight="1">
       <c r="A153" s="6"/>
@@ -6006,25 +6001,25 @@
         <v>152</v>
       </c>
       <c r="C153" t="s" s="8">
-        <v>177</v>
-      </c>
-      <c r="D153" s="11"/>
+        <v>180</v>
+      </c>
+      <c r="D153" s="7"/>
       <c r="E153" s="9"/>
       <c r="F153" s="9"/>
-      <c r="G153" t="s" s="7">
+      <c r="G153" t="s" s="10">
         <v>12</v>
       </c>
-      <c r="H153" t="s" s="7">
-        <v>13</v>
-      </c>
-      <c r="I153" t="s" s="7">
+      <c r="H153" t="s" s="10">
+        <v>13</v>
+      </c>
+      <c r="I153" t="s" s="10">
         <v>14</v>
       </c>
       <c r="J153" s="9">
         <v>4</v>
       </c>
       <c r="K153" s="9"/>
-      <c r="L153" s="10"/>
+      <c r="L153" s="5"/>
     </row>
     <row r="154" ht="19" customHeight="1">
       <c r="A154" s="6"/>
@@ -6032,25 +6027,25 @@
         <v>153</v>
       </c>
       <c r="C154" t="s" s="8">
-        <v>178</v>
-      </c>
-      <c r="D154" s="11"/>
+        <v>181</v>
+      </c>
+      <c r="D154" s="7"/>
       <c r="E154" s="9"/>
       <c r="F154" s="9"/>
-      <c r="G154" t="s" s="7">
+      <c r="G154" t="s" s="10">
         <v>12</v>
       </c>
-      <c r="H154" t="s" s="7">
-        <v>13</v>
-      </c>
-      <c r="I154" t="s" s="7">
+      <c r="H154" t="s" s="10">
+        <v>13</v>
+      </c>
+      <c r="I154" t="s" s="10">
         <v>14</v>
       </c>
       <c r="J154" s="9">
         <v>4</v>
       </c>
       <c r="K154" s="9"/>
-      <c r="L154" s="10"/>
+      <c r="L154" s="5"/>
     </row>
     <row r="155" ht="19" customHeight="1">
       <c r="A155" s="6"/>
@@ -6058,25 +6053,25 @@
         <v>154</v>
       </c>
       <c r="C155" t="s" s="8">
-        <v>179</v>
-      </c>
-      <c r="D155" s="11"/>
+        <v>182</v>
+      </c>
+      <c r="D155" s="7"/>
       <c r="E155" s="9"/>
       <c r="F155" s="9"/>
-      <c r="G155" t="s" s="7">
+      <c r="G155" t="s" s="10">
         <v>12</v>
       </c>
-      <c r="H155" t="s" s="7">
-        <v>13</v>
-      </c>
-      <c r="I155" t="s" s="7">
+      <c r="H155" t="s" s="10">
+        <v>13</v>
+      </c>
+      <c r="I155" t="s" s="10">
         <v>14</v>
       </c>
       <c r="J155" s="9">
         <v>2</v>
       </c>
       <c r="K155" s="9"/>
-      <c r="L155" s="10"/>
+      <c r="L155" s="5"/>
     </row>
     <row r="156" ht="19" customHeight="1">
       <c r="A156" s="6"/>
@@ -6084,25 +6079,25 @@
         <v>155</v>
       </c>
       <c r="C156" t="s" s="8">
-        <v>180</v>
-      </c>
-      <c r="D156" s="11"/>
+        <v>183</v>
+      </c>
+      <c r="D156" s="7"/>
       <c r="E156" s="9"/>
       <c r="F156" s="9"/>
-      <c r="G156" t="s" s="7">
+      <c r="G156" t="s" s="10">
         <v>12</v>
       </c>
-      <c r="H156" t="s" s="7">
-        <v>13</v>
-      </c>
-      <c r="I156" t="s" s="7">
+      <c r="H156" t="s" s="10">
+        <v>13</v>
+      </c>
+      <c r="I156" t="s" s="10">
         <v>14</v>
       </c>
       <c r="J156" s="9">
         <v>2</v>
       </c>
       <c r="K156" s="9"/>
-      <c r="L156" s="10"/>
+      <c r="L156" s="5"/>
     </row>
     <row r="157" ht="19" customHeight="1">
       <c r="A157" s="6"/>
@@ -6110,47 +6105,47 @@
         <v>156</v>
       </c>
       <c r="C157" t="s" s="8">
-        <v>181</v>
-      </c>
-      <c r="D157" s="11"/>
+        <v>184</v>
+      </c>
+      <c r="D157" s="7"/>
       <c r="E157" s="9"/>
       <c r="F157" s="9"/>
       <c r="G157" s="9"/>
-      <c r="H157" t="s" s="7">
-        <v>13</v>
-      </c>
-      <c r="I157" t="s" s="7">
+      <c r="H157" t="s" s="10">
+        <v>13</v>
+      </c>
+      <c r="I157" t="s" s="10">
         <v>14</v>
       </c>
       <c r="J157" s="9">
         <v>4</v>
       </c>
       <c r="K157" s="9"/>
-      <c r="L157" s="10"/>
+      <c r="L157" s="5"/>
     </row>
     <row r="158" ht="19" customHeight="1">
       <c r="A158" s="6"/>
       <c r="B158" s="7">
         <v>157</v>
       </c>
-      <c r="C158" t="s" s="7">
-        <v>182</v>
-      </c>
-      <c r="D158" s="11"/>
+      <c r="C158" t="s" s="10">
+        <v>185</v>
+      </c>
+      <c r="D158" s="7"/>
       <c r="E158" s="9"/>
       <c r="F158" s="9"/>
       <c r="G158" s="9"/>
-      <c r="H158" t="s" s="7">
-        <v>13</v>
-      </c>
-      <c r="I158" t="s" s="7">
+      <c r="H158" t="s" s="10">
+        <v>13</v>
+      </c>
+      <c r="I158" t="s" s="10">
         <v>14</v>
       </c>
       <c r="J158" s="9">
         <v>4</v>
       </c>
       <c r="K158" s="9"/>
-      <c r="L158" s="10"/>
+      <c r="L158" s="5"/>
     </row>
     <row r="159" ht="19" customHeight="1">
       <c r="A159" s="6"/>
@@ -6158,25 +6153,25 @@
         <v>158</v>
       </c>
       <c r="C159" t="s" s="8">
-        <v>183</v>
-      </c>
-      <c r="D159" s="11"/>
+        <v>186</v>
+      </c>
+      <c r="D159" s="7"/>
       <c r="E159" s="9"/>
       <c r="F159" s="9"/>
-      <c r="G159" t="s" s="7">
+      <c r="G159" t="s" s="10">
         <v>16</v>
       </c>
-      <c r="H159" t="s" s="7">
-        <v>13</v>
-      </c>
-      <c r="I159" t="s" s="7">
+      <c r="H159" t="s" s="10">
+        <v>13</v>
+      </c>
+      <c r="I159" t="s" s="10">
         <v>14</v>
       </c>
       <c r="J159" s="9">
         <v>4</v>
       </c>
       <c r="K159" s="9"/>
-      <c r="L159" s="10"/>
+      <c r="L159" s="5"/>
     </row>
     <row r="160" ht="19" customHeight="1">
       <c r="A160" s="6"/>
@@ -6184,47 +6179,47 @@
         <v>159</v>
       </c>
       <c r="C160" t="s" s="8">
-        <v>184</v>
-      </c>
-      <c r="D160" s="11"/>
+        <v>187</v>
+      </c>
+      <c r="D160" s="7"/>
       <c r="E160" s="9"/>
       <c r="F160" s="9"/>
       <c r="G160" s="9"/>
-      <c r="H160" t="s" s="7">
-        <v>13</v>
-      </c>
-      <c r="I160" t="s" s="7">
+      <c r="H160" t="s" s="10">
+        <v>13</v>
+      </c>
+      <c r="I160" t="s" s="10">
         <v>14</v>
       </c>
       <c r="J160" s="9">
         <v>4</v>
       </c>
       <c r="K160" s="9"/>
-      <c r="L160" s="10"/>
+      <c r="L160" s="5"/>
     </row>
     <row r="161" ht="19" customHeight="1">
       <c r="A161" s="6"/>
       <c r="B161" s="7">
         <v>160</v>
       </c>
-      <c r="C161" t="s" s="7">
-        <v>185</v>
-      </c>
-      <c r="D161" s="11"/>
+      <c r="C161" t="s" s="10">
+        <v>188</v>
+      </c>
+      <c r="D161" s="7"/>
       <c r="E161" s="9"/>
       <c r="F161" s="9"/>
       <c r="G161" s="9"/>
-      <c r="H161" t="s" s="7">
-        <v>13</v>
-      </c>
-      <c r="I161" t="s" s="7">
+      <c r="H161" t="s" s="10">
+        <v>13</v>
+      </c>
+      <c r="I161" t="s" s="10">
         <v>14</v>
       </c>
       <c r="J161" s="9">
         <v>8</v>
       </c>
       <c r="K161" s="9"/>
-      <c r="L161" s="10"/>
+      <c r="L161" s="5"/>
     </row>
     <row r="162" ht="19" customHeight="1">
       <c r="A162" s="6"/>
@@ -6232,99 +6227,99 @@
         <v>161</v>
       </c>
       <c r="C162" t="s" s="8">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D162" s="9"/>
       <c r="E162" s="9"/>
       <c r="F162" s="9"/>
       <c r="G162" s="9"/>
-      <c r="H162" t="s" s="7">
-        <v>13</v>
-      </c>
-      <c r="I162" t="s" s="7">
+      <c r="H162" t="s" s="10">
+        <v>13</v>
+      </c>
+      <c r="I162" t="s" s="10">
         <v>21</v>
       </c>
       <c r="J162" s="9"/>
       <c r="K162" s="9"/>
-      <c r="L162" s="10"/>
+      <c r="L162" s="5"/>
     </row>
     <row r="163" ht="19" customHeight="1">
       <c r="A163" s="6"/>
       <c r="B163" s="7">
         <v>162</v>
       </c>
-      <c r="C163" t="s" s="7">
-        <v>187</v>
-      </c>
-      <c r="D163" s="11"/>
+      <c r="C163" t="s" s="10">
+        <v>190</v>
+      </c>
+      <c r="D163" s="7"/>
       <c r="E163" s="9"/>
       <c r="F163" s="9"/>
-      <c r="G163" t="s" s="7">
+      <c r="G163" t="s" s="10">
         <v>12</v>
       </c>
-      <c r="H163" t="s" s="7">
-        <v>13</v>
-      </c>
-      <c r="I163" t="s" s="7">
+      <c r="H163" t="s" s="10">
+        <v>13</v>
+      </c>
+      <c r="I163" t="s" s="10">
         <v>14</v>
       </c>
       <c r="J163" s="9">
         <v>4</v>
       </c>
       <c r="K163" s="9"/>
-      <c r="L163" s="10"/>
+      <c r="L163" s="5"/>
     </row>
     <row r="164" ht="19" customHeight="1">
       <c r="A164" s="6"/>
       <c r="B164" s="7">
         <v>163</v>
       </c>
-      <c r="C164" t="s" s="7">
-        <v>188</v>
-      </c>
-      <c r="D164" s="11"/>
+      <c r="C164" t="s" s="10">
+        <v>191</v>
+      </c>
+      <c r="D164" s="7"/>
       <c r="E164" s="9"/>
       <c r="F164" s="9"/>
-      <c r="G164" t="s" s="7">
-        <v>78</v>
-      </c>
-      <c r="H164" t="s" s="7">
-        <v>79</v>
-      </c>
-      <c r="I164" t="s" s="7">
+      <c r="G164" t="s" s="10">
+        <v>81</v>
+      </c>
+      <c r="H164" t="s" s="10">
+        <v>82</v>
+      </c>
+      <c r="I164" t="s" s="10">
         <v>14</v>
       </c>
       <c r="J164" s="7">
         <v>3</v>
       </c>
       <c r="K164" s="9"/>
-      <c r="L164" s="10"/>
+      <c r="L164" s="5"/>
     </row>
     <row r="165" ht="19" customHeight="1">
       <c r="A165" s="6"/>
       <c r="B165" s="7">
         <v>164</v>
       </c>
-      <c r="C165" t="s" s="7">
-        <v>189</v>
-      </c>
-      <c r="D165" s="11"/>
+      <c r="C165" t="s" s="10">
+        <v>192</v>
+      </c>
+      <c r="D165" s="7"/>
       <c r="E165" s="9"/>
       <c r="F165" s="9"/>
-      <c r="G165" t="s" s="7">
-        <v>78</v>
-      </c>
-      <c r="H165" t="s" s="7">
-        <v>79</v>
-      </c>
-      <c r="I165" t="s" s="7">
+      <c r="G165" t="s" s="10">
+        <v>81</v>
+      </c>
+      <c r="H165" t="s" s="10">
+        <v>82</v>
+      </c>
+      <c r="I165" t="s" s="10">
         <v>14</v>
       </c>
       <c r="J165" s="9">
         <v>8</v>
       </c>
       <c r="K165" s="9"/>
-      <c r="L165" s="10"/>
+      <c r="L165" s="5"/>
     </row>
     <row r="166" ht="19" customHeight="1">
       <c r="A166" s="6"/>
@@ -6332,25 +6327,25 @@
         <v>165</v>
       </c>
       <c r="C166" t="s" s="8">
-        <v>190</v>
-      </c>
-      <c r="D166" s="11"/>
+        <v>193</v>
+      </c>
+      <c r="D166" s="7"/>
       <c r="E166" s="9"/>
       <c r="F166" s="9"/>
-      <c r="G166" t="s" s="7">
-        <v>78</v>
-      </c>
-      <c r="H166" t="s" s="7">
-        <v>79</v>
-      </c>
-      <c r="I166" t="s" s="7">
+      <c r="G166" t="s" s="10">
+        <v>81</v>
+      </c>
+      <c r="H166" t="s" s="10">
+        <v>82</v>
+      </c>
+      <c r="I166" t="s" s="10">
         <v>14</v>
       </c>
       <c r="J166" s="9">
         <v>8</v>
       </c>
       <c r="K166" s="9"/>
-      <c r="L166" s="10"/>
+      <c r="L166" s="5"/>
     </row>
     <row r="167" ht="19" customHeight="1">
       <c r="A167" s="6"/>
@@ -6358,51 +6353,51 @@
         <v>166</v>
       </c>
       <c r="C167" t="s" s="8">
-        <v>191</v>
-      </c>
-      <c r="D167" s="11"/>
+        <v>194</v>
+      </c>
+      <c r="D167" s="7"/>
       <c r="E167" s="9"/>
       <c r="F167" s="9"/>
-      <c r="G167" t="s" s="7">
-        <v>78</v>
-      </c>
-      <c r="H167" t="s" s="7">
-        <v>79</v>
-      </c>
-      <c r="I167" t="s" s="7">
+      <c r="G167" t="s" s="10">
+        <v>81</v>
+      </c>
+      <c r="H167" t="s" s="10">
+        <v>82</v>
+      </c>
+      <c r="I167" t="s" s="10">
         <v>14</v>
       </c>
       <c r="J167" s="9">
         <v>6</v>
       </c>
       <c r="K167" s="9"/>
-      <c r="L167" s="10"/>
+      <c r="L167" s="5"/>
     </row>
     <row r="168" ht="19" customHeight="1">
       <c r="A168" s="6"/>
       <c r="B168" s="7">
         <v>167</v>
       </c>
-      <c r="C168" t="s" s="7">
-        <v>192</v>
-      </c>
-      <c r="D168" s="11"/>
+      <c r="C168" t="s" s="10">
+        <v>195</v>
+      </c>
+      <c r="D168" s="7"/>
       <c r="E168" s="9"/>
       <c r="F168" s="9"/>
-      <c r="G168" t="s" s="7">
-        <v>78</v>
-      </c>
-      <c r="H168" t="s" s="7">
-        <v>79</v>
-      </c>
-      <c r="I168" t="s" s="7">
+      <c r="G168" t="s" s="10">
+        <v>81</v>
+      </c>
+      <c r="H168" t="s" s="10">
+        <v>82</v>
+      </c>
+      <c r="I168" t="s" s="10">
         <v>14</v>
       </c>
       <c r="J168" s="9">
         <v>6</v>
       </c>
       <c r="K168" s="9"/>
-      <c r="L168" s="10"/>
+      <c r="L168" s="5"/>
     </row>
     <row r="169" ht="19" customHeight="1">
       <c r="A169" s="6"/>
@@ -6410,25 +6405,25 @@
         <v>168</v>
       </c>
       <c r="C169" t="s" s="8">
-        <v>193</v>
-      </c>
-      <c r="D169" s="11"/>
+        <v>196</v>
+      </c>
+      <c r="D169" s="7"/>
       <c r="E169" s="9"/>
       <c r="F169" s="9"/>
-      <c r="G169" t="s" s="7">
-        <v>78</v>
-      </c>
-      <c r="H169" t="s" s="7">
-        <v>79</v>
-      </c>
-      <c r="I169" t="s" s="7">
+      <c r="G169" t="s" s="10">
+        <v>81</v>
+      </c>
+      <c r="H169" t="s" s="10">
+        <v>82</v>
+      </c>
+      <c r="I169" t="s" s="10">
         <v>14</v>
       </c>
       <c r="J169" s="9">
         <v>8</v>
       </c>
       <c r="K169" s="9"/>
-      <c r="L169" s="10"/>
+      <c r="L169" s="5"/>
     </row>
     <row r="170" ht="19" customHeight="1">
       <c r="A170" s="6"/>
@@ -6436,25 +6431,25 @@
         <v>169</v>
       </c>
       <c r="C170" t="s" s="8">
-        <v>194</v>
-      </c>
-      <c r="D170" s="11"/>
+        <v>197</v>
+      </c>
+      <c r="D170" s="7"/>
       <c r="E170" s="9"/>
       <c r="F170" s="9"/>
-      <c r="G170" t="s" s="7">
+      <c r="G170" t="s" s="10">
         <v>12</v>
       </c>
-      <c r="H170" t="s" s="7">
-        <v>13</v>
-      </c>
-      <c r="I170" t="s" s="7">
+      <c r="H170" t="s" s="10">
+        <v>13</v>
+      </c>
+      <c r="I170" t="s" s="10">
         <v>14</v>
       </c>
       <c r="J170" s="9">
         <v>24</v>
       </c>
       <c r="K170" s="9"/>
-      <c r="L170" s="10"/>
+      <c r="L170" s="5"/>
     </row>
     <row r="171" ht="19" customHeight="1">
       <c r="A171" s="6"/>
@@ -6462,51 +6457,51 @@
         <v>170</v>
       </c>
       <c r="C171" t="s" s="8">
-        <v>195</v>
-      </c>
-      <c r="D171" s="11"/>
+        <v>198</v>
+      </c>
+      <c r="D171" s="7"/>
       <c r="E171" s="9"/>
       <c r="F171" s="9"/>
-      <c r="G171" t="s" s="7">
+      <c r="G171" t="s" s="10">
         <v>12</v>
       </c>
-      <c r="H171" t="s" s="7">
-        <v>13</v>
-      </c>
-      <c r="I171" t="s" s="7">
+      <c r="H171" t="s" s="10">
+        <v>13</v>
+      </c>
+      <c r="I171" t="s" s="10">
         <v>14</v>
       </c>
       <c r="J171" s="9">
         <v>4</v>
       </c>
       <c r="K171" s="9"/>
-      <c r="L171" s="10"/>
+      <c r="L171" s="5"/>
     </row>
     <row r="172" ht="19" customHeight="1">
       <c r="A172" s="6"/>
       <c r="B172" s="7">
         <v>171</v>
       </c>
-      <c r="C172" t="s" s="7">
-        <v>196</v>
-      </c>
-      <c r="D172" s="11"/>
+      <c r="C172" t="s" s="10">
+        <v>199</v>
+      </c>
+      <c r="D172" s="7"/>
       <c r="E172" s="9"/>
       <c r="F172" s="9"/>
-      <c r="G172" t="s" s="7">
+      <c r="G172" t="s" s="10">
         <v>12</v>
       </c>
-      <c r="H172" t="s" s="7">
-        <v>13</v>
-      </c>
-      <c r="I172" t="s" s="7">
+      <c r="H172" t="s" s="10">
+        <v>13</v>
+      </c>
+      <c r="I172" t="s" s="10">
         <v>14</v>
       </c>
       <c r="J172" s="9">
         <v>2</v>
       </c>
       <c r="K172" s="9"/>
-      <c r="L172" s="10"/>
+      <c r="L172" s="5"/>
     </row>
     <row r="173" ht="31" customHeight="1">
       <c r="A173" s="6"/>
@@ -6514,23 +6509,23 @@
         <v>172</v>
       </c>
       <c r="C173" t="s" s="8">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="D173" s="9"/>
       <c r="E173" s="9"/>
       <c r="F173" s="9"/>
-      <c r="G173" t="s" s="7">
+      <c r="G173" t="s" s="10">
         <v>12</v>
       </c>
-      <c r="H173" t="s" s="7">
-        <v>13</v>
-      </c>
-      <c r="I173" t="s" s="7">
+      <c r="H173" t="s" s="10">
+        <v>13</v>
+      </c>
+      <c r="I173" t="s" s="10">
         <v>14</v>
       </c>
       <c r="J173" s="9"/>
       <c r="K173" s="9"/>
-      <c r="L173" s="10"/>
+      <c r="L173" s="5"/>
     </row>
     <row r="174" ht="31" customHeight="1">
       <c r="A174" s="6"/>
@@ -6538,25 +6533,25 @@
         <v>173</v>
       </c>
       <c r="C174" t="s" s="8">
-        <v>198</v>
-      </c>
-      <c r="D174" s="11"/>
+        <v>201</v>
+      </c>
+      <c r="D174" s="7"/>
       <c r="E174" s="9"/>
       <c r="F174" s="9"/>
-      <c r="G174" t="s" s="7">
+      <c r="G174" t="s" s="10">
         <v>16</v>
       </c>
-      <c r="H174" t="s" s="7">
-        <v>13</v>
-      </c>
-      <c r="I174" t="s" s="7">
+      <c r="H174" t="s" s="10">
+        <v>13</v>
+      </c>
+      <c r="I174" t="s" s="10">
         <v>14</v>
       </c>
       <c r="J174" s="9">
         <v>2</v>
       </c>
       <c r="K174" s="9"/>
-      <c r="L174" s="10"/>
+      <c r="L174" s="5"/>
     </row>
     <row r="175" ht="19" customHeight="1">
       <c r="A175" s="6"/>
@@ -6572,7 +6567,7 @@
       <c r="I175" s="9"/>
       <c r="J175" s="9"/>
       <c r="K175" s="9"/>
-      <c r="L175" s="10"/>
+      <c r="L175" s="5"/>
     </row>
     <row r="176" ht="19" customHeight="1">
       <c r="A176" s="6"/>
@@ -6588,7 +6583,7 @@
       <c r="I176" s="9"/>
       <c r="J176" s="9"/>
       <c r="K176" s="9"/>
-      <c r="L176" s="10"/>
+      <c r="L176" s="5"/>
     </row>
     <row r="177" ht="19" customHeight="1">
       <c r="A177" s="6"/>
@@ -6604,7 +6599,7 @@
       <c r="I177" s="9"/>
       <c r="J177" s="9"/>
       <c r="K177" s="9"/>
-      <c r="L177" s="10"/>
+      <c r="L177" s="5"/>
     </row>
     <row r="178" ht="19" customHeight="1">
       <c r="A178" s="6"/>
@@ -6620,37 +6615,37 @@
       <c r="I178" s="9"/>
       <c r="J178" s="9"/>
       <c r="K178" s="9"/>
-      <c r="L178" s="10"/>
+      <c r="L178" s="5"/>
     </row>
     <row r="179" ht="19" customHeight="1">
       <c r="A179" s="6"/>
-      <c r="B179" s="12">
+      <c r="B179" s="11">
         <v>178</v>
       </c>
-      <c r="C179" s="13"/>
-      <c r="D179" s="13"/>
-      <c r="E179" s="13"/>
-      <c r="F179" s="13"/>
-      <c r="G179" s="13"/>
-      <c r="H179" s="13"/>
-      <c r="I179" s="13"/>
-      <c r="J179" s="13"/>
-      <c r="K179" s="13"/>
-      <c r="L179" s="10"/>
+      <c r="C179" s="12"/>
+      <c r="D179" s="12"/>
+      <c r="E179" s="12"/>
+      <c r="F179" s="12"/>
+      <c r="G179" s="12"/>
+      <c r="H179" s="12"/>
+      <c r="I179" s="12"/>
+      <c r="J179" s="12"/>
+      <c r="K179" s="12"/>
+      <c r="L179" s="5"/>
     </row>
     <row r="180" ht="19" customHeight="1">
-      <c r="A180" s="14"/>
-      <c r="B180" s="15"/>
-      <c r="C180" s="15"/>
-      <c r="D180" s="16"/>
-      <c r="E180" s="15"/>
-      <c r="F180" s="15"/>
-      <c r="G180" s="15"/>
-      <c r="H180" s="15"/>
-      <c r="I180" s="15"/>
-      <c r="J180" s="15"/>
-      <c r="K180" s="15"/>
-      <c r="L180" s="17"/>
+      <c r="A180" s="13"/>
+      <c r="B180" s="14"/>
+      <c r="C180" s="14"/>
+      <c r="D180" s="14"/>
+      <c r="E180" s="14"/>
+      <c r="F180" s="14"/>
+      <c r="G180" s="14"/>
+      <c r="H180" s="14"/>
+      <c r="I180" s="14"/>
+      <c r="J180" s="14"/>
+      <c r="K180" s="14"/>
+      <c r="L180" s="15"/>
     </row>
     <row r="181" ht="19" customHeight="1">
       <c r="A181" s="6"/>
@@ -6664,12 +6659,12 @@
       <c r="I181" s="9"/>
       <c r="J181" s="9"/>
       <c r="K181" s="9"/>
-      <c r="L181" s="10"/>
+      <c r="L181" s="5"/>
     </row>
     <row r="182" ht="19" customHeight="1">
-      <c r="A182" s="6"/>
-      <c r="B182" t="s" s="7">
-        <v>199</v>
+      <c r="A182" s="16"/>
+      <c r="B182" t="s" s="10">
+        <v>202</v>
       </c>
       <c r="C182" s="9"/>
       <c r="D182" s="9"/>
@@ -6683,7 +6678,7 @@
         <v>520</v>
       </c>
       <c r="K182" s="9"/>
-      <c r="L182" s="10"/>
+      <c r="L182" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/docs/issues/jarvis2-issue-schedule.xlsx
+++ b/docs/issues/jarvis2-issue-schedule.xlsx
@@ -1,17 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23515"/>
+  <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14220"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="1" r:id="rId4"/>
+    <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="213">
   <si>
     <t>issueId</t>
   </si>
@@ -621,28 +629,58 @@
   </si>
   <si>
     <t>合计</t>
+  </si>
+  <si>
+    <t>光明</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>server</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+提交任务支持多个调度时间表达式</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">修改任务调度时间是否当天生效 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+修改任务调度时间</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+JobEntry支持多个调度表达式</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>close</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>光明</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>光明</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>光明</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Verdana"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica"/>
-    </font>
-    <font>
-      <sz val="15"/>
       <color indexed="8"/>
       <name val="Verdana"/>
     </font>
@@ -655,6 +693,10 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Verdana"/>
     </font>
   </fonts>
   <fills count="3">
@@ -792,88 +834,120 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+  <cellXfs count="18">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium4"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="001FB714"/>
+      <rgbColor rgb="000000D4"/>
+      <rgbColor rgb="00FCF305"/>
+      <rgbColor rgb="00F20884"/>
+      <rgbColor rgb="0000ABEA"/>
+      <rgbColor rgb="00900000"/>
+      <rgbColor rgb="00006411"/>
+      <rgbColor rgb="00000090"/>
+      <rgbColor rgb="0090713A"/>
+      <rgbColor rgb="004600A5"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="0063AAFE"/>
+      <rgbColor rgb="00DD2D32"/>
+      <rgbColor rgb="00FFF58C"/>
+      <rgbColor rgb="004EE257"/>
+      <rgbColor rgb="006711FF"/>
+      <rgbColor rgb="00FEA746"/>
+      <rgbColor rgb="00865357"/>
+      <rgbColor rgb="00A2BD90"/>
+      <rgbColor rgb="0063AAFE"/>
+      <rgbColor rgb="00DD2D32"/>
+      <rgbColor rgb="00FFF58C"/>
+      <rgbColor rgb="004EE257"/>
+      <rgbColor rgb="006711FF"/>
+      <rgbColor rgb="00FEA746"/>
+      <rgbColor rgb="00865357"/>
+      <rgbColor rgb="00A2BD90"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Blank">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Blank">
   <a:themeElements>
     <a:clrScheme name="Blank">
       <a:dk1>
@@ -999,7 +1073,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -1008,7 +1082,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -1017,7 +1091,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -1091,7 +1165,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="50000"/>
             </a:srgbClr>
@@ -1099,7 +1173,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1118,7 +1192,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1148,7 +1222,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1174,7 +1248,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1200,7 +1274,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1226,7 +1300,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1252,7 +1326,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1278,7 +1352,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1304,7 +1378,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1330,7 +1404,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1356,7 +1430,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1369,9 +1443,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -1386,7 +1466,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="50000"/>
             </a:srgbClr>
@@ -1394,7 +1474,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1413,7 +1493,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1439,7 +1519,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1465,7 +1545,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1491,7 +1571,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1517,7 +1597,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1543,7 +1623,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1569,7 +1649,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1595,7 +1675,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1621,7 +1701,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1647,7 +1727,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1660,9 +1740,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1676,7 +1762,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1695,7 +1781,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1725,7 +1811,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1751,7 +1837,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1777,7 +1863,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1803,7 +1889,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1829,7 +1915,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1855,7 +1941,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1881,7 +1967,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1907,7 +1993,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1933,7 +2019,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1946,23 +2032,32 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:L182"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV182"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A178" workbookViewId="0">
+      <selection activeCell="G162" sqref="G162"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="16" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.375" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="2" style="1" customWidth="1"/>
     <col min="2" max="2" width="6.125" style="1" customWidth="1"/>
@@ -1970,8 +2065,7 @@
     <col min="4" max="4" width="14.375" style="1" customWidth="1"/>
     <col min="5" max="5" width="18.75" style="1" customWidth="1"/>
     <col min="6" max="6" width="6.75" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9.5" style="1" customWidth="1"/>
+    <col min="7" max="8" width="9.5" style="1" customWidth="1"/>
     <col min="9" max="9" width="7.875" style="1" customWidth="1"/>
     <col min="10" max="10" width="11.375" style="1" customWidth="1"/>
     <col min="11" max="11" width="12.125" style="1" customWidth="1"/>
@@ -1979,404 +2073,404 @@
     <col min="13" max="256" width="9.375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="32" customHeight="1">
+    <row r="1" spans="1:12" ht="32" customHeight="1">
       <c r="A1" s="2"/>
-      <c r="B1" t="s" s="3">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s" s="3">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s" s="3">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s" s="3">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s" s="3">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s" s="3">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s" s="3">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s" s="3">
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s" s="4">
+      <c r="J1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s" s="3">
+      <c r="K1" s="3" t="s">
         <v>9</v>
       </c>
       <c r="L1" s="5"/>
     </row>
-    <row r="2" ht="31" customHeight="1">
+    <row r="2" spans="1:12" ht="31" customHeight="1">
       <c r="A2" s="6"/>
       <c r="B2" s="7">
         <v>1</v>
       </c>
-      <c r="C2" t="s" s="8">
+      <c r="C2" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D2" s="9"/>
       <c r="E2" s="9"/>
-      <c r="F2" t="s" s="10">
+      <c r="F2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s" s="10">
+      <c r="G2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H2" t="s" s="10">
-        <v>13</v>
-      </c>
-      <c r="I2" t="s" s="10">
+      <c r="H2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="10" t="s">
         <v>14</v>
       </c>
       <c r="J2" s="9"/>
       <c r="K2" s="9"/>
       <c r="L2" s="5"/>
     </row>
-    <row r="3" ht="19" customHeight="1">
+    <row r="3" spans="1:12" ht="19" customHeight="1">
       <c r="A3" s="6"/>
       <c r="B3" s="7">
         <v>2</v>
       </c>
-      <c r="C3" t="s" s="8">
+      <c r="C3" s="8" t="s">
         <v>15</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
-      <c r="F3" t="s" s="10">
+      <c r="F3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G3" t="s" s="10">
+      <c r="G3" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H3" t="s" s="10">
+      <c r="H3" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I3" t="s" s="10">
+      <c r="I3" s="10" t="s">
         <v>14</v>
       </c>
       <c r="J3" s="9"/>
       <c r="K3" s="9"/>
       <c r="L3" s="5"/>
     </row>
-    <row r="4" ht="19" customHeight="1">
+    <row r="4" spans="1:12" ht="19" customHeight="1">
       <c r="A4" s="6"/>
       <c r="B4" s="7">
         <v>3</v>
       </c>
-      <c r="C4" t="s" s="10">
+      <c r="C4" s="10" t="s">
         <v>18</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
-      <c r="F4" t="s" s="10">
+      <c r="F4" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s" s="10">
+      <c r="G4" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H4" t="s" s="10">
-        <v>13</v>
-      </c>
-      <c r="I4" t="s" s="10">
+      <c r="H4" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="10" t="s">
         <v>14</v>
       </c>
       <c r="J4" s="9"/>
       <c r="K4" s="9"/>
       <c r="L4" s="5"/>
     </row>
-    <row r="5" ht="19" customHeight="1">
+    <row r="5" spans="1:12" ht="19" customHeight="1">
       <c r="A5" s="6"/>
       <c r="B5" s="7">
         <v>4</v>
       </c>
-      <c r="C5" t="s" s="10">
+      <c r="C5" s="10" t="s">
         <v>19</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
-      <c r="G5" t="s" s="10">
+      <c r="G5" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H5" t="s" s="10">
+      <c r="H5" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="I5" t="s" s="10">
+      <c r="I5" s="10" t="s">
         <v>21</v>
       </c>
       <c r="J5" s="9"/>
       <c r="K5" s="9"/>
       <c r="L5" s="5"/>
     </row>
-    <row r="6" ht="19" customHeight="1">
+    <row r="6" spans="1:12" ht="19" customHeight="1">
       <c r="A6" s="6"/>
       <c r="B6" s="7">
         <v>5</v>
       </c>
-      <c r="C6" t="s" s="8">
+      <c r="C6" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D6" t="s" s="10">
+      <c r="D6" s="10" t="s">
         <v>23</v>
       </c>
       <c r="E6" s="9"/>
-      <c r="F6" t="s" s="10">
+      <c r="F6" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s" s="10">
+      <c r="G6" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="H6" t="s" s="10">
-        <v>13</v>
-      </c>
-      <c r="I6" t="s" s="10">
+      <c r="H6" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="10" t="s">
         <v>14</v>
       </c>
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
       <c r="L6" s="5"/>
     </row>
-    <row r="7" ht="19" customHeight="1">
+    <row r="7" spans="1:12" ht="19" customHeight="1">
       <c r="A7" s="6"/>
       <c r="B7" s="7">
         <v>6</v>
       </c>
-      <c r="C7" t="s" s="10">
+      <c r="C7" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D7" t="s" s="10">
+      <c r="D7" s="10" t="s">
         <v>26</v>
       </c>
       <c r="E7" s="9"/>
-      <c r="F7" t="s" s="10">
+      <c r="F7" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G7" t="s" s="10">
+      <c r="G7" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="H7" t="s" s="10">
-        <v>13</v>
-      </c>
-      <c r="I7" t="s" s="10">
+      <c r="H7" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="10" t="s">
         <v>14</v>
       </c>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
       <c r="L7" s="5"/>
     </row>
-    <row r="8" ht="33.35" customHeight="1">
+    <row r="8" spans="1:12" ht="33.25" customHeight="1">
       <c r="A8" s="6"/>
       <c r="B8" s="7">
         <v>7</v>
       </c>
-      <c r="C8" t="s" s="8">
+      <c r="C8" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D8" t="s" s="10">
+      <c r="D8" s="10" t="s">
         <v>23</v>
       </c>
       <c r="E8" s="9"/>
-      <c r="F8" t="s" s="10">
+      <c r="F8" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s" s="10">
+      <c r="G8" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="H8" t="s" s="10">
-        <v>13</v>
-      </c>
-      <c r="I8" t="s" s="10">
+      <c r="H8" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" s="10" t="s">
         <v>14</v>
       </c>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
       <c r="L8" s="5"/>
     </row>
-    <row r="9" ht="19" customHeight="1">
+    <row r="9" spans="1:12" ht="19" customHeight="1">
       <c r="A9" s="6"/>
       <c r="B9" s="7">
         <v>8</v>
       </c>
-      <c r="C9" t="s" s="10">
+      <c r="C9" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D9" t="s" s="10">
+      <c r="D9" s="10" t="s">
         <v>29</v>
       </c>
       <c r="E9" s="9"/>
-      <c r="F9" t="s" s="10">
+      <c r="F9" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G9" t="s" s="10">
+      <c r="G9" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="H9" t="s" s="10">
+      <c r="H9" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="I9" t="s" s="10">
+      <c r="I9" s="10" t="s">
         <v>14</v>
       </c>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c r="L9" s="5"/>
     </row>
-    <row r="10" ht="19" customHeight="1">
+    <row r="10" spans="1:12" ht="19" customHeight="1">
       <c r="A10" s="6"/>
       <c r="B10" s="7">
         <v>9</v>
       </c>
-      <c r="C10" t="s" s="10">
+      <c r="C10" s="10" t="s">
         <v>31</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
-      <c r="F10" t="s" s="10">
+      <c r="F10" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s" s="10">
+      <c r="G10" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H10" t="s" s="10">
-        <v>13</v>
-      </c>
-      <c r="I10" t="s" s="10">
+      <c r="H10" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" s="10" t="s">
         <v>14</v>
       </c>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c r="L10" s="5"/>
     </row>
-    <row r="11" ht="19" customHeight="1">
+    <row r="11" spans="1:12" ht="19" customHeight="1">
       <c r="A11" s="6"/>
       <c r="B11" s="7">
         <v>10</v>
       </c>
-      <c r="C11" t="s" s="8">
+      <c r="C11" s="8" t="s">
         <v>32</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
-      <c r="F11" t="s" s="10">
+      <c r="F11" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G11" t="s" s="10">
+      <c r="G11" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H11" t="s" s="10">
-        <v>13</v>
-      </c>
-      <c r="I11" t="s" s="10">
+      <c r="H11" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" s="10" t="s">
         <v>14</v>
       </c>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c r="L11" s="5"/>
     </row>
-    <row r="12" ht="33.35" customHeight="1">
+    <row r="12" spans="1:12" ht="33.25" customHeight="1">
       <c r="A12" s="6"/>
       <c r="B12" s="7">
         <v>11</v>
       </c>
-      <c r="C12" t="s" s="8">
+      <c r="C12" s="8" t="s">
         <v>33</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
-      <c r="F12" t="s" s="10">
+      <c r="F12" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="s" s="10">
+      <c r="G12" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H12" t="s" s="10">
-        <v>13</v>
-      </c>
-      <c r="I12" t="s" s="10">
+      <c r="H12" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12" s="10" t="s">
         <v>14</v>
       </c>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c r="L12" s="5"/>
     </row>
-    <row r="13" ht="19" customHeight="1">
+    <row r="13" spans="1:12" ht="19" customHeight="1">
       <c r="A13" s="6"/>
       <c r="B13" s="7">
         <v>12</v>
       </c>
-      <c r="C13" t="s" s="10">
+      <c r="C13" s="10" t="s">
         <v>34</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
-      <c r="F13" t="s" s="10">
+      <c r="F13" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G13" t="s" s="10">
+      <c r="G13" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H13" t="s" s="10">
-        <v>13</v>
-      </c>
-      <c r="I13" t="s" s="10">
+      <c r="H13" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I13" s="10" t="s">
         <v>14</v>
       </c>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c r="L13" s="5"/>
     </row>
-    <row r="14" ht="19" customHeight="1">
+    <row r="14" spans="1:12" ht="19" customHeight="1">
       <c r="A14" s="6"/>
       <c r="B14" s="7">
         <v>13</v>
       </c>
-      <c r="C14" t="s" s="10">
+      <c r="C14" s="10" t="s">
         <v>35</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
-      <c r="F14" t="s" s="10">
+      <c r="F14" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G14" t="s" s="10">
+      <c r="G14" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H14" t="s" s="10">
-        <v>13</v>
-      </c>
-      <c r="I14" t="s" s="10">
+      <c r="H14" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I14" s="10" t="s">
         <v>14</v>
       </c>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c r="L14" s="5"/>
     </row>
-    <row r="15" ht="19" customHeight="1">
+    <row r="15" spans="1:12" ht="19" customHeight="1">
       <c r="A15" s="6"/>
       <c r="B15" s="7">
         <v>14</v>
       </c>
-      <c r="C15" t="s" s="10">
+      <c r="C15" s="10" t="s">
         <v>36</v>
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="9"/>
-      <c r="F15" t="s" s="10">
+      <c r="F15" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G15" t="s" s="10">
+      <c r="G15" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H15" t="s" s="10">
-        <v>13</v>
-      </c>
-      <c r="I15" t="s" s="10">
+      <c r="H15" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I15" s="10" t="s">
         <v>14</v>
       </c>
       <c r="J15" s="7">
@@ -2385,26 +2479,26 @@
       <c r="K15" s="9"/>
       <c r="L15" s="5"/>
     </row>
-    <row r="16" ht="19" customHeight="1">
+    <row r="16" spans="1:12" ht="19" customHeight="1">
       <c r="A16" s="6"/>
       <c r="B16" s="7">
         <v>15</v>
       </c>
-      <c r="C16" t="s" s="10">
+      <c r="C16" s="10" t="s">
         <v>37</v>
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="9"/>
-      <c r="F16" t="s" s="10">
+      <c r="F16" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G16" t="s" s="10">
+      <c r="G16" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H16" t="s" s="10">
-        <v>13</v>
-      </c>
-      <c r="I16" t="s" s="10">
+      <c r="H16" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I16" s="10" t="s">
         <v>14</v>
       </c>
       <c r="J16" s="9">
@@ -2413,156 +2507,156 @@
       <c r="K16" s="9"/>
       <c r="L16" s="5"/>
     </row>
-    <row r="17" ht="19" customHeight="1">
+    <row r="17" spans="1:12" ht="19" customHeight="1">
       <c r="A17" s="6"/>
       <c r="B17" s="7">
         <v>16</v>
       </c>
-      <c r="C17" t="s" s="10">
+      <c r="C17" s="10" t="s">
         <v>38</v>
       </c>
       <c r="D17" s="9"/>
       <c r="E17" s="9"/>
-      <c r="F17" t="s" s="10">
+      <c r="F17" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G17" t="s" s="10">
+      <c r="G17" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H17" t="s" s="10">
-        <v>13</v>
-      </c>
-      <c r="I17" t="s" s="10">
+      <c r="H17" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I17" s="10" t="s">
         <v>14</v>
       </c>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c r="L17" s="5"/>
     </row>
-    <row r="18" ht="19" customHeight="1">
+    <row r="18" spans="1:12" ht="19" customHeight="1">
       <c r="A18" s="6"/>
       <c r="B18" s="7">
         <v>17</v>
       </c>
-      <c r="C18" t="s" s="10">
+      <c r="C18" s="10" t="s">
         <v>39</v>
       </c>
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
-      <c r="F18" t="s" s="10">
+      <c r="F18" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G18" t="s" s="10">
+      <c r="G18" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H18" t="s" s="10">
-        <v>13</v>
-      </c>
-      <c r="I18" t="s" s="10">
+      <c r="H18" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I18" s="10" t="s">
         <v>14</v>
       </c>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c r="L18" s="5"/>
     </row>
-    <row r="19" ht="19" customHeight="1">
+    <row r="19" spans="1:12" ht="19" customHeight="1">
       <c r="A19" s="6"/>
       <c r="B19" s="7">
         <v>18</v>
       </c>
-      <c r="C19" t="s" s="10">
+      <c r="C19" s="10" t="s">
         <v>40</v>
       </c>
       <c r="D19" s="9"/>
       <c r="E19" s="9"/>
-      <c r="F19" t="s" s="10">
+      <c r="F19" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G19" t="s" s="10">
+      <c r="G19" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H19" t="s" s="10">
-        <v>13</v>
-      </c>
-      <c r="I19" t="s" s="10">
+      <c r="H19" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I19" s="10" t="s">
         <v>14</v>
       </c>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c r="L19" s="5"/>
     </row>
-    <row r="20" ht="31" customHeight="1">
+    <row r="20" spans="1:12" ht="31" customHeight="1">
       <c r="A20" s="6"/>
       <c r="B20" s="7">
         <v>19</v>
       </c>
-      <c r="C20" t="s" s="8">
+      <c r="C20" s="8" t="s">
         <v>41</v>
       </c>
       <c r="D20" s="9"/>
       <c r="E20" s="9"/>
-      <c r="F20" t="s" s="10">
+      <c r="F20" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G20" t="s" s="10">
+      <c r="G20" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H20" t="s" s="10">
-        <v>13</v>
-      </c>
-      <c r="I20" t="s" s="10">
+      <c r="H20" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I20" s="10" t="s">
         <v>14</v>
       </c>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c r="L20" s="5"/>
     </row>
-    <row r="21" ht="19" customHeight="1">
+    <row r="21" spans="1:12" ht="19" customHeight="1">
       <c r="A21" s="6"/>
       <c r="B21" s="7">
         <v>20</v>
       </c>
-      <c r="C21" t="s" s="10">
+      <c r="C21" s="10" t="s">
         <v>42</v>
       </c>
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
-      <c r="F21" t="s" s="10">
+      <c r="F21" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G21" t="s" s="10">
+      <c r="G21" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H21" t="s" s="10">
-        <v>13</v>
-      </c>
-      <c r="I21" t="s" s="10">
+      <c r="H21" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I21" s="10" t="s">
         <v>14</v>
       </c>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c r="L21" s="5"/>
     </row>
-    <row r="22" ht="19" customHeight="1">
+    <row r="22" spans="1:12" ht="19" customHeight="1">
       <c r="A22" s="6"/>
       <c r="B22" s="7">
         <v>21</v>
       </c>
-      <c r="C22" t="s" s="10">
+      <c r="C22" s="10" t="s">
         <v>43</v>
       </c>
       <c r="D22" s="7"/>
       <c r="E22" s="9"/>
-      <c r="F22" t="s" s="10">
+      <c r="F22" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G22" t="s" s="10">
+      <c r="G22" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H22" t="s" s="10">
-        <v>13</v>
-      </c>
-      <c r="I22" t="s" s="10">
+      <c r="H22" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I22" s="10" t="s">
         <v>21</v>
       </c>
       <c r="J22" s="9">
@@ -2571,26 +2665,26 @@
       <c r="K22" s="9"/>
       <c r="L22" s="5"/>
     </row>
-    <row r="23" ht="19" customHeight="1">
+    <row r="23" spans="1:12" ht="19" customHeight="1">
       <c r="A23" s="6"/>
       <c r="B23" s="7">
         <v>22</v>
       </c>
-      <c r="C23" t="s" s="10">
+      <c r="C23" s="10" t="s">
         <v>44</v>
       </c>
       <c r="D23" s="7"/>
       <c r="E23" s="9"/>
-      <c r="F23" t="s" s="10">
+      <c r="F23" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G23" t="s" s="10">
+      <c r="G23" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H23" t="s" s="10">
-        <v>13</v>
-      </c>
-      <c r="I23" t="s" s="10">
+      <c r="H23" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I23" s="10" t="s">
         <v>14</v>
       </c>
       <c r="J23" s="9">
@@ -2599,24 +2693,24 @@
       <c r="K23" s="9"/>
       <c r="L23" s="5"/>
     </row>
-    <row r="24" ht="19" customHeight="1">
+    <row r="24" spans="1:12" ht="19" customHeight="1">
       <c r="A24" s="6"/>
       <c r="B24" s="7">
         <v>23</v>
       </c>
-      <c r="C24" t="s" s="10">
+      <c r="C24" s="10" t="s">
         <v>45</v>
       </c>
       <c r="D24" s="7"/>
       <c r="E24" s="9"/>
       <c r="F24" s="9"/>
-      <c r="G24" t="s" s="10">
+      <c r="G24" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H24" t="s" s="10">
-        <v>13</v>
-      </c>
-      <c r="I24" t="s" s="10">
+      <c r="H24" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I24" s="10" t="s">
         <v>14</v>
       </c>
       <c r="J24" s="7">
@@ -2625,24 +2719,24 @@
       <c r="K24" s="9"/>
       <c r="L24" s="5"/>
     </row>
-    <row r="25" ht="19" customHeight="1">
+    <row r="25" spans="1:12" ht="19" customHeight="1">
       <c r="A25" s="6"/>
       <c r="B25" s="7">
         <v>24</v>
       </c>
-      <c r="C25" t="s" s="10">
+      <c r="C25" s="10" t="s">
         <v>46</v>
       </c>
       <c r="D25" s="7"/>
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
-      <c r="G25" t="s" s="10">
+      <c r="G25" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H25" t="s" s="10">
-        <v>13</v>
-      </c>
-      <c r="I25" t="s" s="10">
+      <c r="H25" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I25" s="10" t="s">
         <v>14</v>
       </c>
       <c r="J25" s="9">
@@ -2651,24 +2745,24 @@
       <c r="K25" s="9"/>
       <c r="L25" s="5"/>
     </row>
-    <row r="26" ht="19" customHeight="1">
+    <row r="26" spans="1:12" ht="19" customHeight="1">
       <c r="A26" s="6"/>
       <c r="B26" s="7">
         <v>25</v>
       </c>
-      <c r="C26" t="s" s="10">
+      <c r="C26" s="10" t="s">
         <v>47</v>
       </c>
       <c r="D26" s="7"/>
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
-      <c r="G26" t="s" s="10">
+      <c r="G26" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H26" t="s" s="10">
-        <v>13</v>
-      </c>
-      <c r="I26" t="s" s="10">
+      <c r="H26" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I26" s="10" t="s">
         <v>14</v>
       </c>
       <c r="J26" s="9">
@@ -2677,184 +2771,184 @@
       <c r="K26" s="9"/>
       <c r="L26" s="5"/>
     </row>
-    <row r="27" ht="19" customHeight="1">
+    <row r="27" spans="1:12" ht="19" customHeight="1">
       <c r="A27" s="6"/>
       <c r="B27" s="7">
         <v>26</v>
       </c>
-      <c r="C27" t="s" s="10">
+      <c r="C27" s="10" t="s">
         <v>48</v>
       </c>
       <c r="D27" s="9"/>
       <c r="E27" s="9"/>
       <c r="F27" s="9"/>
-      <c r="G27" t="s" s="10">
+      <c r="G27" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H27" t="s" s="10">
-        <v>13</v>
-      </c>
-      <c r="I27" t="s" s="10">
+      <c r="H27" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I27" s="10" t="s">
         <v>21</v>
       </c>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c r="L27" s="5"/>
     </row>
-    <row r="28" ht="19" customHeight="1">
+    <row r="28" spans="1:12" ht="19" customHeight="1">
       <c r="A28" s="6"/>
       <c r="B28" s="7">
         <v>27</v>
       </c>
-      <c r="C28" t="s" s="10">
+      <c r="C28" s="10" t="s">
         <v>49</v>
       </c>
       <c r="D28" s="9"/>
       <c r="E28" s="9"/>
-      <c r="F28" t="s" s="10">
+      <c r="F28" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G28" t="s" s="10">
+      <c r="G28" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H28" t="s" s="10">
+      <c r="H28" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="I28" t="s" s="10">
+      <c r="I28" s="10" t="s">
         <v>14</v>
       </c>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c r="L28" s="5"/>
     </row>
-    <row r="29" ht="33.35" customHeight="1">
+    <row r="29" spans="1:12" ht="33.25" customHeight="1">
       <c r="A29" s="6"/>
       <c r="B29" s="7">
         <v>28</v>
       </c>
-      <c r="C29" t="s" s="8">
+      <c r="C29" s="8" t="s">
         <v>50</v>
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="9"/>
-      <c r="F29" t="s" s="10">
+      <c r="F29" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G29" t="s" s="10">
+      <c r="G29" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H29" t="s" s="10">
+      <c r="H29" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="I29" t="s" s="10">
+      <c r="I29" s="10" t="s">
         <v>21</v>
       </c>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c r="L29" s="5"/>
     </row>
-    <row r="30" ht="19" customHeight="1">
+    <row r="30" spans="1:12" ht="19" customHeight="1">
       <c r="A30" s="6"/>
       <c r="B30" s="7">
         <v>29</v>
       </c>
-      <c r="C30" t="s" s="8">
+      <c r="C30" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D30" t="s" s="10">
+      <c r="D30" s="10" t="s">
         <v>23</v>
       </c>
       <c r="E30" s="9"/>
-      <c r="F30" t="s" s="10">
+      <c r="F30" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G30" t="s" s="10">
+      <c r="G30" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="H30" t="s" s="10">
+      <c r="H30" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="I30" t="s" s="10">
+      <c r="I30" s="10" t="s">
         <v>14</v>
       </c>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c r="L30" s="5"/>
     </row>
-    <row r="31" ht="19" customHeight="1">
+    <row r="31" spans="1:12" ht="19" customHeight="1">
       <c r="A31" s="6"/>
       <c r="B31" s="7">
         <v>30</v>
       </c>
-      <c r="C31" t="s" s="10">
+      <c r="C31" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="D31" t="s" s="10">
+      <c r="D31" s="10" t="s">
         <v>23</v>
       </c>
       <c r="E31" s="9"/>
-      <c r="F31" t="s" s="10">
+      <c r="F31" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G31" t="s" s="10">
+      <c r="G31" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="H31" t="s" s="10">
+      <c r="H31" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="I31" t="s" s="10">
+      <c r="I31" s="10" t="s">
         <v>14</v>
       </c>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c r="L31" s="5"/>
     </row>
-    <row r="32" ht="19" customHeight="1">
+    <row r="32" spans="1:12" ht="19" customHeight="1">
       <c r="A32" s="6"/>
       <c r="B32" s="7">
         <v>31</v>
       </c>
-      <c r="C32" t="s" s="10">
+      <c r="C32" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="D32" t="s" s="10">
+      <c r="D32" s="10" t="s">
         <v>29</v>
       </c>
       <c r="E32" s="9"/>
       <c r="F32" s="9"/>
-      <c r="G32" t="s" s="10">
+      <c r="G32" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="H32" t="s" s="10">
+      <c r="H32" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I32" t="s" s="10">
+      <c r="I32" s="10" t="s">
         <v>14</v>
       </c>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c r="L32" s="5"/>
     </row>
-    <row r="33" ht="19" customHeight="1">
+    <row r="33" spans="1:12" ht="19" customHeight="1">
       <c r="A33" s="6"/>
       <c r="B33" s="7">
         <v>32</v>
       </c>
-      <c r="C33" t="s" s="10">
+      <c r="C33" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="D33" t="s" s="10">
+      <c r="D33" s="10" t="s">
         <v>26</v>
       </c>
       <c r="E33" s="9"/>
       <c r="F33" s="9"/>
-      <c r="G33" t="s" s="10">
+      <c r="G33" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="H33" t="s" s="10">
+      <c r="H33" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I33" t="s" s="10">
+      <c r="I33" s="10" t="s">
         <v>14</v>
       </c>
       <c r="J33" s="9">
@@ -2863,26 +2957,26 @@
       <c r="K33" s="9"/>
       <c r="L33" s="5"/>
     </row>
-    <row r="34" ht="19" customHeight="1">
+    <row r="34" spans="1:12" ht="19" customHeight="1">
       <c r="A34" s="6"/>
       <c r="B34" s="7">
         <v>33</v>
       </c>
-      <c r="C34" t="s" s="10">
+      <c r="C34" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="D34" t="s" s="10">
+      <c r="D34" s="10" t="s">
         <v>29</v>
       </c>
       <c r="E34" s="9"/>
       <c r="F34" s="9"/>
-      <c r="G34" t="s" s="10">
+      <c r="G34" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="H34" t="s" s="10">
-        <v>13</v>
-      </c>
-      <c r="I34" t="s" s="10">
+      <c r="H34" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I34" s="10" t="s">
         <v>14</v>
       </c>
       <c r="J34" s="7">
@@ -2891,26 +2985,26 @@
       <c r="K34" s="9"/>
       <c r="L34" s="5"/>
     </row>
-    <row r="35" ht="19" customHeight="1">
+    <row r="35" spans="1:12" ht="19" customHeight="1">
       <c r="A35" s="6"/>
       <c r="B35" s="7">
         <v>34</v>
       </c>
-      <c r="C35" t="s" s="10">
+      <c r="C35" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="D35" t="s" s="10">
+      <c r="D35" s="10" t="s">
         <v>26</v>
       </c>
       <c r="E35" s="9"/>
       <c r="F35" s="9"/>
-      <c r="G35" t="s" s="10">
+      <c r="G35" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="H35" t="s" s="10">
+      <c r="H35" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I35" t="s" s="10">
+      <c r="I35" s="10" t="s">
         <v>14</v>
       </c>
       <c r="J35" s="7">
@@ -2919,28 +3013,28 @@
       <c r="K35" s="9"/>
       <c r="L35" s="5"/>
     </row>
-    <row r="36" ht="19" customHeight="1">
+    <row r="36" spans="1:12" ht="19" customHeight="1">
       <c r="A36" s="6"/>
       <c r="B36" s="7">
         <v>35</v>
       </c>
-      <c r="C36" t="s" s="10">
+      <c r="C36" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="D36" t="s" s="10">
+      <c r="D36" s="10" t="s">
         <v>23</v>
       </c>
       <c r="E36" s="9"/>
-      <c r="F36" t="s" s="10">
+      <c r="F36" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G36" t="s" s="10">
+      <c r="G36" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="H36" t="s" s="10">
+      <c r="H36" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I36" t="s" s="10">
+      <c r="I36" s="10" t="s">
         <v>14</v>
       </c>
       <c r="J36" s="7">
@@ -2949,80 +3043,80 @@
       <c r="K36" s="9"/>
       <c r="L36" s="5"/>
     </row>
-    <row r="37" ht="19" customHeight="1">
+    <row r="37" spans="1:12" ht="19" customHeight="1">
       <c r="A37" s="6"/>
       <c r="B37" s="7">
         <v>36</v>
       </c>
-      <c r="C37" t="s" s="10">
+      <c r="C37" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="D37" t="s" s="10">
+      <c r="D37" s="10" t="s">
         <v>23</v>
       </c>
       <c r="E37" s="9"/>
-      <c r="F37" t="s" s="10">
+      <c r="F37" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G37" t="s" s="10">
+      <c r="G37" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="H37" t="s" s="10">
+      <c r="H37" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I37" t="s" s="10">
+      <c r="I37" s="10" t="s">
         <v>14</v>
       </c>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c r="L37" s="5"/>
     </row>
-    <row r="38" ht="19" customHeight="1">
+    <row r="38" spans="1:12" ht="19" customHeight="1">
       <c r="A38" s="6"/>
       <c r="B38" s="7">
         <v>37</v>
       </c>
-      <c r="C38" t="s" s="10">
+      <c r="C38" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="D38" t="s" s="10">
+      <c r="D38" s="10" t="s">
         <v>26</v>
       </c>
       <c r="E38" s="9"/>
       <c r="F38" s="9"/>
-      <c r="G38" t="s" s="10">
+      <c r="G38" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="H38" t="s" s="10">
+      <c r="H38" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="I38" t="s" s="10">
+      <c r="I38" s="10" t="s">
         <v>21</v>
       </c>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c r="L38" s="5"/>
     </row>
-    <row r="39" ht="19" customHeight="1">
+    <row r="39" spans="1:12" ht="19" customHeight="1">
       <c r="A39" s="6"/>
       <c r="B39" s="7">
         <v>38</v>
       </c>
-      <c r="C39" t="s" s="10">
+      <c r="C39" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="D39" t="s" s="10">
+      <c r="D39" s="10" t="s">
         <v>29</v>
       </c>
       <c r="E39" s="9"/>
       <c r="F39" s="9"/>
-      <c r="G39" t="s" s="10">
+      <c r="G39" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="H39" t="s" s="10">
+      <c r="H39" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I39" t="s" s="10">
+      <c r="I39" s="10" t="s">
         <v>14</v>
       </c>
       <c r="J39" s="7">
@@ -3031,26 +3125,26 @@
       <c r="K39" s="9"/>
       <c r="L39" s="5"/>
     </row>
-    <row r="40" ht="19" customHeight="1">
+    <row r="40" spans="1:12" ht="19" customHeight="1">
       <c r="A40" s="6"/>
       <c r="B40" s="7">
         <v>39</v>
       </c>
-      <c r="C40" t="s" s="10">
+      <c r="C40" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="D40" t="s" s="10">
+      <c r="D40" s="10" t="s">
         <v>26</v>
       </c>
       <c r="E40" s="9"/>
       <c r="F40" s="9"/>
-      <c r="G40" t="s" s="10">
+      <c r="G40" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="H40" t="s" s="10">
-        <v>13</v>
-      </c>
-      <c r="I40" t="s" s="10">
+      <c r="H40" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I40" s="10" t="s">
         <v>14</v>
       </c>
       <c r="J40" s="7">
@@ -3059,304 +3153,304 @@
       <c r="K40" s="9"/>
       <c r="L40" s="5"/>
     </row>
-    <row r="41" ht="19" customHeight="1">
+    <row r="41" spans="1:12" ht="19" customHeight="1">
       <c r="A41" s="6"/>
       <c r="B41" s="7">
         <v>40</v>
       </c>
-      <c r="C41" t="s" s="10">
+      <c r="C41" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="D41" t="s" s="10">
+      <c r="D41" s="10" t="s">
         <v>23</v>
       </c>
       <c r="E41" s="9"/>
-      <c r="F41" t="s" s="10">
+      <c r="F41" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G41" t="s" s="10">
+      <c r="G41" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="H41" t="s" s="10">
+      <c r="H41" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I41" t="s" s="10">
+      <c r="I41" s="10" t="s">
         <v>14</v>
       </c>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c r="L41" s="5"/>
     </row>
-    <row r="42" ht="19" customHeight="1">
+    <row r="42" spans="1:12" ht="19" customHeight="1">
       <c r="A42" s="6"/>
       <c r="B42" s="7">
         <v>41</v>
       </c>
-      <c r="C42" t="s" s="8">
+      <c r="C42" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="D42" t="s" s="10">
+      <c r="D42" s="10" t="s">
         <v>23</v>
       </c>
       <c r="E42" s="9"/>
-      <c r="F42" t="s" s="10">
+      <c r="F42" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G42" t="s" s="10">
+      <c r="G42" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="H42" t="s" s="10">
+      <c r="H42" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I42" t="s" s="10">
+      <c r="I42" s="10" t="s">
         <v>14</v>
       </c>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c r="L42" s="5"/>
     </row>
-    <row r="43" ht="19" customHeight="1">
+    <row r="43" spans="1:12" ht="19" customHeight="1">
       <c r="A43" s="6"/>
       <c r="B43" s="7">
         <v>42</v>
       </c>
-      <c r="C43" t="s" s="10">
+      <c r="C43" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="D43" t="s" s="10">
+      <c r="D43" s="10" t="s">
         <v>23</v>
       </c>
       <c r="E43" s="9"/>
-      <c r="F43" t="s" s="10">
+      <c r="F43" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G43" t="s" s="10">
+      <c r="G43" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="H43" t="s" s="10">
+      <c r="H43" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I43" t="s" s="10">
+      <c r="I43" s="10" t="s">
         <v>14</v>
       </c>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c r="L43" s="5"/>
     </row>
-    <row r="44" ht="19" customHeight="1">
+    <row r="44" spans="1:12" ht="19" customHeight="1">
       <c r="A44" s="6"/>
       <c r="B44" s="7">
         <v>43</v>
       </c>
-      <c r="C44" t="s" s="10">
+      <c r="C44" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="D44" t="s" s="10">
+      <c r="D44" s="10" t="s">
         <v>23</v>
       </c>
       <c r="E44" s="9"/>
-      <c r="F44" t="s" s="10">
+      <c r="F44" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G44" t="s" s="10">
+      <c r="G44" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="H44" t="s" s="10">
+      <c r="H44" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I44" t="s" s="10">
+      <c r="I44" s="10" t="s">
         <v>14</v>
       </c>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c r="L44" s="5"/>
     </row>
-    <row r="45" ht="33.35" customHeight="1">
+    <row r="45" spans="1:12" ht="33.25" customHeight="1">
       <c r="A45" s="6"/>
       <c r="B45" s="7">
         <v>44</v>
       </c>
-      <c r="C45" t="s" s="8">
+      <c r="C45" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="D45" t="s" s="10">
+      <c r="D45" s="10" t="s">
         <v>23</v>
       </c>
       <c r="E45" s="9"/>
-      <c r="F45" t="s" s="10">
+      <c r="F45" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G45" t="s" s="10">
+      <c r="G45" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="H45" t="s" s="10">
-        <v>13</v>
-      </c>
-      <c r="I45" t="s" s="10">
+      <c r="H45" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I45" s="10" t="s">
         <v>14</v>
       </c>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c r="L45" s="5"/>
     </row>
-    <row r="46" ht="19" customHeight="1">
+    <row r="46" spans="1:12" ht="19" customHeight="1">
       <c r="A46" s="6"/>
       <c r="B46" s="7">
         <v>45</v>
       </c>
-      <c r="C46" t="s" s="10">
+      <c r="C46" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="D46" t="s" s="10">
+      <c r="D46" s="10" t="s">
         <v>23</v>
       </c>
       <c r="E46" s="9"/>
-      <c r="F46" t="s" s="10">
+      <c r="F46" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G46" t="s" s="10">
+      <c r="G46" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="H46" t="s" s="10">
+      <c r="H46" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I46" t="s" s="10">
+      <c r="I46" s="10" t="s">
         <v>14</v>
       </c>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c r="L46" s="5"/>
     </row>
-    <row r="47" ht="19" customHeight="1">
+    <row r="47" spans="1:12" ht="19" customHeight="1">
       <c r="A47" s="6"/>
       <c r="B47" s="7">
         <v>46</v>
       </c>
-      <c r="C47" t="s" s="10">
+      <c r="C47" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="D47" t="s" s="10">
+      <c r="D47" s="10" t="s">
         <v>23</v>
       </c>
       <c r="E47" s="9"/>
-      <c r="F47" t="s" s="10">
+      <c r="F47" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G47" t="s" s="10">
+      <c r="G47" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="H47" t="s" s="10">
-        <v>13</v>
-      </c>
-      <c r="I47" t="s" s="10">
+      <c r="H47" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I47" s="10" t="s">
         <v>14</v>
       </c>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c r="L47" s="5"/>
     </row>
-    <row r="48" ht="19" customHeight="1">
+    <row r="48" spans="1:12" ht="19" customHeight="1">
       <c r="A48" s="6"/>
       <c r="B48" s="7">
         <v>47</v>
       </c>
-      <c r="C48" t="s" s="10">
+      <c r="C48" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="D48" t="s" s="10">
+      <c r="D48" s="10" t="s">
         <v>23</v>
       </c>
       <c r="E48" s="9"/>
-      <c r="F48" t="s" s="10">
+      <c r="F48" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G48" t="s" s="10">
+      <c r="G48" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="H48" t="s" s="10">
+      <c r="H48" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="I48" t="s" s="10">
+      <c r="I48" s="10" t="s">
         <v>21</v>
       </c>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c r="L48" s="5"/>
     </row>
-    <row r="49" ht="19" customHeight="1">
+    <row r="49" spans="1:12" ht="19" customHeight="1">
       <c r="A49" s="6"/>
       <c r="B49" s="7">
         <v>48</v>
       </c>
-      <c r="C49" t="s" s="10">
+      <c r="C49" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="D49" t="s" s="10">
+      <c r="D49" s="10" t="s">
         <v>23</v>
       </c>
       <c r="E49" s="9"/>
-      <c r="F49" t="s" s="10">
+      <c r="F49" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G49" t="s" s="10">
+      <c r="G49" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="H49" t="s" s="10">
+      <c r="H49" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I49" t="s" s="10">
+      <c r="I49" s="10" t="s">
         <v>14</v>
       </c>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c r="L49" s="5"/>
     </row>
-    <row r="50" ht="19" customHeight="1">
+    <row r="50" spans="1:12" ht="19" customHeight="1">
       <c r="A50" s="6"/>
       <c r="B50" s="7">
         <v>49</v>
       </c>
-      <c r="C50" t="s" s="10">
+      <c r="C50" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="D50" t="s" s="10">
+      <c r="D50" s="10" t="s">
         <v>23</v>
       </c>
       <c r="E50" s="9"/>
-      <c r="F50" t="s" s="10">
+      <c r="F50" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G50" t="s" s="10">
+      <c r="G50" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="H50" t="s" s="10">
+      <c r="H50" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I50" t="s" s="10">
+      <c r="I50" s="10" t="s">
         <v>14</v>
       </c>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c r="L50" s="5"/>
     </row>
-    <row r="51" ht="19" customHeight="1">
+    <row r="51" spans="1:12" ht="19" customHeight="1">
       <c r="A51" s="6"/>
       <c r="B51" s="7">
         <v>50</v>
       </c>
-      <c r="C51" t="s" s="10">
+      <c r="C51" s="10" t="s">
         <v>73</v>
       </c>
       <c r="D51" s="7"/>
       <c r="E51" s="9"/>
       <c r="F51" s="9"/>
-      <c r="G51" t="s" s="10">
+      <c r="G51" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H51" t="s" s="10">
-        <v>13</v>
-      </c>
-      <c r="I51" t="s" s="10">
+      <c r="H51" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I51" s="10" t="s">
         <v>14</v>
       </c>
       <c r="J51" s="7">
@@ -3365,26 +3459,26 @@
       <c r="K51" s="9"/>
       <c r="L51" s="5"/>
     </row>
-    <row r="52" ht="19" customHeight="1">
+    <row r="52" spans="1:12" ht="19" customHeight="1">
       <c r="A52" s="6"/>
       <c r="B52" s="7">
         <v>51</v>
       </c>
-      <c r="C52" t="s" s="10">
+      <c r="C52" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="D52" t="s" s="10">
+      <c r="D52" s="10" t="s">
         <v>26</v>
       </c>
       <c r="E52" s="9"/>
       <c r="F52" s="9"/>
-      <c r="G52" t="s" s="10">
+      <c r="G52" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="H52" t="s" s="10">
+      <c r="H52" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I52" t="s" s="10">
+      <c r="I52" s="10" t="s">
         <v>14</v>
       </c>
       <c r="J52" s="7">
@@ -3393,26 +3487,26 @@
       <c r="K52" s="9"/>
       <c r="L52" s="5"/>
     </row>
-    <row r="53" ht="19" customHeight="1">
+    <row r="53" spans="1:12" ht="19" customHeight="1">
       <c r="A53" s="6"/>
       <c r="B53" s="7">
         <v>52</v>
       </c>
-      <c r="C53" t="s" s="10">
+      <c r="C53" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="D53" t="s" s="10">
+      <c r="D53" s="10" t="s">
         <v>26</v>
       </c>
       <c r="E53" s="9"/>
       <c r="F53" s="9"/>
-      <c r="G53" t="s" s="10">
+      <c r="G53" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="H53" t="s" s="10">
+      <c r="H53" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I53" t="s" s="10">
+      <c r="I53" s="10" t="s">
         <v>14</v>
       </c>
       <c r="J53" s="7">
@@ -3421,80 +3515,80 @@
       <c r="K53" s="9"/>
       <c r="L53" s="5"/>
     </row>
-    <row r="54" ht="19" customHeight="1">
+    <row r="54" spans="1:12" ht="19" customHeight="1">
       <c r="A54" s="6"/>
       <c r="B54" s="7">
         <v>53</v>
       </c>
-      <c r="C54" t="s" s="10">
+      <c r="C54" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="D54" t="s" s="10">
+      <c r="D54" s="10" t="s">
         <v>23</v>
       </c>
       <c r="E54" s="9"/>
-      <c r="F54" t="s" s="10">
+      <c r="F54" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G54" t="s" s="10">
+      <c r="G54" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="H54" t="s" s="10">
+      <c r="H54" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="I54" t="s" s="10">
+      <c r="I54" s="10" t="s">
         <v>21</v>
       </c>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c r="L54" s="5"/>
     </row>
-    <row r="55" ht="19" customHeight="1">
+    <row r="55" spans="1:12" ht="19" customHeight="1">
       <c r="A55" s="6"/>
       <c r="B55" s="7">
         <v>54</v>
       </c>
-      <c r="C55" t="s" s="10">
+      <c r="C55" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="D55" t="s" s="10">
+      <c r="D55" s="10" t="s">
         <v>23</v>
       </c>
       <c r="E55" s="9"/>
       <c r="F55" s="9"/>
-      <c r="G55" t="s" s="10">
+      <c r="G55" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="H55" t="s" s="10">
+      <c r="H55" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="I55" t="s" s="10">
+      <c r="I55" s="10" t="s">
         <v>21</v>
       </c>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c r="L55" s="5"/>
     </row>
-    <row r="56" ht="19" customHeight="1">
+    <row r="56" spans="1:12" ht="19" customHeight="1">
       <c r="A56" s="6"/>
       <c r="B56" s="7">
         <v>55</v>
       </c>
-      <c r="C56" t="s" s="10">
+      <c r="C56" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D56" t="s" s="10">
+      <c r="D56" s="10" t="s">
         <v>26</v>
       </c>
       <c r="E56" s="9"/>
       <c r="F56" s="9"/>
-      <c r="G56" t="s" s="10">
+      <c r="G56" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="H56" t="s" s="10">
+      <c r="H56" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="I56" t="s" s="10">
+      <c r="I56" s="10" t="s">
         <v>14</v>
       </c>
       <c r="J56" s="7">
@@ -3503,24 +3597,24 @@
       <c r="K56" s="9"/>
       <c r="L56" s="5"/>
     </row>
-    <row r="57" ht="19" customHeight="1">
+    <row r="57" spans="1:12" ht="19" customHeight="1">
       <c r="A57" s="6"/>
       <c r="B57" s="7">
         <v>56</v>
       </c>
-      <c r="C57" t="s" s="10">
+      <c r="C57" s="10" t="s">
         <v>79</v>
       </c>
       <c r="D57" s="7"/>
       <c r="E57" s="9"/>
       <c r="F57" s="9"/>
-      <c r="G57" t="s" s="10">
+      <c r="G57" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H57" t="s" s="10">
-        <v>13</v>
-      </c>
-      <c r="I57" t="s" s="10">
+      <c r="H57" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I57" s="10" t="s">
         <v>14</v>
       </c>
       <c r="J57" s="9">
@@ -3529,74 +3623,74 @@
       <c r="K57" s="9"/>
       <c r="L57" s="5"/>
     </row>
-    <row r="58" ht="19" customHeight="1">
+    <row r="58" spans="1:12" ht="19" customHeight="1">
       <c r="A58" s="6"/>
       <c r="B58" s="7">
         <v>57</v>
       </c>
-      <c r="C58" t="s" s="10">
+      <c r="C58" s="10" t="s">
         <v>80</v>
       </c>
       <c r="D58" s="9"/>
       <c r="E58" s="9"/>
       <c r="F58" s="9"/>
-      <c r="G58" t="s" s="10">
+      <c r="G58" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="H58" t="s" s="10">
+      <c r="H58" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="I58" t="s" s="10">
+      <c r="I58" s="10" t="s">
         <v>14</v>
       </c>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c r="L58" s="5"/>
     </row>
-    <row r="59" ht="19" customHeight="1">
+    <row r="59" spans="1:12" ht="19" customHeight="1">
       <c r="A59" s="6"/>
       <c r="B59" s="7">
         <v>58</v>
       </c>
-      <c r="C59" t="s" s="10">
+      <c r="C59" s="10" t="s">
         <v>83</v>
       </c>
       <c r="D59" s="9"/>
       <c r="E59" s="9"/>
-      <c r="F59" t="s" s="10">
+      <c r="F59" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G59" t="s" s="10">
+      <c r="G59" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="H59" t="s" s="10">
+      <c r="H59" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="I59" t="s" s="10">
+      <c r="I59" s="10" t="s">
         <v>14</v>
       </c>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c r="L59" s="5"/>
     </row>
-    <row r="60" ht="19" customHeight="1">
+    <row r="60" spans="1:12" ht="19" customHeight="1">
       <c r="A60" s="6"/>
       <c r="B60" s="7">
         <v>59</v>
       </c>
-      <c r="C60" t="s" s="10">
+      <c r="C60" s="10" t="s">
         <v>84</v>
       </c>
       <c r="D60" s="7"/>
       <c r="E60" s="9"/>
       <c r="F60" s="9"/>
-      <c r="G60" t="s" s="10">
+      <c r="G60" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="H60" t="s" s="10">
+      <c r="H60" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="I60" t="s" s="10">
+      <c r="I60" s="10" t="s">
         <v>14</v>
       </c>
       <c r="J60" s="7">
@@ -3605,26 +3699,26 @@
       <c r="K60" s="9"/>
       <c r="L60" s="5"/>
     </row>
-    <row r="61" ht="19" customHeight="1">
+    <row r="61" spans="1:12" ht="19" customHeight="1">
       <c r="A61" s="6"/>
       <c r="B61" s="7">
         <v>60</v>
       </c>
-      <c r="C61" t="s" s="10">
+      <c r="C61" s="10" t="s">
         <v>85</v>
       </c>
       <c r="D61" s="7"/>
       <c r="E61" s="9"/>
-      <c r="F61" t="s" s="10">
+      <c r="F61" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G61" t="s" s="10">
+      <c r="G61" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H61" t="s" s="10">
+      <c r="H61" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I61" t="s" s="10">
+      <c r="I61" s="10" t="s">
         <v>14</v>
       </c>
       <c r="J61" s="7">
@@ -3633,24 +3727,24 @@
       <c r="K61" s="9"/>
       <c r="L61" s="5"/>
     </row>
-    <row r="62" ht="19" customHeight="1">
+    <row r="62" spans="1:12" ht="19" customHeight="1">
       <c r="A62" s="6"/>
       <c r="B62" s="7">
         <v>61</v>
       </c>
-      <c r="C62" t="s" s="10">
+      <c r="C62" s="10" t="s">
         <v>86</v>
       </c>
       <c r="D62" s="7"/>
       <c r="E62" s="9"/>
       <c r="F62" s="9"/>
-      <c r="G62" t="s" s="10">
+      <c r="G62" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="H62" t="s" s="10">
+      <c r="H62" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="I62" t="s" s="10">
+      <c r="I62" s="10" t="s">
         <v>14</v>
       </c>
       <c r="J62" s="7">
@@ -3659,24 +3753,24 @@
       <c r="K62" s="9"/>
       <c r="L62" s="5"/>
     </row>
-    <row r="63" ht="19" customHeight="1">
+    <row r="63" spans="1:12" ht="19" customHeight="1">
       <c r="A63" s="6"/>
       <c r="B63" s="7">
         <v>62</v>
       </c>
-      <c r="C63" t="s" s="10">
+      <c r="C63" s="10" t="s">
         <v>87</v>
       </c>
       <c r="D63" s="7"/>
       <c r="E63" s="9"/>
       <c r="F63" s="9"/>
-      <c r="G63" t="s" s="10">
+      <c r="G63" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="H63" t="s" s="10">
+      <c r="H63" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="I63" t="s" s="10">
+      <c r="I63" s="10" t="s">
         <v>14</v>
       </c>
       <c r="J63" s="7">
@@ -3685,24 +3779,24 @@
       <c r="K63" s="9"/>
       <c r="L63" s="5"/>
     </row>
-    <row r="64" ht="19" customHeight="1">
+    <row r="64" spans="1:12" ht="19" customHeight="1">
       <c r="A64" s="6"/>
       <c r="B64" s="7">
         <v>63</v>
       </c>
-      <c r="C64" t="s" s="10">
+      <c r="C64" s="10" t="s">
         <v>88</v>
       </c>
       <c r="D64" s="7"/>
       <c r="E64" s="9"/>
       <c r="F64" s="9"/>
-      <c r="G64" t="s" s="10">
+      <c r="G64" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="H64" t="s" s="10">
+      <c r="H64" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="I64" t="s" s="10">
+      <c r="I64" s="10" t="s">
         <v>14</v>
       </c>
       <c r="J64" s="7">
@@ -3711,26 +3805,26 @@
       <c r="K64" s="9"/>
       <c r="L64" s="5"/>
     </row>
-    <row r="65" ht="19" customHeight="1">
+    <row r="65" spans="1:12" ht="19" customHeight="1">
       <c r="A65" s="6"/>
       <c r="B65" s="7">
         <v>64</v>
       </c>
-      <c r="C65" t="s" s="10">
+      <c r="C65" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="D65" t="s" s="10">
+      <c r="D65" s="10" t="s">
         <v>29</v>
       </c>
       <c r="E65" s="9"/>
       <c r="F65" s="9"/>
-      <c r="G65" t="s" s="10">
+      <c r="G65" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="H65" t="s" s="10">
+      <c r="H65" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="I65" t="s" s="10">
+      <c r="I65" s="10" t="s">
         <v>14</v>
       </c>
       <c r="J65" s="7">
@@ -3739,124 +3833,124 @@
       <c r="K65" s="9"/>
       <c r="L65" s="5"/>
     </row>
-    <row r="66" ht="19" customHeight="1">
+    <row r="66" spans="1:12" ht="19" customHeight="1">
       <c r="A66" s="6"/>
       <c r="B66" s="7">
         <v>65</v>
       </c>
-      <c r="C66" t="s" s="10">
+      <c r="C66" s="10" t="s">
         <v>90</v>
       </c>
       <c r="D66" s="9"/>
       <c r="E66" s="9"/>
       <c r="F66" s="9"/>
-      <c r="G66" t="s" s="10">
+      <c r="G66" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="H66" t="s" s="10">
+      <c r="H66" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="I66" t="s" s="10">
+      <c r="I66" s="10" t="s">
         <v>14</v>
       </c>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c r="L66" s="5"/>
     </row>
-    <row r="67" ht="19" customHeight="1">
+    <row r="67" spans="1:12" ht="19" customHeight="1">
       <c r="A67" s="6"/>
       <c r="B67" s="7">
         <v>66</v>
       </c>
-      <c r="C67" t="s" s="10">
+      <c r="C67" s="10" t="s">
         <v>91</v>
       </c>
       <c r="D67" s="9"/>
       <c r="E67" s="9"/>
-      <c r="F67" t="s" s="10">
+      <c r="F67" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G67" t="s" s="10">
+      <c r="G67" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="H67" t="s" s="10">
+      <c r="H67" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="I67" t="s" s="10">
+      <c r="I67" s="10" t="s">
         <v>14</v>
       </c>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c r="L67" s="5"/>
     </row>
-    <row r="68" ht="19" customHeight="1">
+    <row r="68" spans="1:12" ht="19" customHeight="1">
       <c r="A68" s="6"/>
       <c r="B68" s="7">
         <v>67</v>
       </c>
-      <c r="C68" t="s" s="10">
+      <c r="C68" s="10" t="s">
         <v>92</v>
       </c>
       <c r="D68" s="9"/>
       <c r="E68" s="9"/>
       <c r="F68" s="9"/>
-      <c r="G68" t="s" s="10">
+      <c r="G68" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H68" t="s" s="10">
+      <c r="H68" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="I68" t="s" s="10">
+      <c r="I68" s="10" t="s">
         <v>21</v>
       </c>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c r="L68" s="5"/>
     </row>
-    <row r="69" ht="19" customHeight="1">
+    <row r="69" spans="1:12" ht="19" customHeight="1">
       <c r="A69" s="6"/>
       <c r="B69" s="7">
         <v>68</v>
       </c>
-      <c r="C69" t="s" s="10">
+      <c r="C69" s="10" t="s">
         <v>94</v>
       </c>
       <c r="D69" s="9"/>
       <c r="E69" s="9"/>
-      <c r="F69" t="s" s="10">
+      <c r="F69" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G69" t="s" s="10">
+      <c r="G69" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H69" t="s" s="10">
+      <c r="H69" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="I69" t="s" s="10">
+      <c r="I69" s="10" t="s">
         <v>14</v>
       </c>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c r="L69" s="5"/>
     </row>
-    <row r="70" ht="19" customHeight="1">
+    <row r="70" spans="1:12" ht="19" customHeight="1">
       <c r="A70" s="6"/>
       <c r="B70" s="7">
         <v>69</v>
       </c>
-      <c r="C70" t="s" s="10">
+      <c r="C70" s="10" t="s">
         <v>95</v>
       </c>
       <c r="D70" s="7"/>
       <c r="E70" s="9"/>
       <c r="F70" s="9"/>
-      <c r="G70" t="s" s="10">
+      <c r="G70" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H70" t="s" s="10">
+      <c r="H70" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="I70" t="s" s="10">
+      <c r="I70" s="10" t="s">
         <v>14</v>
       </c>
       <c r="J70" s="7">
@@ -3865,50 +3959,50 @@
       <c r="K70" s="9"/>
       <c r="L70" s="5"/>
     </row>
-    <row r="71" ht="19" customHeight="1">
+    <row r="71" spans="1:12" ht="19" customHeight="1">
       <c r="A71" s="6"/>
       <c r="B71" s="7">
         <v>70</v>
       </c>
-      <c r="C71" t="s" s="10">
+      <c r="C71" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="D71" t="s" s="10">
+      <c r="D71" s="10" t="s">
         <v>23</v>
       </c>
       <c r="E71" s="9"/>
       <c r="F71" s="9"/>
-      <c r="G71" t="s" s="10">
+      <c r="G71" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="H71" t="s" s="10">
+      <c r="H71" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I71" t="s" s="10">
+      <c r="I71" s="10" t="s">
         <v>21</v>
       </c>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c r="L71" s="5"/>
     </row>
-    <row r="72" ht="19" customHeight="1">
+    <row r="72" spans="1:12" ht="19" customHeight="1">
       <c r="A72" s="6"/>
       <c r="B72" s="7">
         <v>71</v>
       </c>
-      <c r="C72" t="s" s="10">
+      <c r="C72" s="10" t="s">
         <v>97</v>
       </c>
       <c r="D72" s="7"/>
       <c r="E72" s="9"/>
       <c r="F72" s="9"/>
-      <c r="G72" t="s" s="10">
+      <c r="G72" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H72" t="s" s="10">
+      <c r="H72" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="I72" t="s" s="10">
+      <c r="I72" s="10" t="s">
         <v>14</v>
       </c>
       <c r="J72" s="9">
@@ -3917,50 +4011,50 @@
       <c r="K72" s="9"/>
       <c r="L72" s="5"/>
     </row>
-    <row r="73" ht="19" customHeight="1">
+    <row r="73" spans="1:12" ht="19" customHeight="1">
       <c r="A73" s="6"/>
       <c r="B73" s="7">
         <v>72</v>
       </c>
-      <c r="C73" t="s" s="10">
+      <c r="C73" s="10" t="s">
         <v>98</v>
       </c>
       <c r="D73" s="9"/>
       <c r="E73" s="9"/>
-      <c r="F73" t="s" s="10">
+      <c r="F73" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G73" t="s" s="10">
+      <c r="G73" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H73" t="s" s="10">
+      <c r="H73" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="I73" t="s" s="10">
+      <c r="I73" s="10" t="s">
         <v>14</v>
       </c>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c r="L73" s="5"/>
     </row>
-    <row r="74" ht="19" customHeight="1">
+    <row r="74" spans="1:12" ht="19" customHeight="1">
       <c r="A74" s="6"/>
       <c r="B74" s="7">
         <v>73</v>
       </c>
-      <c r="C74" t="s" s="10">
+      <c r="C74" s="10" t="s">
         <v>99</v>
       </c>
       <c r="D74" s="7"/>
       <c r="E74" s="9"/>
       <c r="F74" s="9"/>
-      <c r="G74" t="s" s="10">
+      <c r="G74" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H74" t="s" s="10">
+      <c r="H74" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="I74" t="s" s="10">
+      <c r="I74" s="10" t="s">
         <v>14</v>
       </c>
       <c r="J74" s="7">
@@ -3969,52 +4063,52 @@
       <c r="K74" s="9"/>
       <c r="L74" s="5"/>
     </row>
-    <row r="75" ht="19" customHeight="1">
+    <row r="75" spans="1:12" ht="19" customHeight="1">
       <c r="A75" s="6"/>
       <c r="B75" s="7">
         <v>74</v>
       </c>
-      <c r="C75" t="s" s="10">
+      <c r="C75" s="10" t="s">
         <v>100</v>
       </c>
       <c r="D75" s="9"/>
       <c r="E75" s="9"/>
-      <c r="F75" t="s" s="10">
+      <c r="F75" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G75" t="s" s="10">
+      <c r="G75" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="H75" t="s" s="10">
+      <c r="H75" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="I75" t="s" s="10">
+      <c r="I75" s="10" t="s">
         <v>14</v>
       </c>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c r="L75" s="5"/>
     </row>
-    <row r="76" ht="19" customHeight="1">
+    <row r="76" spans="1:12" ht="19" customHeight="1">
       <c r="A76" s="6"/>
       <c r="B76" s="7">
         <v>75</v>
       </c>
-      <c r="C76" t="s" s="10">
+      <c r="C76" s="10" t="s">
         <v>101</v>
       </c>
       <c r="D76" s="7"/>
       <c r="E76" s="9"/>
-      <c r="F76" t="s" s="10">
+      <c r="F76" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G76" t="s" s="10">
+      <c r="G76" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H76" t="s" s="10">
-        <v>13</v>
-      </c>
-      <c r="I76" t="s" s="10">
+      <c r="H76" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I76" s="10" t="s">
         <v>14</v>
       </c>
       <c r="J76" s="9">
@@ -4023,52 +4117,52 @@
       <c r="K76" s="9"/>
       <c r="L76" s="5"/>
     </row>
-    <row r="77" ht="19" customHeight="1">
+    <row r="77" spans="1:12" ht="19" customHeight="1">
       <c r="A77" s="6"/>
       <c r="B77" s="7">
         <v>76</v>
       </c>
-      <c r="C77" t="s" s="10">
+      <c r="C77" s="10" t="s">
         <v>102</v>
       </c>
       <c r="D77" s="9"/>
       <c r="E77" s="9"/>
-      <c r="F77" t="s" s="10">
+      <c r="F77" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G77" t="s" s="10">
+      <c r="G77" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H77" t="s" s="10">
-        <v>13</v>
-      </c>
-      <c r="I77" t="s" s="10">
+      <c r="H77" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I77" s="10" t="s">
         <v>14</v>
       </c>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c r="L77" s="5"/>
     </row>
-    <row r="78" ht="19" customHeight="1">
+    <row r="78" spans="1:12" ht="19" customHeight="1">
       <c r="A78" s="6"/>
       <c r="B78" s="7">
         <v>77</v>
       </c>
-      <c r="C78" t="s" s="10">
+      <c r="C78" s="10" t="s">
         <v>103</v>
       </c>
       <c r="D78" s="7"/>
       <c r="E78" s="9"/>
-      <c r="F78" t="s" s="10">
+      <c r="F78" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G78" t="s" s="10">
+      <c r="G78" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H78" t="s" s="10">
-        <v>13</v>
-      </c>
-      <c r="I78" t="s" s="10">
+      <c r="H78" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I78" s="10" t="s">
         <v>14</v>
       </c>
       <c r="J78" s="7">
@@ -4077,50 +4171,50 @@
       <c r="K78" s="9"/>
       <c r="L78" s="5"/>
     </row>
-    <row r="79" ht="19" customHeight="1">
+    <row r="79" spans="1:12" ht="19" customHeight="1">
       <c r="A79" s="6"/>
       <c r="B79" s="7">
         <v>78</v>
       </c>
-      <c r="C79" t="s" s="10">
+      <c r="C79" s="10" t="s">
         <v>104</v>
       </c>
       <c r="D79" s="9"/>
       <c r="E79" s="9"/>
-      <c r="F79" t="s" s="10">
+      <c r="F79" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G79" t="s" s="10">
+      <c r="G79" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H79" t="s" s="10">
-        <v>13</v>
-      </c>
-      <c r="I79" t="s" s="10">
+      <c r="H79" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I79" s="10" t="s">
         <v>14</v>
       </c>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c r="L79" s="5"/>
     </row>
-    <row r="80" ht="19" customHeight="1">
+    <row r="80" spans="1:12" ht="19" customHeight="1">
       <c r="A80" s="6"/>
       <c r="B80" s="7">
         <v>79</v>
       </c>
-      <c r="C80" t="s" s="10">
+      <c r="C80" s="10" t="s">
         <v>105</v>
       </c>
       <c r="D80" s="7"/>
       <c r="E80" s="9"/>
       <c r="F80" s="9"/>
-      <c r="G80" t="s" s="10">
+      <c r="G80" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H80" t="s" s="10">
-        <v>13</v>
-      </c>
-      <c r="I80" t="s" s="10">
+      <c r="H80" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I80" s="10" t="s">
         <v>14</v>
       </c>
       <c r="J80" s="7">
@@ -4129,24 +4223,24 @@
       <c r="K80" s="9"/>
       <c r="L80" s="5"/>
     </row>
-    <row r="81" ht="19" customHeight="1">
+    <row r="81" spans="1:12" ht="19" customHeight="1">
       <c r="A81" s="6"/>
       <c r="B81" s="7">
         <v>80</v>
       </c>
-      <c r="C81" t="s" s="10">
+      <c r="C81" s="10" t="s">
         <v>106</v>
       </c>
       <c r="D81" s="7"/>
       <c r="E81" s="9"/>
       <c r="F81" s="9"/>
-      <c r="G81" t="s" s="10">
+      <c r="G81" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H81" t="s" s="10">
+      <c r="H81" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I81" t="s" s="10">
+      <c r="I81" s="10" t="s">
         <v>14</v>
       </c>
       <c r="J81" s="7">
@@ -4155,24 +4249,24 @@
       <c r="K81" s="9"/>
       <c r="L81" s="5"/>
     </row>
-    <row r="82" ht="19" customHeight="1">
+    <row r="82" spans="1:12" ht="19" customHeight="1">
       <c r="A82" s="6"/>
       <c r="B82" s="7">
         <v>81</v>
       </c>
-      <c r="C82" t="s" s="10">
+      <c r="C82" s="10" t="s">
         <v>107</v>
       </c>
       <c r="D82" s="7"/>
       <c r="E82" s="9"/>
       <c r="F82" s="9"/>
-      <c r="G82" t="s" s="10">
+      <c r="G82" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H82" t="s" s="10">
-        <v>13</v>
-      </c>
-      <c r="I82" t="s" s="10">
+      <c r="H82" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I82" s="10" t="s">
         <v>14</v>
       </c>
       <c r="J82" s="7">
@@ -4181,24 +4275,24 @@
       <c r="K82" s="9"/>
       <c r="L82" s="5"/>
     </row>
-    <row r="83" ht="19" customHeight="1">
+    <row r="83" spans="1:12" ht="19" customHeight="1">
       <c r="A83" s="6"/>
       <c r="B83" s="7">
         <v>82</v>
       </c>
-      <c r="C83" t="s" s="10">
+      <c r="C83" s="10" t="s">
         <v>108</v>
       </c>
       <c r="D83" s="7"/>
       <c r="E83" s="9"/>
       <c r="F83" s="9"/>
-      <c r="G83" t="s" s="10">
+      <c r="G83" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H83" t="s" s="10">
+      <c r="H83" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="I83" t="s" s="10">
+      <c r="I83" s="10" t="s">
         <v>14</v>
       </c>
       <c r="J83" s="7">
@@ -4207,24 +4301,24 @@
       <c r="K83" s="9"/>
       <c r="L83" s="5"/>
     </row>
-    <row r="84" ht="19" customHeight="1">
+    <row r="84" spans="1:12" ht="19" customHeight="1">
       <c r="A84" s="6"/>
       <c r="B84" s="7">
         <v>83</v>
       </c>
-      <c r="C84" t="s" s="10">
+      <c r="C84" s="10" t="s">
         <v>109</v>
       </c>
       <c r="D84" s="7"/>
       <c r="E84" s="9"/>
       <c r="F84" s="9"/>
-      <c r="G84" t="s" s="10">
+      <c r="G84" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H84" t="s" s="10">
+      <c r="H84" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="I84" t="s" s="10">
+      <c r="I84" s="10" t="s">
         <v>14</v>
       </c>
       <c r="J84" s="7">
@@ -4233,50 +4327,50 @@
       <c r="K84" s="9"/>
       <c r="L84" s="5"/>
     </row>
-    <row r="85" ht="19" customHeight="1">
+    <row r="85" spans="1:12" ht="19" customHeight="1">
       <c r="A85" s="6"/>
       <c r="B85" s="7">
         <v>84</v>
       </c>
-      <c r="C85" t="s" s="10">
+      <c r="C85" s="10" t="s">
         <v>110</v>
       </c>
       <c r="D85" s="9"/>
       <c r="E85" s="9"/>
-      <c r="F85" t="s" s="10">
+      <c r="F85" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G85" t="s" s="10">
+      <c r="G85" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H85" t="s" s="10">
-        <v>13</v>
-      </c>
-      <c r="I85" t="s" s="10">
+      <c r="H85" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I85" s="10" t="s">
         <v>14</v>
       </c>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c r="L85" s="5"/>
     </row>
-    <row r="86" ht="19" customHeight="1">
+    <row r="86" spans="1:12" ht="19" customHeight="1">
       <c r="A86" s="6"/>
       <c r="B86" s="7">
         <v>85</v>
       </c>
-      <c r="C86" t="s" s="10">
+      <c r="C86" s="10" t="s">
         <v>111</v>
       </c>
       <c r="D86" s="7"/>
       <c r="E86" s="9"/>
       <c r="F86" s="9"/>
-      <c r="G86" t="s" s="10">
+      <c r="G86" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H86" t="s" s="10">
+      <c r="H86" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="I86" t="s" s="10">
+      <c r="I86" s="10" t="s">
         <v>21</v>
       </c>
       <c r="J86" s="7">
@@ -4285,24 +4379,24 @@
       <c r="K86" s="9"/>
       <c r="L86" s="5"/>
     </row>
-    <row r="87" ht="19" customHeight="1">
+    <row r="87" spans="1:12" ht="19" customHeight="1">
       <c r="A87" s="6"/>
       <c r="B87" s="7">
         <v>86</v>
       </c>
-      <c r="C87" t="s" s="10">
+      <c r="C87" s="10" t="s">
         <v>112</v>
       </c>
       <c r="D87" s="7"/>
       <c r="E87" s="9"/>
       <c r="F87" s="9"/>
-      <c r="G87" t="s" s="10">
+      <c r="G87" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H87" t="s" s="10">
+      <c r="H87" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="I87" t="s" s="10">
+      <c r="I87" s="10" t="s">
         <v>14</v>
       </c>
       <c r="J87" s="9">
@@ -4311,24 +4405,24 @@
       <c r="K87" s="9"/>
       <c r="L87" s="5"/>
     </row>
-    <row r="88" ht="19" customHeight="1">
+    <row r="88" spans="1:12" ht="19" customHeight="1">
       <c r="A88" s="6"/>
       <c r="B88" s="7">
         <v>87</v>
       </c>
-      <c r="C88" t="s" s="10">
+      <c r="C88" s="10" t="s">
         <v>113</v>
       </c>
       <c r="D88" s="7"/>
       <c r="E88" s="9"/>
       <c r="F88" s="9"/>
-      <c r="G88" t="s" s="10">
+      <c r="G88" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H88" t="s" s="10">
+      <c r="H88" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I88" t="s" s="10">
+      <c r="I88" s="10" t="s">
         <v>14</v>
       </c>
       <c r="J88" s="9">
@@ -4337,24 +4431,24 @@
       <c r="K88" s="9"/>
       <c r="L88" s="5"/>
     </row>
-    <row r="89" ht="19" customHeight="1">
+    <row r="89" spans="1:12" ht="19" customHeight="1">
       <c r="A89" s="6"/>
       <c r="B89" s="7">
         <v>88</v>
       </c>
-      <c r="C89" t="s" s="10">
+      <c r="C89" s="10" t="s">
         <v>114</v>
       </c>
       <c r="D89" s="7"/>
       <c r="E89" s="9"/>
       <c r="F89" s="9"/>
-      <c r="G89" t="s" s="10">
+      <c r="G89" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H89" t="s" s="10">
-        <v>13</v>
-      </c>
-      <c r="I89" t="s" s="10">
+      <c r="H89" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I89" s="10" t="s">
         <v>14</v>
       </c>
       <c r="J89" s="9">
@@ -4363,26 +4457,26 @@
       <c r="K89" s="9"/>
       <c r="L89" s="5"/>
     </row>
-    <row r="90" ht="19" customHeight="1">
+    <row r="90" spans="1:12" ht="19" customHeight="1">
       <c r="A90" s="6"/>
       <c r="B90" s="7">
         <v>89</v>
       </c>
-      <c r="C90" t="s" s="10">
+      <c r="C90" s="10" t="s">
         <v>115</v>
       </c>
       <c r="D90" s="7"/>
       <c r="E90" s="9"/>
-      <c r="F90" t="s" s="10">
+      <c r="F90" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G90" t="s" s="10">
+      <c r="G90" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H90" t="s" s="10">
-        <v>13</v>
-      </c>
-      <c r="I90" t="s" s="10">
+      <c r="H90" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I90" s="10" t="s">
         <v>14</v>
       </c>
       <c r="J90" s="9">
@@ -4391,50 +4485,50 @@
       <c r="K90" s="9"/>
       <c r="L90" s="5"/>
     </row>
-    <row r="91" ht="19" customHeight="1">
+    <row r="91" spans="1:12" ht="19" customHeight="1">
       <c r="A91" s="6"/>
       <c r="B91" s="7">
         <v>90</v>
       </c>
-      <c r="C91" t="s" s="10">
+      <c r="C91" s="10" t="s">
         <v>116</v>
       </c>
       <c r="D91" s="9"/>
       <c r="E91" s="9"/>
       <c r="F91" s="9"/>
-      <c r="G91" t="s" s="10">
+      <c r="G91" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="H91" t="s" s="10">
+      <c r="H91" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="I91" t="s" s="10">
+      <c r="I91" s="10" t="s">
         <v>21</v>
       </c>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c r="L91" s="5"/>
     </row>
-    <row r="92" ht="19" customHeight="1">
+    <row r="92" spans="1:12" ht="19" customHeight="1">
       <c r="A92" s="6"/>
       <c r="B92" s="7">
         <v>91</v>
       </c>
-      <c r="C92" t="s" s="10">
+      <c r="C92" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="D92" t="s" s="10">
+      <c r="D92" s="10" t="s">
         <v>23</v>
       </c>
       <c r="E92" s="9"/>
       <c r="F92" s="9"/>
-      <c r="G92" t="s" s="10">
+      <c r="G92" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="H92" t="s" s="10">
+      <c r="H92" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I92" t="s" s="10">
+      <c r="I92" s="10" t="s">
         <v>14</v>
       </c>
       <c r="J92" s="7">
@@ -4443,48 +4537,48 @@
       <c r="K92" s="9"/>
       <c r="L92" s="5"/>
     </row>
-    <row r="93" ht="19" customHeight="1">
+    <row r="93" spans="1:12" ht="19" customHeight="1">
       <c r="A93" s="6"/>
       <c r="B93" s="7">
         <v>92</v>
       </c>
-      <c r="C93" t="s" s="10">
+      <c r="C93" s="10" t="s">
         <v>118</v>
       </c>
       <c r="D93" s="9"/>
       <c r="E93" s="9"/>
       <c r="F93" s="9"/>
       <c r="G93" s="9"/>
-      <c r="H93" t="s" s="10">
+      <c r="H93" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I93" t="s" s="10">
+      <c r="I93" s="10" t="s">
         <v>14</v>
       </c>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c r="L93" s="5"/>
     </row>
-    <row r="94" ht="19" customHeight="1">
+    <row r="94" spans="1:12" ht="19" customHeight="1">
       <c r="A94" s="6"/>
       <c r="B94" s="7">
         <v>93</v>
       </c>
-      <c r="C94" t="s" s="10">
+      <c r="C94" s="10" t="s">
         <v>119</v>
       </c>
       <c r="D94" s="7"/>
       <c r="E94" s="9"/>
-      <c r="F94" t="s" s="10">
+      <c r="F94" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G94" t="s" s="10">
+      <c r="G94" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H94" t="s" s="10">
-        <v>13</v>
-      </c>
-      <c r="I94" t="s" s="10">
+      <c r="H94" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I94" s="10" t="s">
         <v>14</v>
       </c>
       <c r="J94" s="7">
@@ -4493,48 +4587,48 @@
       <c r="K94" s="9"/>
       <c r="L94" s="5"/>
     </row>
-    <row r="95" ht="19" customHeight="1">
+    <row r="95" spans="1:12" ht="19" customHeight="1">
       <c r="A95" s="6"/>
       <c r="B95" s="7">
         <v>94</v>
       </c>
-      <c r="C95" t="s" s="10">
+      <c r="C95" s="10" t="s">
         <v>120</v>
       </c>
       <c r="D95" s="9"/>
       <c r="E95" s="9"/>
       <c r="F95" s="9"/>
       <c r="G95" s="9"/>
-      <c r="H95" t="s" s="10">
+      <c r="H95" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="I95" t="s" s="10">
+      <c r="I95" s="10" t="s">
         <v>21</v>
       </c>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c r="L95" s="5"/>
     </row>
-    <row r="96" ht="19" customHeight="1">
+    <row r="96" spans="1:12" ht="19" customHeight="1">
       <c r="A96" s="6"/>
       <c r="B96" s="7">
         <v>95</v>
       </c>
-      <c r="C96" t="s" s="10">
+      <c r="C96" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="D96" t="s" s="10">
+      <c r="D96" s="10" t="s">
         <v>26</v>
       </c>
       <c r="E96" s="9"/>
       <c r="F96" s="9"/>
-      <c r="G96" t="s" s="10">
+      <c r="G96" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="H96" t="s" s="10">
+      <c r="H96" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="I96" t="s" s="10">
+      <c r="I96" s="10" t="s">
         <v>14</v>
       </c>
       <c r="J96" s="9">
@@ -4543,26 +4637,26 @@
       <c r="K96" s="9"/>
       <c r="L96" s="5"/>
     </row>
-    <row r="97" ht="19" customHeight="1">
+    <row r="97" spans="1:12" ht="19" customHeight="1">
       <c r="A97" s="6"/>
       <c r="B97" s="7">
         <v>96</v>
       </c>
-      <c r="C97" t="s" s="10">
+      <c r="C97" s="10" t="s">
         <v>122</v>
       </c>
       <c r="D97" s="7"/>
       <c r="E97" s="9"/>
-      <c r="F97" t="s" s="10">
+      <c r="F97" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G97" t="s" s="10">
+      <c r="G97" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H97" t="s" s="10">
+      <c r="H97" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="I97" t="s" s="10">
+      <c r="I97" s="10" t="s">
         <v>14</v>
       </c>
       <c r="J97" s="9">
@@ -4571,26 +4665,26 @@
       <c r="K97" s="9"/>
       <c r="L97" s="5"/>
     </row>
-    <row r="98" ht="19" customHeight="1">
+    <row r="98" spans="1:12" ht="19" customHeight="1">
       <c r="A98" s="6"/>
       <c r="B98" s="7">
         <v>97</v>
       </c>
-      <c r="C98" t="s" s="10">
+      <c r="C98" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="D98" t="s" s="10">
+      <c r="D98" s="10" t="s">
         <v>26</v>
       </c>
       <c r="E98" s="9"/>
       <c r="F98" s="9"/>
-      <c r="G98" t="s" s="10">
+      <c r="G98" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="H98" t="s" s="10">
+      <c r="H98" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="I98" t="s" s="10">
+      <c r="I98" s="10" t="s">
         <v>14</v>
       </c>
       <c r="J98" s="9">
@@ -4599,24 +4693,24 @@
       <c r="K98" s="9"/>
       <c r="L98" s="5"/>
     </row>
-    <row r="99" ht="19" customHeight="1">
+    <row r="99" spans="1:12" ht="19" customHeight="1">
       <c r="A99" s="6"/>
       <c r="B99" s="7">
         <v>98</v>
       </c>
-      <c r="C99" t="s" s="10">
+      <c r="C99" s="10" t="s">
         <v>124</v>
       </c>
       <c r="D99" s="7"/>
       <c r="E99" s="9"/>
       <c r="F99" s="9"/>
-      <c r="G99" t="s" s="10">
+      <c r="G99" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H99" t="s" s="10">
+      <c r="H99" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="I99" t="s" s="10">
+      <c r="I99" s="10" t="s">
         <v>14</v>
       </c>
       <c r="J99" s="9">
@@ -4625,26 +4719,26 @@
       <c r="K99" s="9"/>
       <c r="L99" s="5"/>
     </row>
-    <row r="100" ht="19" customHeight="1">
+    <row r="100" spans="1:12" ht="19" customHeight="1">
       <c r="A100" s="6"/>
       <c r="B100" s="7">
         <v>99</v>
       </c>
-      <c r="C100" t="s" s="10">
+      <c r="C100" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="D100" t="s" s="10">
+      <c r="D100" s="10" t="s">
         <v>26</v>
       </c>
       <c r="E100" s="9"/>
       <c r="F100" s="9"/>
-      <c r="G100" t="s" s="10">
+      <c r="G100" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="H100" t="s" s="10">
+      <c r="H100" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="I100" t="s" s="10">
+      <c r="I100" s="10" t="s">
         <v>14</v>
       </c>
       <c r="J100" s="9">
@@ -4653,54 +4747,54 @@
       <c r="K100" s="9"/>
       <c r="L100" s="5"/>
     </row>
-    <row r="101" ht="19" customHeight="1">
+    <row r="101" spans="1:12" ht="19" customHeight="1">
       <c r="A101" s="6"/>
       <c r="B101" s="7">
         <v>100</v>
       </c>
-      <c r="C101" t="s" s="10">
+      <c r="C101" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="D101" t="s" s="10">
+      <c r="D101" s="10" t="s">
         <v>26</v>
       </c>
       <c r="E101" s="9"/>
-      <c r="F101" t="s" s="10">
+      <c r="F101" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G101" t="s" s="10">
+      <c r="G101" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="H101" t="s" s="10">
+      <c r="H101" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="I101" t="s" s="10">
+      <c r="I101" s="10" t="s">
         <v>14</v>
       </c>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c r="L101" s="5"/>
     </row>
-    <row r="102" ht="19" customHeight="1">
+    <row r="102" spans="1:12" ht="19" customHeight="1">
       <c r="A102" s="6"/>
       <c r="B102" s="7">
         <v>101</v>
       </c>
-      <c r="C102" t="s" s="10">
+      <c r="C102" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="D102" t="s" s="10">
+      <c r="D102" s="10" t="s">
         <v>26</v>
       </c>
       <c r="E102" s="9"/>
       <c r="F102" s="9"/>
-      <c r="G102" t="s" s="10">
+      <c r="G102" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="H102" t="s" s="10">
+      <c r="H102" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="I102" t="s" s="10">
+      <c r="I102" s="10" t="s">
         <v>14</v>
       </c>
       <c r="J102" s="9">
@@ -4709,26 +4803,26 @@
       <c r="K102" s="9"/>
       <c r="L102" s="5"/>
     </row>
-    <row r="103" ht="19" customHeight="1">
+    <row r="103" spans="1:12" ht="19" customHeight="1">
       <c r="A103" s="6"/>
       <c r="B103" s="7">
         <v>102</v>
       </c>
-      <c r="C103" t="s" s="10">
+      <c r="C103" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="D103" t="s" s="10">
+      <c r="D103" s="10" t="s">
         <v>23</v>
       </c>
       <c r="E103" s="9"/>
       <c r="F103" s="9"/>
-      <c r="G103" t="s" s="10">
+      <c r="G103" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="H103" t="s" s="10">
+      <c r="H103" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="I103" t="s" s="10">
+      <c r="I103" s="10" t="s">
         <v>14</v>
       </c>
       <c r="J103" s="9">
@@ -4737,26 +4831,26 @@
       <c r="K103" s="9"/>
       <c r="L103" s="5"/>
     </row>
-    <row r="104" ht="19" customHeight="1">
+    <row r="104" spans="1:12" ht="19" customHeight="1">
       <c r="A104" s="6"/>
       <c r="B104" s="7">
         <v>103</v>
       </c>
-      <c r="C104" t="s" s="10">
+      <c r="C104" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="D104" t="s" s="10">
+      <c r="D104" s="10" t="s">
         <v>26</v>
       </c>
       <c r="E104" s="9"/>
       <c r="F104" s="9"/>
-      <c r="G104" t="s" s="10">
+      <c r="G104" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="H104" t="s" s="10">
+      <c r="H104" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="I104" t="s" s="10">
+      <c r="I104" s="10" t="s">
         <v>14</v>
       </c>
       <c r="J104" s="9">
@@ -4765,48 +4859,48 @@
       <c r="K104" s="9"/>
       <c r="L104" s="5"/>
     </row>
-    <row r="105" ht="19" customHeight="1">
+    <row r="105" spans="1:12" ht="19" customHeight="1">
       <c r="A105" s="6"/>
       <c r="B105" s="7">
         <v>104</v>
       </c>
-      <c r="C105" t="s" s="10">
+      <c r="C105" s="10" t="s">
         <v>131</v>
       </c>
       <c r="D105" s="9"/>
       <c r="E105" s="9"/>
       <c r="F105" s="9"/>
-      <c r="G105" t="s" s="10">
+      <c r="G105" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H105" t="s" s="10">
+      <c r="H105" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="I105" t="s" s="10">
+      <c r="I105" s="10" t="s">
         <v>21</v>
       </c>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c r="L105" s="5"/>
     </row>
-    <row r="106" ht="19" customHeight="1">
+    <row r="106" spans="1:12" ht="19" customHeight="1">
       <c r="A106" s="6"/>
       <c r="B106" s="7">
         <v>105</v>
       </c>
-      <c r="C106" t="s" s="10">
+      <c r="C106" s="10" t="s">
         <v>132</v>
       </c>
       <c r="D106" s="7"/>
       <c r="E106" s="9"/>
       <c r="F106" s="9"/>
-      <c r="G106" t="s" s="10">
+      <c r="G106" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H106" t="s" s="10">
+      <c r="H106" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="I106" t="s" s="10">
+      <c r="I106" s="10" t="s">
         <v>14</v>
       </c>
       <c r="J106" s="9">
@@ -4815,24 +4909,24 @@
       <c r="K106" s="9"/>
       <c r="L106" s="5"/>
     </row>
-    <row r="107" ht="19" customHeight="1">
+    <row r="107" spans="1:12" ht="19" customHeight="1">
       <c r="A107" s="6"/>
       <c r="B107" s="7">
         <v>106</v>
       </c>
-      <c r="C107" t="s" s="10">
+      <c r="C107" s="10" t="s">
         <v>133</v>
       </c>
       <c r="D107" s="7"/>
       <c r="E107" s="9"/>
       <c r="F107" s="9"/>
-      <c r="G107" t="s" s="10">
+      <c r="G107" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H107" t="s" s="10">
+      <c r="H107" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="I107" t="s" s="10">
+      <c r="I107" s="10" t="s">
         <v>14</v>
       </c>
       <c r="J107" s="9">
@@ -4841,24 +4935,24 @@
       <c r="K107" s="9"/>
       <c r="L107" s="5"/>
     </row>
-    <row r="108" ht="19" customHeight="1">
+    <row r="108" spans="1:12" ht="19" customHeight="1">
       <c r="A108" s="6"/>
       <c r="B108" s="7">
         <v>107</v>
       </c>
-      <c r="C108" t="s" s="10">
+      <c r="C108" s="10" t="s">
         <v>134</v>
       </c>
       <c r="D108" s="7"/>
       <c r="E108" s="9"/>
       <c r="F108" s="9"/>
-      <c r="G108" t="s" s="10">
+      <c r="G108" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H108" t="s" s="10">
-        <v>13</v>
-      </c>
-      <c r="I108" t="s" s="10">
+      <c r="H108" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I108" s="10" t="s">
         <v>21</v>
       </c>
       <c r="J108" s="9">
@@ -4867,24 +4961,24 @@
       <c r="K108" s="9"/>
       <c r="L108" s="5"/>
     </row>
-    <row r="109" ht="19" customHeight="1">
+    <row r="109" spans="1:12" ht="19" customHeight="1">
       <c r="A109" s="6"/>
       <c r="B109" s="7">
         <v>108</v>
       </c>
-      <c r="C109" t="s" s="10">
+      <c r="C109" s="10" t="s">
         <v>135</v>
       </c>
       <c r="D109" s="7"/>
       <c r="E109" s="9"/>
       <c r="F109" s="9"/>
-      <c r="G109" t="s" s="10">
+      <c r="G109" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H109" t="s" s="10">
-        <v>13</v>
-      </c>
-      <c r="I109" t="s" s="10">
+      <c r="H109" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I109" s="10" t="s">
         <v>21</v>
       </c>
       <c r="J109" s="7">
@@ -4893,24 +4987,24 @@
       <c r="K109" s="9"/>
       <c r="L109" s="5"/>
     </row>
-    <row r="110" ht="19" customHeight="1">
+    <row r="110" spans="1:12" ht="19" customHeight="1">
       <c r="A110" s="6"/>
       <c r="B110" s="7">
         <v>109</v>
       </c>
-      <c r="C110" t="s" s="10">
+      <c r="C110" s="10" t="s">
         <v>136</v>
       </c>
       <c r="D110" s="7"/>
       <c r="E110" s="9"/>
       <c r="F110" s="9"/>
-      <c r="G110" t="s" s="10">
+      <c r="G110" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H110" t="s" s="10">
-        <v>13</v>
-      </c>
-      <c r="I110" t="s" s="10">
+      <c r="H110" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I110" s="10" t="s">
         <v>14</v>
       </c>
       <c r="J110" s="9">
@@ -4919,24 +5013,24 @@
       <c r="K110" s="9"/>
       <c r="L110" s="5"/>
     </row>
-    <row r="111" ht="19" customHeight="1">
+    <row r="111" spans="1:12" ht="19" customHeight="1">
       <c r="A111" s="6"/>
       <c r="B111" s="7">
         <v>110</v>
       </c>
-      <c r="C111" t="s" s="10">
+      <c r="C111" s="10" t="s">
         <v>137</v>
       </c>
       <c r="D111" s="7"/>
       <c r="E111" s="9"/>
       <c r="F111" s="9"/>
-      <c r="G111" t="s" s="10">
+      <c r="G111" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H111" t="s" s="10">
-        <v>13</v>
-      </c>
-      <c r="I111" t="s" s="10">
+      <c r="H111" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I111" s="10" t="s">
         <v>14</v>
       </c>
       <c r="J111" s="9">
@@ -4945,50 +5039,50 @@
       <c r="K111" s="9"/>
       <c r="L111" s="5"/>
     </row>
-    <row r="112" ht="19" customHeight="1">
+    <row r="112" spans="1:12" ht="19" customHeight="1">
       <c r="A112" s="6"/>
       <c r="B112" s="7">
         <v>111</v>
       </c>
-      <c r="C112" t="s" s="10">
+      <c r="C112" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="D112" t="s" s="10">
+      <c r="D112" s="10" t="s">
         <v>26</v>
       </c>
       <c r="E112" s="9"/>
       <c r="F112" s="9"/>
-      <c r="G112" t="s" s="10">
+      <c r="G112" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="H112" t="s" s="10">
-        <v>13</v>
-      </c>
-      <c r="I112" t="s" s="10">
+      <c r="H112" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I112" s="10" t="s">
         <v>14</v>
       </c>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c r="L112" s="5"/>
     </row>
-    <row r="113" ht="19" customHeight="1">
+    <row r="113" spans="1:12" ht="19" customHeight="1">
       <c r="A113" s="6"/>
       <c r="B113" s="7">
         <v>112</v>
       </c>
-      <c r="C113" t="s" s="10">
+      <c r="C113" s="10" t="s">
         <v>139</v>
       </c>
       <c r="D113" s="7"/>
       <c r="E113" s="9"/>
       <c r="F113" s="9"/>
-      <c r="G113" t="s" s="10">
+      <c r="G113" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H113" t="s" s="10">
+      <c r="H113" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="I113" t="s" s="10">
+      <c r="I113" s="10" t="s">
         <v>14</v>
       </c>
       <c r="J113" s="9">
@@ -4997,24 +5091,24 @@
       <c r="K113" s="9"/>
       <c r="L113" s="5"/>
     </row>
-    <row r="114" ht="19" customHeight="1">
+    <row r="114" spans="1:12" ht="19" customHeight="1">
       <c r="A114" s="6"/>
       <c r="B114" s="7">
         <v>113</v>
       </c>
-      <c r="C114" t="s" s="10">
+      <c r="C114" s="10" t="s">
         <v>140</v>
       </c>
       <c r="D114" s="7"/>
       <c r="E114" s="9"/>
       <c r="F114" s="9"/>
-      <c r="G114" t="s" s="10">
+      <c r="G114" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H114" t="s" s="10">
+      <c r="H114" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="I114" t="s" s="10">
+      <c r="I114" s="10" t="s">
         <v>14</v>
       </c>
       <c r="J114" s="9">
@@ -5023,22 +5117,22 @@
       <c r="K114" s="9"/>
       <c r="L114" s="5"/>
     </row>
-    <row r="115" ht="19" customHeight="1">
+    <row r="115" spans="1:12" ht="19" customHeight="1">
       <c r="A115" s="6"/>
       <c r="B115" s="7">
         <v>114</v>
       </c>
-      <c r="C115" t="s" s="10">
+      <c r="C115" s="10" t="s">
         <v>141</v>
       </c>
       <c r="D115" s="7"/>
       <c r="E115" s="9"/>
       <c r="F115" s="9"/>
       <c r="G115" s="9"/>
-      <c r="H115" t="s" s="10">
+      <c r="H115" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="I115" t="s" s="10">
+      <c r="I115" s="10" t="s">
         <v>14</v>
       </c>
       <c r="J115" s="9">
@@ -5047,46 +5141,46 @@
       <c r="K115" s="9"/>
       <c r="L115" s="5"/>
     </row>
-    <row r="116" ht="19" customHeight="1">
+    <row r="116" spans="1:12" ht="19" customHeight="1">
       <c r="A116" s="6"/>
       <c r="B116" s="7">
         <v>115</v>
       </c>
-      <c r="C116" t="s" s="10">
+      <c r="C116" s="10" t="s">
         <v>142</v>
       </c>
       <c r="D116" s="9"/>
       <c r="E116" s="9"/>
       <c r="F116" s="9"/>
       <c r="G116" s="9"/>
-      <c r="H116" t="s" s="10">
+      <c r="H116" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I116" t="s" s="10">
+      <c r="I116" s="10" t="s">
         <v>14</v>
       </c>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c r="L116" s="5"/>
     </row>
-    <row r="117" ht="19" customHeight="1">
+    <row r="117" spans="1:12" ht="19" customHeight="1">
       <c r="A117" s="6"/>
       <c r="B117" s="7">
         <v>116</v>
       </c>
-      <c r="C117" t="s" s="10">
+      <c r="C117" s="10" t="s">
         <v>143</v>
       </c>
       <c r="D117" s="7"/>
       <c r="E117" s="9"/>
       <c r="F117" s="9"/>
-      <c r="G117" t="s" s="10">
+      <c r="G117" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H117" t="s" s="10">
+      <c r="H117" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I117" t="s" s="10">
+      <c r="I117" s="10" t="s">
         <v>14</v>
       </c>
       <c r="J117" s="9">
@@ -5095,76 +5189,78 @@
       <c r="K117" s="9"/>
       <c r="L117" s="5"/>
     </row>
-    <row r="118" ht="19" customHeight="1">
+    <row r="118" spans="1:12" ht="19" customHeight="1">
       <c r="A118" s="6"/>
       <c r="B118" s="7">
         <v>117</v>
       </c>
-      <c r="C118" t="s" s="10">
+      <c r="C118" s="10" t="s">
         <v>144</v>
       </c>
       <c r="D118" s="9"/>
       <c r="E118" s="9"/>
       <c r="F118" s="9"/>
-      <c r="G118" t="s" s="10">
+      <c r="G118" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H118" t="s" s="10">
-        <v>13</v>
-      </c>
-      <c r="I118" t="s" s="10">
-        <v>14</v>
-      </c>
-      <c r="J118" s="9"/>
+      <c r="H118" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I118" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="J118" s="9">
+        <v>2</v>
+      </c>
       <c r="K118" s="9"/>
       <c r="L118" s="5"/>
     </row>
-    <row r="119" ht="19" customHeight="1">
+    <row r="119" spans="1:12" ht="19" customHeight="1">
       <c r="A119" s="6"/>
       <c r="B119" s="7">
         <v>118</v>
       </c>
-      <c r="C119" t="s" s="10">
+      <c r="C119" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="D119" t="s" s="10">
+      <c r="D119" s="10" t="s">
         <v>23</v>
       </c>
       <c r="E119" s="9"/>
-      <c r="F119" t="s" s="10">
+      <c r="F119" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G119" t="s" s="10">
+      <c r="G119" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="H119" t="s" s="10">
+      <c r="H119" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="I119" t="s" s="10">
+      <c r="I119" s="10" t="s">
         <v>14</v>
       </c>
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
       <c r="L119" s="5"/>
     </row>
-    <row r="120" ht="19" customHeight="1">
+    <row r="120" spans="1:12" ht="19" customHeight="1">
       <c r="A120" s="6"/>
       <c r="B120" s="7">
         <v>119</v>
       </c>
-      <c r="C120" t="s" s="10">
+      <c r="C120" s="10" t="s">
         <v>146</v>
       </c>
       <c r="D120" s="7"/>
       <c r="E120" s="9"/>
       <c r="F120" s="9"/>
-      <c r="G120" t="s" s="10">
+      <c r="G120" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H120" t="s" s="10">
+      <c r="H120" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I120" t="s" s="10">
+      <c r="I120" s="10" t="s">
         <v>14</v>
       </c>
       <c r="J120" s="9">
@@ -5173,48 +5269,48 @@
       <c r="K120" s="9"/>
       <c r="L120" s="5"/>
     </row>
-    <row r="121" ht="19" customHeight="1">
+    <row r="121" spans="1:12" ht="19" customHeight="1">
       <c r="A121" s="6"/>
       <c r="B121" s="7">
         <v>120</v>
       </c>
-      <c r="C121" t="s" s="10">
+      <c r="C121" s="10" t="s">
         <v>147</v>
       </c>
       <c r="D121" s="9"/>
       <c r="E121" s="9"/>
       <c r="F121" s="9"/>
-      <c r="G121" t="s" s="10">
+      <c r="G121" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="H121" t="s" s="10">
+      <c r="H121" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="I121" t="s" s="10">
+      <c r="I121" s="10" t="s">
         <v>14</v>
       </c>
       <c r="J121" s="9"/>
       <c r="K121" s="9"/>
       <c r="L121" s="5"/>
     </row>
-    <row r="122" ht="19" customHeight="1">
+    <row r="122" spans="1:12" ht="19" customHeight="1">
       <c r="A122" s="6"/>
       <c r="B122" s="7">
         <v>121</v>
       </c>
-      <c r="C122" t="s" s="10">
+      <c r="C122" s="10" t="s">
         <v>148</v>
       </c>
       <c r="D122" s="7"/>
       <c r="E122" s="9"/>
       <c r="F122" s="9"/>
-      <c r="G122" t="s" s="10">
+      <c r="G122" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="H122" t="s" s="10">
+      <c r="H122" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="I122" t="s" s="10">
+      <c r="I122" s="10" t="s">
         <v>14</v>
       </c>
       <c r="J122" s="9">
@@ -5223,76 +5319,76 @@
       <c r="K122" s="9"/>
       <c r="L122" s="5"/>
     </row>
-    <row r="123" ht="19" customHeight="1">
+    <row r="123" spans="1:12" ht="19" customHeight="1">
       <c r="A123" s="6"/>
       <c r="B123" s="7">
         <v>122</v>
       </c>
-      <c r="C123" t="s" s="10">
+      <c r="C123" s="10" t="s">
         <v>149</v>
       </c>
       <c r="D123" s="9"/>
       <c r="E123" s="9"/>
-      <c r="F123" t="s" s="10">
+      <c r="F123" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G123" t="s" s="10">
+      <c r="G123" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="H123" t="s" s="10">
+      <c r="H123" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="I123" t="s" s="10">
+      <c r="I123" s="10" t="s">
         <v>14</v>
       </c>
       <c r="J123" s="9"/>
       <c r="K123" s="9"/>
       <c r="L123" s="5"/>
     </row>
-    <row r="124" ht="19" customHeight="1">
+    <row r="124" spans="1:12" ht="19" customHeight="1">
       <c r="A124" s="6"/>
       <c r="B124" s="7">
         <v>123</v>
       </c>
-      <c r="C124" t="s" s="10">
+      <c r="C124" s="10" t="s">
         <v>150</v>
       </c>
       <c r="D124" s="9"/>
       <c r="E124" s="9"/>
-      <c r="F124" t="s" s="10">
+      <c r="F124" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G124" t="s" s="10">
+      <c r="G124" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="H124" t="s" s="10">
+      <c r="H124" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="I124" t="s" s="10">
+      <c r="I124" s="10" t="s">
         <v>14</v>
       </c>
       <c r="J124" s="9"/>
       <c r="K124" s="9"/>
       <c r="L124" s="5"/>
     </row>
-    <row r="125" ht="19" customHeight="1">
+    <row r="125" spans="1:12" ht="19" customHeight="1">
       <c r="A125" s="6"/>
       <c r="B125" s="7">
         <v>124</v>
       </c>
-      <c r="C125" t="s" s="10">
+      <c r="C125" s="10" t="s">
         <v>151</v>
       </c>
       <c r="D125" s="7"/>
       <c r="E125" s="9"/>
       <c r="F125" s="9"/>
-      <c r="G125" t="s" s="10">
+      <c r="G125" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H125" t="s" s="10">
+      <c r="H125" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="I125" t="s" s="10">
+      <c r="I125" s="10" t="s">
         <v>14</v>
       </c>
       <c r="J125" s="9">
@@ -5301,24 +5397,24 @@
       <c r="K125" s="9"/>
       <c r="L125" s="5"/>
     </row>
-    <row r="126" ht="19" customHeight="1">
+    <row r="126" spans="1:12" ht="19" customHeight="1">
       <c r="A126" s="6"/>
       <c r="B126" s="7">
         <v>125</v>
       </c>
-      <c r="C126" t="s" s="10">
+      <c r="C126" s="10" t="s">
         <v>152</v>
       </c>
       <c r="D126" s="7"/>
       <c r="E126" s="9"/>
       <c r="F126" s="9"/>
-      <c r="G126" t="s" s="10">
+      <c r="G126" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="H126" t="s" s="10">
+      <c r="H126" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="I126" t="s" s="10">
+      <c r="I126" s="10" t="s">
         <v>14</v>
       </c>
       <c r="J126" s="9">
@@ -5327,24 +5423,24 @@
       <c r="K126" s="9"/>
       <c r="L126" s="5"/>
     </row>
-    <row r="127" ht="19" customHeight="1">
+    <row r="127" spans="1:12" ht="19" customHeight="1">
       <c r="A127" s="6"/>
       <c r="B127" s="7">
         <v>126</v>
       </c>
-      <c r="C127" t="s" s="10">
+      <c r="C127" s="10" t="s">
         <v>153</v>
       </c>
       <c r="D127" s="7"/>
       <c r="E127" s="9"/>
       <c r="F127" s="9"/>
-      <c r="G127" t="s" s="10">
+      <c r="G127" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="H127" t="s" s="10">
+      <c r="H127" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="I127" t="s" s="10">
+      <c r="I127" s="10" t="s">
         <v>14</v>
       </c>
       <c r="J127" s="9">
@@ -5353,24 +5449,24 @@
       <c r="K127" s="9"/>
       <c r="L127" s="5"/>
     </row>
-    <row r="128" ht="31" customHeight="1">
+    <row r="128" spans="1:12" ht="31" customHeight="1">
       <c r="A128" s="6"/>
       <c r="B128" s="7">
         <v>127</v>
       </c>
-      <c r="C128" t="s" s="8">
+      <c r="C128" s="8" t="s">
         <v>154</v>
       </c>
       <c r="D128" s="7"/>
       <c r="E128" s="9"/>
       <c r="F128" s="9"/>
-      <c r="G128" t="s" s="10">
+      <c r="G128" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H128" t="s" s="10">
-        <v>13</v>
-      </c>
-      <c r="I128" t="s" s="10">
+      <c r="H128" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I128" s="10" t="s">
         <v>14</v>
       </c>
       <c r="J128" s="9">
@@ -5379,50 +5475,50 @@
       <c r="K128" s="9"/>
       <c r="L128" s="5"/>
     </row>
-    <row r="129" ht="19" customHeight="1">
+    <row r="129" spans="1:12" ht="19" customHeight="1">
       <c r="A129" s="6"/>
       <c r="B129" s="7">
         <v>128</v>
       </c>
-      <c r="C129" t="s" s="10">
+      <c r="C129" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="D129" t="s" s="10">
+      <c r="D129" s="10" t="s">
         <v>26</v>
       </c>
       <c r="E129" s="9"/>
       <c r="F129" s="9"/>
-      <c r="G129" t="s" s="10">
+      <c r="G129" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="H129" t="s" s="10">
+      <c r="H129" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I129" t="s" s="10">
+      <c r="I129" s="10" t="s">
         <v>14</v>
       </c>
       <c r="J129" s="9"/>
       <c r="K129" s="9"/>
       <c r="L129" s="5"/>
     </row>
-    <row r="130" ht="19" customHeight="1">
+    <row r="130" spans="1:12" ht="19" customHeight="1">
       <c r="A130" s="6"/>
       <c r="B130" s="7">
         <v>129</v>
       </c>
-      <c r="C130" t="s" s="10">
+      <c r="C130" s="10" t="s">
         <v>156</v>
       </c>
       <c r="D130" s="7"/>
       <c r="E130" s="9"/>
       <c r="F130" s="9"/>
-      <c r="G130" t="s" s="10">
+      <c r="G130" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="H130" t="s" s="10">
+      <c r="H130" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="I130" t="s" s="10">
+      <c r="I130" s="10" t="s">
         <v>14</v>
       </c>
       <c r="J130" s="9">
@@ -5431,24 +5527,24 @@
       <c r="K130" s="9"/>
       <c r="L130" s="5"/>
     </row>
-    <row r="131" ht="19" customHeight="1">
+    <row r="131" spans="1:12" ht="19" customHeight="1">
       <c r="A131" s="6"/>
       <c r="B131" s="7">
         <v>130</v>
       </c>
-      <c r="C131" t="s" s="10">
+      <c r="C131" s="10" t="s">
         <v>157</v>
       </c>
       <c r="D131" s="7"/>
       <c r="E131" s="9"/>
       <c r="F131" s="9"/>
-      <c r="G131" t="s" s="10">
+      <c r="G131" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="H131" t="s" s="10">
-        <v>13</v>
-      </c>
-      <c r="I131" t="s" s="10">
+      <c r="H131" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I131" s="10" t="s">
         <v>14</v>
       </c>
       <c r="J131" s="9">
@@ -5457,48 +5553,48 @@
       <c r="K131" s="9"/>
       <c r="L131" s="5"/>
     </row>
-    <row r="132" ht="19" customHeight="1">
+    <row r="132" spans="1:12" ht="19" customHeight="1">
       <c r="A132" s="6"/>
       <c r="B132" s="7">
         <v>131</v>
       </c>
-      <c r="C132" t="s" s="10">
+      <c r="C132" s="10" t="s">
         <v>158</v>
       </c>
       <c r="D132" s="9"/>
       <c r="E132" s="9"/>
       <c r="F132" s="9"/>
-      <c r="G132" t="s" s="10">
+      <c r="G132" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H132" t="s" s="10">
+      <c r="H132" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="I132" t="s" s="10">
+      <c r="I132" s="10" t="s">
         <v>21</v>
       </c>
       <c r="J132" s="9"/>
       <c r="K132" s="9"/>
       <c r="L132" s="5"/>
     </row>
-    <row r="133" ht="19" customHeight="1">
+    <row r="133" spans="1:12" ht="19" customHeight="1">
       <c r="A133" s="6"/>
       <c r="B133" s="7">
         <v>132</v>
       </c>
-      <c r="C133" t="s" s="10">
+      <c r="C133" s="10" t="s">
         <v>159</v>
       </c>
       <c r="D133" s="7"/>
       <c r="E133" s="9"/>
       <c r="F133" s="9"/>
-      <c r="G133" t="s" s="10">
+      <c r="G133" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="H133" t="s" s="10">
+      <c r="H133" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="I133" t="s" s="10">
+      <c r="I133" s="10" t="s">
         <v>14</v>
       </c>
       <c r="J133" s="9">
@@ -5507,24 +5603,24 @@
       <c r="K133" s="9"/>
       <c r="L133" s="5"/>
     </row>
-    <row r="134" ht="19" customHeight="1">
+    <row r="134" spans="1:12" ht="19" customHeight="1">
       <c r="A134" s="6"/>
       <c r="B134" s="7">
         <v>133</v>
       </c>
-      <c r="C134" t="s" s="10">
+      <c r="C134" s="10" t="s">
         <v>160</v>
       </c>
       <c r="D134" s="7"/>
       <c r="E134" s="9"/>
       <c r="F134" s="9"/>
-      <c r="G134" t="s" s="10">
+      <c r="G134" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="H134" t="s" s="10">
+      <c r="H134" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="I134" t="s" s="10">
+      <c r="I134" s="10" t="s">
         <v>14</v>
       </c>
       <c r="J134" s="9">
@@ -5533,26 +5629,26 @@
       <c r="K134" s="9"/>
       <c r="L134" s="5"/>
     </row>
-    <row r="135" ht="19" customHeight="1">
+    <row r="135" spans="1:12" ht="19" customHeight="1">
       <c r="A135" s="6"/>
       <c r="B135" s="7">
         <v>134</v>
       </c>
-      <c r="C135" t="s" s="10">
+      <c r="C135" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="D135" t="s" s="10">
+      <c r="D135" s="10" t="s">
         <v>26</v>
       </c>
       <c r="E135" s="9"/>
       <c r="F135" s="9"/>
-      <c r="G135" t="s" s="10">
+      <c r="G135" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="H135" t="s" s="10">
+      <c r="H135" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="I135" t="s" s="10">
+      <c r="I135" s="10" t="s">
         <v>14</v>
       </c>
       <c r="J135" s="9">
@@ -5561,26 +5657,26 @@
       <c r="K135" s="9"/>
       <c r="L135" s="5"/>
     </row>
-    <row r="136" ht="19" customHeight="1">
+    <row r="136" spans="1:12" ht="19" customHeight="1">
       <c r="A136" s="6"/>
       <c r="B136" s="7">
         <v>135</v>
       </c>
-      <c r="C136" t="s" s="10">
+      <c r="C136" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="D136" t="s" s="10">
+      <c r="D136" s="10" t="s">
         <v>26</v>
       </c>
       <c r="E136" s="9"/>
       <c r="F136" s="9"/>
-      <c r="G136" t="s" s="10">
+      <c r="G136" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="H136" t="s" s="10">
+      <c r="H136" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="I136" t="s" s="10">
+      <c r="I136" s="10" t="s">
         <v>14</v>
       </c>
       <c r="J136" s="9">
@@ -5589,24 +5685,24 @@
       <c r="K136" s="9"/>
       <c r="L136" s="5"/>
     </row>
-    <row r="137" ht="19" customHeight="1">
+    <row r="137" spans="1:12" ht="19" customHeight="1">
       <c r="A137" s="6"/>
       <c r="B137" s="7">
         <v>136</v>
       </c>
-      <c r="C137" t="s" s="10">
+      <c r="C137" s="10" t="s">
         <v>163</v>
       </c>
       <c r="D137" s="7"/>
       <c r="E137" s="9"/>
       <c r="F137" s="9"/>
-      <c r="G137" t="s" s="10">
+      <c r="G137" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H137" t="s" s="10">
+      <c r="H137" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="I137" t="s" s="10">
+      <c r="I137" s="10" t="s">
         <v>14</v>
       </c>
       <c r="J137" s="9">
@@ -5615,124 +5711,124 @@
       <c r="K137" s="9"/>
       <c r="L137" s="5"/>
     </row>
-    <row r="138" ht="19" customHeight="1">
+    <row r="138" spans="1:12" ht="19" customHeight="1">
       <c r="A138" s="6"/>
       <c r="B138" s="7">
         <v>137</v>
       </c>
-      <c r="C138" t="s" s="10">
+      <c r="C138" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="D138" t="s" s="10">
+      <c r="D138" s="10" t="s">
         <v>26</v>
       </c>
       <c r="E138" s="9"/>
       <c r="F138" s="9"/>
-      <c r="G138" t="s" s="10">
+      <c r="G138" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="H138" t="s" s="10">
-        <v>13</v>
-      </c>
-      <c r="I138" t="s" s="10">
+      <c r="H138" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I138" s="10" t="s">
         <v>21</v>
       </c>
       <c r="J138" s="9"/>
       <c r="K138" s="9"/>
       <c r="L138" s="5"/>
     </row>
-    <row r="139" ht="19" customHeight="1">
+    <row r="139" spans="1:12" ht="19" customHeight="1">
       <c r="A139" s="6"/>
       <c r="B139" s="7">
         <v>138</v>
       </c>
-      <c r="C139" t="s" s="10">
+      <c r="C139" s="10" t="s">
         <v>165</v>
       </c>
       <c r="D139" s="9"/>
       <c r="E139" s="9"/>
       <c r="F139" s="9"/>
-      <c r="G139" t="s" s="10">
+      <c r="G139" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H139" t="s" s="10">
+      <c r="H139" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="I139" t="s" s="10">
+      <c r="I139" s="10" t="s">
         <v>14</v>
       </c>
       <c r="J139" s="9"/>
       <c r="K139" s="9"/>
       <c r="L139" s="5"/>
     </row>
-    <row r="140" ht="19" customHeight="1">
+    <row r="140" spans="1:12" ht="19" customHeight="1">
       <c r="A140" s="6"/>
       <c r="B140" s="7">
         <v>139</v>
       </c>
-      <c r="C140" t="s" s="10">
+      <c r="C140" s="10" t="s">
         <v>166</v>
       </c>
       <c r="D140" s="9"/>
       <c r="E140" s="9"/>
       <c r="F140" s="9"/>
-      <c r="G140" t="s" s="10">
+      <c r="G140" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H140" t="s" s="10">
-        <v>13</v>
-      </c>
-      <c r="I140" t="s" s="10">
+      <c r="H140" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I140" s="10" t="s">
         <v>14</v>
       </c>
       <c r="J140" s="9"/>
       <c r="K140" s="9"/>
       <c r="L140" s="5"/>
     </row>
-    <row r="141" ht="19" customHeight="1">
+    <row r="141" spans="1:12" ht="19" customHeight="1">
       <c r="A141" s="6"/>
       <c r="B141" s="7">
         <v>140</v>
       </c>
-      <c r="C141" t="s" s="10">
+      <c r="C141" s="10" t="s">
         <v>167</v>
       </c>
       <c r="D141" s="9"/>
       <c r="E141" s="9"/>
       <c r="F141" s="9"/>
-      <c r="G141" t="s" s="10">
+      <c r="G141" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H141" t="s" s="10">
-        <v>13</v>
-      </c>
-      <c r="I141" t="s" s="10">
+      <c r="H141" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I141" s="10" t="s">
         <v>21</v>
       </c>
       <c r="J141" s="9"/>
       <c r="K141" s="9"/>
       <c r="L141" s="5"/>
     </row>
-    <row r="142" ht="19" customHeight="1">
+    <row r="142" spans="1:12" ht="19" customHeight="1">
       <c r="A142" s="6"/>
       <c r="B142" s="7">
         <v>141</v>
       </c>
-      <c r="C142" t="s" s="10">
+      <c r="C142" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="D142" t="s" s="10">
+      <c r="D142" s="10" t="s">
         <v>26</v>
       </c>
       <c r="E142" s="9"/>
       <c r="F142" s="9"/>
-      <c r="G142" t="s" s="10">
+      <c r="G142" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="H142" t="s" s="10">
-        <v>13</v>
-      </c>
-      <c r="I142" t="s" s="10">
+      <c r="H142" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I142" s="10" t="s">
         <v>21</v>
       </c>
       <c r="J142" s="9">
@@ -5741,74 +5837,74 @@
       <c r="K142" s="9"/>
       <c r="L142" s="5"/>
     </row>
-    <row r="143" ht="19" customHeight="1">
+    <row r="143" spans="1:12" ht="19" customHeight="1">
       <c r="A143" s="6"/>
       <c r="B143" s="7">
         <v>142</v>
       </c>
-      <c r="C143" t="s" s="10">
+      <c r="C143" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="D143" t="s" s="10">
+      <c r="D143" s="10" t="s">
         <v>26</v>
       </c>
       <c r="E143" s="9"/>
       <c r="F143" s="9"/>
-      <c r="G143" t="s" s="10">
+      <c r="G143" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="H143" t="s" s="10">
-        <v>13</v>
-      </c>
-      <c r="I143" t="s" s="10">
+      <c r="H143" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I143" s="10" t="s">
         <v>21</v>
       </c>
       <c r="J143" s="9"/>
       <c r="K143" s="9"/>
       <c r="L143" s="5"/>
     </row>
-    <row r="144" ht="19" customHeight="1">
+    <row r="144" spans="1:12" ht="19" customHeight="1">
       <c r="A144" s="6"/>
       <c r="B144" s="7">
         <v>143</v>
       </c>
-      <c r="C144" t="s" s="8">
+      <c r="C144" s="8" t="s">
         <v>170</v>
       </c>
       <c r="D144" s="9"/>
       <c r="E144" s="9"/>
       <c r="F144" s="9"/>
-      <c r="G144" t="s" s="10">
+      <c r="G144" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="H144" t="s" s="10">
+      <c r="H144" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="I144" t="s" s="10">
+      <c r="I144" s="10" t="s">
         <v>21</v>
       </c>
       <c r="J144" s="9"/>
       <c r="K144" s="9"/>
       <c r="L144" s="5"/>
     </row>
-    <row r="145" ht="19" customHeight="1">
+    <row r="145" spans="1:12" ht="19" customHeight="1">
       <c r="A145" s="6"/>
       <c r="B145" s="7">
         <v>144</v>
       </c>
-      <c r="C145" t="s" s="10">
+      <c r="C145" s="10" t="s">
         <v>171</v>
       </c>
       <c r="D145" s="7"/>
       <c r="E145" s="9"/>
       <c r="F145" s="9"/>
-      <c r="G145" t="s" s="10">
+      <c r="G145" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H145" t="s" s="10">
+      <c r="H145" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="I145" t="s" s="10">
+      <c r="I145" s="10" t="s">
         <v>14</v>
       </c>
       <c r="J145" s="9">
@@ -5817,50 +5913,50 @@
       <c r="K145" s="9"/>
       <c r="L145" s="5"/>
     </row>
-    <row r="146" ht="19" customHeight="1">
+    <row r="146" spans="1:12" ht="19" customHeight="1">
       <c r="A146" s="6"/>
       <c r="B146" s="7">
         <v>145</v>
       </c>
-      <c r="C146" t="s" s="10">
+      <c r="C146" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="D146" t="s" s="10">
+      <c r="D146" s="10" t="s">
         <v>29</v>
       </c>
       <c r="E146" s="9"/>
       <c r="F146" s="9"/>
-      <c r="G146" t="s" s="10">
+      <c r="G146" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="H146" t="s" s="10">
+      <c r="H146" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="I146" t="s" s="10">
+      <c r="I146" s="10" t="s">
         <v>14</v>
       </c>
       <c r="J146" s="9"/>
       <c r="K146" s="9"/>
       <c r="L146" s="5"/>
     </row>
-    <row r="147" ht="19" customHeight="1">
+    <row r="147" spans="1:12" ht="19" customHeight="1">
       <c r="A147" s="6"/>
       <c r="B147" s="7">
         <v>146</v>
       </c>
-      <c r="C147" t="s" s="10">
+      <c r="C147" s="10" t="s">
         <v>173</v>
       </c>
       <c r="D147" s="7"/>
       <c r="E147" s="9"/>
       <c r="F147" s="9"/>
-      <c r="G147" t="s" s="10">
+      <c r="G147" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="H147" t="s" s="10">
+      <c r="H147" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I147" t="s" s="10">
+      <c r="I147" s="10" t="s">
         <v>14</v>
       </c>
       <c r="J147" s="9">
@@ -5869,72 +5965,72 @@
       <c r="K147" s="9"/>
       <c r="L147" s="5"/>
     </row>
-    <row r="148" ht="19" customHeight="1">
+    <row r="148" spans="1:12" ht="19" customHeight="1">
       <c r="A148" s="6"/>
       <c r="B148" s="7">
         <v>147</v>
       </c>
-      <c r="C148" t="s" s="10">
+      <c r="C148" s="10" t="s">
         <v>174</v>
       </c>
       <c r="D148" s="9"/>
       <c r="E148" s="9"/>
       <c r="F148" s="9"/>
-      <c r="G148" t="s" s="10">
+      <c r="G148" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H148" t="s" s="10">
+      <c r="H148" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="I148" t="s" s="10">
+      <c r="I148" s="10" t="s">
         <v>14</v>
       </c>
       <c r="J148" s="9"/>
       <c r="K148" s="9"/>
       <c r="L148" s="5"/>
     </row>
-    <row r="149" ht="19" customHeight="1">
+    <row r="149" spans="1:12" ht="19" customHeight="1">
       <c r="A149" s="6"/>
       <c r="B149" s="7">
         <v>148</v>
       </c>
-      <c r="C149" t="s" s="10">
+      <c r="C149" s="10" t="s">
         <v>176</v>
       </c>
       <c r="D149" s="9"/>
       <c r="E149" s="9"/>
       <c r="F149" s="9"/>
-      <c r="G149" t="s" s="10">
+      <c r="G149" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="H149" t="s" s="10">
+      <c r="H149" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="I149" t="s" s="10">
+      <c r="I149" s="10" t="s">
         <v>14</v>
       </c>
       <c r="J149" s="9"/>
       <c r="K149" s="9"/>
       <c r="L149" s="5"/>
     </row>
-    <row r="150" ht="19" customHeight="1">
+    <row r="150" spans="1:12" ht="19" customHeight="1">
       <c r="A150" s="6"/>
       <c r="B150" s="7">
         <v>149</v>
       </c>
-      <c r="C150" t="s" s="10">
+      <c r="C150" s="10" t="s">
         <v>177</v>
       </c>
       <c r="D150" s="7"/>
       <c r="E150" s="9"/>
       <c r="F150" s="9"/>
-      <c r="G150" t="s" s="10">
+      <c r="G150" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H150" t="s" s="10">
+      <c r="H150" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I150" t="s" s="10">
+      <c r="I150" s="10" t="s">
         <v>14</v>
       </c>
       <c r="J150" s="9">
@@ -5943,24 +6039,24 @@
       <c r="K150" s="9"/>
       <c r="L150" s="5"/>
     </row>
-    <row r="151" ht="19" customHeight="1">
+    <row r="151" spans="1:12" ht="19" customHeight="1">
       <c r="A151" s="6"/>
       <c r="B151" s="7">
         <v>150</v>
       </c>
-      <c r="C151" t="s" s="8">
+      <c r="C151" s="8" t="s">
         <v>178</v>
       </c>
       <c r="D151" s="7"/>
       <c r="E151" s="9"/>
       <c r="F151" s="9"/>
-      <c r="G151" t="s" s="10">
+      <c r="G151" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H151" t="s" s="10">
-        <v>13</v>
-      </c>
-      <c r="I151" t="s" s="10">
+      <c r="H151" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I151" s="10" t="s">
         <v>14</v>
       </c>
       <c r="J151" s="9">
@@ -5969,24 +6065,24 @@
       <c r="K151" s="9"/>
       <c r="L151" s="5"/>
     </row>
-    <row r="152" ht="19" customHeight="1">
+    <row r="152" spans="1:12" ht="19" customHeight="1">
       <c r="A152" s="6"/>
       <c r="B152" s="7">
         <v>151</v>
       </c>
-      <c r="C152" t="s" s="8">
+      <c r="C152" s="8" t="s">
         <v>179</v>
       </c>
       <c r="D152" s="7"/>
       <c r="E152" s="9"/>
       <c r="F152" s="9"/>
-      <c r="G152" t="s" s="10">
+      <c r="G152" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H152" t="s" s="10">
-        <v>13</v>
-      </c>
-      <c r="I152" t="s" s="10">
+      <c r="H152" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I152" s="10" t="s">
         <v>14</v>
       </c>
       <c r="J152" s="9">
@@ -5995,24 +6091,24 @@
       <c r="K152" s="9"/>
       <c r="L152" s="5"/>
     </row>
-    <row r="153" ht="19" customHeight="1">
+    <row r="153" spans="1:12" ht="19" customHeight="1">
       <c r="A153" s="6"/>
       <c r="B153" s="7">
         <v>152</v>
       </c>
-      <c r="C153" t="s" s="8">
+      <c r="C153" s="8" t="s">
         <v>180</v>
       </c>
       <c r="D153" s="7"/>
       <c r="E153" s="9"/>
       <c r="F153" s="9"/>
-      <c r="G153" t="s" s="10">
+      <c r="G153" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H153" t="s" s="10">
-        <v>13</v>
-      </c>
-      <c r="I153" t="s" s="10">
+      <c r="H153" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I153" s="10" t="s">
         <v>14</v>
       </c>
       <c r="J153" s="9">
@@ -6021,24 +6117,24 @@
       <c r="K153" s="9"/>
       <c r="L153" s="5"/>
     </row>
-    <row r="154" ht="19" customHeight="1">
+    <row r="154" spans="1:12" ht="19" customHeight="1">
       <c r="A154" s="6"/>
       <c r="B154" s="7">
         <v>153</v>
       </c>
-      <c r="C154" t="s" s="8">
+      <c r="C154" s="8" t="s">
         <v>181</v>
       </c>
       <c r="D154" s="7"/>
       <c r="E154" s="9"/>
       <c r="F154" s="9"/>
-      <c r="G154" t="s" s="10">
+      <c r="G154" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H154" t="s" s="10">
-        <v>13</v>
-      </c>
-      <c r="I154" t="s" s="10">
+      <c r="H154" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I154" s="10" t="s">
         <v>14</v>
       </c>
       <c r="J154" s="9">
@@ -6047,24 +6143,24 @@
       <c r="K154" s="9"/>
       <c r="L154" s="5"/>
     </row>
-    <row r="155" ht="19" customHeight="1">
+    <row r="155" spans="1:12" ht="19" customHeight="1">
       <c r="A155" s="6"/>
       <c r="B155" s="7">
         <v>154</v>
       </c>
-      <c r="C155" t="s" s="8">
+      <c r="C155" s="8" t="s">
         <v>182</v>
       </c>
       <c r="D155" s="7"/>
       <c r="E155" s="9"/>
       <c r="F155" s="9"/>
-      <c r="G155" t="s" s="10">
+      <c r="G155" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H155" t="s" s="10">
-        <v>13</v>
-      </c>
-      <c r="I155" t="s" s="10">
+      <c r="H155" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I155" s="10" t="s">
         <v>14</v>
       </c>
       <c r="J155" s="9">
@@ -6073,24 +6169,24 @@
       <c r="K155" s="9"/>
       <c r="L155" s="5"/>
     </row>
-    <row r="156" ht="19" customHeight="1">
+    <row r="156" spans="1:12" ht="19" customHeight="1">
       <c r="A156" s="6"/>
       <c r="B156" s="7">
         <v>155</v>
       </c>
-      <c r="C156" t="s" s="8">
+      <c r="C156" s="8" t="s">
         <v>183</v>
       </c>
       <c r="D156" s="7"/>
       <c r="E156" s="9"/>
       <c r="F156" s="9"/>
-      <c r="G156" t="s" s="10">
+      <c r="G156" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H156" t="s" s="10">
-        <v>13</v>
-      </c>
-      <c r="I156" t="s" s="10">
+      <c r="H156" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I156" s="10" t="s">
         <v>14</v>
       </c>
       <c r="J156" s="9">
@@ -6099,22 +6195,24 @@
       <c r="K156" s="9"/>
       <c r="L156" s="5"/>
     </row>
-    <row r="157" ht="19" customHeight="1">
+    <row r="157" spans="1:12" ht="19" customHeight="1">
       <c r="A157" s="6"/>
       <c r="B157" s="7">
         <v>156</v>
       </c>
-      <c r="C157" t="s" s="8">
+      <c r="C157" s="8" t="s">
         <v>184</v>
       </c>
       <c r="D157" s="7"/>
       <c r="E157" s="9"/>
       <c r="F157" s="9"/>
-      <c r="G157" s="9"/>
-      <c r="H157" t="s" s="10">
-        <v>13</v>
-      </c>
-      <c r="I157" t="s" s="10">
+      <c r="G157" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="H157" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I157" s="10" t="s">
         <v>14</v>
       </c>
       <c r="J157" s="9">
@@ -6123,22 +6221,24 @@
       <c r="K157" s="9"/>
       <c r="L157" s="5"/>
     </row>
-    <row r="158" ht="19" customHeight="1">
+    <row r="158" spans="1:12" ht="19" customHeight="1">
       <c r="A158" s="6"/>
       <c r="B158" s="7">
         <v>157</v>
       </c>
-      <c r="C158" t="s" s="10">
+      <c r="C158" s="10" t="s">
         <v>185</v>
       </c>
       <c r="D158" s="7"/>
       <c r="E158" s="9"/>
       <c r="F158" s="9"/>
-      <c r="G158" s="9"/>
-      <c r="H158" t="s" s="10">
-        <v>13</v>
-      </c>
-      <c r="I158" t="s" s="10">
+      <c r="G158" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="H158" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I158" s="10" t="s">
         <v>14</v>
       </c>
       <c r="J158" s="9">
@@ -6147,24 +6247,24 @@
       <c r="K158" s="9"/>
       <c r="L158" s="5"/>
     </row>
-    <row r="159" ht="19" customHeight="1">
+    <row r="159" spans="1:12" ht="19" customHeight="1">
       <c r="A159" s="6"/>
       <c r="B159" s="7">
         <v>158</v>
       </c>
-      <c r="C159" t="s" s="8">
+      <c r="C159" s="8" t="s">
         <v>186</v>
       </c>
       <c r="D159" s="7"/>
       <c r="E159" s="9"/>
       <c r="F159" s="9"/>
-      <c r="G159" t="s" s="10">
+      <c r="G159" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H159" t="s" s="10">
-        <v>13</v>
-      </c>
-      <c r="I159" t="s" s="10">
+      <c r="H159" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I159" s="10" t="s">
         <v>14</v>
       </c>
       <c r="J159" s="9">
@@ -6173,22 +6273,24 @@
       <c r="K159" s="9"/>
       <c r="L159" s="5"/>
     </row>
-    <row r="160" ht="19" customHeight="1">
+    <row r="160" spans="1:12" ht="19" customHeight="1">
       <c r="A160" s="6"/>
       <c r="B160" s="7">
         <v>159</v>
       </c>
-      <c r="C160" t="s" s="8">
+      <c r="C160" s="8" t="s">
         <v>187</v>
       </c>
       <c r="D160" s="7"/>
       <c r="E160" s="9"/>
       <c r="F160" s="9"/>
-      <c r="G160" s="9"/>
-      <c r="H160" t="s" s="10">
-        <v>13</v>
-      </c>
-      <c r="I160" t="s" s="10">
+      <c r="G160" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="H160" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I160" s="10" t="s">
         <v>14</v>
       </c>
       <c r="J160" s="9">
@@ -6197,22 +6299,24 @@
       <c r="K160" s="9"/>
       <c r="L160" s="5"/>
     </row>
-    <row r="161" ht="19" customHeight="1">
+    <row r="161" spans="1:12" ht="19" customHeight="1">
       <c r="A161" s="6"/>
       <c r="B161" s="7">
         <v>160</v>
       </c>
-      <c r="C161" t="s" s="10">
+      <c r="C161" s="10" t="s">
         <v>188</v>
       </c>
       <c r="D161" s="7"/>
       <c r="E161" s="9"/>
       <c r="F161" s="9"/>
-      <c r="G161" s="9"/>
-      <c r="H161" t="s" s="10">
-        <v>13</v>
-      </c>
-      <c r="I161" t="s" s="10">
+      <c r="G161" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="H161" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I161" s="10" t="s">
         <v>14</v>
       </c>
       <c r="J161" s="9">
@@ -6221,46 +6325,46 @@
       <c r="K161" s="9"/>
       <c r="L161" s="5"/>
     </row>
-    <row r="162" ht="19" customHeight="1">
+    <row r="162" spans="1:12" ht="19" customHeight="1">
       <c r="A162" s="6"/>
       <c r="B162" s="7">
         <v>161</v>
       </c>
-      <c r="C162" t="s" s="8">
+      <c r="C162" s="8" t="s">
         <v>189</v>
       </c>
       <c r="D162" s="9"/>
       <c r="E162" s="9"/>
       <c r="F162" s="9"/>
       <c r="G162" s="9"/>
-      <c r="H162" t="s" s="10">
-        <v>13</v>
-      </c>
-      <c r="I162" t="s" s="10">
+      <c r="H162" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I162" s="10" t="s">
         <v>21</v>
       </c>
       <c r="J162" s="9"/>
       <c r="K162" s="9"/>
       <c r="L162" s="5"/>
     </row>
-    <row r="163" ht="19" customHeight="1">
+    <row r="163" spans="1:12" ht="19" customHeight="1">
       <c r="A163" s="6"/>
       <c r="B163" s="7">
         <v>162</v>
       </c>
-      <c r="C163" t="s" s="10">
+      <c r="C163" s="10" t="s">
         <v>190</v>
       </c>
       <c r="D163" s="7"/>
       <c r="E163" s="9"/>
       <c r="F163" s="9"/>
-      <c r="G163" t="s" s="10">
+      <c r="G163" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H163" t="s" s="10">
-        <v>13</v>
-      </c>
-      <c r="I163" t="s" s="10">
+      <c r="H163" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I163" s="10" t="s">
         <v>14</v>
       </c>
       <c r="J163" s="9">
@@ -6269,24 +6373,24 @@
       <c r="K163" s="9"/>
       <c r="L163" s="5"/>
     </row>
-    <row r="164" ht="19" customHeight="1">
+    <row r="164" spans="1:12" ht="19" customHeight="1">
       <c r="A164" s="6"/>
       <c r="B164" s="7">
         <v>163</v>
       </c>
-      <c r="C164" t="s" s="10">
+      <c r="C164" s="10" t="s">
         <v>191</v>
       </c>
       <c r="D164" s="7"/>
       <c r="E164" s="9"/>
       <c r="F164" s="9"/>
-      <c r="G164" t="s" s="10">
+      <c r="G164" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="H164" t="s" s="10">
+      <c r="H164" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="I164" t="s" s="10">
+      <c r="I164" s="10" t="s">
         <v>14</v>
       </c>
       <c r="J164" s="7">
@@ -6295,24 +6399,24 @@
       <c r="K164" s="9"/>
       <c r="L164" s="5"/>
     </row>
-    <row r="165" ht="19" customHeight="1">
+    <row r="165" spans="1:12" ht="19" customHeight="1">
       <c r="A165" s="6"/>
       <c r="B165" s="7">
         <v>164</v>
       </c>
-      <c r="C165" t="s" s="10">
+      <c r="C165" s="10" t="s">
         <v>192</v>
       </c>
       <c r="D165" s="7"/>
       <c r="E165" s="9"/>
       <c r="F165" s="9"/>
-      <c r="G165" t="s" s="10">
+      <c r="G165" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="H165" t="s" s="10">
+      <c r="H165" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="I165" t="s" s="10">
+      <c r="I165" s="10" t="s">
         <v>14</v>
       </c>
       <c r="J165" s="9">
@@ -6321,24 +6425,24 @@
       <c r="K165" s="9"/>
       <c r="L165" s="5"/>
     </row>
-    <row r="166" ht="19" customHeight="1">
+    <row r="166" spans="1:12" ht="19" customHeight="1">
       <c r="A166" s="6"/>
       <c r="B166" s="7">
         <v>165</v>
       </c>
-      <c r="C166" t="s" s="8">
+      <c r="C166" s="8" t="s">
         <v>193</v>
       </c>
       <c r="D166" s="7"/>
       <c r="E166" s="9"/>
       <c r="F166" s="9"/>
-      <c r="G166" t="s" s="10">
+      <c r="G166" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="H166" t="s" s="10">
+      <c r="H166" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="I166" t="s" s="10">
+      <c r="I166" s="10" t="s">
         <v>14</v>
       </c>
       <c r="J166" s="9">
@@ -6347,24 +6451,24 @@
       <c r="K166" s="9"/>
       <c r="L166" s="5"/>
     </row>
-    <row r="167" ht="19" customHeight="1">
+    <row r="167" spans="1:12" ht="19" customHeight="1">
       <c r="A167" s="6"/>
       <c r="B167" s="7">
         <v>166</v>
       </c>
-      <c r="C167" t="s" s="8">
+      <c r="C167" s="8" t="s">
         <v>194</v>
       </c>
       <c r="D167" s="7"/>
       <c r="E167" s="9"/>
       <c r="F167" s="9"/>
-      <c r="G167" t="s" s="10">
+      <c r="G167" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="H167" t="s" s="10">
+      <c r="H167" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="I167" t="s" s="10">
+      <c r="I167" s="10" t="s">
         <v>14</v>
       </c>
       <c r="J167" s="9">
@@ -6373,24 +6477,24 @@
       <c r="K167" s="9"/>
       <c r="L167" s="5"/>
     </row>
-    <row r="168" ht="19" customHeight="1">
+    <row r="168" spans="1:12" ht="19" customHeight="1">
       <c r="A168" s="6"/>
       <c r="B168" s="7">
         <v>167</v>
       </c>
-      <c r="C168" t="s" s="10">
+      <c r="C168" s="10" t="s">
         <v>195</v>
       </c>
       <c r="D168" s="7"/>
       <c r="E168" s="9"/>
       <c r="F168" s="9"/>
-      <c r="G168" t="s" s="10">
+      <c r="G168" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="H168" t="s" s="10">
+      <c r="H168" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="I168" t="s" s="10">
+      <c r="I168" s="10" t="s">
         <v>14</v>
       </c>
       <c r="J168" s="9">
@@ -6399,24 +6503,24 @@
       <c r="K168" s="9"/>
       <c r="L168" s="5"/>
     </row>
-    <row r="169" ht="19" customHeight="1">
+    <row r="169" spans="1:12" ht="19" customHeight="1">
       <c r="A169" s="6"/>
       <c r="B169" s="7">
         <v>168</v>
       </c>
-      <c r="C169" t="s" s="8">
+      <c r="C169" s="8" t="s">
         <v>196</v>
       </c>
       <c r="D169" s="7"/>
       <c r="E169" s="9"/>
       <c r="F169" s="9"/>
-      <c r="G169" t="s" s="10">
+      <c r="G169" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="H169" t="s" s="10">
+      <c r="H169" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="I169" t="s" s="10">
+      <c r="I169" s="10" t="s">
         <v>14</v>
       </c>
       <c r="J169" s="9">
@@ -6425,24 +6529,24 @@
       <c r="K169" s="9"/>
       <c r="L169" s="5"/>
     </row>
-    <row r="170" ht="19" customHeight="1">
+    <row r="170" spans="1:12" ht="19" customHeight="1">
       <c r="A170" s="6"/>
       <c r="B170" s="7">
         <v>169</v>
       </c>
-      <c r="C170" t="s" s="8">
+      <c r="C170" s="8" t="s">
         <v>197</v>
       </c>
       <c r="D170" s="7"/>
       <c r="E170" s="9"/>
       <c r="F170" s="9"/>
-      <c r="G170" t="s" s="10">
+      <c r="G170" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H170" t="s" s="10">
-        <v>13</v>
-      </c>
-      <c r="I170" t="s" s="10">
+      <c r="H170" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I170" s="10" t="s">
         <v>14</v>
       </c>
       <c r="J170" s="9">
@@ -6451,24 +6555,24 @@
       <c r="K170" s="9"/>
       <c r="L170" s="5"/>
     </row>
-    <row r="171" ht="19" customHeight="1">
+    <row r="171" spans="1:12" ht="19" customHeight="1">
       <c r="A171" s="6"/>
       <c r="B171" s="7">
         <v>170</v>
       </c>
-      <c r="C171" t="s" s="8">
+      <c r="C171" s="8" t="s">
         <v>198</v>
       </c>
       <c r="D171" s="7"/>
       <c r="E171" s="9"/>
       <c r="F171" s="9"/>
-      <c r="G171" t="s" s="10">
+      <c r="G171" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H171" t="s" s="10">
-        <v>13</v>
-      </c>
-      <c r="I171" t="s" s="10">
+      <c r="H171" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I171" s="10" t="s">
         <v>14</v>
       </c>
       <c r="J171" s="9">
@@ -6477,24 +6581,24 @@
       <c r="K171" s="9"/>
       <c r="L171" s="5"/>
     </row>
-    <row r="172" ht="19" customHeight="1">
+    <row r="172" spans="1:12" ht="19" customHeight="1">
       <c r="A172" s="6"/>
       <c r="B172" s="7">
         <v>171</v>
       </c>
-      <c r="C172" t="s" s="10">
+      <c r="C172" s="10" t="s">
         <v>199</v>
       </c>
       <c r="D172" s="7"/>
       <c r="E172" s="9"/>
       <c r="F172" s="9"/>
-      <c r="G172" t="s" s="10">
+      <c r="G172" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H172" t="s" s="10">
-        <v>13</v>
-      </c>
-      <c r="I172" t="s" s="10">
+      <c r="H172" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I172" s="10" t="s">
         <v>14</v>
       </c>
       <c r="J172" s="9">
@@ -6503,48 +6607,48 @@
       <c r="K172" s="9"/>
       <c r="L172" s="5"/>
     </row>
-    <row r="173" ht="31" customHeight="1">
+    <row r="173" spans="1:12" ht="31" customHeight="1">
       <c r="A173" s="6"/>
       <c r="B173" s="7">
         <v>172</v>
       </c>
-      <c r="C173" t="s" s="8">
+      <c r="C173" s="8" t="s">
         <v>200</v>
       </c>
       <c r="D173" s="9"/>
       <c r="E173" s="9"/>
       <c r="F173" s="9"/>
-      <c r="G173" t="s" s="10">
+      <c r="G173" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H173" t="s" s="10">
-        <v>13</v>
-      </c>
-      <c r="I173" t="s" s="10">
+      <c r="H173" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I173" s="10" t="s">
         <v>14</v>
       </c>
       <c r="J173" s="9"/>
       <c r="K173" s="9"/>
       <c r="L173" s="5"/>
     </row>
-    <row r="174" ht="31" customHeight="1">
+    <row r="174" spans="1:12" ht="31" customHeight="1">
       <c r="A174" s="6"/>
       <c r="B174" s="7">
         <v>173</v>
       </c>
-      <c r="C174" t="s" s="8">
+      <c r="C174" s="8" t="s">
         <v>201</v>
       </c>
       <c r="D174" s="7"/>
       <c r="E174" s="9"/>
       <c r="F174" s="9"/>
-      <c r="G174" t="s" s="10">
+      <c r="G174" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H174" t="s" s="10">
-        <v>13</v>
-      </c>
-      <c r="I174" t="s" s="10">
+      <c r="H174" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I174" s="10" t="s">
         <v>14</v>
       </c>
       <c r="J174" s="9">
@@ -6553,71 +6657,113 @@
       <c r="K174" s="9"/>
       <c r="L174" s="5"/>
     </row>
-    <row r="175" ht="19" customHeight="1">
+    <row r="175" spans="1:12" ht="19" customHeight="1">
       <c r="A175" s="6"/>
       <c r="B175" s="7">
         <v>174</v>
       </c>
-      <c r="C175" s="9"/>
+      <c r="C175" s="17" t="s">
+        <v>206</v>
+      </c>
       <c r="D175" s="9"/>
       <c r="E175" s="9"/>
-      <c r="F175" s="9"/>
-      <c r="G175" s="9"/>
-      <c r="H175" s="9"/>
-      <c r="I175" s="9"/>
-      <c r="J175" s="9"/>
+      <c r="F175" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="G175" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="H175" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="I175" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="J175" s="9">
+        <v>4</v>
+      </c>
       <c r="K175" s="9"/>
       <c r="L175" s="5"/>
     </row>
-    <row r="176" ht="19" customHeight="1">
+    <row r="176" spans="1:12" ht="19" customHeight="1">
       <c r="A176" s="6"/>
       <c r="B176" s="7">
         <v>175</v>
       </c>
-      <c r="C176" s="9"/>
+      <c r="C176" s="17" t="s">
+        <v>205</v>
+      </c>
       <c r="D176" s="9"/>
       <c r="E176" s="9"/>
       <c r="F176" s="9"/>
-      <c r="G176" s="9"/>
-      <c r="H176" s="9"/>
-      <c r="I176" s="9"/>
-      <c r="J176" s="9"/>
+      <c r="G176" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="H176" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="I176" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="J176" s="9">
+        <v>2</v>
+      </c>
       <c r="K176" s="9"/>
       <c r="L176" s="5"/>
     </row>
-    <row r="177" ht="19" customHeight="1">
+    <row r="177" spans="1:12" ht="19" customHeight="1">
       <c r="A177" s="6"/>
       <c r="B177" s="7">
         <v>176</v>
       </c>
-      <c r="C177" s="9"/>
+      <c r="C177" s="17" t="s">
+        <v>207</v>
+      </c>
       <c r="D177" s="9"/>
       <c r="E177" s="9"/>
       <c r="F177" s="9"/>
-      <c r="G177" s="9"/>
-      <c r="H177" s="9"/>
-      <c r="I177" s="9"/>
-      <c r="J177" s="9"/>
+      <c r="G177" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="H177" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="I177" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="J177" s="9">
+        <v>4</v>
+      </c>
       <c r="K177" s="9"/>
       <c r="L177" s="5"/>
     </row>
-    <row r="178" ht="19" customHeight="1">
+    <row r="178" spans="1:12" ht="19" customHeight="1">
       <c r="A178" s="6"/>
       <c r="B178" s="7">
         <v>177</v>
       </c>
-      <c r="C178" s="9"/>
+      <c r="C178" s="17" t="s">
+        <v>208</v>
+      </c>
       <c r="D178" s="9"/>
       <c r="E178" s="9"/>
       <c r="F178" s="9"/>
-      <c r="G178" s="9"/>
-      <c r="H178" s="9"/>
-      <c r="I178" s="9"/>
-      <c r="J178" s="9"/>
+      <c r="G178" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="H178" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="I178" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="J178" s="9">
+        <v>4</v>
+      </c>
       <c r="K178" s="9"/>
       <c r="L178" s="5"/>
     </row>
-    <row r="179" ht="19" customHeight="1">
+    <row r="179" spans="1:12" ht="19" customHeight="1">
       <c r="A179" s="6"/>
       <c r="B179" s="11">
         <v>178</v>
@@ -6633,7 +6779,7 @@
       <c r="K179" s="12"/>
       <c r="L179" s="5"/>
     </row>
-    <row r="180" ht="19" customHeight="1">
+    <row r="180" spans="1:12" ht="19" customHeight="1">
       <c r="A180" s="13"/>
       <c r="B180" s="14"/>
       <c r="C180" s="14"/>
@@ -6647,7 +6793,7 @@
       <c r="K180" s="14"/>
       <c r="L180" s="15"/>
     </row>
-    <row r="181" ht="19" customHeight="1">
+    <row r="181" spans="1:12" ht="19" customHeight="1">
       <c r="A181" s="6"/>
       <c r="B181" s="9"/>
       <c r="C181" s="9"/>
@@ -6661,9 +6807,9 @@
       <c r="K181" s="9"/>
       <c r="L181" s="5"/>
     </row>
-    <row r="182" ht="19" customHeight="1">
+    <row r="182" spans="1:12" ht="19" customHeight="1">
       <c r="A182" s="16"/>
-      <c r="B182" t="s" s="10">
+      <c r="B182" s="10" t="s">
         <v>202</v>
       </c>
       <c r="C182" s="9"/>
@@ -6675,16 +6821,22 @@
       <c r="I182" s="9"/>
       <c r="J182" s="9">
         <f>SUMIF(F1:F180,"&lt;&gt;close",J1:J180)</f>
-        <v>520</v>
+        <v>532</v>
       </c>
       <c r="K182" s="9"/>
       <c r="L182" s="5"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="landscape" pageOrder="downThenOver"/>
+  <pageSetup orientation="landscape"/>
   <headerFooter>
     <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
   </headerFooter>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/docs/issues/jarvis2-issue-schedule.xlsx
+++ b/docs/issues/jarvis2-issue-schedule.xlsx
@@ -1,25 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23515"/>
-  <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14220"/>
+    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="1" r:id="rId1"/>
+    <sheet name="工作表1" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="218">
   <si>
     <t>issueId</t>
   </si>
@@ -244,6 +236,9 @@
     <t>修改立即执行任务的提交逻辑</t>
   </si>
   <si>
+    <t>2016-01-06</t>
+  </si>
+  <si>
     <t>actor性能测试</t>
   </si>
   <si>
@@ -358,7 +353,8 @@
     <t>java程序包提交的后端接口</t>
   </si>
   <si>
-    <t>server接口的拆分。</t>
+    <t>server接口的拆分.
+是否关键任务的接口添加</t>
   </si>
   <si>
     <t>老数据迁移方案</t>
@@ -628,59 +624,76 @@
     <t>Mybatis mapper select 默认返回是null，应该返回空</t>
   </si>
   <si>
+    <t xml:space="preserve">修改任务调度时间是否当天生效 </t>
+  </si>
+  <si>
+    <t>提交任务支持多个调度时间表达式</t>
+  </si>
+  <si>
+    <t>修改任务调度时间</t>
+  </si>
+  <si>
+    <t>2016/1/6 上午12:00:00</t>
+  </si>
+  <si>
+    <t>JobEntry支持多个调度表达式</t>
+  </si>
+  <si>
+    <t>LogServer日志读写修改</t>
+  </si>
+  <si>
+    <t>Worker状态存储与恢复API</t>
+  </si>
+  <si>
+    <t>状态存储的具体策略及每种类型Task的恢复具体实现</t>
+  </si>
+  <si>
+    <t>功能性测试案例列举及估时</t>
+  </si>
+  <si>
+    <t>Job保存,修改接口拆分</t>
+  </si>
+  <si>
+    <t>App查看提交任务的权限修改</t>
+  </si>
+  <si>
+    <t>牧名,何剑</t>
+  </si>
+  <si>
+    <t>获取系统当前状态的API</t>
+  </si>
+  <si>
+    <t>报警模块RestAPI</t>
+  </si>
+  <si>
     <t>合计</t>
-  </si>
-  <si>
-    <t>光明</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>server</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-提交任务支持多个调度时间表达式</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">修改任务调度时间是否当天生效 </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-修改任务调度时间</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-JobEntry支持多个调度表达式</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>close</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>光明</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>光明</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>光明</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="0" formatCode="General"/>
+  </numFmts>
+  <fonts count="6">
     <font>
       <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Verdana"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Helvetica"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Verdana"/>
+    </font>
+    <font>
+      <sz val="15"/>
       <color indexed="8"/>
       <name val="Verdana"/>
     </font>
@@ -693,10 +706,6 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Verdana"/>
     </font>
   </fonts>
   <fills count="3">
@@ -834,120 +843,94 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+  <cellXfs count="19">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium4"/>
+  <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFAAAAAA"/>
-      <rgbColor rgb="001FB714"/>
-      <rgbColor rgb="000000D4"/>
-      <rgbColor rgb="00FCF305"/>
-      <rgbColor rgb="00F20884"/>
-      <rgbColor rgb="0000ABEA"/>
-      <rgbColor rgb="00900000"/>
-      <rgbColor rgb="00006411"/>
-      <rgbColor rgb="00000090"/>
-      <rgbColor rgb="0090713A"/>
-      <rgbColor rgb="004600A5"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="0063AAFE"/>
-      <rgbColor rgb="00DD2D32"/>
-      <rgbColor rgb="00FFF58C"/>
-      <rgbColor rgb="004EE257"/>
-      <rgbColor rgb="006711FF"/>
-      <rgbColor rgb="00FEA746"/>
-      <rgbColor rgb="00865357"/>
-      <rgbColor rgb="00A2BD90"/>
-      <rgbColor rgb="0063AAFE"/>
-      <rgbColor rgb="00DD2D32"/>
-      <rgbColor rgb="00FFF58C"/>
-      <rgbColor rgb="004EE257"/>
-      <rgbColor rgb="006711FF"/>
-      <rgbColor rgb="00FEA746"/>
-      <rgbColor rgb="00865357"/>
-      <rgbColor rgb="00A2BD90"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffff0000"/>
+      <rgbColor rgb="ff00ff00"/>
+      <rgbColor rgb="ff0000ff"/>
+      <rgbColor rgb="ffffff00"/>
+      <rgbColor rgb="ffff00ff"/>
+      <rgbColor rgb="ff00ffff"/>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffaaaaaa"/>
     </indexedColors>
   </colors>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Blank">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Blank">
   <a:themeElements>
     <a:clrScheme name="Blank">
       <a:dk1>
@@ -957,10 +940,10 @@
         <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="A7A7A7"/>
+        <a:srgbClr val="404040"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="535353"/>
+        <a:srgbClr val="BFBFBF"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="499BC9"/>
@@ -999,8 +982,53 @@
         <a:cs typeface="Helvetica"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Blank">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="129999"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -1069,11 +1097,32 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="104999"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -1082,7 +1131,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -1091,9 +1140,36 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="40000" dist="20000" dir="5400000">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="40000" dist="23000" dir="5400000">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="40000" dist="23000" dir="5400000">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -1148,36 +1224,82 @@
             <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
         </a:gradFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults>
     <a:spDef>
       <a:spPr>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="25400" cap="flat">
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
+        <a:blipFill rotWithShape="1">
+          <a:blip r:embed="rId1"/>
+          <a:srcRect l="0" t="0" r="0" b="0"/>
+          <a:tile tx="0" ty="0" sx="100000" sy="100000" flip="none" algn="tl"/>
+        </a:blipFill>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
+          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
             <a:srgbClr val="000000">
               <a:alpha val="50000"/>
             </a:srgbClr>
           </a:outerShdw>
         </a:effectLst>
-        <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+        <a:defPPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
           <a:lnSpc>
             <a:spcPct val="100000"/>
           </a:lnSpc>
@@ -1192,7 +1314,582 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="25400" dist="23998" dir="2700000">
+                <a:srgbClr val="000000">
+                  <a:alpha val="31034"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica"/>
+          </a:defRPr>
+        </a:defPPr>
+        <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl1pPr>
+        <a:lvl2pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl2pPr>
+        <a:lvl3pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl3pPr>
+        <a:lvl4pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl4pPr>
+        <a:lvl5pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl5pPr>
+        <a:lvl6pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl6pPr>
+        <a:lvl7pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl7pPr>
+        <a:lvl8pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl8pPr>
+        <a:lvl9pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl9pPr>
+      </a:lstStyle>
+      <a:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="none"/>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr>
+        <a:noFill/>
+        <a:ln w="6350" cap="flat">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </a:spPr>
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+        <a:noAutofit/>
+      </a:bodyPr>
+      <a:lstStyle>
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:defPPr>
+        <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl1pPr>
+        <a:lvl2pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl2pPr>
+        <a:lvl3pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl3pPr>
+        <a:lvl4pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl4pPr>
+        <a:lvl5pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl5pPr>
+        <a:lvl6pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl6pPr>
+        <a:lvl7pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl7pPr>
+        <a:lvl8pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl8pPr>
+        <a:lvl9pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl9pPr>
+      </a:lstStyle>
+      <a:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="none"/>
+      </a:style>
+    </a:lnDef>
+    <a:txDef>
+      <a:spPr>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </a:spPr>
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+        <a:spAutoFit/>
+      </a:bodyPr>
+      <a:lstStyle>
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1222,7 +1919,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1248,7 +1945,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1274,7 +1971,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1300,7 +1997,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1326,7 +2023,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1352,7 +2049,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1378,7 +2075,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1404,7 +2101,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1430,7 +2127,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1443,1034 +2140,437 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="none"/>
-      </a:style>
-    </a:spDef>
-    <a:lnDef>
-      <a:spPr>
-        <a:noFill/>
-        <a:ln w="25400" cap="flat">
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-        </a:ln>
-        <a:effectLst>
-          <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
-            <a:srgbClr val="000000">
-              <a:alpha val="50000"/>
-            </a:srgbClr>
-          </a:outerShdw>
-        </a:effectLst>
-        <a:sp3d/>
-      </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
-        <a:noAutofit/>
-      </a:bodyPr>
-      <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-          </a:defRPr>
-        </a:defPPr>
-        <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-          </a:defRPr>
-        </a:lvl1pPr>
-        <a:lvl2pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-          </a:defRPr>
-        </a:lvl2pPr>
-        <a:lvl3pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-          </a:defRPr>
-        </a:lvl3pPr>
-        <a:lvl4pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-          </a:defRPr>
-        </a:lvl4pPr>
-        <a:lvl5pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-          </a:defRPr>
-        </a:lvl5pPr>
-        <a:lvl6pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-          </a:defRPr>
-        </a:lvl6pPr>
-        <a:lvl7pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-          </a:defRPr>
-        </a:lvl7pPr>
-        <a:lvl8pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-          </a:defRPr>
-        </a:lvl8pPr>
-        <a:lvl9pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-          </a:defRPr>
-        </a:lvl9pPr>
-      </a:lstStyle>
-      <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="none"/>
-      </a:style>
-    </a:lnDef>
-    <a:txDef>
-      <a:spPr>
-        <a:noFill/>
-        <a:ln w="12700" cap="flat">
-          <a:noFill/>
-          <a:miter lim="400000"/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
-        <a:spAutoFit/>
-      </a:bodyPr>
-      <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-            <a:sym typeface="Helvetica"/>
-          </a:defRPr>
-        </a:defPPr>
-        <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-          </a:defRPr>
-        </a:lvl1pPr>
-        <a:lvl2pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-          </a:defRPr>
-        </a:lvl2pPr>
-        <a:lvl3pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-          </a:defRPr>
-        </a:lvl3pPr>
-        <a:lvl4pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-          </a:defRPr>
-        </a:lvl4pPr>
-        <a:lvl5pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-          </a:defRPr>
-        </a:lvl5pPr>
-        <a:lvl6pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-          </a:defRPr>
-        </a:lvl6pPr>
-        <a:lvl7pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-          </a:defRPr>
-        </a:lvl7pPr>
-        <a:lvl8pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-          </a:defRPr>
-        </a:lvl8pPr>
-        <a:lvl9pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-          </a:defRPr>
-        </a:lvl9pPr>
-      </a:lstStyle>
-      <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IV182"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:L197"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A178" workbookViewId="0">
-      <selection activeCell="G162" sqref="G162"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.375" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="16" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="2" style="1" customWidth="1"/>
     <col min="2" max="2" width="6.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="45.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="37.5312" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.9688" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5781" style="1" customWidth="1"/>
     <col min="6" max="6" width="6.75" style="1" customWidth="1"/>
-    <col min="7" max="8" width="9.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5" style="1" customWidth="1"/>
     <col min="9" max="9" width="7.875" style="1" customWidth="1"/>
     <col min="10" max="10" width="11.375" style="1" customWidth="1"/>
     <col min="11" max="11" width="12.125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="75" style="1" customWidth="1"/>
+    <col min="12" max="12" width="24.7891" style="1" customWidth="1"/>
     <col min="13" max="256" width="9.375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="32" customHeight="1">
+    <row r="1" ht="32" customHeight="1">
       <c r="A1" s="2"/>
-      <c r="B1" s="3" t="s">
+      <c r="B1" t="s" s="3">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" t="s" s="3">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" t="s" s="3">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" t="s" s="3">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" t="s" s="3">
         <v>4</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" t="s" s="3">
         <v>5</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" t="s" s="3">
         <v>6</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" t="s" s="3">
         <v>7</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" t="s" s="4">
         <v>8</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" t="s" s="3">
         <v>9</v>
       </c>
       <c r="L1" s="5"/>
     </row>
-    <row r="2" spans="1:12" ht="31" customHeight="1">
+    <row r="2" ht="31" customHeight="1">
       <c r="A2" s="6"/>
       <c r="B2" s="7">
         <v>1</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" t="s" s="8">
         <v>10</v>
       </c>
       <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="10" t="s">
+      <c r="E2" s="7"/>
+      <c r="F2" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="H2" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" s="10" t="s">
+      <c r="H2" t="s" s="7">
+        <v>13</v>
+      </c>
+      <c r="I2" t="s" s="7">
         <v>14</v>
       </c>
       <c r="J2" s="9"/>
       <c r="K2" s="9"/>
       <c r="L2" s="5"/>
     </row>
-    <row r="3" spans="1:12" ht="19" customHeight="1">
+    <row r="3" ht="19" customHeight="1">
       <c r="A3" s="6"/>
       <c r="B3" s="7">
         <v>2</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" t="s" s="8">
         <v>15</v>
       </c>
       <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="10" t="s">
+      <c r="E3" s="7"/>
+      <c r="F3" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="G3" t="s" s="7">
         <v>16</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="I3" t="s" s="7">
         <v>14</v>
       </c>
       <c r="J3" s="9"/>
       <c r="K3" s="9"/>
       <c r="L3" s="5"/>
     </row>
-    <row r="4" spans="1:12" ht="19" customHeight="1">
+    <row r="4" ht="19" customHeight="1">
       <c r="A4" s="6"/>
       <c r="B4" s="7">
         <v>3</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" t="s" s="7">
         <v>18</v>
       </c>
       <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="10" t="s">
+      <c r="E4" s="7"/>
+      <c r="F4" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="G4" t="s" s="7">
         <v>16</v>
       </c>
-      <c r="H4" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" s="10" t="s">
+      <c r="H4" t="s" s="7">
+        <v>13</v>
+      </c>
+      <c r="I4" t="s" s="7">
         <v>14</v>
       </c>
       <c r="J4" s="9"/>
       <c r="K4" s="9"/>
       <c r="L4" s="5"/>
     </row>
-    <row r="5" spans="1:12" ht="19" customHeight="1">
+    <row r="5" ht="19" customHeight="1">
       <c r="A5" s="6"/>
       <c r="B5" s="7">
         <v>4</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" t="s" s="7">
         <v>19</v>
       </c>
       <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
+      <c r="E5" s="7"/>
       <c r="F5" s="9"/>
-      <c r="G5" s="10" t="s">
+      <c r="G5" t="s" s="7">
         <v>16</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="H5" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="I5" s="10" t="s">
+      <c r="I5" t="s" s="7">
         <v>21</v>
       </c>
       <c r="J5" s="9"/>
       <c r="K5" s="9"/>
       <c r="L5" s="5"/>
     </row>
-    <row r="6" spans="1:12" ht="19" customHeight="1">
+    <row r="6" ht="19" customHeight="1">
       <c r="A6" s="6"/>
       <c r="B6" s="7">
         <v>5</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" t="s" s="8">
         <v>22</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="10" t="s">
+      <c r="E6" s="7"/>
+      <c r="F6" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="G6" t="s" s="7">
         <v>24</v>
       </c>
-      <c r="H6" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I6" s="10" t="s">
+      <c r="H6" t="s" s="7">
+        <v>13</v>
+      </c>
+      <c r="I6" t="s" s="7">
         <v>14</v>
       </c>
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
       <c r="L6" s="5"/>
     </row>
-    <row r="7" spans="1:12" ht="19" customHeight="1">
+    <row r="7" ht="19" customHeight="1">
       <c r="A7" s="6"/>
       <c r="B7" s="7">
         <v>6</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" t="s" s="7">
         <v>25</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" t="s" s="7">
         <v>26</v>
       </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="10" t="s">
+      <c r="E7" s="7"/>
+      <c r="F7" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="G7" t="s" s="7">
         <v>24</v>
       </c>
-      <c r="H7" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I7" s="10" t="s">
+      <c r="H7" t="s" s="7">
+        <v>13</v>
+      </c>
+      <c r="I7" t="s" s="7">
         <v>14</v>
       </c>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
       <c r="L7" s="5"/>
     </row>
-    <row r="8" spans="1:12" ht="33.25" customHeight="1">
+    <row r="8" ht="33.25" customHeight="1">
       <c r="A8" s="6"/>
       <c r="B8" s="7">
         <v>7</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" t="s" s="8">
         <v>27</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="E8" s="9"/>
-      <c r="F8" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" s="10" t="s">
+      <c r="E8" s="7"/>
+      <c r="F8" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="G8" t="s" s="7">
         <v>24</v>
       </c>
-      <c r="H8" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I8" s="10" t="s">
+      <c r="H8" t="s" s="7">
+        <v>13</v>
+      </c>
+      <c r="I8" t="s" s="7">
         <v>14</v>
       </c>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
       <c r="L8" s="5"/>
     </row>
-    <row r="9" spans="1:12" ht="19" customHeight="1">
+    <row r="9" ht="19" customHeight="1">
       <c r="A9" s="6"/>
       <c r="B9" s="7">
         <v>8</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" t="s" s="7">
         <v>28</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" t="s" s="7">
         <v>29</v>
       </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="10" t="s">
+      <c r="E9" s="7"/>
+      <c r="F9" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="G9" t="s" s="7">
         <v>24</v>
       </c>
-      <c r="H9" s="10" t="s">
+      <c r="H9" t="s" s="7">
         <v>30</v>
       </c>
-      <c r="I9" s="10" t="s">
+      <c r="I9" t="s" s="7">
         <v>14</v>
       </c>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c r="L9" s="5"/>
     </row>
-    <row r="10" spans="1:12" ht="19" customHeight="1">
+    <row r="10" ht="19" customHeight="1">
       <c r="A10" s="6"/>
       <c r="B10" s="7">
         <v>9</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" t="s" s="7">
         <v>31</v>
       </c>
       <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" s="10" t="s">
+      <c r="E10" s="7"/>
+      <c r="F10" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="G10" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="H10" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I10" s="10" t="s">
+      <c r="H10" t="s" s="7">
+        <v>13</v>
+      </c>
+      <c r="I10" t="s" s="7">
         <v>14</v>
       </c>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c r="L10" s="5"/>
     </row>
-    <row r="11" spans="1:12" ht="19" customHeight="1">
+    <row r="11" ht="19" customHeight="1">
       <c r="A11" s="6"/>
       <c r="B11" s="7">
         <v>10</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" t="s" s="8">
         <v>32</v>
       </c>
       <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" s="10" t="s">
+      <c r="E11" s="7"/>
+      <c r="F11" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="G11" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="H11" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I11" s="10" t="s">
+      <c r="H11" t="s" s="7">
+        <v>13</v>
+      </c>
+      <c r="I11" t="s" s="7">
         <v>14</v>
       </c>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c r="L11" s="5"/>
     </row>
-    <row r="12" spans="1:12" ht="33.25" customHeight="1">
+    <row r="12" ht="33.25" customHeight="1">
       <c r="A12" s="6"/>
       <c r="B12" s="7">
         <v>11</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" t="s" s="8">
         <v>33</v>
       </c>
       <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" s="10" t="s">
+      <c r="E12" s="7"/>
+      <c r="F12" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="G12" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="H12" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I12" s="10" t="s">
+      <c r="H12" t="s" s="7">
+        <v>13</v>
+      </c>
+      <c r="I12" t="s" s="7">
         <v>14</v>
       </c>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c r="L12" s="5"/>
     </row>
-    <row r="13" spans="1:12" ht="19" customHeight="1">
+    <row r="13" ht="19" customHeight="1">
       <c r="A13" s="6"/>
       <c r="B13" s="7">
         <v>12</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" t="s" s="7">
         <v>34</v>
       </c>
       <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" s="10" t="s">
+      <c r="E13" s="7"/>
+      <c r="F13" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="G13" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="H13" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I13" s="10" t="s">
+      <c r="H13" t="s" s="7">
+        <v>13</v>
+      </c>
+      <c r="I13" t="s" s="7">
         <v>14</v>
       </c>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c r="L13" s="5"/>
     </row>
-    <row r="14" spans="1:12" ht="19" customHeight="1">
+    <row r="14" ht="19" customHeight="1">
       <c r="A14" s="6"/>
       <c r="B14" s="7">
         <v>13</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" t="s" s="7">
         <v>35</v>
       </c>
       <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" s="10" t="s">
+      <c r="E14" s="7"/>
+      <c r="F14" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="G14" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="H14" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I14" s="10" t="s">
+      <c r="H14" t="s" s="7">
+        <v>13</v>
+      </c>
+      <c r="I14" t="s" s="7">
         <v>14</v>
       </c>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c r="L14" s="5"/>
     </row>
-    <row r="15" spans="1:12" ht="19" customHeight="1">
+    <row r="15" ht="19" customHeight="1">
       <c r="A15" s="6"/>
       <c r="B15" s="7">
         <v>14</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" t="s" s="7">
         <v>36</v>
       </c>
-      <c r="D15" s="7"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" s="10" t="s">
+      <c r="D15" s="9"/>
+      <c r="E15" s="7"/>
+      <c r="F15" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="G15" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="H15" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I15" s="10" t="s">
+      <c r="H15" t="s" s="7">
+        <v>13</v>
+      </c>
+      <c r="I15" t="s" s="7">
         <v>14</v>
       </c>
       <c r="J15" s="7">
@@ -2479,26 +2579,26 @@
       <c r="K15" s="9"/>
       <c r="L15" s="5"/>
     </row>
-    <row r="16" spans="1:12" ht="19" customHeight="1">
+    <row r="16" ht="19" customHeight="1">
       <c r="A16" s="6"/>
       <c r="B16" s="7">
         <v>15</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" t="s" s="7">
         <v>37</v>
       </c>
-      <c r="D16" s="7"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" s="10" t="s">
+      <c r="D16" s="9"/>
+      <c r="E16" s="7"/>
+      <c r="F16" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="G16" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="H16" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I16" s="10" t="s">
+      <c r="H16" t="s" s="7">
+        <v>13</v>
+      </c>
+      <c r="I16" t="s" s="7">
         <v>14</v>
       </c>
       <c r="J16" s="9">
@@ -2507,156 +2607,156 @@
       <c r="K16" s="9"/>
       <c r="L16" s="5"/>
     </row>
-    <row r="17" spans="1:12" ht="19" customHeight="1">
+    <row r="17" ht="19" customHeight="1">
       <c r="A17" s="6"/>
       <c r="B17" s="7">
         <v>16</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" t="s" s="7">
         <v>38</v>
       </c>
       <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" s="10" t="s">
+      <c r="E17" s="7"/>
+      <c r="F17" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="G17" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="H17" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I17" s="10" t="s">
+      <c r="H17" t="s" s="7">
+        <v>13</v>
+      </c>
+      <c r="I17" t="s" s="7">
         <v>14</v>
       </c>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c r="L17" s="5"/>
     </row>
-    <row r="18" spans="1:12" ht="19" customHeight="1">
+    <row r="18" ht="19" customHeight="1">
       <c r="A18" s="6"/>
       <c r="B18" s="7">
         <v>17</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" t="s" s="7">
         <v>39</v>
       </c>
       <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" s="10" t="s">
+      <c r="E18" s="7"/>
+      <c r="F18" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="G18" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="H18" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I18" s="10" t="s">
+      <c r="H18" t="s" s="7">
+        <v>13</v>
+      </c>
+      <c r="I18" t="s" s="7">
         <v>14</v>
       </c>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c r="L18" s="5"/>
     </row>
-    <row r="19" spans="1:12" ht="19" customHeight="1">
+    <row r="19" ht="19" customHeight="1">
       <c r="A19" s="6"/>
       <c r="B19" s="7">
         <v>18</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" t="s" s="7">
         <v>40</v>
       </c>
       <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" s="10" t="s">
+      <c r="E19" s="7"/>
+      <c r="F19" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="G19" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="H19" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I19" s="10" t="s">
+      <c r="H19" t="s" s="7">
+        <v>13</v>
+      </c>
+      <c r="I19" t="s" s="7">
         <v>14</v>
       </c>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c r="L19" s="5"/>
     </row>
-    <row r="20" spans="1:12" ht="31" customHeight="1">
+    <row r="20" ht="31" customHeight="1">
       <c r="A20" s="6"/>
       <c r="B20" s="7">
         <v>19</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" t="s" s="8">
         <v>41</v>
       </c>
       <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" s="10" t="s">
+      <c r="E20" s="7"/>
+      <c r="F20" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="G20" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="H20" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I20" s="10" t="s">
+      <c r="H20" t="s" s="7">
+        <v>13</v>
+      </c>
+      <c r="I20" t="s" s="7">
         <v>14</v>
       </c>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c r="L20" s="5"/>
     </row>
-    <row r="21" spans="1:12" ht="19" customHeight="1">
+    <row r="21" ht="19" customHeight="1">
       <c r="A21" s="6"/>
       <c r="B21" s="7">
         <v>20</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C21" t="s" s="7">
         <v>42</v>
       </c>
       <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" s="10" t="s">
+      <c r="E21" s="7"/>
+      <c r="F21" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="G21" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="H21" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I21" s="10" t="s">
+      <c r="H21" t="s" s="7">
+        <v>13</v>
+      </c>
+      <c r="I21" t="s" s="7">
         <v>14</v>
       </c>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c r="L21" s="5"/>
     </row>
-    <row r="22" spans="1:12" ht="19" customHeight="1">
+    <row r="22" ht="19" customHeight="1">
       <c r="A22" s="6"/>
       <c r="B22" s="7">
         <v>21</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C22" t="s" s="7">
         <v>43</v>
       </c>
-      <c r="D22" s="7"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" s="10" t="s">
+      <c r="D22" s="9"/>
+      <c r="E22" s="7"/>
+      <c r="F22" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="G22" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="H22" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I22" s="10" t="s">
+      <c r="H22" t="s" s="7">
+        <v>13</v>
+      </c>
+      <c r="I22" t="s" s="7">
         <v>21</v>
       </c>
       <c r="J22" s="9">
@@ -2665,26 +2765,26 @@
       <c r="K22" s="9"/>
       <c r="L22" s="5"/>
     </row>
-    <row r="23" spans="1:12" ht="19" customHeight="1">
+    <row r="23" ht="19" customHeight="1">
       <c r="A23" s="6"/>
       <c r="B23" s="7">
         <v>22</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C23" t="s" s="7">
         <v>44</v>
       </c>
-      <c r="D23" s="7"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" s="10" t="s">
+      <c r="D23" s="9"/>
+      <c r="E23" s="7"/>
+      <c r="F23" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="G23" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="H23" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I23" s="10" t="s">
+      <c r="H23" t="s" s="7">
+        <v>13</v>
+      </c>
+      <c r="I23" t="s" s="7">
         <v>14</v>
       </c>
       <c r="J23" s="9">
@@ -2693,24 +2793,24 @@
       <c r="K23" s="9"/>
       <c r="L23" s="5"/>
     </row>
-    <row r="24" spans="1:12" ht="19" customHeight="1">
+    <row r="24" ht="19" customHeight="1">
       <c r="A24" s="6"/>
       <c r="B24" s="7">
         <v>23</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C24" t="s" s="7">
         <v>45</v>
       </c>
-      <c r="D24" s="7"/>
-      <c r="E24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="7"/>
       <c r="F24" s="9"/>
-      <c r="G24" s="10" t="s">
+      <c r="G24" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="H24" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I24" s="10" t="s">
+      <c r="H24" t="s" s="7">
+        <v>13</v>
+      </c>
+      <c r="I24" t="s" s="7">
         <v>14</v>
       </c>
       <c r="J24" s="7">
@@ -2719,24 +2819,24 @@
       <c r="K24" s="9"/>
       <c r="L24" s="5"/>
     </row>
-    <row r="25" spans="1:12" ht="19" customHeight="1">
+    <row r="25" ht="19" customHeight="1">
       <c r="A25" s="6"/>
       <c r="B25" s="7">
         <v>24</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C25" t="s" s="7">
         <v>46</v>
       </c>
-      <c r="D25" s="7"/>
-      <c r="E25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="7"/>
       <c r="F25" s="9"/>
-      <c r="G25" s="10" t="s">
+      <c r="G25" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="H25" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I25" s="10" t="s">
+      <c r="H25" t="s" s="7">
+        <v>13</v>
+      </c>
+      <c r="I25" t="s" s="7">
         <v>14</v>
       </c>
       <c r="J25" s="9">
@@ -2745,24 +2845,24 @@
       <c r="K25" s="9"/>
       <c r="L25" s="5"/>
     </row>
-    <row r="26" spans="1:12" ht="19" customHeight="1">
+    <row r="26" ht="19" customHeight="1">
       <c r="A26" s="6"/>
       <c r="B26" s="7">
         <v>25</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C26" t="s" s="7">
         <v>47</v>
       </c>
-      <c r="D26" s="7"/>
-      <c r="E26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="7"/>
       <c r="F26" s="9"/>
-      <c r="G26" s="10" t="s">
+      <c r="G26" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="H26" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I26" s="10" t="s">
+      <c r="H26" t="s" s="7">
+        <v>13</v>
+      </c>
+      <c r="I26" t="s" s="7">
         <v>14</v>
       </c>
       <c r="J26" s="9">
@@ -2771,184 +2871,184 @@
       <c r="K26" s="9"/>
       <c r="L26" s="5"/>
     </row>
-    <row r="27" spans="1:12" ht="19" customHeight="1">
+    <row r="27" ht="19" customHeight="1">
       <c r="A27" s="6"/>
       <c r="B27" s="7">
         <v>26</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C27" t="s" s="7">
         <v>48</v>
       </c>
       <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
+      <c r="E27" s="7"/>
       <c r="F27" s="9"/>
-      <c r="G27" s="10" t="s">
+      <c r="G27" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="H27" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I27" s="10" t="s">
+      <c r="H27" t="s" s="7">
+        <v>13</v>
+      </c>
+      <c r="I27" t="s" s="7">
         <v>21</v>
       </c>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c r="L27" s="5"/>
     </row>
-    <row r="28" spans="1:12" ht="19" customHeight="1">
+    <row r="28" ht="19" customHeight="1">
       <c r="A28" s="6"/>
       <c r="B28" s="7">
         <v>27</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C28" t="s" s="7">
         <v>49</v>
       </c>
       <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G28" s="10" t="s">
+      <c r="E28" s="7"/>
+      <c r="F28" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="G28" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="H28" s="10" t="s">
+      <c r="H28" t="s" s="7">
         <v>30</v>
       </c>
-      <c r="I28" s="10" t="s">
+      <c r="I28" t="s" s="7">
         <v>14</v>
       </c>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c r="L28" s="5"/>
     </row>
-    <row r="29" spans="1:12" ht="33.25" customHeight="1">
+    <row r="29" ht="33.25" customHeight="1">
       <c r="A29" s="6"/>
       <c r="B29" s="7">
         <v>28</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="C29" t="s" s="8">
         <v>50</v>
       </c>
       <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G29" s="10" t="s">
+      <c r="E29" s="7"/>
+      <c r="F29" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="G29" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="H29" s="10" t="s">
+      <c r="H29" t="s" s="7">
         <v>51</v>
       </c>
-      <c r="I29" s="10" t="s">
+      <c r="I29" t="s" s="7">
         <v>21</v>
       </c>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c r="L29" s="5"/>
     </row>
-    <row r="30" spans="1:12" ht="19" customHeight="1">
+    <row r="30" ht="19" customHeight="1">
       <c r="A30" s="6"/>
       <c r="B30" s="7">
         <v>29</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="C30" t="s" s="8">
         <v>52</v>
       </c>
-      <c r="D30" s="10" t="s">
+      <c r="D30" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="E30" s="9"/>
-      <c r="F30" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" s="10" t="s">
+      <c r="E30" s="7"/>
+      <c r="F30" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="G30" t="s" s="7">
         <v>24</v>
       </c>
-      <c r="H30" s="10" t="s">
+      <c r="H30" t="s" s="7">
         <v>51</v>
       </c>
-      <c r="I30" s="10" t="s">
+      <c r="I30" t="s" s="7">
         <v>14</v>
       </c>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c r="L30" s="5"/>
     </row>
-    <row r="31" spans="1:12" ht="19" customHeight="1">
+    <row r="31" ht="19" customHeight="1">
       <c r="A31" s="6"/>
       <c r="B31" s="7">
         <v>30</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="C31" t="s" s="7">
         <v>53</v>
       </c>
-      <c r="D31" s="10" t="s">
+      <c r="D31" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="E31" s="9"/>
-      <c r="F31" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G31" s="10" t="s">
+      <c r="E31" s="7"/>
+      <c r="F31" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="G31" t="s" s="7">
         <v>24</v>
       </c>
-      <c r="H31" s="10" t="s">
+      <c r="H31" t="s" s="7">
         <v>51</v>
       </c>
-      <c r="I31" s="10" t="s">
+      <c r="I31" t="s" s="7">
         <v>14</v>
       </c>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c r="L31" s="5"/>
     </row>
-    <row r="32" spans="1:12" ht="19" customHeight="1">
+    <row r="32" ht="19" customHeight="1">
       <c r="A32" s="6"/>
       <c r="B32" s="7">
         <v>31</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="C32" t="s" s="7">
         <v>54</v>
       </c>
-      <c r="D32" s="10" t="s">
+      <c r="D32" t="s" s="7">
         <v>29</v>
       </c>
-      <c r="E32" s="9"/>
+      <c r="E32" s="7"/>
       <c r="F32" s="9"/>
-      <c r="G32" s="10" t="s">
+      <c r="G32" t="s" s="7">
         <v>24</v>
       </c>
-      <c r="H32" s="10" t="s">
+      <c r="H32" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="I32" s="10" t="s">
+      <c r="I32" t="s" s="7">
         <v>14</v>
       </c>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c r="L32" s="5"/>
     </row>
-    <row r="33" spans="1:12" ht="19" customHeight="1">
+    <row r="33" ht="19" customHeight="1">
       <c r="A33" s="6"/>
       <c r="B33" s="7">
         <v>32</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="C33" t="s" s="7">
         <v>55</v>
       </c>
-      <c r="D33" s="10" t="s">
+      <c r="D33" t="s" s="7">
         <v>26</v>
       </c>
-      <c r="E33" s="9"/>
+      <c r="E33" s="7"/>
       <c r="F33" s="9"/>
-      <c r="G33" s="10" t="s">
+      <c r="G33" t="s" s="7">
         <v>24</v>
       </c>
-      <c r="H33" s="10" t="s">
+      <c r="H33" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="I33" s="10" t="s">
+      <c r="I33" t="s" s="7">
         <v>14</v>
       </c>
       <c r="J33" s="9">
@@ -2957,26 +3057,26 @@
       <c r="K33" s="9"/>
       <c r="L33" s="5"/>
     </row>
-    <row r="34" spans="1:12" ht="19" customHeight="1">
+    <row r="34" ht="19" customHeight="1">
       <c r="A34" s="6"/>
       <c r="B34" s="7">
         <v>33</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="C34" t="s" s="7">
         <v>56</v>
       </c>
-      <c r="D34" s="10" t="s">
+      <c r="D34" t="s" s="7">
         <v>29</v>
       </c>
-      <c r="E34" s="9"/>
+      <c r="E34" s="7"/>
       <c r="F34" s="9"/>
-      <c r="G34" s="10" t="s">
+      <c r="G34" t="s" s="7">
         <v>24</v>
       </c>
-      <c r="H34" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I34" s="10" t="s">
+      <c r="H34" t="s" s="7">
+        <v>13</v>
+      </c>
+      <c r="I34" t="s" s="7">
         <v>14</v>
       </c>
       <c r="J34" s="7">
@@ -2985,26 +3085,26 @@
       <c r="K34" s="9"/>
       <c r="L34" s="5"/>
     </row>
-    <row r="35" spans="1:12" ht="19" customHeight="1">
+    <row r="35" ht="19" customHeight="1">
       <c r="A35" s="6"/>
       <c r="B35" s="7">
         <v>34</v>
       </c>
-      <c r="C35" s="10" t="s">
+      <c r="C35" t="s" s="7">
         <v>57</v>
       </c>
-      <c r="D35" s="10" t="s">
+      <c r="D35" t="s" s="7">
         <v>26</v>
       </c>
-      <c r="E35" s="9"/>
+      <c r="E35" s="7"/>
       <c r="F35" s="9"/>
-      <c r="G35" s="10" t="s">
+      <c r="G35" t="s" s="7">
         <v>24</v>
       </c>
-      <c r="H35" s="10" t="s">
+      <c r="H35" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="I35" s="10" t="s">
+      <c r="I35" t="s" s="7">
         <v>14</v>
       </c>
       <c r="J35" s="7">
@@ -3013,28 +3113,28 @@
       <c r="K35" s="9"/>
       <c r="L35" s="5"/>
     </row>
-    <row r="36" spans="1:12" ht="19" customHeight="1">
+    <row r="36" ht="19" customHeight="1">
       <c r="A36" s="6"/>
       <c r="B36" s="7">
         <v>35</v>
       </c>
-      <c r="C36" s="10" t="s">
+      <c r="C36" t="s" s="7">
         <v>58</v>
       </c>
-      <c r="D36" s="10" t="s">
+      <c r="D36" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="E36" s="9"/>
-      <c r="F36" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G36" s="10" t="s">
+      <c r="E36" s="7"/>
+      <c r="F36" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="G36" t="s" s="7">
         <v>24</v>
       </c>
-      <c r="H36" s="10" t="s">
+      <c r="H36" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="I36" s="10" t="s">
+      <c r="I36" t="s" s="7">
         <v>14</v>
       </c>
       <c r="J36" s="7">
@@ -3043,80 +3143,80 @@
       <c r="K36" s="9"/>
       <c r="L36" s="5"/>
     </row>
-    <row r="37" spans="1:12" ht="19" customHeight="1">
+    <row r="37" ht="19" customHeight="1">
       <c r="A37" s="6"/>
       <c r="B37" s="7">
         <v>36</v>
       </c>
-      <c r="C37" s="10" t="s">
+      <c r="C37" t="s" s="7">
         <v>59</v>
       </c>
-      <c r="D37" s="10" t="s">
+      <c r="D37" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="E37" s="9"/>
-      <c r="F37" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G37" s="10" t="s">
+      <c r="E37" s="7"/>
+      <c r="F37" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="G37" t="s" s="7">
         <v>24</v>
       </c>
-      <c r="H37" s="10" t="s">
+      <c r="H37" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="I37" s="10" t="s">
+      <c r="I37" t="s" s="7">
         <v>14</v>
       </c>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c r="L37" s="5"/>
     </row>
-    <row r="38" spans="1:12" ht="19" customHeight="1">
+    <row r="38" ht="19" customHeight="1">
       <c r="A38" s="6"/>
       <c r="B38" s="7">
         <v>37</v>
       </c>
-      <c r="C38" s="10" t="s">
+      <c r="C38" t="s" s="7">
         <v>60</v>
       </c>
-      <c r="D38" s="10" t="s">
+      <c r="D38" t="s" s="7">
         <v>26</v>
       </c>
-      <c r="E38" s="9"/>
+      <c r="E38" s="7"/>
       <c r="F38" s="9"/>
-      <c r="G38" s="10" t="s">
+      <c r="G38" t="s" s="7">
         <v>24</v>
       </c>
-      <c r="H38" s="10" t="s">
+      <c r="H38" t="s" s="7">
         <v>51</v>
       </c>
-      <c r="I38" s="10" t="s">
+      <c r="I38" t="s" s="7">
         <v>21</v>
       </c>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c r="L38" s="5"/>
     </row>
-    <row r="39" spans="1:12" ht="19" customHeight="1">
+    <row r="39" ht="19" customHeight="1">
       <c r="A39" s="6"/>
       <c r="B39" s="7">
         <v>38</v>
       </c>
-      <c r="C39" s="10" t="s">
+      <c r="C39" t="s" s="7">
         <v>61</v>
       </c>
-      <c r="D39" s="10" t="s">
+      <c r="D39" t="s" s="7">
         <v>29</v>
       </c>
-      <c r="E39" s="9"/>
+      <c r="E39" s="7"/>
       <c r="F39" s="9"/>
-      <c r="G39" s="10" t="s">
+      <c r="G39" t="s" s="7">
         <v>24</v>
       </c>
-      <c r="H39" s="10" t="s">
+      <c r="H39" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="I39" s="10" t="s">
+      <c r="I39" t="s" s="7">
         <v>14</v>
       </c>
       <c r="J39" s="7">
@@ -3125,26 +3225,26 @@
       <c r="K39" s="9"/>
       <c r="L39" s="5"/>
     </row>
-    <row r="40" spans="1:12" ht="19" customHeight="1">
+    <row r="40" ht="19" customHeight="1">
       <c r="A40" s="6"/>
       <c r="B40" s="7">
         <v>39</v>
       </c>
-      <c r="C40" s="10" t="s">
+      <c r="C40" t="s" s="7">
         <v>62</v>
       </c>
-      <c r="D40" s="10" t="s">
+      <c r="D40" t="s" s="7">
         <v>26</v>
       </c>
-      <c r="E40" s="9"/>
+      <c r="E40" s="7"/>
       <c r="F40" s="9"/>
-      <c r="G40" s="10" t="s">
+      <c r="G40" t="s" s="7">
         <v>24</v>
       </c>
-      <c r="H40" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I40" s="10" t="s">
+      <c r="H40" t="s" s="7">
+        <v>13</v>
+      </c>
+      <c r="I40" t="s" s="7">
         <v>14</v>
       </c>
       <c r="J40" s="7">
@@ -3153,304 +3253,308 @@
       <c r="K40" s="9"/>
       <c r="L40" s="5"/>
     </row>
-    <row r="41" spans="1:12" ht="19" customHeight="1">
+    <row r="41" ht="19" customHeight="1">
       <c r="A41" s="6"/>
       <c r="B41" s="7">
         <v>40</v>
       </c>
-      <c r="C41" s="10" t="s">
+      <c r="C41" t="s" s="7">
         <v>63</v>
       </c>
-      <c r="D41" s="10" t="s">
+      <c r="D41" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="E41" s="9"/>
-      <c r="F41" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G41" s="10" t="s">
+      <c r="E41" s="7"/>
+      <c r="F41" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="G41" t="s" s="7">
         <v>24</v>
       </c>
-      <c r="H41" s="10" t="s">
+      <c r="H41" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="I41" s="10" t="s">
+      <c r="I41" t="s" s="7">
         <v>14</v>
       </c>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c r="L41" s="5"/>
     </row>
-    <row r="42" spans="1:12" ht="19" customHeight="1">
+    <row r="42" ht="19" customHeight="1">
       <c r="A42" s="6"/>
       <c r="B42" s="7">
         <v>41</v>
       </c>
-      <c r="C42" s="8" t="s">
+      <c r="C42" t="s" s="8">
         <v>64</v>
       </c>
-      <c r="D42" s="10" t="s">
+      <c r="D42" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="E42" s="9"/>
-      <c r="F42" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G42" s="10" t="s">
+      <c r="E42" s="7"/>
+      <c r="F42" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="G42" t="s" s="7">
         <v>24</v>
       </c>
-      <c r="H42" s="10" t="s">
+      <c r="H42" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="I42" s="10" t="s">
+      <c r="I42" t="s" s="7">
         <v>14</v>
       </c>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c r="L42" s="5"/>
     </row>
-    <row r="43" spans="1:12" ht="19" customHeight="1">
+    <row r="43" ht="19" customHeight="1">
       <c r="A43" s="6"/>
       <c r="B43" s="7">
         <v>42</v>
       </c>
-      <c r="C43" s="10" t="s">
+      <c r="C43" t="s" s="7">
         <v>65</v>
       </c>
-      <c r="D43" s="10" t="s">
+      <c r="D43" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="E43" s="9"/>
-      <c r="F43" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G43" s="10" t="s">
+      <c r="E43" s="7"/>
+      <c r="F43" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="G43" t="s" s="7">
         <v>24</v>
       </c>
-      <c r="H43" s="10" t="s">
+      <c r="H43" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="I43" s="10" t="s">
+      <c r="I43" t="s" s="7">
         <v>14</v>
       </c>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c r="L43" s="5"/>
     </row>
-    <row r="44" spans="1:12" ht="19" customHeight="1">
+    <row r="44" ht="19" customHeight="1">
       <c r="A44" s="6"/>
       <c r="B44" s="7">
         <v>43</v>
       </c>
-      <c r="C44" s="10" t="s">
+      <c r="C44" t="s" s="7">
         <v>66</v>
       </c>
-      <c r="D44" s="10" t="s">
+      <c r="D44" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="E44" s="9"/>
-      <c r="F44" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G44" s="10" t="s">
+      <c r="E44" s="7"/>
+      <c r="F44" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="G44" t="s" s="7">
         <v>24</v>
       </c>
-      <c r="H44" s="10" t="s">
+      <c r="H44" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="I44" s="10" t="s">
+      <c r="I44" t="s" s="7">
         <v>14</v>
       </c>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c r="L44" s="5"/>
     </row>
-    <row r="45" spans="1:12" ht="33.25" customHeight="1">
+    <row r="45" ht="33.25" customHeight="1">
       <c r="A45" s="6"/>
       <c r="B45" s="7">
         <v>44</v>
       </c>
-      <c r="C45" s="8" t="s">
+      <c r="C45" t="s" s="8">
         <v>67</v>
       </c>
-      <c r="D45" s="10" t="s">
+      <c r="D45" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="E45" s="9"/>
-      <c r="F45" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G45" s="10" t="s">
+      <c r="E45" s="7"/>
+      <c r="F45" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="G45" t="s" s="7">
         <v>24</v>
       </c>
-      <c r="H45" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I45" s="10" t="s">
+      <c r="H45" t="s" s="7">
+        <v>13</v>
+      </c>
+      <c r="I45" t="s" s="7">
         <v>14</v>
       </c>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c r="L45" s="5"/>
     </row>
-    <row r="46" spans="1:12" ht="19" customHeight="1">
+    <row r="46" ht="19" customHeight="1">
       <c r="A46" s="6"/>
       <c r="B46" s="7">
         <v>45</v>
       </c>
-      <c r="C46" s="10" t="s">
+      <c r="C46" t="s" s="7">
         <v>68</v>
       </c>
-      <c r="D46" s="10" t="s">
+      <c r="D46" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="E46" s="9"/>
-      <c r="F46" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G46" s="10" t="s">
+      <c r="E46" s="7"/>
+      <c r="F46" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="G46" t="s" s="7">
         <v>24</v>
       </c>
-      <c r="H46" s="10" t="s">
+      <c r="H46" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="I46" s="10" t="s">
+      <c r="I46" t="s" s="7">
         <v>14</v>
       </c>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c r="L46" s="5"/>
     </row>
-    <row r="47" spans="1:12" ht="19" customHeight="1">
+    <row r="47" ht="19" customHeight="1">
       <c r="A47" s="6"/>
       <c r="B47" s="7">
         <v>46</v>
       </c>
-      <c r="C47" s="10" t="s">
+      <c r="C47" t="s" s="7">
         <v>69</v>
       </c>
-      <c r="D47" s="10" t="s">
+      <c r="D47" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="E47" s="9"/>
-      <c r="F47" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G47" s="10" t="s">
+      <c r="E47" s="7"/>
+      <c r="F47" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="G47" t="s" s="7">
         <v>24</v>
       </c>
-      <c r="H47" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I47" s="10" t="s">
+      <c r="H47" t="s" s="7">
+        <v>13</v>
+      </c>
+      <c r="I47" t="s" s="7">
         <v>14</v>
       </c>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c r="L47" s="5"/>
     </row>
-    <row r="48" spans="1:12" ht="19" customHeight="1">
+    <row r="48" ht="19" customHeight="1">
       <c r="A48" s="6"/>
       <c r="B48" s="7">
         <v>47</v>
       </c>
-      <c r="C48" s="10" t="s">
+      <c r="C48" t="s" s="7">
         <v>70</v>
       </c>
-      <c r="D48" s="10" t="s">
+      <c r="D48" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="E48" s="9"/>
-      <c r="F48" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G48" s="10" t="s">
+      <c r="E48" s="7"/>
+      <c r="F48" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="G48" t="s" s="7">
         <v>24</v>
       </c>
-      <c r="H48" s="10" t="s">
+      <c r="H48" t="s" s="7">
         <v>51</v>
       </c>
-      <c r="I48" s="10" t="s">
+      <c r="I48" t="s" s="7">
         <v>21</v>
       </c>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c r="L48" s="5"/>
     </row>
-    <row r="49" spans="1:12" ht="19" customHeight="1">
+    <row r="49" ht="19" customHeight="1">
       <c r="A49" s="6"/>
       <c r="B49" s="7">
         <v>48</v>
       </c>
-      <c r="C49" s="10" t="s">
+      <c r="C49" t="s" s="7">
         <v>71</v>
       </c>
-      <c r="D49" s="10" t="s">
+      <c r="D49" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="E49" s="9"/>
-      <c r="F49" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G49" s="10" t="s">
+      <c r="E49" s="7"/>
+      <c r="F49" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="G49" t="s" s="7">
         <v>24</v>
       </c>
-      <c r="H49" s="10" t="s">
+      <c r="H49" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="I49" s="10" t="s">
+      <c r="I49" t="s" s="7">
         <v>14</v>
       </c>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c r="L49" s="5"/>
     </row>
-    <row r="50" spans="1:12" ht="19" customHeight="1">
+    <row r="50" ht="19" customHeight="1">
       <c r="A50" s="6"/>
       <c r="B50" s="7">
         <v>49</v>
       </c>
-      <c r="C50" s="10" t="s">
+      <c r="C50" t="s" s="7">
         <v>72</v>
       </c>
-      <c r="D50" s="10" t="s">
+      <c r="D50" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="E50" s="9"/>
-      <c r="F50" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G50" s="10" t="s">
+      <c r="E50" s="7"/>
+      <c r="F50" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="G50" t="s" s="7">
         <v>24</v>
       </c>
-      <c r="H50" s="10" t="s">
+      <c r="H50" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="I50" s="10" t="s">
+      <c r="I50" t="s" s="7">
         <v>14</v>
       </c>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c r="L50" s="5"/>
     </row>
-    <row r="51" spans="1:12" ht="19" customHeight="1">
+    <row r="51" ht="19" customHeight="1">
       <c r="A51" s="6"/>
       <c r="B51" s="7">
         <v>50</v>
       </c>
-      <c r="C51" s="10" t="s">
+      <c r="C51" t="s" s="7">
         <v>73</v>
       </c>
-      <c r="D51" s="7"/>
-      <c r="E51" s="9"/>
-      <c r="F51" s="9"/>
-      <c r="G51" s="10" t="s">
+      <c r="D51" s="9"/>
+      <c r="E51" t="s" s="7">
+        <v>74</v>
+      </c>
+      <c r="F51" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="G51" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="H51" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I51" s="10" t="s">
+      <c r="H51" t="s" s="7">
+        <v>13</v>
+      </c>
+      <c r="I51" t="s" s="7">
         <v>14</v>
       </c>
       <c r="J51" s="7">
@@ -3459,26 +3563,26 @@
       <c r="K51" s="9"/>
       <c r="L51" s="5"/>
     </row>
-    <row r="52" spans="1:12" ht="19" customHeight="1">
+    <row r="52" ht="19" customHeight="1">
       <c r="A52" s="6"/>
       <c r="B52" s="7">
         <v>51</v>
       </c>
-      <c r="C52" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="D52" s="10" t="s">
+      <c r="C52" t="s" s="7">
+        <v>75</v>
+      </c>
+      <c r="D52" t="s" s="7">
         <v>26</v>
       </c>
-      <c r="E52" s="9"/>
+      <c r="E52" s="7"/>
       <c r="F52" s="9"/>
-      <c r="G52" s="10" t="s">
+      <c r="G52" t="s" s="7">
         <v>24</v>
       </c>
-      <c r="H52" s="10" t="s">
+      <c r="H52" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="I52" s="10" t="s">
+      <c r="I52" t="s" s="7">
         <v>14</v>
       </c>
       <c r="J52" s="7">
@@ -3487,26 +3591,26 @@
       <c r="K52" s="9"/>
       <c r="L52" s="5"/>
     </row>
-    <row r="53" spans="1:12" ht="19" customHeight="1">
+    <row r="53" ht="19" customHeight="1">
       <c r="A53" s="6"/>
       <c r="B53" s="7">
         <v>52</v>
       </c>
-      <c r="C53" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="D53" s="10" t="s">
+      <c r="C53" t="s" s="7">
+        <v>76</v>
+      </c>
+      <c r="D53" t="s" s="7">
         <v>26</v>
       </c>
-      <c r="E53" s="9"/>
+      <c r="E53" s="7"/>
       <c r="F53" s="9"/>
-      <c r="G53" s="10" t="s">
+      <c r="G53" t="s" s="7">
         <v>24</v>
       </c>
-      <c r="H53" s="10" t="s">
+      <c r="H53" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="I53" s="10" t="s">
+      <c r="I53" t="s" s="7">
         <v>14</v>
       </c>
       <c r="J53" s="7">
@@ -3515,80 +3619,80 @@
       <c r="K53" s="9"/>
       <c r="L53" s="5"/>
     </row>
-    <row r="54" spans="1:12" ht="19" customHeight="1">
+    <row r="54" ht="19" customHeight="1">
       <c r="A54" s="6"/>
       <c r="B54" s="7">
         <v>53</v>
       </c>
-      <c r="C54" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="D54" s="10" t="s">
+      <c r="C54" t="s" s="7">
+        <v>77</v>
+      </c>
+      <c r="D54" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="E54" s="9"/>
-      <c r="F54" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G54" s="10" t="s">
+      <c r="E54" s="7"/>
+      <c r="F54" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="G54" t="s" s="7">
         <v>24</v>
       </c>
-      <c r="H54" s="10" t="s">
+      <c r="H54" t="s" s="7">
         <v>51</v>
       </c>
-      <c r="I54" s="10" t="s">
+      <c r="I54" t="s" s="7">
         <v>21</v>
       </c>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c r="L54" s="5"/>
     </row>
-    <row r="55" spans="1:12" ht="19" customHeight="1">
+    <row r="55" ht="19" customHeight="1">
       <c r="A55" s="6"/>
       <c r="B55" s="7">
         <v>54</v>
       </c>
-      <c r="C55" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="D55" s="10" t="s">
+      <c r="C55" t="s" s="7">
+        <v>78</v>
+      </c>
+      <c r="D55" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="E55" s="9"/>
+      <c r="E55" s="7"/>
       <c r="F55" s="9"/>
-      <c r="G55" s="10" t="s">
+      <c r="G55" t="s" s="7">
         <v>24</v>
       </c>
-      <c r="H55" s="10" t="s">
+      <c r="H55" t="s" s="7">
         <v>51</v>
       </c>
-      <c r="I55" s="10" t="s">
+      <c r="I55" t="s" s="7">
         <v>21</v>
       </c>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c r="L55" s="5"/>
     </row>
-    <row r="56" spans="1:12" ht="19" customHeight="1">
+    <row r="56" ht="19" customHeight="1">
       <c r="A56" s="6"/>
       <c r="B56" s="7">
         <v>55</v>
       </c>
-      <c r="C56" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="D56" s="10" t="s">
+      <c r="C56" t="s" s="7">
+        <v>79</v>
+      </c>
+      <c r="D56" t="s" s="7">
         <v>26</v>
       </c>
-      <c r="E56" s="9"/>
+      <c r="E56" s="7"/>
       <c r="F56" s="9"/>
-      <c r="G56" s="10" t="s">
+      <c r="G56" t="s" s="7">
         <v>24</v>
       </c>
-      <c r="H56" s="10" t="s">
+      <c r="H56" t="s" s="7">
         <v>30</v>
       </c>
-      <c r="I56" s="10" t="s">
+      <c r="I56" t="s" s="7">
         <v>14</v>
       </c>
       <c r="J56" s="7">
@@ -3597,25 +3701,25 @@
       <c r="K56" s="9"/>
       <c r="L56" s="5"/>
     </row>
-    <row r="57" spans="1:12" ht="19" customHeight="1">
+    <row r="57" ht="19" customHeight="1">
       <c r="A57" s="6"/>
       <c r="B57" s="7">
         <v>56</v>
       </c>
-      <c r="C57" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="D57" s="7"/>
-      <c r="E57" s="9"/>
+      <c r="C57" t="s" s="7">
+        <v>80</v>
+      </c>
+      <c r="D57" s="9"/>
+      <c r="E57" s="7"/>
       <c r="F57" s="9"/>
-      <c r="G57" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H57" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I57" s="10" t="s">
-        <v>14</v>
+      <c r="G57" t="s" s="7">
+        <v>24</v>
+      </c>
+      <c r="H57" t="s" s="7">
+        <v>13</v>
+      </c>
+      <c r="I57" t="s" s="7">
+        <v>21</v>
       </c>
       <c r="J57" s="9">
         <v>8</v>
@@ -3623,74 +3727,74 @@
       <c r="K57" s="9"/>
       <c r="L57" s="5"/>
     </row>
-    <row r="58" spans="1:12" ht="19" customHeight="1">
+    <row r="58" ht="19" customHeight="1">
       <c r="A58" s="6"/>
       <c r="B58" s="7">
         <v>57</v>
       </c>
-      <c r="C58" s="10" t="s">
-        <v>80</v>
+      <c r="C58" t="s" s="7">
+        <v>81</v>
       </c>
       <c r="D58" s="9"/>
-      <c r="E58" s="9"/>
+      <c r="E58" s="7"/>
       <c r="F58" s="9"/>
-      <c r="G58" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="H58" s="10" t="s">
+      <c r="G58" t="s" s="7">
         <v>82</v>
       </c>
-      <c r="I58" s="10" t="s">
+      <c r="H58" t="s" s="7">
+        <v>83</v>
+      </c>
+      <c r="I58" t="s" s="7">
         <v>14</v>
       </c>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c r="L58" s="5"/>
     </row>
-    <row r="59" spans="1:12" ht="19" customHeight="1">
+    <row r="59" ht="19" customHeight="1">
       <c r="A59" s="6"/>
       <c r="B59" s="7">
         <v>58</v>
       </c>
-      <c r="C59" s="10" t="s">
+      <c r="C59" t="s" s="7">
+        <v>84</v>
+      </c>
+      <c r="D59" s="9"/>
+      <c r="E59" s="7"/>
+      <c r="F59" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="G59" t="s" s="7">
+        <v>82</v>
+      </c>
+      <c r="H59" t="s" s="7">
         <v>83</v>
       </c>
-      <c r="D59" s="9"/>
-      <c r="E59" s="9"/>
-      <c r="F59" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G59" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="H59" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="I59" s="10" t="s">
+      <c r="I59" t="s" s="7">
         <v>14</v>
       </c>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c r="L59" s="5"/>
     </row>
-    <row r="60" spans="1:12" ht="19" customHeight="1">
+    <row r="60" ht="19" customHeight="1">
       <c r="A60" s="6"/>
       <c r="B60" s="7">
         <v>59</v>
       </c>
-      <c r="C60" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="D60" s="7"/>
-      <c r="E60" s="9"/>
+      <c r="C60" t="s" s="7">
+        <v>85</v>
+      </c>
+      <c r="D60" s="9"/>
+      <c r="E60" s="7"/>
       <c r="F60" s="9"/>
-      <c r="G60" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="H60" s="10" t="s">
+      <c r="G60" t="s" s="7">
         <v>82</v>
       </c>
-      <c r="I60" s="10" t="s">
+      <c r="H60" t="s" s="7">
+        <v>83</v>
+      </c>
+      <c r="I60" t="s" s="7">
         <v>14</v>
       </c>
       <c r="J60" s="7">
@@ -3699,26 +3803,26 @@
       <c r="K60" s="9"/>
       <c r="L60" s="5"/>
     </row>
-    <row r="61" spans="1:12" ht="19" customHeight="1">
+    <row r="61" ht="19" customHeight="1">
       <c r="A61" s="6"/>
       <c r="B61" s="7">
         <v>60</v>
       </c>
-      <c r="C61" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="D61" s="7"/>
-      <c r="E61" s="9"/>
-      <c r="F61" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G61" s="10" t="s">
+      <c r="C61" t="s" s="7">
+        <v>86</v>
+      </c>
+      <c r="D61" s="9"/>
+      <c r="E61" s="7"/>
+      <c r="F61" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="G61" t="s" s="7">
         <v>16</v>
       </c>
-      <c r="H61" s="10" t="s">
+      <c r="H61" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="I61" s="10" t="s">
+      <c r="I61" t="s" s="7">
         <v>14</v>
       </c>
       <c r="J61" s="7">
@@ -3727,24 +3831,28 @@
       <c r="K61" s="9"/>
       <c r="L61" s="5"/>
     </row>
-    <row r="62" spans="1:12" ht="19" customHeight="1">
+    <row r="62" ht="19" customHeight="1">
       <c r="A62" s="6"/>
       <c r="B62" s="7">
         <v>61</v>
       </c>
-      <c r="C62" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="D62" s="7"/>
-      <c r="E62" s="9"/>
-      <c r="F62" s="9"/>
-      <c r="G62" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="H62" s="10" t="s">
+      <c r="C62" t="s" s="7">
+        <v>87</v>
+      </c>
+      <c r="D62" s="9"/>
+      <c r="E62" t="s" s="7">
+        <v>74</v>
+      </c>
+      <c r="F62" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="G62" t="s" s="7">
         <v>82</v>
       </c>
-      <c r="I62" s="10" t="s">
+      <c r="H62" t="s" s="7">
+        <v>83</v>
+      </c>
+      <c r="I62" t="s" s="7">
         <v>14</v>
       </c>
       <c r="J62" s="7">
@@ -3753,24 +3861,24 @@
       <c r="K62" s="9"/>
       <c r="L62" s="5"/>
     </row>
-    <row r="63" spans="1:12" ht="19" customHeight="1">
+    <row r="63" ht="19" customHeight="1">
       <c r="A63" s="6"/>
       <c r="B63" s="7">
         <v>62</v>
       </c>
-      <c r="C63" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="D63" s="7"/>
-      <c r="E63" s="9"/>
+      <c r="C63" t="s" s="7">
+        <v>88</v>
+      </c>
+      <c r="D63" s="9"/>
+      <c r="E63" s="7"/>
       <c r="F63" s="9"/>
-      <c r="G63" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="H63" s="10" t="s">
+      <c r="G63" t="s" s="7">
         <v>82</v>
       </c>
-      <c r="I63" s="10" t="s">
+      <c r="H63" t="s" s="7">
+        <v>83</v>
+      </c>
+      <c r="I63" t="s" s="7">
         <v>14</v>
       </c>
       <c r="J63" s="7">
@@ -3779,24 +3887,24 @@
       <c r="K63" s="9"/>
       <c r="L63" s="5"/>
     </row>
-    <row r="64" spans="1:12" ht="19" customHeight="1">
+    <row r="64" ht="19" customHeight="1">
       <c r="A64" s="6"/>
       <c r="B64" s="7">
         <v>63</v>
       </c>
-      <c r="C64" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="D64" s="7"/>
-      <c r="E64" s="9"/>
+      <c r="C64" t="s" s="7">
+        <v>89</v>
+      </c>
+      <c r="D64" s="9"/>
+      <c r="E64" s="7"/>
       <c r="F64" s="9"/>
-      <c r="G64" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="H64" s="10" t="s">
+      <c r="G64" t="s" s="7">
         <v>82</v>
       </c>
-      <c r="I64" s="10" t="s">
+      <c r="H64" t="s" s="7">
+        <v>83</v>
+      </c>
+      <c r="I64" t="s" s="7">
         <v>14</v>
       </c>
       <c r="J64" s="7">
@@ -3805,26 +3913,26 @@
       <c r="K64" s="9"/>
       <c r="L64" s="5"/>
     </row>
-    <row r="65" spans="1:12" ht="19" customHeight="1">
+    <row r="65" ht="19" customHeight="1">
       <c r="A65" s="6"/>
       <c r="B65" s="7">
         <v>64</v>
       </c>
-      <c r="C65" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="D65" s="10" t="s">
+      <c r="C65" t="s" s="7">
+        <v>90</v>
+      </c>
+      <c r="D65" t="s" s="7">
         <v>29</v>
       </c>
-      <c r="E65" s="9"/>
+      <c r="E65" s="7"/>
       <c r="F65" s="9"/>
-      <c r="G65" s="10" t="s">
+      <c r="G65" t="s" s="7">
         <v>24</v>
       </c>
-      <c r="H65" s="10" t="s">
+      <c r="H65" t="s" s="7">
         <v>30</v>
       </c>
-      <c r="I65" s="10" t="s">
+      <c r="I65" t="s" s="7">
         <v>14</v>
       </c>
       <c r="J65" s="7">
@@ -3833,124 +3941,124 @@
       <c r="K65" s="9"/>
       <c r="L65" s="5"/>
     </row>
-    <row r="66" spans="1:12" ht="19" customHeight="1">
+    <row r="66" ht="19" customHeight="1">
       <c r="A66" s="6"/>
       <c r="B66" s="7">
         <v>65</v>
       </c>
-      <c r="C66" s="10" t="s">
-        <v>90</v>
+      <c r="C66" t="s" s="7">
+        <v>91</v>
       </c>
       <c r="D66" s="9"/>
-      <c r="E66" s="9"/>
+      <c r="E66" s="7"/>
       <c r="F66" s="9"/>
-      <c r="G66" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="H66" s="10" t="s">
+      <c r="G66" t="s" s="7">
         <v>82</v>
       </c>
-      <c r="I66" s="10" t="s">
+      <c r="H66" t="s" s="7">
+        <v>83</v>
+      </c>
+      <c r="I66" t="s" s="7">
         <v>14</v>
       </c>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c r="L66" s="5"/>
     </row>
-    <row r="67" spans="1:12" ht="19" customHeight="1">
+    <row r="67" ht="19" customHeight="1">
       <c r="A67" s="6"/>
       <c r="B67" s="7">
         <v>66</v>
       </c>
-      <c r="C67" s="10" t="s">
-        <v>91</v>
+      <c r="C67" t="s" s="7">
+        <v>92</v>
       </c>
       <c r="D67" s="9"/>
-      <c r="E67" s="9"/>
-      <c r="F67" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G67" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="H67" s="10" t="s">
+      <c r="E67" s="7"/>
+      <c r="F67" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="G67" t="s" s="7">
         <v>82</v>
       </c>
-      <c r="I67" s="10" t="s">
+      <c r="H67" t="s" s="7">
+        <v>83</v>
+      </c>
+      <c r="I67" t="s" s="7">
         <v>14</v>
       </c>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c r="L67" s="5"/>
     </row>
-    <row r="68" spans="1:12" ht="19" customHeight="1">
+    <row r="68" ht="19" customHeight="1">
       <c r="A68" s="6"/>
       <c r="B68" s="7">
         <v>67</v>
       </c>
-      <c r="C68" s="10" t="s">
-        <v>92</v>
+      <c r="C68" t="s" s="7">
+        <v>93</v>
       </c>
       <c r="D68" s="9"/>
-      <c r="E68" s="9"/>
+      <c r="E68" s="7"/>
       <c r="F68" s="9"/>
-      <c r="G68" s="10" t="s">
+      <c r="G68" t="s" s="7">
         <v>16</v>
       </c>
-      <c r="H68" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="I68" s="10" t="s">
+      <c r="H68" t="s" s="7">
+        <v>94</v>
+      </c>
+      <c r="I68" t="s" s="7">
         <v>21</v>
       </c>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c r="L68" s="5"/>
     </row>
-    <row r="69" spans="1:12" ht="19" customHeight="1">
+    <row r="69" ht="19" customHeight="1">
       <c r="A69" s="6"/>
       <c r="B69" s="7">
         <v>68</v>
       </c>
-      <c r="C69" s="10" t="s">
-        <v>94</v>
+      <c r="C69" t="s" s="7">
+        <v>95</v>
       </c>
       <c r="D69" s="9"/>
-      <c r="E69" s="9"/>
-      <c r="F69" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G69" s="10" t="s">
+      <c r="E69" s="7"/>
+      <c r="F69" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="G69" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="H69" s="10" t="s">
+      <c r="H69" t="s" s="7">
         <v>51</v>
       </c>
-      <c r="I69" s="10" t="s">
+      <c r="I69" t="s" s="7">
         <v>14</v>
       </c>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c r="L69" s="5"/>
     </row>
-    <row r="70" spans="1:12" ht="19" customHeight="1">
+    <row r="70" ht="19" customHeight="1">
       <c r="A70" s="6"/>
       <c r="B70" s="7">
         <v>69</v>
       </c>
-      <c r="C70" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="D70" s="7"/>
-      <c r="E70" s="9"/>
+      <c r="C70" t="s" s="7">
+        <v>96</v>
+      </c>
+      <c r="D70" s="9"/>
+      <c r="E70" s="7"/>
       <c r="F70" s="9"/>
-      <c r="G70" s="10" t="s">
+      <c r="G70" t="s" s="7">
         <v>16</v>
       </c>
-      <c r="H70" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="I70" s="10" t="s">
+      <c r="H70" t="s" s="7">
+        <v>94</v>
+      </c>
+      <c r="I70" t="s" s="7">
         <v>14</v>
       </c>
       <c r="J70" s="7">
@@ -3959,50 +4067,50 @@
       <c r="K70" s="9"/>
       <c r="L70" s="5"/>
     </row>
-    <row r="71" spans="1:12" ht="19" customHeight="1">
+    <row r="71" ht="19" customHeight="1">
       <c r="A71" s="6"/>
       <c r="B71" s="7">
         <v>70</v>
       </c>
-      <c r="C71" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="D71" s="10" t="s">
+      <c r="C71" t="s" s="7">
+        <v>97</v>
+      </c>
+      <c r="D71" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="E71" s="9"/>
+      <c r="E71" s="7"/>
       <c r="F71" s="9"/>
-      <c r="G71" s="10" t="s">
+      <c r="G71" t="s" s="7">
         <v>24</v>
       </c>
-      <c r="H71" s="10" t="s">
+      <c r="H71" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="I71" s="10" t="s">
+      <c r="I71" t="s" s="7">
         <v>21</v>
       </c>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c r="L71" s="5"/>
     </row>
-    <row r="72" spans="1:12" ht="19" customHeight="1">
+    <row r="72" ht="19" customHeight="1">
       <c r="A72" s="6"/>
       <c r="B72" s="7">
         <v>71</v>
       </c>
-      <c r="C72" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="D72" s="7"/>
-      <c r="E72" s="9"/>
+      <c r="C72" t="s" s="7">
+        <v>98</v>
+      </c>
+      <c r="D72" s="9"/>
+      <c r="E72" s="7"/>
       <c r="F72" s="9"/>
-      <c r="G72" s="10" t="s">
+      <c r="G72" t="s" s="7">
         <v>16</v>
       </c>
-      <c r="H72" s="10" t="s">
+      <c r="H72" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="I72" s="10" t="s">
+      <c r="I72" t="s" s="7">
         <v>14</v>
       </c>
       <c r="J72" s="9">
@@ -4011,50 +4119,50 @@
       <c r="K72" s="9"/>
       <c r="L72" s="5"/>
     </row>
-    <row r="73" spans="1:12" ht="19" customHeight="1">
+    <row r="73" ht="19" customHeight="1">
       <c r="A73" s="6"/>
       <c r="B73" s="7">
         <v>72</v>
       </c>
-      <c r="C73" s="10" t="s">
-        <v>98</v>
+      <c r="C73" t="s" s="7">
+        <v>99</v>
       </c>
       <c r="D73" s="9"/>
-      <c r="E73" s="9"/>
-      <c r="F73" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G73" s="10" t="s">
+      <c r="E73" s="7"/>
+      <c r="F73" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="G73" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="H73" s="10" t="s">
+      <c r="H73" t="s" s="7">
         <v>51</v>
       </c>
-      <c r="I73" s="10" t="s">
+      <c r="I73" t="s" s="7">
         <v>14</v>
       </c>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c r="L73" s="5"/>
     </row>
-    <row r="74" spans="1:12" ht="19" customHeight="1">
+    <row r="74" ht="19" customHeight="1">
       <c r="A74" s="6"/>
       <c r="B74" s="7">
         <v>73</v>
       </c>
-      <c r="C74" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="D74" s="7"/>
-      <c r="E74" s="9"/>
+      <c r="C74" t="s" s="7">
+        <v>100</v>
+      </c>
+      <c r="D74" s="9"/>
+      <c r="E74" s="7"/>
       <c r="F74" s="9"/>
-      <c r="G74" s="10" t="s">
+      <c r="G74" t="s" s="7">
         <v>16</v>
       </c>
-      <c r="H74" s="10" t="s">
+      <c r="H74" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="I74" s="10" t="s">
+      <c r="I74" t="s" s="7">
         <v>14</v>
       </c>
       <c r="J74" s="7">
@@ -4063,52 +4171,52 @@
       <c r="K74" s="9"/>
       <c r="L74" s="5"/>
     </row>
-    <row r="75" spans="1:12" ht="19" customHeight="1">
+    <row r="75" ht="19" customHeight="1">
       <c r="A75" s="6"/>
       <c r="B75" s="7">
         <v>74</v>
       </c>
-      <c r="C75" s="10" t="s">
-        <v>100</v>
+      <c r="C75" t="s" s="7">
+        <v>101</v>
       </c>
       <c r="D75" s="9"/>
-      <c r="E75" s="9"/>
-      <c r="F75" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G75" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="H75" s="10" t="s">
+      <c r="E75" s="7"/>
+      <c r="F75" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="G75" t="s" s="7">
         <v>82</v>
       </c>
-      <c r="I75" s="10" t="s">
+      <c r="H75" t="s" s="7">
+        <v>83</v>
+      </c>
+      <c r="I75" t="s" s="7">
         <v>14</v>
       </c>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c r="L75" s="5"/>
     </row>
-    <row r="76" spans="1:12" ht="19" customHeight="1">
+    <row r="76" ht="19" customHeight="1">
       <c r="A76" s="6"/>
       <c r="B76" s="7">
         <v>75</v>
       </c>
-      <c r="C76" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="D76" s="7"/>
-      <c r="E76" s="9"/>
-      <c r="F76" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G76" s="10" t="s">
+      <c r="C76" t="s" s="7">
+        <v>102</v>
+      </c>
+      <c r="D76" s="9"/>
+      <c r="E76" s="7"/>
+      <c r="F76" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="G76" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="H76" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I76" s="10" t="s">
+      <c r="H76" t="s" s="7">
+        <v>13</v>
+      </c>
+      <c r="I76" t="s" s="7">
         <v>14</v>
       </c>
       <c r="J76" s="9">
@@ -4117,52 +4225,52 @@
       <c r="K76" s="9"/>
       <c r="L76" s="5"/>
     </row>
-    <row r="77" spans="1:12" ht="19" customHeight="1">
+    <row r="77" ht="19" customHeight="1">
       <c r="A77" s="6"/>
       <c r="B77" s="7">
         <v>76</v>
       </c>
-      <c r="C77" s="10" t="s">
-        <v>102</v>
+      <c r="C77" t="s" s="7">
+        <v>103</v>
       </c>
       <c r="D77" s="9"/>
-      <c r="E77" s="9"/>
-      <c r="F77" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G77" s="10" t="s">
+      <c r="E77" s="7"/>
+      <c r="F77" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="G77" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="H77" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I77" s="10" t="s">
+      <c r="H77" t="s" s="7">
+        <v>13</v>
+      </c>
+      <c r="I77" t="s" s="7">
         <v>14</v>
       </c>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c r="L77" s="5"/>
     </row>
-    <row r="78" spans="1:12" ht="19" customHeight="1">
+    <row r="78" ht="19" customHeight="1">
       <c r="A78" s="6"/>
       <c r="B78" s="7">
         <v>77</v>
       </c>
-      <c r="C78" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="D78" s="7"/>
-      <c r="E78" s="9"/>
-      <c r="F78" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G78" s="10" t="s">
+      <c r="C78" t="s" s="7">
+        <v>104</v>
+      </c>
+      <c r="D78" s="9"/>
+      <c r="E78" s="7"/>
+      <c r="F78" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="G78" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="H78" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I78" s="10" t="s">
+      <c r="H78" t="s" s="7">
+        <v>13</v>
+      </c>
+      <c r="I78" t="s" s="7">
         <v>14</v>
       </c>
       <c r="J78" s="7">
@@ -4171,50 +4279,50 @@
       <c r="K78" s="9"/>
       <c r="L78" s="5"/>
     </row>
-    <row r="79" spans="1:12" ht="19" customHeight="1">
+    <row r="79" ht="19" customHeight="1">
       <c r="A79" s="6"/>
       <c r="B79" s="7">
         <v>78</v>
       </c>
-      <c r="C79" s="10" t="s">
-        <v>104</v>
+      <c r="C79" t="s" s="7">
+        <v>105</v>
       </c>
       <c r="D79" s="9"/>
-      <c r="E79" s="9"/>
-      <c r="F79" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G79" s="10" t="s">
+      <c r="E79" s="7"/>
+      <c r="F79" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="G79" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="H79" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I79" s="10" t="s">
+      <c r="H79" t="s" s="7">
+        <v>13</v>
+      </c>
+      <c r="I79" t="s" s="7">
         <v>14</v>
       </c>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c r="L79" s="5"/>
     </row>
-    <row r="80" spans="1:12" ht="19" customHeight="1">
+    <row r="80" ht="19" customHeight="1">
       <c r="A80" s="6"/>
       <c r="B80" s="7">
         <v>79</v>
       </c>
-      <c r="C80" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="D80" s="7"/>
-      <c r="E80" s="9"/>
+      <c r="C80" t="s" s="7">
+        <v>106</v>
+      </c>
+      <c r="D80" s="9"/>
+      <c r="E80" s="7"/>
       <c r="F80" s="9"/>
-      <c r="G80" s="10" t="s">
+      <c r="G80" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="H80" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I80" s="10" t="s">
+      <c r="H80" t="s" s="7">
+        <v>13</v>
+      </c>
+      <c r="I80" t="s" s="7">
         <v>14</v>
       </c>
       <c r="J80" s="7">
@@ -4223,24 +4331,24 @@
       <c r="K80" s="9"/>
       <c r="L80" s="5"/>
     </row>
-    <row r="81" spans="1:12" ht="19" customHeight="1">
+    <row r="81" ht="19" customHeight="1">
       <c r="A81" s="6"/>
       <c r="B81" s="7">
         <v>80</v>
       </c>
-      <c r="C81" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="D81" s="7"/>
-      <c r="E81" s="9"/>
+      <c r="C81" t="s" s="7">
+        <v>107</v>
+      </c>
+      <c r="D81" s="9"/>
+      <c r="E81" s="7"/>
       <c r="F81" s="9"/>
-      <c r="G81" s="10" t="s">
+      <c r="G81" t="s" s="7">
         <v>16</v>
       </c>
-      <c r="H81" s="10" t="s">
+      <c r="H81" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="I81" s="10" t="s">
+      <c r="I81" t="s" s="7">
         <v>14</v>
       </c>
       <c r="J81" s="7">
@@ -4249,24 +4357,24 @@
       <c r="K81" s="9"/>
       <c r="L81" s="5"/>
     </row>
-    <row r="82" spans="1:12" ht="19" customHeight="1">
+    <row r="82" ht="19" customHeight="1">
       <c r="A82" s="6"/>
       <c r="B82" s="7">
         <v>81</v>
       </c>
-      <c r="C82" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="D82" s="7"/>
-      <c r="E82" s="9"/>
+      <c r="C82" t="s" s="7">
+        <v>108</v>
+      </c>
+      <c r="D82" s="9"/>
+      <c r="E82" s="7"/>
       <c r="F82" s="9"/>
-      <c r="G82" s="10" t="s">
+      <c r="G82" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="H82" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I82" s="10" t="s">
+      <c r="H82" t="s" s="7">
+        <v>13</v>
+      </c>
+      <c r="I82" t="s" s="7">
         <v>14</v>
       </c>
       <c r="J82" s="7">
@@ -4275,24 +4383,24 @@
       <c r="K82" s="9"/>
       <c r="L82" s="5"/>
     </row>
-    <row r="83" spans="1:12" ht="19" customHeight="1">
+    <row r="83" ht="19" customHeight="1">
       <c r="A83" s="6"/>
       <c r="B83" s="7">
         <v>82</v>
       </c>
-      <c r="C83" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="D83" s="7"/>
-      <c r="E83" s="9"/>
+      <c r="C83" t="s" s="7">
+        <v>109</v>
+      </c>
+      <c r="D83" s="9"/>
+      <c r="E83" s="7"/>
       <c r="F83" s="9"/>
-      <c r="G83" s="10" t="s">
+      <c r="G83" t="s" s="7">
         <v>16</v>
       </c>
-      <c r="H83" s="10" t="s">
+      <c r="H83" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="I83" s="10" t="s">
+      <c r="I83" t="s" s="7">
         <v>14</v>
       </c>
       <c r="J83" s="7">
@@ -4301,24 +4409,24 @@
       <c r="K83" s="9"/>
       <c r="L83" s="5"/>
     </row>
-    <row r="84" spans="1:12" ht="19" customHeight="1">
+    <row r="84" ht="19" customHeight="1">
       <c r="A84" s="6"/>
       <c r="B84" s="7">
         <v>83</v>
       </c>
-      <c r="C84" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="D84" s="7"/>
-      <c r="E84" s="9"/>
+      <c r="C84" t="s" s="7">
+        <v>110</v>
+      </c>
+      <c r="D84" s="9"/>
+      <c r="E84" s="7"/>
       <c r="F84" s="9"/>
-      <c r="G84" s="10" t="s">
+      <c r="G84" t="s" s="7">
         <v>16</v>
       </c>
-      <c r="H84" s="10" t="s">
+      <c r="H84" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="I84" s="10" t="s">
+      <c r="I84" t="s" s="7">
         <v>14</v>
       </c>
       <c r="J84" s="7">
@@ -4327,50 +4435,50 @@
       <c r="K84" s="9"/>
       <c r="L84" s="5"/>
     </row>
-    <row r="85" spans="1:12" ht="19" customHeight="1">
+    <row r="85" ht="19" customHeight="1">
       <c r="A85" s="6"/>
       <c r="B85" s="7">
         <v>84</v>
       </c>
-      <c r="C85" s="10" t="s">
-        <v>110</v>
+      <c r="C85" t="s" s="7">
+        <v>111</v>
       </c>
       <c r="D85" s="9"/>
-      <c r="E85" s="9"/>
-      <c r="F85" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G85" s="10" t="s">
+      <c r="E85" s="7"/>
+      <c r="F85" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="G85" t="s" s="7">
         <v>16</v>
       </c>
-      <c r="H85" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I85" s="10" t="s">
+      <c r="H85" t="s" s="7">
+        <v>13</v>
+      </c>
+      <c r="I85" t="s" s="7">
         <v>14</v>
       </c>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c r="L85" s="5"/>
     </row>
-    <row r="86" spans="1:12" ht="19" customHeight="1">
+    <row r="86" ht="19" customHeight="1">
       <c r="A86" s="6"/>
       <c r="B86" s="7">
         <v>85</v>
       </c>
-      <c r="C86" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="D86" s="7"/>
-      <c r="E86" s="9"/>
+      <c r="C86" t="s" s="7">
+        <v>112</v>
+      </c>
+      <c r="D86" s="9"/>
+      <c r="E86" s="7"/>
       <c r="F86" s="9"/>
-      <c r="G86" s="10" t="s">
+      <c r="G86" t="s" s="7">
         <v>16</v>
       </c>
-      <c r="H86" s="10" t="s">
+      <c r="H86" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="I86" s="10" t="s">
+      <c r="I86" t="s" s="7">
         <v>21</v>
       </c>
       <c r="J86" s="7">
@@ -4379,24 +4487,24 @@
       <c r="K86" s="9"/>
       <c r="L86" s="5"/>
     </row>
-    <row r="87" spans="1:12" ht="19" customHeight="1">
+    <row r="87" ht="112.55" customHeight="1">
       <c r="A87" s="6"/>
       <c r="B87" s="7">
         <v>86</v>
       </c>
-      <c r="C87" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="D87" s="7"/>
-      <c r="E87" s="9"/>
+      <c r="C87" t="s" s="8">
+        <v>113</v>
+      </c>
+      <c r="D87" s="9"/>
+      <c r="E87" s="7"/>
       <c r="F87" s="9"/>
-      <c r="G87" s="10" t="s">
+      <c r="G87" t="s" s="7">
         <v>16</v>
       </c>
-      <c r="H87" s="10" t="s">
+      <c r="H87" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="I87" s="10" t="s">
+      <c r="I87" t="s" s="7">
         <v>14</v>
       </c>
       <c r="J87" s="9">
@@ -4405,24 +4513,24 @@
       <c r="K87" s="9"/>
       <c r="L87" s="5"/>
     </row>
-    <row r="88" spans="1:12" ht="19" customHeight="1">
+    <row r="88" ht="19" customHeight="1">
       <c r="A88" s="6"/>
       <c r="B88" s="7">
         <v>87</v>
       </c>
-      <c r="C88" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="D88" s="7"/>
-      <c r="E88" s="9"/>
+      <c r="C88" t="s" s="7">
+        <v>114</v>
+      </c>
+      <c r="D88" s="9"/>
+      <c r="E88" s="7"/>
       <c r="F88" s="9"/>
-      <c r="G88" s="10" t="s">
+      <c r="G88" t="s" s="7">
         <v>16</v>
       </c>
-      <c r="H88" s="10" t="s">
+      <c r="H88" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="I88" s="10" t="s">
+      <c r="I88" t="s" s="7">
         <v>14</v>
       </c>
       <c r="J88" s="9">
@@ -4431,24 +4539,24 @@
       <c r="K88" s="9"/>
       <c r="L88" s="5"/>
     </row>
-    <row r="89" spans="1:12" ht="19" customHeight="1">
+    <row r="89" ht="19" customHeight="1">
       <c r="A89" s="6"/>
       <c r="B89" s="7">
         <v>88</v>
       </c>
-      <c r="C89" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="D89" s="7"/>
-      <c r="E89" s="9"/>
+      <c r="C89" t="s" s="7">
+        <v>115</v>
+      </c>
+      <c r="D89" s="9"/>
+      <c r="E89" s="7"/>
       <c r="F89" s="9"/>
-      <c r="G89" s="10" t="s">
+      <c r="G89" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="H89" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I89" s="10" t="s">
+      <c r="H89" t="s" s="7">
+        <v>13</v>
+      </c>
+      <c r="I89" t="s" s="7">
         <v>14</v>
       </c>
       <c r="J89" s="9">
@@ -4457,26 +4565,26 @@
       <c r="K89" s="9"/>
       <c r="L89" s="5"/>
     </row>
-    <row r="90" spans="1:12" ht="19" customHeight="1">
+    <row r="90" ht="19" customHeight="1">
       <c r="A90" s="6"/>
       <c r="B90" s="7">
         <v>89</v>
       </c>
-      <c r="C90" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="D90" s="7"/>
-      <c r="E90" s="9"/>
-      <c r="F90" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G90" s="10" t="s">
+      <c r="C90" t="s" s="7">
+        <v>116</v>
+      </c>
+      <c r="D90" s="9"/>
+      <c r="E90" s="7"/>
+      <c r="F90" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="G90" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="H90" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I90" s="10" t="s">
+      <c r="H90" t="s" s="7">
+        <v>13</v>
+      </c>
+      <c r="I90" t="s" s="7">
         <v>14</v>
       </c>
       <c r="J90" s="9">
@@ -4485,50 +4593,50 @@
       <c r="K90" s="9"/>
       <c r="L90" s="5"/>
     </row>
-    <row r="91" spans="1:12" ht="19" customHeight="1">
+    <row r="91" ht="19" customHeight="1">
       <c r="A91" s="6"/>
       <c r="B91" s="7">
         <v>90</v>
       </c>
-      <c r="C91" s="10" t="s">
-        <v>116</v>
+      <c r="C91" t="s" s="7">
+        <v>117</v>
       </c>
       <c r="D91" s="9"/>
-      <c r="E91" s="9"/>
+      <c r="E91" s="7"/>
       <c r="F91" s="9"/>
-      <c r="G91" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="H91" s="10" t="s">
+      <c r="G91" t="s" s="7">
         <v>82</v>
       </c>
-      <c r="I91" s="10" t="s">
+      <c r="H91" t="s" s="7">
+        <v>83</v>
+      </c>
+      <c r="I91" t="s" s="7">
         <v>21</v>
       </c>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c r="L91" s="5"/>
     </row>
-    <row r="92" spans="1:12" ht="19" customHeight="1">
+    <row r="92" ht="19" customHeight="1">
       <c r="A92" s="6"/>
       <c r="B92" s="7">
         <v>91</v>
       </c>
-      <c r="C92" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="D92" s="10" t="s">
+      <c r="C92" t="s" s="7">
+        <v>118</v>
+      </c>
+      <c r="D92" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="E92" s="9"/>
+      <c r="E92" s="7"/>
       <c r="F92" s="9"/>
-      <c r="G92" s="10" t="s">
+      <c r="G92" t="s" s="7">
         <v>24</v>
       </c>
-      <c r="H92" s="10" t="s">
+      <c r="H92" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="I92" s="10" t="s">
+      <c r="I92" t="s" s="7">
         <v>14</v>
       </c>
       <c r="J92" s="7">
@@ -4537,48 +4645,48 @@
       <c r="K92" s="9"/>
       <c r="L92" s="5"/>
     </row>
-    <row r="93" spans="1:12" ht="19" customHeight="1">
+    <row r="93" ht="19" customHeight="1">
       <c r="A93" s="6"/>
       <c r="B93" s="7">
         <v>92</v>
       </c>
-      <c r="C93" s="10" t="s">
-        <v>118</v>
+      <c r="C93" t="s" s="7">
+        <v>119</v>
       </c>
       <c r="D93" s="9"/>
-      <c r="E93" s="9"/>
+      <c r="E93" s="7"/>
       <c r="F93" s="9"/>
       <c r="G93" s="9"/>
-      <c r="H93" s="10" t="s">
+      <c r="H93" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="I93" s="10" t="s">
+      <c r="I93" t="s" s="7">
         <v>14</v>
       </c>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c r="L93" s="5"/>
     </row>
-    <row r="94" spans="1:12" ht="19" customHeight="1">
+    <row r="94" ht="19" customHeight="1">
       <c r="A94" s="6"/>
       <c r="B94" s="7">
         <v>93</v>
       </c>
-      <c r="C94" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="D94" s="7"/>
-      <c r="E94" s="9"/>
-      <c r="F94" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G94" s="10" t="s">
+      <c r="C94" t="s" s="7">
+        <v>120</v>
+      </c>
+      <c r="D94" s="9"/>
+      <c r="E94" s="7"/>
+      <c r="F94" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="G94" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="H94" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I94" s="10" t="s">
+      <c r="H94" t="s" s="7">
+        <v>13</v>
+      </c>
+      <c r="I94" t="s" s="7">
         <v>14</v>
       </c>
       <c r="J94" s="7">
@@ -4587,48 +4695,48 @@
       <c r="K94" s="9"/>
       <c r="L94" s="5"/>
     </row>
-    <row r="95" spans="1:12" ht="19" customHeight="1">
+    <row r="95" ht="19" customHeight="1">
       <c r="A95" s="6"/>
       <c r="B95" s="7">
         <v>94</v>
       </c>
-      <c r="C95" s="10" t="s">
-        <v>120</v>
+      <c r="C95" t="s" s="7">
+        <v>121</v>
       </c>
       <c r="D95" s="9"/>
-      <c r="E95" s="9"/>
+      <c r="E95" s="7"/>
       <c r="F95" s="9"/>
       <c r="G95" s="9"/>
-      <c r="H95" s="10" t="s">
+      <c r="H95" t="s" s="7">
         <v>30</v>
       </c>
-      <c r="I95" s="10" t="s">
+      <c r="I95" t="s" s="7">
         <v>21</v>
       </c>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c r="L95" s="5"/>
     </row>
-    <row r="96" spans="1:12" ht="19" customHeight="1">
+    <row r="96" ht="19" customHeight="1">
       <c r="A96" s="6"/>
       <c r="B96" s="7">
         <v>95</v>
       </c>
-      <c r="C96" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="D96" s="10" t="s">
+      <c r="C96" t="s" s="7">
+        <v>122</v>
+      </c>
+      <c r="D96" t="s" s="7">
         <v>26</v>
       </c>
-      <c r="E96" s="9"/>
+      <c r="E96" s="7"/>
       <c r="F96" s="9"/>
-      <c r="G96" s="10" t="s">
+      <c r="G96" t="s" s="7">
         <v>24</v>
       </c>
-      <c r="H96" s="10" t="s">
+      <c r="H96" t="s" s="7">
         <v>30</v>
       </c>
-      <c r="I96" s="10" t="s">
+      <c r="I96" t="s" s="7">
         <v>14</v>
       </c>
       <c r="J96" s="9">
@@ -4637,26 +4745,26 @@
       <c r="K96" s="9"/>
       <c r="L96" s="5"/>
     </row>
-    <row r="97" spans="1:12" ht="19" customHeight="1">
+    <row r="97" ht="19" customHeight="1">
       <c r="A97" s="6"/>
       <c r="B97" s="7">
         <v>96</v>
       </c>
-      <c r="C97" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="D97" s="7"/>
-      <c r="E97" s="9"/>
-      <c r="F97" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G97" s="10" t="s">
+      <c r="C97" t="s" s="7">
+        <v>123</v>
+      </c>
+      <c r="D97" s="9"/>
+      <c r="E97" s="7"/>
+      <c r="F97" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="G97" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="H97" s="10" t="s">
+      <c r="H97" t="s" s="7">
         <v>51</v>
       </c>
-      <c r="I97" s="10" t="s">
+      <c r="I97" t="s" s="7">
         <v>14</v>
       </c>
       <c r="J97" s="9">
@@ -4665,26 +4773,26 @@
       <c r="K97" s="9"/>
       <c r="L97" s="5"/>
     </row>
-    <row r="98" spans="1:12" ht="19" customHeight="1">
+    <row r="98" ht="19" customHeight="1">
       <c r="A98" s="6"/>
       <c r="B98" s="7">
         <v>97</v>
       </c>
-      <c r="C98" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="D98" s="10" t="s">
+      <c r="C98" t="s" s="7">
+        <v>124</v>
+      </c>
+      <c r="D98" t="s" s="7">
         <v>26</v>
       </c>
-      <c r="E98" s="9"/>
+      <c r="E98" s="7"/>
       <c r="F98" s="9"/>
-      <c r="G98" s="10" t="s">
+      <c r="G98" t="s" s="7">
         <v>24</v>
       </c>
-      <c r="H98" s="10" t="s">
+      <c r="H98" t="s" s="7">
         <v>30</v>
       </c>
-      <c r="I98" s="10" t="s">
+      <c r="I98" t="s" s="7">
         <v>14</v>
       </c>
       <c r="J98" s="9">
@@ -4693,24 +4801,24 @@
       <c r="K98" s="9"/>
       <c r="L98" s="5"/>
     </row>
-    <row r="99" spans="1:12" ht="19" customHeight="1">
+    <row r="99" ht="19" customHeight="1">
       <c r="A99" s="6"/>
       <c r="B99" s="7">
         <v>98</v>
       </c>
-      <c r="C99" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="D99" s="7"/>
-      <c r="E99" s="9"/>
+      <c r="C99" t="s" s="7">
+        <v>125</v>
+      </c>
+      <c r="D99" s="9"/>
+      <c r="E99" s="7"/>
       <c r="F99" s="9"/>
-      <c r="G99" s="10" t="s">
+      <c r="G99" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="H99" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="I99" s="10" t="s">
+      <c r="H99" t="s" s="7">
+        <v>126</v>
+      </c>
+      <c r="I99" t="s" s="7">
         <v>14</v>
       </c>
       <c r="J99" s="9">
@@ -4719,26 +4827,26 @@
       <c r="K99" s="9"/>
       <c r="L99" s="5"/>
     </row>
-    <row r="100" spans="1:12" ht="19" customHeight="1">
+    <row r="100" ht="19" customHeight="1">
       <c r="A100" s="6"/>
       <c r="B100" s="7">
         <v>99</v>
       </c>
-      <c r="C100" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="D100" s="10" t="s">
+      <c r="C100" t="s" s="7">
+        <v>127</v>
+      </c>
+      <c r="D100" t="s" s="7">
         <v>26</v>
       </c>
-      <c r="E100" s="9"/>
+      <c r="E100" s="7"/>
       <c r="F100" s="9"/>
-      <c r="G100" s="10" t="s">
+      <c r="G100" t="s" s="7">
         <v>24</v>
       </c>
-      <c r="H100" s="10" t="s">
+      <c r="H100" t="s" s="7">
         <v>30</v>
       </c>
-      <c r="I100" s="10" t="s">
+      <c r="I100" t="s" s="7">
         <v>14</v>
       </c>
       <c r="J100" s="9">
@@ -4747,54 +4855,54 @@
       <c r="K100" s="9"/>
       <c r="L100" s="5"/>
     </row>
-    <row r="101" spans="1:12" ht="19" customHeight="1">
+    <row r="101" ht="19" customHeight="1">
       <c r="A101" s="6"/>
       <c r="B101" s="7">
         <v>100</v>
       </c>
-      <c r="C101" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="D101" s="10" t="s">
+      <c r="C101" t="s" s="7">
+        <v>128</v>
+      </c>
+      <c r="D101" t="s" s="7">
         <v>26</v>
       </c>
-      <c r="E101" s="9"/>
-      <c r="F101" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G101" s="10" t="s">
+      <c r="E101" s="7"/>
+      <c r="F101" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="G101" t="s" s="7">
         <v>24</v>
       </c>
-      <c r="H101" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="I101" s="10" t="s">
+      <c r="H101" t="s" s="7">
+        <v>126</v>
+      </c>
+      <c r="I101" t="s" s="7">
         <v>14</v>
       </c>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c r="L101" s="5"/>
     </row>
-    <row r="102" spans="1:12" ht="19" customHeight="1">
+    <row r="102" ht="19" customHeight="1">
       <c r="A102" s="6"/>
       <c r="B102" s="7">
         <v>101</v>
       </c>
-      <c r="C102" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="D102" s="10" t="s">
+      <c r="C102" t="s" s="7">
+        <v>129</v>
+      </c>
+      <c r="D102" t="s" s="7">
         <v>26</v>
       </c>
-      <c r="E102" s="9"/>
+      <c r="E102" s="7"/>
       <c r="F102" s="9"/>
-      <c r="G102" s="10" t="s">
+      <c r="G102" t="s" s="7">
         <v>24</v>
       </c>
-      <c r="H102" s="10" t="s">
+      <c r="H102" t="s" s="7">
         <v>30</v>
       </c>
-      <c r="I102" s="10" t="s">
+      <c r="I102" t="s" s="7">
         <v>14</v>
       </c>
       <c r="J102" s="9">
@@ -4803,26 +4911,26 @@
       <c r="K102" s="9"/>
       <c r="L102" s="5"/>
     </row>
-    <row r="103" spans="1:12" ht="19" customHeight="1">
+    <row r="103" ht="19" customHeight="1">
       <c r="A103" s="6"/>
       <c r="B103" s="7">
         <v>102</v>
       </c>
-      <c r="C103" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="D103" s="10" t="s">
+      <c r="C103" t="s" s="7">
+        <v>130</v>
+      </c>
+      <c r="D103" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="E103" s="9"/>
+      <c r="E103" s="7"/>
       <c r="F103" s="9"/>
-      <c r="G103" s="10" t="s">
+      <c r="G103" t="s" s="7">
         <v>24</v>
       </c>
-      <c r="H103" s="10" t="s">
+      <c r="H103" t="s" s="7">
         <v>30</v>
       </c>
-      <c r="I103" s="10" t="s">
+      <c r="I103" t="s" s="7">
         <v>14</v>
       </c>
       <c r="J103" s="9">
@@ -4831,26 +4939,26 @@
       <c r="K103" s="9"/>
       <c r="L103" s="5"/>
     </row>
-    <row r="104" spans="1:12" ht="19" customHeight="1">
+    <row r="104" ht="19" customHeight="1">
       <c r="A104" s="6"/>
       <c r="B104" s="7">
         <v>103</v>
       </c>
-      <c r="C104" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="D104" s="10" t="s">
+      <c r="C104" t="s" s="7">
+        <v>131</v>
+      </c>
+      <c r="D104" t="s" s="7">
         <v>26</v>
       </c>
-      <c r="E104" s="9"/>
+      <c r="E104" s="7"/>
       <c r="F104" s="9"/>
-      <c r="G104" s="10" t="s">
+      <c r="G104" t="s" s="7">
         <v>24</v>
       </c>
-      <c r="H104" s="10" t="s">
+      <c r="H104" t="s" s="7">
         <v>30</v>
       </c>
-      <c r="I104" s="10" t="s">
+      <c r="I104" t="s" s="7">
         <v>14</v>
       </c>
       <c r="J104" s="9">
@@ -4859,48 +4967,48 @@
       <c r="K104" s="9"/>
       <c r="L104" s="5"/>
     </row>
-    <row r="105" spans="1:12" ht="19" customHeight="1">
+    <row r="105" ht="19" customHeight="1">
       <c r="A105" s="6"/>
       <c r="B105" s="7">
         <v>104</v>
       </c>
-      <c r="C105" s="10" t="s">
-        <v>131</v>
+      <c r="C105" t="s" s="7">
+        <v>132</v>
       </c>
       <c r="D105" s="9"/>
-      <c r="E105" s="9"/>
+      <c r="E105" s="7"/>
       <c r="F105" s="9"/>
-      <c r="G105" s="10" t="s">
+      <c r="G105" t="s" s="7">
         <v>16</v>
       </c>
-      <c r="H105" s="10" t="s">
+      <c r="H105" t="s" s="7">
         <v>30</v>
       </c>
-      <c r="I105" s="10" t="s">
+      <c r="I105" t="s" s="7">
         <v>21</v>
       </c>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c r="L105" s="5"/>
     </row>
-    <row r="106" spans="1:12" ht="19" customHeight="1">
+    <row r="106" ht="19" customHeight="1">
       <c r="A106" s="6"/>
       <c r="B106" s="7">
         <v>105</v>
       </c>
-      <c r="C106" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="D106" s="7"/>
-      <c r="E106" s="9"/>
+      <c r="C106" t="s" s="7">
+        <v>133</v>
+      </c>
+      <c r="D106" s="9"/>
+      <c r="E106" s="7"/>
       <c r="F106" s="9"/>
-      <c r="G106" s="10" t="s">
+      <c r="G106" t="s" s="7">
         <v>16</v>
       </c>
-      <c r="H106" s="10" t="s">
+      <c r="H106" t="s" s="7">
         <v>30</v>
       </c>
-      <c r="I106" s="10" t="s">
+      <c r="I106" t="s" s="7">
         <v>14</v>
       </c>
       <c r="J106" s="9">
@@ -4909,24 +5017,24 @@
       <c r="K106" s="9"/>
       <c r="L106" s="5"/>
     </row>
-    <row r="107" spans="1:12" ht="19" customHeight="1">
+    <row r="107" ht="19" customHeight="1">
       <c r="A107" s="6"/>
       <c r="B107" s="7">
         <v>106</v>
       </c>
-      <c r="C107" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="D107" s="7"/>
-      <c r="E107" s="9"/>
+      <c r="C107" t="s" s="7">
+        <v>134</v>
+      </c>
+      <c r="D107" s="9"/>
+      <c r="E107" s="7"/>
       <c r="F107" s="9"/>
-      <c r="G107" s="10" t="s">
+      <c r="G107" t="s" s="7">
         <v>16</v>
       </c>
-      <c r="H107" s="10" t="s">
+      <c r="H107" t="s" s="7">
         <v>30</v>
       </c>
-      <c r="I107" s="10" t="s">
+      <c r="I107" t="s" s="7">
         <v>14</v>
       </c>
       <c r="J107" s="9">
@@ -4935,24 +5043,24 @@
       <c r="K107" s="9"/>
       <c r="L107" s="5"/>
     </row>
-    <row r="108" spans="1:12" ht="19" customHeight="1">
+    <row r="108" ht="19" customHeight="1">
       <c r="A108" s="6"/>
       <c r="B108" s="7">
         <v>107</v>
       </c>
-      <c r="C108" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="D108" s="7"/>
-      <c r="E108" s="9"/>
+      <c r="C108" t="s" s="7">
+        <v>135</v>
+      </c>
+      <c r="D108" s="9"/>
+      <c r="E108" s="7"/>
       <c r="F108" s="9"/>
-      <c r="G108" s="10" t="s">
+      <c r="G108" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="H108" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I108" s="10" t="s">
+      <c r="H108" t="s" s="7">
+        <v>13</v>
+      </c>
+      <c r="I108" t="s" s="7">
         <v>21</v>
       </c>
       <c r="J108" s="9">
@@ -4961,24 +5069,24 @@
       <c r="K108" s="9"/>
       <c r="L108" s="5"/>
     </row>
-    <row r="109" spans="1:12" ht="19" customHeight="1">
+    <row r="109" ht="19" customHeight="1">
       <c r="A109" s="6"/>
       <c r="B109" s="7">
         <v>108</v>
       </c>
-      <c r="C109" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="D109" s="7"/>
-      <c r="E109" s="9"/>
+      <c r="C109" t="s" s="7">
+        <v>136</v>
+      </c>
+      <c r="D109" s="9"/>
+      <c r="E109" s="7"/>
       <c r="F109" s="9"/>
-      <c r="G109" s="10" t="s">
+      <c r="G109" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="H109" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I109" s="10" t="s">
+      <c r="H109" t="s" s="7">
+        <v>13</v>
+      </c>
+      <c r="I109" t="s" s="7">
         <v>21</v>
       </c>
       <c r="J109" s="7">
@@ -4987,24 +5095,28 @@
       <c r="K109" s="9"/>
       <c r="L109" s="5"/>
     </row>
-    <row r="110" spans="1:12" ht="19" customHeight="1">
+    <row r="110" ht="19" customHeight="1">
       <c r="A110" s="6"/>
       <c r="B110" s="7">
         <v>109</v>
       </c>
-      <c r="C110" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="D110" s="7"/>
-      <c r="E110" s="9"/>
-      <c r="F110" s="9"/>
-      <c r="G110" s="10" t="s">
+      <c r="C110" t="s" s="7">
+        <v>137</v>
+      </c>
+      <c r="D110" s="9"/>
+      <c r="E110" t="s" s="7">
+        <v>74</v>
+      </c>
+      <c r="F110" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="G110" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="H110" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I110" s="10" t="s">
+      <c r="H110" t="s" s="7">
+        <v>13</v>
+      </c>
+      <c r="I110" t="s" s="7">
         <v>14</v>
       </c>
       <c r="J110" s="9">
@@ -5013,24 +5125,24 @@
       <c r="K110" s="9"/>
       <c r="L110" s="5"/>
     </row>
-    <row r="111" spans="1:12" ht="19" customHeight="1">
+    <row r="111" ht="19" customHeight="1">
       <c r="A111" s="6"/>
       <c r="B111" s="7">
         <v>110</v>
       </c>
-      <c r="C111" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="D111" s="7"/>
-      <c r="E111" s="9"/>
+      <c r="C111" t="s" s="7">
+        <v>138</v>
+      </c>
+      <c r="D111" s="9"/>
+      <c r="E111" s="7"/>
       <c r="F111" s="9"/>
-      <c r="G111" s="10" t="s">
+      <c r="G111" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="H111" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I111" s="10" t="s">
+      <c r="H111" t="s" s="7">
+        <v>13</v>
+      </c>
+      <c r="I111" t="s" s="7">
         <v>14</v>
       </c>
       <c r="J111" s="9">
@@ -5039,50 +5151,50 @@
       <c r="K111" s="9"/>
       <c r="L111" s="5"/>
     </row>
-    <row r="112" spans="1:12" ht="19" customHeight="1">
+    <row r="112" ht="19" customHeight="1">
       <c r="A112" s="6"/>
       <c r="B112" s="7">
         <v>111</v>
       </c>
-      <c r="C112" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="D112" s="10" t="s">
+      <c r="C112" t="s" s="7">
+        <v>139</v>
+      </c>
+      <c r="D112" t="s" s="7">
         <v>26</v>
       </c>
-      <c r="E112" s="9"/>
+      <c r="E112" s="7"/>
       <c r="F112" s="9"/>
-      <c r="G112" s="10" t="s">
+      <c r="G112" t="s" s="7">
         <v>24</v>
       </c>
-      <c r="H112" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I112" s="10" t="s">
+      <c r="H112" t="s" s="7">
+        <v>13</v>
+      </c>
+      <c r="I112" t="s" s="7">
         <v>14</v>
       </c>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c r="L112" s="5"/>
     </row>
-    <row r="113" spans="1:12" ht="19" customHeight="1">
+    <row r="113" ht="19" customHeight="1">
       <c r="A113" s="6"/>
       <c r="B113" s="7">
         <v>112</v>
       </c>
-      <c r="C113" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="D113" s="7"/>
-      <c r="E113" s="9"/>
+      <c r="C113" t="s" s="7">
+        <v>140</v>
+      </c>
+      <c r="D113" s="9"/>
+      <c r="E113" s="7"/>
       <c r="F113" s="9"/>
-      <c r="G113" s="10" t="s">
+      <c r="G113" t="s" s="7">
         <v>16</v>
       </c>
-      <c r="H113" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="I113" s="10" t="s">
+      <c r="H113" t="s" s="7">
+        <v>94</v>
+      </c>
+      <c r="I113" t="s" s="7">
         <v>14</v>
       </c>
       <c r="J113" s="9">
@@ -5091,24 +5203,24 @@
       <c r="K113" s="9"/>
       <c r="L113" s="5"/>
     </row>
-    <row r="114" spans="1:12" ht="19" customHeight="1">
+    <row r="114" ht="19" customHeight="1">
       <c r="A114" s="6"/>
       <c r="B114" s="7">
         <v>113</v>
       </c>
-      <c r="C114" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="D114" s="7"/>
-      <c r="E114" s="9"/>
+      <c r="C114" t="s" s="7">
+        <v>141</v>
+      </c>
+      <c r="D114" s="9"/>
+      <c r="E114" s="7"/>
       <c r="F114" s="9"/>
-      <c r="G114" s="10" t="s">
+      <c r="G114" t="s" s="7">
         <v>16</v>
       </c>
-      <c r="H114" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="I114" s="10" t="s">
+      <c r="H114" t="s" s="7">
+        <v>94</v>
+      </c>
+      <c r="I114" t="s" s="7">
         <v>14</v>
       </c>
       <c r="J114" s="9">
@@ -5117,22 +5229,22 @@
       <c r="K114" s="9"/>
       <c r="L114" s="5"/>
     </row>
-    <row r="115" spans="1:12" ht="19" customHeight="1">
+    <row r="115" ht="19" customHeight="1">
       <c r="A115" s="6"/>
       <c r="B115" s="7">
         <v>114</v>
       </c>
-      <c r="C115" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="D115" s="7"/>
-      <c r="E115" s="9"/>
+      <c r="C115" t="s" s="7">
+        <v>142</v>
+      </c>
+      <c r="D115" s="9"/>
+      <c r="E115" s="7"/>
       <c r="F115" s="9"/>
       <c r="G115" s="9"/>
-      <c r="H115" s="10" t="s">
+      <c r="H115" t="s" s="7">
         <v>30</v>
       </c>
-      <c r="I115" s="10" t="s">
+      <c r="I115" t="s" s="7">
         <v>14</v>
       </c>
       <c r="J115" s="9">
@@ -5141,46 +5253,46 @@
       <c r="K115" s="9"/>
       <c r="L115" s="5"/>
     </row>
-    <row r="116" spans="1:12" ht="19" customHeight="1">
+    <row r="116" ht="19" customHeight="1">
       <c r="A116" s="6"/>
       <c r="B116" s="7">
         <v>115</v>
       </c>
-      <c r="C116" s="10" t="s">
-        <v>142</v>
+      <c r="C116" t="s" s="7">
+        <v>143</v>
       </c>
       <c r="D116" s="9"/>
-      <c r="E116" s="9"/>
+      <c r="E116" s="7"/>
       <c r="F116" s="9"/>
       <c r="G116" s="9"/>
-      <c r="H116" s="10" t="s">
+      <c r="H116" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="I116" s="10" t="s">
+      <c r="I116" t="s" s="7">
         <v>14</v>
       </c>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c r="L116" s="5"/>
     </row>
-    <row r="117" spans="1:12" ht="19" customHeight="1">
+    <row r="117" ht="19" customHeight="1">
       <c r="A117" s="6"/>
       <c r="B117" s="7">
         <v>116</v>
       </c>
-      <c r="C117" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="D117" s="7"/>
-      <c r="E117" s="9"/>
+      <c r="C117" t="s" s="7">
+        <v>144</v>
+      </c>
+      <c r="D117" s="9"/>
+      <c r="E117" s="7"/>
       <c r="F117" s="9"/>
-      <c r="G117" s="10" t="s">
+      <c r="G117" t="s" s="7">
         <v>16</v>
       </c>
-      <c r="H117" s="10" t="s">
+      <c r="H117" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="I117" s="10" t="s">
+      <c r="I117" t="s" s="7">
         <v>14</v>
       </c>
       <c r="J117" s="9">
@@ -5189,24 +5301,28 @@
       <c r="K117" s="9"/>
       <c r="L117" s="5"/>
     </row>
-    <row r="118" spans="1:12" ht="19" customHeight="1">
+    <row r="118" ht="19" customHeight="1">
       <c r="A118" s="6"/>
       <c r="B118" s="7">
         <v>117</v>
       </c>
-      <c r="C118" s="10" t="s">
-        <v>144</v>
+      <c r="C118" t="s" s="7">
+        <v>145</v>
       </c>
       <c r="D118" s="9"/>
-      <c r="E118" s="9"/>
-      <c r="F118" s="9"/>
-      <c r="G118" s="10" t="s">
+      <c r="E118" t="s" s="7">
+        <v>74</v>
+      </c>
+      <c r="F118" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="G118" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="H118" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I118" s="10" t="s">
+      <c r="H118" t="s" s="7">
+        <v>13</v>
+      </c>
+      <c r="I118" t="s" s="7">
         <v>14</v>
       </c>
       <c r="J118" s="9">
@@ -5215,52 +5331,52 @@
       <c r="K118" s="9"/>
       <c r="L118" s="5"/>
     </row>
-    <row r="119" spans="1:12" ht="19" customHeight="1">
+    <row r="119" ht="19" customHeight="1">
       <c r="A119" s="6"/>
       <c r="B119" s="7">
         <v>118</v>
       </c>
-      <c r="C119" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="D119" s="10" t="s">
+      <c r="C119" t="s" s="7">
+        <v>146</v>
+      </c>
+      <c r="D119" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="E119" s="9"/>
-      <c r="F119" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G119" s="10" t="s">
+      <c r="E119" s="7"/>
+      <c r="F119" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="G119" t="s" s="7">
         <v>24</v>
       </c>
-      <c r="H119" s="10" t="s">
+      <c r="H119" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="I119" s="10" t="s">
+      <c r="I119" t="s" s="7">
         <v>14</v>
       </c>
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
       <c r="L119" s="5"/>
     </row>
-    <row r="120" spans="1:12" ht="19" customHeight="1">
+    <row r="120" ht="19" customHeight="1">
       <c r="A120" s="6"/>
       <c r="B120" s="7">
         <v>119</v>
       </c>
-      <c r="C120" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="D120" s="7"/>
-      <c r="E120" s="9"/>
+      <c r="C120" t="s" s="7">
+        <v>147</v>
+      </c>
+      <c r="D120" s="9"/>
+      <c r="E120" s="7"/>
       <c r="F120" s="9"/>
-      <c r="G120" s="10" t="s">
+      <c r="G120" t="s" s="7">
         <v>16</v>
       </c>
-      <c r="H120" s="10" t="s">
+      <c r="H120" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="I120" s="10" t="s">
+      <c r="I120" t="s" s="7">
         <v>14</v>
       </c>
       <c r="J120" s="9">
@@ -5269,48 +5385,48 @@
       <c r="K120" s="9"/>
       <c r="L120" s="5"/>
     </row>
-    <row r="121" spans="1:12" ht="19" customHeight="1">
+    <row r="121" ht="19" customHeight="1">
       <c r="A121" s="6"/>
       <c r="B121" s="7">
         <v>120</v>
       </c>
-      <c r="C121" s="10" t="s">
-        <v>147</v>
+      <c r="C121" t="s" s="7">
+        <v>148</v>
       </c>
       <c r="D121" s="9"/>
-      <c r="E121" s="9"/>
+      <c r="E121" s="7"/>
       <c r="F121" s="9"/>
-      <c r="G121" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="H121" s="10" t="s">
+      <c r="G121" t="s" s="7">
         <v>82</v>
       </c>
-      <c r="I121" s="10" t="s">
+      <c r="H121" t="s" s="7">
+        <v>83</v>
+      </c>
+      <c r="I121" t="s" s="7">
         <v>14</v>
       </c>
       <c r="J121" s="9"/>
       <c r="K121" s="9"/>
       <c r="L121" s="5"/>
     </row>
-    <row r="122" spans="1:12" ht="19" customHeight="1">
+    <row r="122" ht="19" customHeight="1">
       <c r="A122" s="6"/>
       <c r="B122" s="7">
         <v>121</v>
       </c>
-      <c r="C122" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="D122" s="7"/>
-      <c r="E122" s="9"/>
+      <c r="C122" t="s" s="7">
+        <v>149</v>
+      </c>
+      <c r="D122" s="9"/>
+      <c r="E122" s="7"/>
       <c r="F122" s="9"/>
-      <c r="G122" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="H122" s="10" t="s">
+      <c r="G122" t="s" s="7">
         <v>82</v>
       </c>
-      <c r="I122" s="10" t="s">
+      <c r="H122" t="s" s="7">
+        <v>83</v>
+      </c>
+      <c r="I122" t="s" s="7">
         <v>14</v>
       </c>
       <c r="J122" s="9">
@@ -5319,76 +5435,76 @@
       <c r="K122" s="9"/>
       <c r="L122" s="5"/>
     </row>
-    <row r="123" spans="1:12" ht="19" customHeight="1">
+    <row r="123" ht="19" customHeight="1">
       <c r="A123" s="6"/>
       <c r="B123" s="7">
         <v>122</v>
       </c>
-      <c r="C123" s="10" t="s">
-        <v>149</v>
+      <c r="C123" t="s" s="7">
+        <v>150</v>
       </c>
       <c r="D123" s="9"/>
-      <c r="E123" s="9"/>
-      <c r="F123" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G123" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="H123" s="10" t="s">
+      <c r="E123" s="7"/>
+      <c r="F123" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="G123" t="s" s="7">
         <v>82</v>
       </c>
-      <c r="I123" s="10" t="s">
+      <c r="H123" t="s" s="7">
+        <v>83</v>
+      </c>
+      <c r="I123" t="s" s="7">
         <v>14</v>
       </c>
       <c r="J123" s="9"/>
       <c r="K123" s="9"/>
       <c r="L123" s="5"/>
     </row>
-    <row r="124" spans="1:12" ht="19" customHeight="1">
+    <row r="124" ht="19" customHeight="1">
       <c r="A124" s="6"/>
       <c r="B124" s="7">
         <v>123</v>
       </c>
-      <c r="C124" s="10" t="s">
-        <v>150</v>
+      <c r="C124" t="s" s="7">
+        <v>151</v>
       </c>
       <c r="D124" s="9"/>
-      <c r="E124" s="9"/>
-      <c r="F124" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G124" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="H124" s="10" t="s">
+      <c r="E124" s="7"/>
+      <c r="F124" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="G124" t="s" s="7">
         <v>82</v>
       </c>
-      <c r="I124" s="10" t="s">
+      <c r="H124" t="s" s="7">
+        <v>83</v>
+      </c>
+      <c r="I124" t="s" s="7">
         <v>14</v>
       </c>
       <c r="J124" s="9"/>
       <c r="K124" s="9"/>
       <c r="L124" s="5"/>
     </row>
-    <row r="125" spans="1:12" ht="19" customHeight="1">
+    <row r="125" ht="19" customHeight="1">
       <c r="A125" s="6"/>
       <c r="B125" s="7">
         <v>124</v>
       </c>
-      <c r="C125" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="D125" s="7"/>
-      <c r="E125" s="9"/>
+      <c r="C125" t="s" s="7">
+        <v>152</v>
+      </c>
+      <c r="D125" s="9"/>
+      <c r="E125" s="7"/>
       <c r="F125" s="9"/>
-      <c r="G125" s="10" t="s">
+      <c r="G125" t="s" s="7">
         <v>16</v>
       </c>
-      <c r="H125" s="10" t="s">
+      <c r="H125" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="I125" s="10" t="s">
+      <c r="I125" t="s" s="7">
         <v>14</v>
       </c>
       <c r="J125" s="9">
@@ -5397,24 +5513,24 @@
       <c r="K125" s="9"/>
       <c r="L125" s="5"/>
     </row>
-    <row r="126" spans="1:12" ht="19" customHeight="1">
+    <row r="126" ht="19" customHeight="1">
       <c r="A126" s="6"/>
       <c r="B126" s="7">
         <v>125</v>
       </c>
-      <c r="C126" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="D126" s="7"/>
-      <c r="E126" s="9"/>
+      <c r="C126" t="s" s="7">
+        <v>153</v>
+      </c>
+      <c r="D126" s="9"/>
+      <c r="E126" s="7"/>
       <c r="F126" s="9"/>
-      <c r="G126" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="H126" s="10" t="s">
+      <c r="G126" t="s" s="7">
         <v>82</v>
       </c>
-      <c r="I126" s="10" t="s">
+      <c r="H126" t="s" s="7">
+        <v>83</v>
+      </c>
+      <c r="I126" t="s" s="7">
         <v>14</v>
       </c>
       <c r="J126" s="9">
@@ -5423,24 +5539,24 @@
       <c r="K126" s="9"/>
       <c r="L126" s="5"/>
     </row>
-    <row r="127" spans="1:12" ht="19" customHeight="1">
+    <row r="127" ht="19" customHeight="1">
       <c r="A127" s="6"/>
       <c r="B127" s="7">
         <v>126</v>
       </c>
-      <c r="C127" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="D127" s="7"/>
-      <c r="E127" s="9"/>
+      <c r="C127" t="s" s="7">
+        <v>154</v>
+      </c>
+      <c r="D127" s="9"/>
+      <c r="E127" s="7"/>
       <c r="F127" s="9"/>
-      <c r="G127" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="H127" s="10" t="s">
+      <c r="G127" t="s" s="7">
         <v>82</v>
       </c>
-      <c r="I127" s="10" t="s">
+      <c r="H127" t="s" s="7">
+        <v>83</v>
+      </c>
+      <c r="I127" t="s" s="7">
         <v>14</v>
       </c>
       <c r="J127" s="9">
@@ -5449,24 +5565,28 @@
       <c r="K127" s="9"/>
       <c r="L127" s="5"/>
     </row>
-    <row r="128" spans="1:12" ht="31" customHeight="1">
+    <row r="128" ht="31" customHeight="1">
       <c r="A128" s="6"/>
       <c r="B128" s="7">
         <v>127</v>
       </c>
-      <c r="C128" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="D128" s="7"/>
-      <c r="E128" s="9"/>
-      <c r="F128" s="9"/>
-      <c r="G128" s="10" t="s">
+      <c r="C128" t="s" s="8">
+        <v>155</v>
+      </c>
+      <c r="D128" s="9"/>
+      <c r="E128" t="s" s="7">
+        <v>74</v>
+      </c>
+      <c r="F128" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="G128" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="H128" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I128" s="10" t="s">
+      <c r="H128" t="s" s="7">
+        <v>13</v>
+      </c>
+      <c r="I128" t="s" s="7">
         <v>14</v>
       </c>
       <c r="J128" s="9">
@@ -5475,50 +5595,50 @@
       <c r="K128" s="9"/>
       <c r="L128" s="5"/>
     </row>
-    <row r="129" spans="1:12" ht="19" customHeight="1">
+    <row r="129" ht="19" customHeight="1">
       <c r="A129" s="6"/>
       <c r="B129" s="7">
         <v>128</v>
       </c>
-      <c r="C129" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="D129" s="10" t="s">
+      <c r="C129" t="s" s="7">
+        <v>156</v>
+      </c>
+      <c r="D129" t="s" s="7">
         <v>26</v>
       </c>
-      <c r="E129" s="9"/>
+      <c r="E129" s="7"/>
       <c r="F129" s="9"/>
-      <c r="G129" s="10" t="s">
+      <c r="G129" t="s" s="7">
         <v>24</v>
       </c>
-      <c r="H129" s="10" t="s">
+      <c r="H129" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="I129" s="10" t="s">
+      <c r="I129" t="s" s="7">
         <v>14</v>
       </c>
       <c r="J129" s="9"/>
       <c r="K129" s="9"/>
       <c r="L129" s="5"/>
     </row>
-    <row r="130" spans="1:12" ht="19" customHeight="1">
+    <row r="130" ht="19" customHeight="1">
       <c r="A130" s="6"/>
       <c r="B130" s="7">
         <v>129</v>
       </c>
-      <c r="C130" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="D130" s="7"/>
-      <c r="E130" s="9"/>
+      <c r="C130" t="s" s="7">
+        <v>157</v>
+      </c>
+      <c r="D130" s="9"/>
+      <c r="E130" s="7"/>
       <c r="F130" s="9"/>
-      <c r="G130" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="H130" s="10" t="s">
+      <c r="G130" t="s" s="7">
         <v>82</v>
       </c>
-      <c r="I130" s="10" t="s">
+      <c r="H130" t="s" s="7">
+        <v>83</v>
+      </c>
+      <c r="I130" t="s" s="7">
         <v>14</v>
       </c>
       <c r="J130" s="9">
@@ -5527,24 +5647,24 @@
       <c r="K130" s="9"/>
       <c r="L130" s="5"/>
     </row>
-    <row r="131" spans="1:12" ht="19" customHeight="1">
+    <row r="131" ht="19" customHeight="1">
       <c r="A131" s="6"/>
       <c r="B131" s="7">
         <v>130</v>
       </c>
-      <c r="C131" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="D131" s="7"/>
-      <c r="E131" s="9"/>
+      <c r="C131" t="s" s="7">
+        <v>158</v>
+      </c>
+      <c r="D131" s="9"/>
+      <c r="E131" s="7"/>
       <c r="F131" s="9"/>
-      <c r="G131" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="H131" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I131" s="10" t="s">
+      <c r="G131" t="s" s="7">
+        <v>82</v>
+      </c>
+      <c r="H131" t="s" s="7">
+        <v>13</v>
+      </c>
+      <c r="I131" t="s" s="7">
         <v>14</v>
       </c>
       <c r="J131" s="9">
@@ -5553,48 +5673,48 @@
       <c r="K131" s="9"/>
       <c r="L131" s="5"/>
     </row>
-    <row r="132" spans="1:12" ht="19" customHeight="1">
+    <row r="132" ht="19" customHeight="1">
       <c r="A132" s="6"/>
       <c r="B132" s="7">
         <v>131</v>
       </c>
-      <c r="C132" s="10" t="s">
-        <v>158</v>
+      <c r="C132" t="s" s="7">
+        <v>159</v>
       </c>
       <c r="D132" s="9"/>
-      <c r="E132" s="9"/>
+      <c r="E132" s="7"/>
       <c r="F132" s="9"/>
-      <c r="G132" s="10" t="s">
+      <c r="G132" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="H132" s="10" t="s">
+      <c r="H132" t="s" s="7">
         <v>51</v>
       </c>
-      <c r="I132" s="10" t="s">
+      <c r="I132" t="s" s="7">
         <v>21</v>
       </c>
       <c r="J132" s="9"/>
       <c r="K132" s="9"/>
       <c r="L132" s="5"/>
     </row>
-    <row r="133" spans="1:12" ht="19" customHeight="1">
+    <row r="133" ht="19" customHeight="1">
       <c r="A133" s="6"/>
       <c r="B133" s="7">
         <v>132</v>
       </c>
-      <c r="C133" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="D133" s="7"/>
-      <c r="E133" s="9"/>
+      <c r="C133" t="s" s="7">
+        <v>160</v>
+      </c>
+      <c r="D133" s="9"/>
+      <c r="E133" s="7"/>
       <c r="F133" s="9"/>
-      <c r="G133" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="H133" s="10" t="s">
+      <c r="G133" t="s" s="7">
         <v>82</v>
       </c>
-      <c r="I133" s="10" t="s">
+      <c r="H133" t="s" s="7">
+        <v>83</v>
+      </c>
+      <c r="I133" t="s" s="7">
         <v>14</v>
       </c>
       <c r="J133" s="9">
@@ -5603,24 +5723,24 @@
       <c r="K133" s="9"/>
       <c r="L133" s="5"/>
     </row>
-    <row r="134" spans="1:12" ht="19" customHeight="1">
+    <row r="134" ht="19" customHeight="1">
       <c r="A134" s="6"/>
       <c r="B134" s="7">
         <v>133</v>
       </c>
-      <c r="C134" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="D134" s="7"/>
-      <c r="E134" s="9"/>
+      <c r="C134" t="s" s="7">
+        <v>161</v>
+      </c>
+      <c r="D134" s="9"/>
+      <c r="E134" s="7"/>
       <c r="F134" s="9"/>
-      <c r="G134" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="H134" s="10" t="s">
+      <c r="G134" t="s" s="7">
         <v>82</v>
       </c>
-      <c r="I134" s="10" t="s">
+      <c r="H134" t="s" s="7">
+        <v>83</v>
+      </c>
+      <c r="I134" t="s" s="7">
         <v>14</v>
       </c>
       <c r="J134" s="9">
@@ -5629,26 +5749,26 @@
       <c r="K134" s="9"/>
       <c r="L134" s="5"/>
     </row>
-    <row r="135" spans="1:12" ht="19" customHeight="1">
+    <row r="135" ht="19" customHeight="1">
       <c r="A135" s="6"/>
       <c r="B135" s="7">
         <v>134</v>
       </c>
-      <c r="C135" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="D135" s="10" t="s">
+      <c r="C135" t="s" s="7">
+        <v>162</v>
+      </c>
+      <c r="D135" t="s" s="7">
         <v>26</v>
       </c>
-      <c r="E135" s="9"/>
+      <c r="E135" s="7"/>
       <c r="F135" s="9"/>
-      <c r="G135" s="10" t="s">
+      <c r="G135" t="s" s="7">
         <v>24</v>
       </c>
-      <c r="H135" s="10" t="s">
+      <c r="H135" t="s" s="7">
         <v>30</v>
       </c>
-      <c r="I135" s="10" t="s">
+      <c r="I135" t="s" s="7">
         <v>14</v>
       </c>
       <c r="J135" s="9">
@@ -5657,26 +5777,26 @@
       <c r="K135" s="9"/>
       <c r="L135" s="5"/>
     </row>
-    <row r="136" spans="1:12" ht="19" customHeight="1">
+    <row r="136" ht="19" customHeight="1">
       <c r="A136" s="6"/>
       <c r="B136" s="7">
         <v>135</v>
       </c>
-      <c r="C136" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="D136" s="10" t="s">
+      <c r="C136" t="s" s="7">
+        <v>163</v>
+      </c>
+      <c r="D136" t="s" s="7">
         <v>26</v>
       </c>
-      <c r="E136" s="9"/>
+      <c r="E136" s="7"/>
       <c r="F136" s="9"/>
-      <c r="G136" s="10" t="s">
+      <c r="G136" t="s" s="7">
         <v>24</v>
       </c>
-      <c r="H136" s="10" t="s">
+      <c r="H136" t="s" s="7">
         <v>30</v>
       </c>
-      <c r="I136" s="10" t="s">
+      <c r="I136" t="s" s="7">
         <v>14</v>
       </c>
       <c r="J136" s="9">
@@ -5685,24 +5805,24 @@
       <c r="K136" s="9"/>
       <c r="L136" s="5"/>
     </row>
-    <row r="137" spans="1:12" ht="19" customHeight="1">
+    <row r="137" ht="19" customHeight="1">
       <c r="A137" s="6"/>
       <c r="B137" s="7">
         <v>136</v>
       </c>
-      <c r="C137" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="D137" s="7"/>
-      <c r="E137" s="9"/>
+      <c r="C137" t="s" s="7">
+        <v>164</v>
+      </c>
+      <c r="D137" s="9"/>
+      <c r="E137" s="7"/>
       <c r="F137" s="9"/>
-      <c r="G137" s="10" t="s">
+      <c r="G137" t="s" s="7">
         <v>16</v>
       </c>
-      <c r="H137" s="10" t="s">
+      <c r="H137" t="s" s="7">
         <v>30</v>
       </c>
-      <c r="I137" s="10" t="s">
+      <c r="I137" t="s" s="7">
         <v>14</v>
       </c>
       <c r="J137" s="9">
@@ -5711,124 +5831,124 @@
       <c r="K137" s="9"/>
       <c r="L137" s="5"/>
     </row>
-    <row r="138" spans="1:12" ht="19" customHeight="1">
+    <row r="138" ht="19" customHeight="1">
       <c r="A138" s="6"/>
       <c r="B138" s="7">
         <v>137</v>
       </c>
-      <c r="C138" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="D138" s="10" t="s">
+      <c r="C138" t="s" s="7">
+        <v>165</v>
+      </c>
+      <c r="D138" t="s" s="7">
         <v>26</v>
       </c>
-      <c r="E138" s="9"/>
+      <c r="E138" s="7"/>
       <c r="F138" s="9"/>
-      <c r="G138" s="10" t="s">
+      <c r="G138" t="s" s="7">
         <v>24</v>
       </c>
-      <c r="H138" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I138" s="10" t="s">
+      <c r="H138" t="s" s="7">
+        <v>13</v>
+      </c>
+      <c r="I138" t="s" s="7">
         <v>21</v>
       </c>
       <c r="J138" s="9"/>
       <c r="K138" s="9"/>
       <c r="L138" s="5"/>
     </row>
-    <row r="139" spans="1:12" ht="19" customHeight="1">
+    <row r="139" ht="19" customHeight="1">
       <c r="A139" s="6"/>
       <c r="B139" s="7">
         <v>138</v>
       </c>
-      <c r="C139" s="10" t="s">
-        <v>165</v>
+      <c r="C139" t="s" s="7">
+        <v>166</v>
       </c>
       <c r="D139" s="9"/>
-      <c r="E139" s="9"/>
+      <c r="E139" s="7"/>
       <c r="F139" s="9"/>
-      <c r="G139" s="10" t="s">
+      <c r="G139" t="s" s="7">
         <v>16</v>
       </c>
-      <c r="H139" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="I139" s="10" t="s">
+      <c r="H139" t="s" s="7">
+        <v>94</v>
+      </c>
+      <c r="I139" t="s" s="7">
         <v>14</v>
       </c>
       <c r="J139" s="9"/>
       <c r="K139" s="9"/>
       <c r="L139" s="5"/>
     </row>
-    <row r="140" spans="1:12" ht="19" customHeight="1">
+    <row r="140" ht="19" customHeight="1">
       <c r="A140" s="6"/>
       <c r="B140" s="7">
         <v>139</v>
       </c>
-      <c r="C140" s="10" t="s">
-        <v>166</v>
+      <c r="C140" t="s" s="7">
+        <v>167</v>
       </c>
       <c r="D140" s="9"/>
-      <c r="E140" s="9"/>
+      <c r="E140" s="7"/>
       <c r="F140" s="9"/>
-      <c r="G140" s="10" t="s">
+      <c r="G140" t="s" s="7">
         <v>16</v>
       </c>
-      <c r="H140" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I140" s="10" t="s">
+      <c r="H140" t="s" s="7">
+        <v>13</v>
+      </c>
+      <c r="I140" t="s" s="7">
         <v>14</v>
       </c>
       <c r="J140" s="9"/>
       <c r="K140" s="9"/>
       <c r="L140" s="5"/>
     </row>
-    <row r="141" spans="1:12" ht="19" customHeight="1">
+    <row r="141" ht="19" customHeight="1">
       <c r="A141" s="6"/>
       <c r="B141" s="7">
         <v>140</v>
       </c>
-      <c r="C141" s="10" t="s">
-        <v>167</v>
+      <c r="C141" t="s" s="7">
+        <v>168</v>
       </c>
       <c r="D141" s="9"/>
-      <c r="E141" s="9"/>
+      <c r="E141" s="7"/>
       <c r="F141" s="9"/>
-      <c r="G141" s="10" t="s">
+      <c r="G141" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="H141" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I141" s="10" t="s">
+      <c r="H141" t="s" s="7">
+        <v>13</v>
+      </c>
+      <c r="I141" t="s" s="7">
         <v>21</v>
       </c>
       <c r="J141" s="9"/>
       <c r="K141" s="9"/>
       <c r="L141" s="5"/>
     </row>
-    <row r="142" spans="1:12" ht="19" customHeight="1">
+    <row r="142" ht="19" customHeight="1">
       <c r="A142" s="6"/>
       <c r="B142" s="7">
         <v>141</v>
       </c>
-      <c r="C142" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="D142" s="10" t="s">
+      <c r="C142" t="s" s="7">
+        <v>169</v>
+      </c>
+      <c r="D142" t="s" s="7">
         <v>26</v>
       </c>
-      <c r="E142" s="9"/>
+      <c r="E142" s="7"/>
       <c r="F142" s="9"/>
-      <c r="G142" s="10" t="s">
+      <c r="G142" t="s" s="7">
         <v>24</v>
       </c>
-      <c r="H142" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I142" s="10" t="s">
+      <c r="H142" t="s" s="7">
+        <v>13</v>
+      </c>
+      <c r="I142" t="s" s="7">
         <v>21</v>
       </c>
       <c r="J142" s="9">
@@ -5837,74 +5957,74 @@
       <c r="K142" s="9"/>
       <c r="L142" s="5"/>
     </row>
-    <row r="143" spans="1:12" ht="19" customHeight="1">
+    <row r="143" ht="19" customHeight="1">
       <c r="A143" s="6"/>
       <c r="B143" s="7">
         <v>142</v>
       </c>
-      <c r="C143" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="D143" s="10" t="s">
+      <c r="C143" t="s" s="7">
+        <v>170</v>
+      </c>
+      <c r="D143" t="s" s="7">
         <v>26</v>
       </c>
-      <c r="E143" s="9"/>
+      <c r="E143" s="7"/>
       <c r="F143" s="9"/>
-      <c r="G143" s="10" t="s">
+      <c r="G143" t="s" s="7">
         <v>24</v>
       </c>
-      <c r="H143" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I143" s="10" t="s">
+      <c r="H143" t="s" s="7">
+        <v>13</v>
+      </c>
+      <c r="I143" t="s" s="7">
         <v>21</v>
       </c>
       <c r="J143" s="9"/>
       <c r="K143" s="9"/>
       <c r="L143" s="5"/>
     </row>
-    <row r="144" spans="1:12" ht="19" customHeight="1">
+    <row r="144" ht="19" customHeight="1">
       <c r="A144" s="6"/>
       <c r="B144" s="7">
         <v>143</v>
       </c>
-      <c r="C144" s="8" t="s">
-        <v>170</v>
+      <c r="C144" t="s" s="8">
+        <v>171</v>
       </c>
       <c r="D144" s="9"/>
-      <c r="E144" s="9"/>
+      <c r="E144" s="7"/>
       <c r="F144" s="9"/>
-      <c r="G144" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="H144" s="10" t="s">
+      <c r="G144" t="s" s="7">
         <v>82</v>
       </c>
-      <c r="I144" s="10" t="s">
+      <c r="H144" t="s" s="7">
+        <v>83</v>
+      </c>
+      <c r="I144" t="s" s="7">
         <v>21</v>
       </c>
       <c r="J144" s="9"/>
       <c r="K144" s="9"/>
       <c r="L144" s="5"/>
     </row>
-    <row r="145" spans="1:12" ht="19" customHeight="1">
+    <row r="145" ht="19" customHeight="1">
       <c r="A145" s="6"/>
       <c r="B145" s="7">
         <v>144</v>
       </c>
-      <c r="C145" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="D145" s="7"/>
-      <c r="E145" s="9"/>
+      <c r="C145" t="s" s="7">
+        <v>172</v>
+      </c>
+      <c r="D145" s="9"/>
+      <c r="E145" s="7"/>
       <c r="F145" s="9"/>
-      <c r="G145" s="10" t="s">
+      <c r="G145" t="s" s="7">
         <v>16</v>
       </c>
-      <c r="H145" s="10" t="s">
+      <c r="H145" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="I145" s="10" t="s">
+      <c r="I145" t="s" s="7">
         <v>14</v>
       </c>
       <c r="J145" s="9">
@@ -5913,50 +6033,50 @@
       <c r="K145" s="9"/>
       <c r="L145" s="5"/>
     </row>
-    <row r="146" spans="1:12" ht="19" customHeight="1">
+    <row r="146" ht="19" customHeight="1">
       <c r="A146" s="6"/>
       <c r="B146" s="7">
         <v>145</v>
       </c>
-      <c r="C146" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="D146" s="10" t="s">
+      <c r="C146" t="s" s="7">
+        <v>173</v>
+      </c>
+      <c r="D146" t="s" s="7">
         <v>29</v>
       </c>
-      <c r="E146" s="9"/>
+      <c r="E146" s="7"/>
       <c r="F146" s="9"/>
-      <c r="G146" s="10" t="s">
+      <c r="G146" t="s" s="7">
         <v>24</v>
       </c>
-      <c r="H146" s="10" t="s">
+      <c r="H146" t="s" s="7">
         <v>30</v>
       </c>
-      <c r="I146" s="10" t="s">
+      <c r="I146" t="s" s="7">
         <v>14</v>
       </c>
       <c r="J146" s="9"/>
       <c r="K146" s="9"/>
       <c r="L146" s="5"/>
     </row>
-    <row r="147" spans="1:12" ht="19" customHeight="1">
+    <row r="147" ht="19" customHeight="1">
       <c r="A147" s="6"/>
       <c r="B147" s="7">
         <v>146</v>
       </c>
-      <c r="C147" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="D147" s="7"/>
-      <c r="E147" s="9"/>
+      <c r="C147" t="s" s="7">
+        <v>174</v>
+      </c>
+      <c r="D147" s="9"/>
+      <c r="E147" s="7"/>
       <c r="F147" s="9"/>
-      <c r="G147" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="H147" s="10" t="s">
+      <c r="G147" t="s" s="7">
+        <v>82</v>
+      </c>
+      <c r="H147" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="I147" s="10" t="s">
+      <c r="I147" t="s" s="7">
         <v>14</v>
       </c>
       <c r="J147" s="9">
@@ -5965,72 +6085,76 @@
       <c r="K147" s="9"/>
       <c r="L147" s="5"/>
     </row>
-    <row r="148" spans="1:12" ht="19" customHeight="1">
+    <row r="148" ht="19" customHeight="1">
       <c r="A148" s="6"/>
       <c r="B148" s="7">
         <v>147</v>
       </c>
-      <c r="C148" s="10" t="s">
-        <v>174</v>
+      <c r="C148" t="s" s="7">
+        <v>175</v>
       </c>
       <c r="D148" s="9"/>
-      <c r="E148" s="9"/>
-      <c r="F148" s="9"/>
-      <c r="G148" s="10" t="s">
+      <c r="E148" t="s" s="7">
+        <v>74</v>
+      </c>
+      <c r="F148" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="G148" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="H148" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="I148" s="10" t="s">
+      <c r="H148" t="s" s="7">
+        <v>176</v>
+      </c>
+      <c r="I148" t="s" s="7">
         <v>14</v>
       </c>
       <c r="J148" s="9"/>
       <c r="K148" s="9"/>
       <c r="L148" s="5"/>
     </row>
-    <row r="149" spans="1:12" ht="19" customHeight="1">
+    <row r="149" ht="19" customHeight="1">
       <c r="A149" s="6"/>
       <c r="B149" s="7">
         <v>148</v>
       </c>
-      <c r="C149" s="10" t="s">
+      <c r="C149" t="s" s="7">
+        <v>177</v>
+      </c>
+      <c r="D149" s="9"/>
+      <c r="E149" s="7"/>
+      <c r="F149" s="9"/>
+      <c r="G149" t="s" s="7">
+        <v>82</v>
+      </c>
+      <c r="H149" t="s" s="7">
         <v>176</v>
       </c>
-      <c r="D149" s="9"/>
-      <c r="E149" s="9"/>
-      <c r="F149" s="9"/>
-      <c r="G149" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="H149" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="I149" s="10" t="s">
+      <c r="I149" t="s" s="7">
         <v>14</v>
       </c>
       <c r="J149" s="9"/>
       <c r="K149" s="9"/>
       <c r="L149" s="5"/>
     </row>
-    <row r="150" spans="1:12" ht="19" customHeight="1">
+    <row r="150" ht="19" customHeight="1">
       <c r="A150" s="6"/>
       <c r="B150" s="7">
         <v>149</v>
       </c>
-      <c r="C150" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="D150" s="7"/>
-      <c r="E150" s="9"/>
+      <c r="C150" t="s" s="7">
+        <v>178</v>
+      </c>
+      <c r="D150" s="9"/>
+      <c r="E150" s="7"/>
       <c r="F150" s="9"/>
-      <c r="G150" s="10" t="s">
+      <c r="G150" t="s" s="7">
         <v>16</v>
       </c>
-      <c r="H150" s="10" t="s">
+      <c r="H150" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="I150" s="10" t="s">
+      <c r="I150" t="s" s="7">
         <v>14</v>
       </c>
       <c r="J150" s="9">
@@ -6039,24 +6163,24 @@
       <c r="K150" s="9"/>
       <c r="L150" s="5"/>
     </row>
-    <row r="151" spans="1:12" ht="19" customHeight="1">
+    <row r="151" ht="19" customHeight="1">
       <c r="A151" s="6"/>
       <c r="B151" s="7">
         <v>150</v>
       </c>
-      <c r="C151" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="D151" s="7"/>
-      <c r="E151" s="9"/>
+      <c r="C151" t="s" s="8">
+        <v>179</v>
+      </c>
+      <c r="D151" s="9"/>
+      <c r="E151" s="7"/>
       <c r="F151" s="9"/>
-      <c r="G151" s="10" t="s">
+      <c r="G151" t="s" s="7">
         <v>16</v>
       </c>
-      <c r="H151" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I151" s="10" t="s">
+      <c r="H151" t="s" s="7">
+        <v>13</v>
+      </c>
+      <c r="I151" t="s" s="7">
         <v>14</v>
       </c>
       <c r="J151" s="9">
@@ -6065,24 +6189,28 @@
       <c r="K151" s="9"/>
       <c r="L151" s="5"/>
     </row>
-    <row r="152" spans="1:12" ht="19" customHeight="1">
+    <row r="152" ht="19" customHeight="1">
       <c r="A152" s="6"/>
       <c r="B152" s="7">
         <v>151</v>
       </c>
-      <c r="C152" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="D152" s="7"/>
-      <c r="E152" s="9"/>
-      <c r="F152" s="9"/>
-      <c r="G152" s="10" t="s">
+      <c r="C152" t="s" s="8">
+        <v>180</v>
+      </c>
+      <c r="D152" s="9"/>
+      <c r="E152" t="s" s="7">
+        <v>74</v>
+      </c>
+      <c r="F152" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="G152" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="H152" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I152" s="10" t="s">
+      <c r="H152" t="s" s="7">
+        <v>13</v>
+      </c>
+      <c r="I152" t="s" s="7">
         <v>14</v>
       </c>
       <c r="J152" s="9">
@@ -6091,24 +6219,28 @@
       <c r="K152" s="9"/>
       <c r="L152" s="5"/>
     </row>
-    <row r="153" spans="1:12" ht="19" customHeight="1">
+    <row r="153" ht="19" customHeight="1">
       <c r="A153" s="6"/>
       <c r="B153" s="7">
         <v>152</v>
       </c>
-      <c r="C153" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="D153" s="7"/>
-      <c r="E153" s="9"/>
-      <c r="F153" s="9"/>
-      <c r="G153" s="10" t="s">
+      <c r="C153" t="s" s="8">
+        <v>181</v>
+      </c>
+      <c r="D153" s="9"/>
+      <c r="E153" t="s" s="7">
+        <v>74</v>
+      </c>
+      <c r="F153" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="G153" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="H153" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I153" s="10" t="s">
+      <c r="H153" t="s" s="7">
+        <v>13</v>
+      </c>
+      <c r="I153" t="s" s="7">
         <v>14</v>
       </c>
       <c r="J153" s="9">
@@ -6117,24 +6249,28 @@
       <c r="K153" s="9"/>
       <c r="L153" s="5"/>
     </row>
-    <row r="154" spans="1:12" ht="19" customHeight="1">
+    <row r="154" ht="19" customHeight="1">
       <c r="A154" s="6"/>
       <c r="B154" s="7">
         <v>153</v>
       </c>
-      <c r="C154" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="D154" s="7"/>
-      <c r="E154" s="9"/>
-      <c r="F154" s="9"/>
-      <c r="G154" s="10" t="s">
+      <c r="C154" t="s" s="8">
+        <v>182</v>
+      </c>
+      <c r="D154" s="9"/>
+      <c r="E154" t="s" s="7">
+        <v>74</v>
+      </c>
+      <c r="F154" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="G154" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="H154" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I154" s="10" t="s">
+      <c r="H154" t="s" s="7">
+        <v>13</v>
+      </c>
+      <c r="I154" t="s" s="7">
         <v>14</v>
       </c>
       <c r="J154" s="9">
@@ -6143,24 +6279,28 @@
       <c r="K154" s="9"/>
       <c r="L154" s="5"/>
     </row>
-    <row r="155" spans="1:12" ht="19" customHeight="1">
+    <row r="155" ht="19" customHeight="1">
       <c r="A155" s="6"/>
       <c r="B155" s="7">
         <v>154</v>
       </c>
-      <c r="C155" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="D155" s="7"/>
-      <c r="E155" s="9"/>
-      <c r="F155" s="9"/>
-      <c r="G155" s="10" t="s">
+      <c r="C155" t="s" s="8">
+        <v>183</v>
+      </c>
+      <c r="D155" s="9"/>
+      <c r="E155" t="s" s="7">
+        <v>74</v>
+      </c>
+      <c r="F155" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="G155" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="H155" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I155" s="10" t="s">
+      <c r="H155" t="s" s="7">
+        <v>13</v>
+      </c>
+      <c r="I155" t="s" s="7">
         <v>14</v>
       </c>
       <c r="J155" s="9">
@@ -6169,24 +6309,28 @@
       <c r="K155" s="9"/>
       <c r="L155" s="5"/>
     </row>
-    <row r="156" spans="1:12" ht="19" customHeight="1">
+    <row r="156" ht="19" customHeight="1">
       <c r="A156" s="6"/>
       <c r="B156" s="7">
         <v>155</v>
       </c>
-      <c r="C156" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="D156" s="7"/>
-      <c r="E156" s="9"/>
-      <c r="F156" s="9"/>
-      <c r="G156" s="10" t="s">
+      <c r="C156" t="s" s="8">
+        <v>184</v>
+      </c>
+      <c r="D156" s="9"/>
+      <c r="E156" t="s" s="7">
+        <v>74</v>
+      </c>
+      <c r="F156" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="G156" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="H156" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I156" s="10" t="s">
+      <c r="H156" t="s" s="7">
+        <v>13</v>
+      </c>
+      <c r="I156" t="s" s="7">
         <v>14</v>
       </c>
       <c r="J156" s="9">
@@ -6195,24 +6339,24 @@
       <c r="K156" s="9"/>
       <c r="L156" s="5"/>
     </row>
-    <row r="157" spans="1:12" ht="19" customHeight="1">
+    <row r="157" ht="19" customHeight="1">
       <c r="A157" s="6"/>
       <c r="B157" s="7">
         <v>156</v>
       </c>
-      <c r="C157" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="D157" s="7"/>
-      <c r="E157" s="9"/>
+      <c r="C157" t="s" s="8">
+        <v>185</v>
+      </c>
+      <c r="D157" s="9"/>
+      <c r="E157" s="7"/>
       <c r="F157" s="9"/>
-      <c r="G157" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="H157" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I157" s="10" t="s">
+      <c r="G157" t="s" s="7">
+        <v>12</v>
+      </c>
+      <c r="H157" t="s" s="7">
+        <v>13</v>
+      </c>
+      <c r="I157" t="s" s="7">
         <v>14</v>
       </c>
       <c r="J157" s="9">
@@ -6221,24 +6365,28 @@
       <c r="K157" s="9"/>
       <c r="L157" s="5"/>
     </row>
-    <row r="158" spans="1:12" ht="19" customHeight="1">
+    <row r="158" ht="19" customHeight="1">
       <c r="A158" s="6"/>
       <c r="B158" s="7">
         <v>157</v>
       </c>
-      <c r="C158" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="D158" s="7"/>
-      <c r="E158" s="9"/>
-      <c r="F158" s="9"/>
-      <c r="G158" s="9" t="s">
-        <v>212</v>
-      </c>
-      <c r="H158" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I158" s="10" t="s">
+      <c r="C158" t="s" s="7">
+        <v>186</v>
+      </c>
+      <c r="D158" s="9"/>
+      <c r="E158" t="s" s="7">
+        <v>74</v>
+      </c>
+      <c r="F158" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="G158" t="s" s="7">
+        <v>12</v>
+      </c>
+      <c r="H158" t="s" s="7">
+        <v>13</v>
+      </c>
+      <c r="I158" t="s" s="7">
         <v>14</v>
       </c>
       <c r="J158" s="9">
@@ -6247,24 +6395,24 @@
       <c r="K158" s="9"/>
       <c r="L158" s="5"/>
     </row>
-    <row r="159" spans="1:12" ht="19" customHeight="1">
+    <row r="159" ht="19" customHeight="1">
       <c r="A159" s="6"/>
       <c r="B159" s="7">
         <v>158</v>
       </c>
-      <c r="C159" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="D159" s="7"/>
-      <c r="E159" s="9"/>
+      <c r="C159" t="s" s="8">
+        <v>187</v>
+      </c>
+      <c r="D159" s="9"/>
+      <c r="E159" s="7"/>
       <c r="F159" s="9"/>
-      <c r="G159" s="10" t="s">
+      <c r="G159" t="s" s="7">
         <v>16</v>
       </c>
-      <c r="H159" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I159" s="10" t="s">
+      <c r="H159" t="s" s="7">
+        <v>13</v>
+      </c>
+      <c r="I159" t="s" s="7">
         <v>14</v>
       </c>
       <c r="J159" s="9">
@@ -6273,24 +6421,28 @@
       <c r="K159" s="9"/>
       <c r="L159" s="5"/>
     </row>
-    <row r="160" spans="1:12" ht="19" customHeight="1">
+    <row r="160" ht="19" customHeight="1">
       <c r="A160" s="6"/>
       <c r="B160" s="7">
         <v>159</v>
       </c>
-      <c r="C160" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="D160" s="7"/>
-      <c r="E160" s="9"/>
-      <c r="F160" s="9"/>
-      <c r="G160" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="H160" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I160" s="10" t="s">
+      <c r="C160" t="s" s="8">
+        <v>188</v>
+      </c>
+      <c r="D160" s="9"/>
+      <c r="E160" t="s" s="7">
+        <v>74</v>
+      </c>
+      <c r="F160" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="G160" t="s" s="7">
+        <v>12</v>
+      </c>
+      <c r="H160" t="s" s="7">
+        <v>13</v>
+      </c>
+      <c r="I160" t="s" s="7">
         <v>14</v>
       </c>
       <c r="J160" s="9">
@@ -6299,24 +6451,24 @@
       <c r="K160" s="9"/>
       <c r="L160" s="5"/>
     </row>
-    <row r="161" spans="1:12" ht="19" customHeight="1">
+    <row r="161" ht="19" customHeight="1">
       <c r="A161" s="6"/>
       <c r="B161" s="7">
         <v>160</v>
       </c>
-      <c r="C161" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="D161" s="7"/>
-      <c r="E161" s="9"/>
+      <c r="C161" t="s" s="7">
+        <v>189</v>
+      </c>
+      <c r="D161" s="9"/>
+      <c r="E161" s="7"/>
       <c r="F161" s="9"/>
-      <c r="G161" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="H161" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I161" s="10" t="s">
+      <c r="G161" t="s" s="7">
+        <v>12</v>
+      </c>
+      <c r="H161" t="s" s="7">
+        <v>13</v>
+      </c>
+      <c r="I161" t="s" s="7">
         <v>14</v>
       </c>
       <c r="J161" s="9">
@@ -6325,46 +6477,46 @@
       <c r="K161" s="9"/>
       <c r="L161" s="5"/>
     </row>
-    <row r="162" spans="1:12" ht="19" customHeight="1">
+    <row r="162" ht="19" customHeight="1">
       <c r="A162" s="6"/>
       <c r="B162" s="7">
         <v>161</v>
       </c>
-      <c r="C162" s="8" t="s">
-        <v>189</v>
+      <c r="C162" t="s" s="8">
+        <v>190</v>
       </c>
       <c r="D162" s="9"/>
-      <c r="E162" s="9"/>
+      <c r="E162" s="7"/>
       <c r="F162" s="9"/>
       <c r="G162" s="9"/>
-      <c r="H162" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I162" s="10" t="s">
+      <c r="H162" t="s" s="7">
+        <v>13</v>
+      </c>
+      <c r="I162" t="s" s="7">
         <v>21</v>
       </c>
       <c r="J162" s="9"/>
       <c r="K162" s="9"/>
       <c r="L162" s="5"/>
     </row>
-    <row r="163" spans="1:12" ht="19" customHeight="1">
+    <row r="163" ht="19" customHeight="1">
       <c r="A163" s="6"/>
       <c r="B163" s="7">
         <v>162</v>
       </c>
-      <c r="C163" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="D163" s="7"/>
-      <c r="E163" s="9"/>
+      <c r="C163" t="s" s="7">
+        <v>191</v>
+      </c>
+      <c r="D163" s="9"/>
+      <c r="E163" s="7"/>
       <c r="F163" s="9"/>
-      <c r="G163" s="10" t="s">
+      <c r="G163" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="H163" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I163" s="10" t="s">
+      <c r="H163" t="s" s="7">
+        <v>13</v>
+      </c>
+      <c r="I163" t="s" s="7">
         <v>14</v>
       </c>
       <c r="J163" s="9">
@@ -6373,24 +6525,24 @@
       <c r="K163" s="9"/>
       <c r="L163" s="5"/>
     </row>
-    <row r="164" spans="1:12" ht="19" customHeight="1">
+    <row r="164" ht="19" customHeight="1">
       <c r="A164" s="6"/>
       <c r="B164" s="7">
         <v>163</v>
       </c>
-      <c r="C164" s="10" t="s">
-        <v>191</v>
-      </c>
-      <c r="D164" s="7"/>
-      <c r="E164" s="9"/>
+      <c r="C164" t="s" s="7">
+        <v>192</v>
+      </c>
+      <c r="D164" s="9"/>
+      <c r="E164" s="7"/>
       <c r="F164" s="9"/>
-      <c r="G164" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="H164" s="10" t="s">
+      <c r="G164" t="s" s="7">
         <v>82</v>
       </c>
-      <c r="I164" s="10" t="s">
+      <c r="H164" t="s" s="7">
+        <v>83</v>
+      </c>
+      <c r="I164" t="s" s="7">
         <v>14</v>
       </c>
       <c r="J164" s="7">
@@ -6399,24 +6551,24 @@
       <c r="K164" s="9"/>
       <c r="L164" s="5"/>
     </row>
-    <row r="165" spans="1:12" ht="19" customHeight="1">
+    <row r="165" ht="19" customHeight="1">
       <c r="A165" s="6"/>
       <c r="B165" s="7">
         <v>164</v>
       </c>
-      <c r="C165" s="10" t="s">
-        <v>192</v>
-      </c>
-      <c r="D165" s="7"/>
-      <c r="E165" s="9"/>
+      <c r="C165" t="s" s="7">
+        <v>193</v>
+      </c>
+      <c r="D165" s="9"/>
+      <c r="E165" s="7"/>
       <c r="F165" s="9"/>
-      <c r="G165" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="H165" s="10" t="s">
+      <c r="G165" t="s" s="7">
         <v>82</v>
       </c>
-      <c r="I165" s="10" t="s">
+      <c r="H165" t="s" s="7">
+        <v>83</v>
+      </c>
+      <c r="I165" t="s" s="7">
         <v>14</v>
       </c>
       <c r="J165" s="9">
@@ -6425,24 +6577,24 @@
       <c r="K165" s="9"/>
       <c r="L165" s="5"/>
     </row>
-    <row r="166" spans="1:12" ht="19" customHeight="1">
+    <row r="166" ht="19" customHeight="1">
       <c r="A166" s="6"/>
       <c r="B166" s="7">
         <v>165</v>
       </c>
-      <c r="C166" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="D166" s="7"/>
-      <c r="E166" s="9"/>
+      <c r="C166" t="s" s="8">
+        <v>194</v>
+      </c>
+      <c r="D166" s="9"/>
+      <c r="E166" s="7"/>
       <c r="F166" s="9"/>
-      <c r="G166" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="H166" s="10" t="s">
+      <c r="G166" t="s" s="7">
         <v>82</v>
       </c>
-      <c r="I166" s="10" t="s">
+      <c r="H166" t="s" s="7">
+        <v>83</v>
+      </c>
+      <c r="I166" t="s" s="7">
         <v>14</v>
       </c>
       <c r="J166" s="9">
@@ -6451,24 +6603,24 @@
       <c r="K166" s="9"/>
       <c r="L166" s="5"/>
     </row>
-    <row r="167" spans="1:12" ht="19" customHeight="1">
+    <row r="167" ht="19" customHeight="1">
       <c r="A167" s="6"/>
       <c r="B167" s="7">
         <v>166</v>
       </c>
-      <c r="C167" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="D167" s="7"/>
-      <c r="E167" s="9"/>
+      <c r="C167" t="s" s="8">
+        <v>195</v>
+      </c>
+      <c r="D167" s="9"/>
+      <c r="E167" s="7"/>
       <c r="F167" s="9"/>
-      <c r="G167" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="H167" s="10" t="s">
+      <c r="G167" t="s" s="7">
         <v>82</v>
       </c>
-      <c r="I167" s="10" t="s">
+      <c r="H167" t="s" s="7">
+        <v>83</v>
+      </c>
+      <c r="I167" t="s" s="7">
         <v>14</v>
       </c>
       <c r="J167" s="9">
@@ -6477,24 +6629,24 @@
       <c r="K167" s="9"/>
       <c r="L167" s="5"/>
     </row>
-    <row r="168" spans="1:12" ht="19" customHeight="1">
+    <row r="168" ht="19" customHeight="1">
       <c r="A168" s="6"/>
       <c r="B168" s="7">
         <v>167</v>
       </c>
-      <c r="C168" s="10" t="s">
-        <v>195</v>
-      </c>
-      <c r="D168" s="7"/>
-      <c r="E168" s="9"/>
+      <c r="C168" t="s" s="7">
+        <v>196</v>
+      </c>
+      <c r="D168" s="9"/>
+      <c r="E168" s="7"/>
       <c r="F168" s="9"/>
-      <c r="G168" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="H168" s="10" t="s">
+      <c r="G168" t="s" s="7">
         <v>82</v>
       </c>
-      <c r="I168" s="10" t="s">
+      <c r="H168" t="s" s="7">
+        <v>83</v>
+      </c>
+      <c r="I168" t="s" s="7">
         <v>14</v>
       </c>
       <c r="J168" s="9">
@@ -6503,24 +6655,24 @@
       <c r="K168" s="9"/>
       <c r="L168" s="5"/>
     </row>
-    <row r="169" spans="1:12" ht="19" customHeight="1">
+    <row r="169" ht="19" customHeight="1">
       <c r="A169" s="6"/>
       <c r="B169" s="7">
         <v>168</v>
       </c>
-      <c r="C169" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="D169" s="7"/>
-      <c r="E169" s="9"/>
+      <c r="C169" t="s" s="8">
+        <v>197</v>
+      </c>
+      <c r="D169" s="9"/>
+      <c r="E169" s="7"/>
       <c r="F169" s="9"/>
-      <c r="G169" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="H169" s="10" t="s">
+      <c r="G169" t="s" s="7">
         <v>82</v>
       </c>
-      <c r="I169" s="10" t="s">
+      <c r="H169" t="s" s="7">
+        <v>83</v>
+      </c>
+      <c r="I169" t="s" s="7">
         <v>14</v>
       </c>
       <c r="J169" s="9">
@@ -6529,24 +6681,24 @@
       <c r="K169" s="9"/>
       <c r="L169" s="5"/>
     </row>
-    <row r="170" spans="1:12" ht="19" customHeight="1">
+    <row r="170" ht="19" customHeight="1">
       <c r="A170" s="6"/>
       <c r="B170" s="7">
         <v>169</v>
       </c>
-      <c r="C170" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="D170" s="7"/>
-      <c r="E170" s="9"/>
+      <c r="C170" t="s" s="8">
+        <v>198</v>
+      </c>
+      <c r="D170" s="9"/>
+      <c r="E170" s="7"/>
       <c r="F170" s="9"/>
-      <c r="G170" s="10" t="s">
+      <c r="G170" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="H170" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I170" s="10" t="s">
+      <c r="H170" t="s" s="7">
+        <v>13</v>
+      </c>
+      <c r="I170" t="s" s="7">
         <v>14</v>
       </c>
       <c r="J170" s="9">
@@ -6555,24 +6707,28 @@
       <c r="K170" s="9"/>
       <c r="L170" s="5"/>
     </row>
-    <row r="171" spans="1:12" ht="19" customHeight="1">
+    <row r="171" ht="19" customHeight="1">
       <c r="A171" s="6"/>
       <c r="B171" s="7">
         <v>170</v>
       </c>
-      <c r="C171" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="D171" s="7"/>
-      <c r="E171" s="9"/>
-      <c r="F171" s="9"/>
-      <c r="G171" s="10" t="s">
+      <c r="C171" t="s" s="8">
+        <v>199</v>
+      </c>
+      <c r="D171" s="9"/>
+      <c r="E171" t="s" s="7">
+        <v>74</v>
+      </c>
+      <c r="F171" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="G171" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="H171" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I171" s="10" t="s">
+      <c r="H171" t="s" s="7">
+        <v>13</v>
+      </c>
+      <c r="I171" t="s" s="7">
         <v>14</v>
       </c>
       <c r="J171" s="9">
@@ -6581,24 +6737,28 @@
       <c r="K171" s="9"/>
       <c r="L171" s="5"/>
     </row>
-    <row r="172" spans="1:12" ht="19" customHeight="1">
+    <row r="172" ht="19" customHeight="1">
       <c r="A172" s="6"/>
       <c r="B172" s="7">
         <v>171</v>
       </c>
-      <c r="C172" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="D172" s="7"/>
-      <c r="E172" s="9"/>
-      <c r="F172" s="9"/>
-      <c r="G172" s="10" t="s">
+      <c r="C172" t="s" s="7">
+        <v>200</v>
+      </c>
+      <c r="D172" s="9"/>
+      <c r="E172" t="s" s="7">
+        <v>74</v>
+      </c>
+      <c r="F172" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="G172" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="H172" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I172" s="10" t="s">
+      <c r="H172" t="s" s="7">
+        <v>13</v>
+      </c>
+      <c r="I172" t="s" s="7">
         <v>14</v>
       </c>
       <c r="J172" s="9">
@@ -6607,48 +6767,52 @@
       <c r="K172" s="9"/>
       <c r="L172" s="5"/>
     </row>
-    <row r="173" spans="1:12" ht="31" customHeight="1">
+    <row r="173" ht="31" customHeight="1">
       <c r="A173" s="6"/>
       <c r="B173" s="7">
         <v>172</v>
       </c>
-      <c r="C173" s="8" t="s">
-        <v>200</v>
+      <c r="C173" t="s" s="8">
+        <v>201</v>
       </c>
       <c r="D173" s="9"/>
-      <c r="E173" s="9"/>
+      <c r="E173" s="7"/>
       <c r="F173" s="9"/>
-      <c r="G173" s="10" t="s">
+      <c r="G173" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="H173" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I173" s="10" t="s">
+      <c r="H173" t="s" s="7">
+        <v>13</v>
+      </c>
+      <c r="I173" t="s" s="7">
         <v>14</v>
       </c>
       <c r="J173" s="9"/>
       <c r="K173" s="9"/>
       <c r="L173" s="5"/>
     </row>
-    <row r="174" spans="1:12" ht="31" customHeight="1">
+    <row r="174" ht="31" customHeight="1">
       <c r="A174" s="6"/>
       <c r="B174" s="7">
         <v>173</v>
       </c>
-      <c r="C174" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="D174" s="7"/>
-      <c r="E174" s="9"/>
-      <c r="F174" s="9"/>
-      <c r="G174" s="10" t="s">
+      <c r="C174" t="s" s="8">
+        <v>202</v>
+      </c>
+      <c r="D174" s="9"/>
+      <c r="E174" t="s" s="7">
+        <v>74</v>
+      </c>
+      <c r="F174" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="G174" t="s" s="7">
         <v>16</v>
       </c>
-      <c r="H174" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I174" s="10" t="s">
+      <c r="H174" t="s" s="7">
+        <v>13</v>
+      </c>
+      <c r="I174" t="s" s="7">
         <v>14</v>
       </c>
       <c r="J174" s="9">
@@ -6657,26 +6821,26 @@
       <c r="K174" s="9"/>
       <c r="L174" s="5"/>
     </row>
-    <row r="175" spans="1:12" ht="19" customHeight="1">
+    <row r="175" ht="19" customHeight="1">
       <c r="A175" s="6"/>
       <c r="B175" s="7">
         <v>174</v>
       </c>
-      <c r="C175" s="17" t="s">
-        <v>206</v>
+      <c r="C175" t="s" s="8">
+        <v>203</v>
       </c>
       <c r="D175" s="9"/>
-      <c r="E175" s="9"/>
-      <c r="F175" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="G175" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="H175" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="I175" s="10" t="s">
+      <c r="E175" s="7"/>
+      <c r="F175" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="G175" t="s" s="7">
+        <v>12</v>
+      </c>
+      <c r="H175" t="s" s="7">
+        <v>13</v>
+      </c>
+      <c r="I175" t="s" s="7">
         <v>14</v>
       </c>
       <c r="J175" s="9">
@@ -6685,24 +6849,28 @@
       <c r="K175" s="9"/>
       <c r="L175" s="5"/>
     </row>
-    <row r="176" spans="1:12" ht="19" customHeight="1">
+    <row r="176" ht="19" customHeight="1">
       <c r="A176" s="6"/>
       <c r="B176" s="7">
         <v>175</v>
       </c>
-      <c r="C176" s="17" t="s">
-        <v>205</v>
+      <c r="C176" t="s" s="8">
+        <v>204</v>
       </c>
       <c r="D176" s="9"/>
-      <c r="E176" s="9"/>
-      <c r="F176" s="9"/>
-      <c r="G176" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="H176" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="I176" s="10" t="s">
+      <c r="E176" t="s" s="7">
+        <v>74</v>
+      </c>
+      <c r="F176" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="G176" t="s" s="7">
+        <v>12</v>
+      </c>
+      <c r="H176" t="s" s="7">
+        <v>13</v>
+      </c>
+      <c r="I176" t="s" s="7">
         <v>14</v>
       </c>
       <c r="J176" s="9">
@@ -6711,24 +6879,28 @@
       <c r="K176" s="9"/>
       <c r="L176" s="5"/>
     </row>
-    <row r="177" spans="1:12" ht="19" customHeight="1">
+    <row r="177" ht="19" customHeight="1">
       <c r="A177" s="6"/>
       <c r="B177" s="7">
         <v>176</v>
       </c>
-      <c r="C177" s="17" t="s">
-        <v>207</v>
+      <c r="C177" t="s" s="8">
+        <v>205</v>
       </c>
       <c r="D177" s="9"/>
-      <c r="E177" s="9"/>
-      <c r="F177" s="9"/>
-      <c r="G177" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="H177" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="I177" s="10" t="s">
+      <c r="E177" t="s" s="7">
+        <v>206</v>
+      </c>
+      <c r="F177" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="G177" t="s" s="7">
+        <v>12</v>
+      </c>
+      <c r="H177" t="s" s="7">
+        <v>13</v>
+      </c>
+      <c r="I177" t="s" s="7">
         <v>14</v>
       </c>
       <c r="J177" s="9">
@@ -6737,24 +6909,28 @@
       <c r="K177" s="9"/>
       <c r="L177" s="5"/>
     </row>
-    <row r="178" spans="1:12" ht="19" customHeight="1">
+    <row r="178" ht="19" customHeight="1">
       <c r="A178" s="6"/>
       <c r="B178" s="7">
         <v>177</v>
       </c>
-      <c r="C178" s="17" t="s">
-        <v>208</v>
+      <c r="C178" t="s" s="8">
+        <v>207</v>
       </c>
       <c r="D178" s="9"/>
-      <c r="E178" s="9"/>
-      <c r="F178" s="9"/>
-      <c r="G178" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="H178" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="I178" s="10" t="s">
+      <c r="E178" t="s" s="7">
+        <v>206</v>
+      </c>
+      <c r="F178" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="G178" t="s" s="7">
+        <v>12</v>
+      </c>
+      <c r="H178" t="s" s="7">
+        <v>13</v>
+      </c>
+      <c r="I178" t="s" s="7">
         <v>14</v>
       </c>
       <c r="J178" s="9">
@@ -6763,80 +6939,372 @@
       <c r="K178" s="9"/>
       <c r="L178" s="5"/>
     </row>
-    <row r="179" spans="1:12" ht="19" customHeight="1">
+    <row r="179" ht="19" customHeight="1">
       <c r="A179" s="6"/>
-      <c r="B179" s="11">
+      <c r="B179" s="7">
         <v>178</v>
       </c>
-      <c r="C179" s="12"/>
-      <c r="D179" s="12"/>
-      <c r="E179" s="12"/>
-      <c r="F179" s="12"/>
-      <c r="G179" s="12"/>
-      <c r="H179" s="12"/>
-      <c r="I179" s="12"/>
-      <c r="J179" s="12"/>
-      <c r="K179" s="12"/>
+      <c r="C179" s="9"/>
+      <c r="D179" s="9"/>
+      <c r="E179" s="7"/>
+      <c r="F179" s="9"/>
+      <c r="G179" s="9"/>
+      <c r="H179" s="9"/>
+      <c r="I179" s="9"/>
+      <c r="J179" s="9"/>
+      <c r="K179" s="9"/>
       <c r="L179" s="5"/>
     </row>
-    <row r="180" spans="1:12" ht="19" customHeight="1">
-      <c r="A180" s="13"/>
-      <c r="B180" s="14"/>
-      <c r="C180" s="14"/>
-      <c r="D180" s="14"/>
-      <c r="E180" s="14"/>
-      <c r="F180" s="14"/>
-      <c r="G180" s="14"/>
-      <c r="H180" s="14"/>
-      <c r="I180" s="14"/>
-      <c r="J180" s="14"/>
-      <c r="K180" s="14"/>
-      <c r="L180" s="15"/>
-    </row>
-    <row r="181" spans="1:12" ht="19" customHeight="1">
+    <row r="180" ht="19" customHeight="1">
+      <c r="A180" s="6"/>
+      <c r="B180" s="7">
+        <v>179</v>
+      </c>
+      <c r="C180" t="s" s="7">
+        <v>208</v>
+      </c>
+      <c r="D180" t="s" s="7">
+        <v>26</v>
+      </c>
+      <c r="E180" s="7"/>
+      <c r="F180" s="9"/>
+      <c r="G180" t="s" s="7">
+        <v>16</v>
+      </c>
+      <c r="H180" t="s" s="7">
+        <v>13</v>
+      </c>
+      <c r="I180" t="s" s="7">
+        <v>14</v>
+      </c>
+      <c r="J180" s="9">
+        <v>2</v>
+      </c>
+      <c r="K180" s="9"/>
+      <c r="L180" s="5"/>
+    </row>
+    <row r="181" ht="19" customHeight="1">
       <c r="A181" s="6"/>
-      <c r="B181" s="9"/>
-      <c r="C181" s="9"/>
-      <c r="D181" s="9"/>
-      <c r="E181" s="9"/>
+      <c r="B181" s="7">
+        <v>180</v>
+      </c>
+      <c r="C181" t="s" s="7">
+        <v>209</v>
+      </c>
+      <c r="D181" t="s" s="7">
+        <v>26</v>
+      </c>
+      <c r="E181" s="7"/>
       <c r="F181" s="9"/>
-      <c r="G181" s="9"/>
-      <c r="H181" s="9"/>
-      <c r="I181" s="9"/>
-      <c r="J181" s="9"/>
+      <c r="G181" t="s" s="7">
+        <v>24</v>
+      </c>
+      <c r="H181" s="10"/>
+      <c r="I181" t="s" s="7">
+        <v>14</v>
+      </c>
+      <c r="J181" s="9">
+        <v>6</v>
+      </c>
       <c r="K181" s="9"/>
       <c r="L181" s="5"/>
     </row>
-    <row r="182" spans="1:12" ht="19" customHeight="1">
-      <c r="A182" s="16"/>
-      <c r="B182" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="C182" s="9"/>
-      <c r="D182" s="9"/>
-      <c r="E182" s="9"/>
-      <c r="F182" s="9"/>
-      <c r="G182" s="9"/>
-      <c r="H182" s="9"/>
-      <c r="I182" s="9"/>
-      <c r="J182" s="9">
-        <f>SUMIF(F1:F180,"&lt;&gt;close",J1:J180)</f>
-        <v>532</v>
-      </c>
-      <c r="K182" s="9"/>
+    <row r="182" ht="19" customHeight="1">
+      <c r="A182" s="6"/>
+      <c r="B182" s="11">
+        <v>181</v>
+      </c>
+      <c r="C182" t="s" s="11">
+        <v>210</v>
+      </c>
+      <c r="D182" t="s" s="11">
+        <v>29</v>
+      </c>
+      <c r="E182" s="11"/>
+      <c r="F182" s="12"/>
+      <c r="G182" t="s" s="11">
+        <v>24</v>
+      </c>
+      <c r="H182" s="13"/>
+      <c r="I182" t="s" s="11">
+        <v>14</v>
+      </c>
+      <c r="J182" s="12">
+        <v>8</v>
+      </c>
+      <c r="K182" s="12"/>
       <c r="L182" s="5"/>
     </row>
+    <row r="183" ht="19" customHeight="1">
+      <c r="A183" s="14"/>
+      <c r="B183" s="15"/>
+      <c r="C183" s="15"/>
+      <c r="D183" s="15"/>
+      <c r="E183" s="16"/>
+      <c r="F183" s="15"/>
+      <c r="G183" s="15"/>
+      <c r="H183" s="15"/>
+      <c r="I183" s="15"/>
+      <c r="J183" s="15"/>
+      <c r="K183" s="15"/>
+      <c r="L183" s="17"/>
+    </row>
+    <row r="184" ht="19" customHeight="1">
+      <c r="A184" s="6"/>
+      <c r="B184" s="9">
+        <v>182</v>
+      </c>
+      <c r="C184" t="s" s="7">
+        <v>211</v>
+      </c>
+      <c r="D184" s="9"/>
+      <c r="E184" s="7"/>
+      <c r="F184" s="9"/>
+      <c r="G184" s="9"/>
+      <c r="H184" s="9"/>
+      <c r="I184" s="9"/>
+      <c r="J184" s="9"/>
+      <c r="K184" s="9"/>
+      <c r="L184" s="5"/>
+    </row>
+    <row r="185" ht="19" customHeight="1">
+      <c r="A185" s="6"/>
+      <c r="B185" s="9">
+        <v>183</v>
+      </c>
+      <c r="C185" t="s" s="7">
+        <v>212</v>
+      </c>
+      <c r="D185" t="s" s="7">
+        <v>29</v>
+      </c>
+      <c r="E185" s="7"/>
+      <c r="F185" s="9"/>
+      <c r="G185" t="s" s="7">
+        <v>16</v>
+      </c>
+      <c r="H185" s="9"/>
+      <c r="I185" t="s" s="7">
+        <v>14</v>
+      </c>
+      <c r="J185" s="9">
+        <v>12</v>
+      </c>
+      <c r="K185" s="9"/>
+      <c r="L185" s="5"/>
+    </row>
+    <row r="186" ht="19" customHeight="1">
+      <c r="A186" s="6"/>
+      <c r="B186" s="9">
+        <v>184</v>
+      </c>
+      <c r="C186" t="s" s="7">
+        <v>213</v>
+      </c>
+      <c r="D186" t="s" s="7">
+        <v>26</v>
+      </c>
+      <c r="E186" s="7"/>
+      <c r="F186" s="9"/>
+      <c r="G186" t="s" s="7">
+        <v>214</v>
+      </c>
+      <c r="H186" s="9"/>
+      <c r="I186" t="s" s="7">
+        <v>14</v>
+      </c>
+      <c r="J186" s="9"/>
+      <c r="K186" s="9"/>
+      <c r="L186" s="5"/>
+    </row>
+    <row r="187" ht="19" customHeight="1">
+      <c r="A187" s="6"/>
+      <c r="B187" s="9">
+        <v>185</v>
+      </c>
+      <c r="C187" t="s" s="7">
+        <v>215</v>
+      </c>
+      <c r="D187" t="s" s="7">
+        <v>26</v>
+      </c>
+      <c r="E187" s="7"/>
+      <c r="F187" s="9"/>
+      <c r="G187" t="s" s="7">
+        <v>16</v>
+      </c>
+      <c r="H187" s="9"/>
+      <c r="I187" t="s" s="7">
+        <v>21</v>
+      </c>
+      <c r="J187" s="9">
+        <v>2</v>
+      </c>
+      <c r="K187" s="9"/>
+      <c r="L187" s="5"/>
+    </row>
+    <row r="188" ht="19" customHeight="1">
+      <c r="A188" s="6"/>
+      <c r="B188" s="9">
+        <v>186</v>
+      </c>
+      <c r="C188" t="s" s="7">
+        <v>216</v>
+      </c>
+      <c r="D188" t="s" s="7">
+        <v>26</v>
+      </c>
+      <c r="E188" s="7"/>
+      <c r="F188" s="9"/>
+      <c r="G188" t="s" s="7">
+        <v>16</v>
+      </c>
+      <c r="H188" s="9"/>
+      <c r="I188" t="s" s="7">
+        <v>14</v>
+      </c>
+      <c r="J188" s="9">
+        <v>4</v>
+      </c>
+      <c r="K188" s="9"/>
+      <c r="L188" s="5"/>
+    </row>
+    <row r="189" ht="19" customHeight="1">
+      <c r="A189" s="6"/>
+      <c r="B189" s="9"/>
+      <c r="C189" s="10"/>
+      <c r="D189" s="10"/>
+      <c r="E189" s="7"/>
+      <c r="F189" s="9"/>
+      <c r="G189" s="10"/>
+      <c r="H189" s="9"/>
+      <c r="I189" s="10"/>
+      <c r="J189" s="9"/>
+      <c r="K189" s="9"/>
+      <c r="L189" s="5"/>
+    </row>
+    <row r="190" ht="19" customHeight="1">
+      <c r="A190" s="6"/>
+      <c r="B190" s="9"/>
+      <c r="C190" s="10"/>
+      <c r="D190" s="10"/>
+      <c r="E190" s="7"/>
+      <c r="F190" s="9"/>
+      <c r="G190" s="10"/>
+      <c r="H190" s="9"/>
+      <c r="I190" s="10"/>
+      <c r="J190" s="9"/>
+      <c r="K190" s="9"/>
+      <c r="L190" s="5"/>
+    </row>
+    <row r="191" ht="19" customHeight="1">
+      <c r="A191" s="6"/>
+      <c r="B191" s="9"/>
+      <c r="C191" s="10"/>
+      <c r="D191" s="10"/>
+      <c r="E191" s="7"/>
+      <c r="F191" s="9"/>
+      <c r="G191" s="10"/>
+      <c r="H191" s="9"/>
+      <c r="I191" s="10"/>
+      <c r="J191" s="9"/>
+      <c r="K191" s="9"/>
+      <c r="L191" s="5"/>
+    </row>
+    <row r="192" ht="19" customHeight="1">
+      <c r="A192" s="6"/>
+      <c r="B192" s="9"/>
+      <c r="C192" s="10"/>
+      <c r="D192" s="10"/>
+      <c r="E192" s="7"/>
+      <c r="F192" s="9"/>
+      <c r="G192" s="10"/>
+      <c r="H192" s="9"/>
+      <c r="I192" s="10"/>
+      <c r="J192" s="9"/>
+      <c r="K192" s="9"/>
+      <c r="L192" s="5"/>
+    </row>
+    <row r="193" ht="19" customHeight="1">
+      <c r="A193" s="6"/>
+      <c r="B193" s="9"/>
+      <c r="C193" s="10"/>
+      <c r="D193" s="10"/>
+      <c r="E193" s="7"/>
+      <c r="F193" s="9"/>
+      <c r="G193" s="10"/>
+      <c r="H193" s="9"/>
+      <c r="I193" s="10"/>
+      <c r="J193" s="9"/>
+      <c r="K193" s="9"/>
+      <c r="L193" s="5"/>
+    </row>
+    <row r="194" ht="19" customHeight="1">
+      <c r="A194" s="6"/>
+      <c r="B194" s="9"/>
+      <c r="C194" s="10"/>
+      <c r="D194" s="10"/>
+      <c r="E194" s="7"/>
+      <c r="F194" s="9"/>
+      <c r="G194" s="10"/>
+      <c r="H194" s="9"/>
+      <c r="I194" s="10"/>
+      <c r="J194" s="9"/>
+      <c r="K194" s="9"/>
+      <c r="L194" s="5"/>
+    </row>
+    <row r="195" ht="19" customHeight="1">
+      <c r="A195" s="6"/>
+      <c r="B195" s="9"/>
+      <c r="C195" s="10"/>
+      <c r="D195" s="10"/>
+      <c r="E195" s="7"/>
+      <c r="F195" s="9"/>
+      <c r="G195" s="10"/>
+      <c r="H195" s="9"/>
+      <c r="I195" s="10"/>
+      <c r="J195" s="9"/>
+      <c r="K195" s="9"/>
+      <c r="L195" s="5"/>
+    </row>
+    <row r="196" ht="19" customHeight="1">
+      <c r="A196" s="6"/>
+      <c r="B196" s="9"/>
+      <c r="C196" s="10"/>
+      <c r="D196" s="10"/>
+      <c r="E196" s="7"/>
+      <c r="F196" s="9"/>
+      <c r="G196" s="10"/>
+      <c r="H196" s="9"/>
+      <c r="I196" s="10"/>
+      <c r="J196" s="9"/>
+      <c r="K196" s="9"/>
+      <c r="L196" s="5"/>
+    </row>
+    <row r="197" ht="19" customHeight="1">
+      <c r="A197" s="18"/>
+      <c r="B197" t="s" s="7">
+        <v>217</v>
+      </c>
+      <c r="C197" s="9"/>
+      <c r="D197" s="9"/>
+      <c r="E197" s="7"/>
+      <c r="F197" s="9"/>
+      <c r="G197" s="9"/>
+      <c r="H197" s="9"/>
+      <c r="I197" s="9"/>
+      <c r="J197" s="9">
+        <f>SUMIFS(J1:J196,F1:F196,"&lt;&gt;close",I1:I196,"=alpha")</f>
+        <v>471</v>
+      </c>
+      <c r="K197" s="9"/>
+      <c r="L197" s="5"/>
+    </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="landscape"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="landscape" pageOrder="downThenOver"/>
   <headerFooter>
     <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
   </headerFooter>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/docs/issues/jarvis2-issue-schedule.xlsx
+++ b/docs/issues/jarvis2-issue-schedule.xlsx
@@ -2340,7 +2340,7 @@
     <col min="3" max="3" width="38.7109" style="1" customWidth="1"/>
     <col min="4" max="4" width="15" style="1" customWidth="1"/>
     <col min="5" max="5" width="13.125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="7.53906" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.2812" style="1" customWidth="1"/>
     <col min="7" max="7" width="6.75" style="1" customWidth="1"/>
     <col min="8" max="8" width="9.5" style="1" customWidth="1"/>
     <col min="9" max="9" width="9.5" style="1" customWidth="1"/>
@@ -5710,7 +5710,7 @@
         <v>14</v>
       </c>
       <c r="J111" t="s" s="5">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="K111" s="7">
         <v>16</v>
@@ -7846,8 +7846,12 @@
       <c r="E182" t="s" s="5">
         <v>213</v>
       </c>
-      <c r="F182" s="5"/>
-      <c r="G182" s="7"/>
+      <c r="F182" t="s" s="5">
+        <v>58</v>
+      </c>
+      <c r="G182" t="s" s="5">
+        <v>12</v>
+      </c>
       <c r="H182" t="s" s="5">
         <v>25</v>
       </c>
@@ -8388,7 +8392,7 @@
       <c r="J203" s="7"/>
       <c r="K203" s="7">
         <f>SUMIFS(K1:K200,G1:G200,"&lt;&gt;close",J1:J200,"=alpha")</f>
-        <v>453</v>
+        <v>429</v>
       </c>
       <c r="L203" s="7"/>
       <c r="M203" s="4"/>
